--- a/krebsonsecurity_scraped_data_full_content.xlsx
+++ b/krebsonsecurity_scraped_data_full_content.xlsx
@@ -453,1843 +453,2822 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fla. Man Charged in SIM-Swapping Spree is Key Suspect in Hacker Groups Oktapus, Scattered Spider</t>
+          <t>Phishers Spoof USPS, 12 Other Natl’ Postal Services</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>On Jan. 9, 2024, U.S. authorities arrested a 19-year-old Florida man charged with wire fraud, aggravated identity theft, and conspiring with others to use SIM-swapping to steal cryptocurrency. Sources close to the investigation tell KrebsOnSecurity the accused was a key member of a criminal hacking group blamed for a string of cyber intrusions at major U.S. technology companies during the summer of 2022. A graphic depicting how 0ktapus leveraged one victim to attack another. Image credit: Amitai Cohen of Wiz. Prosecutors  say   Noah Michael Urban  of Palm Coast, Fla., stole at least $800,000 from at least five victims between August 2022 and March 2023. In each attack, the victims saw their email and financial accounts compromised after suffering an unauthorized SIM-swap, wherein attackers transferred each victim’s mobile phone number to a new device that they controlled. The government says Urban went by the aliases “ Sosa ” and “ King Bob ,” among others. Multiple trusted sources told KrebsOnSecurity that Sosa/King Bob was a core member of a hacking group behind the 2022 breach at  Twilio , a company that provides services for making and receiving text messages and phone calls. Twilio  disclosed  in Aug. 2022 that an intrusion had exposed a “limited number” of Twilio customer accounts through a sophisticated social engineering attack designed to steal employee credentials. Shortly after that disclosure, the security firm  Group-IB   published a report  linking the attackers behind the Twilio intrusion to separate breaches at more than 130 organizations, including  LastPass ,  DoorDash ,  Mailchimp , and  Plex . Multiple security firms soon assigned the hacking group the nickname “ Scattered Spider .” Group-IB dubbed the gang by a different name —  0ktapus  — which was a nod to how the criminal group phished employees for credentials. The missives asked users to click a link and log in at a phishing page that mimicked their employer’s  Okta  authentication page. Those who submitted credentials were then prompted to provide the one-time password needed for multi-factor authentication. A booking photo of Noah Michael Urban released by the Volusia County Sheriff. 0ktapus used newly-registered domains that often included the name of the targeted company, and sent text messages urging employees to click on links to these domains to view information about a pending change in their work schedule. The phishing sites used a Telegram instant message bot to forward any submitted credentials in real-time, allowing the attackers to use the phished username, password and one-time code to log in as that employee at the real employer website. 0ktapus often leveraged information or access gained in one breach to perpetrate another. As documented by Group-IB, the group pivoted from its access to Twilio to attack at least 163 of its customers. Among those was the encrypted messaging app  Signal , which  said  the breach could have let attackers re-register the phone number on another device for about 1,900 users. Also in August 2022, several employees at email delivery firm Mailchimp provided their remote access credentials to this phishing group. According to  an Aug. 12 blog post , the attackers used their access to Mailchimp employee accounts to steal data from 214 customers involved in cryptocurrency and finance. On August 25, 2022, the password manager service LastPass disclosed a breach in which attackers stole some source code and proprietary LastPass technical information, and weeks later LastPass said an investigation revealed no customer data or password vaults were accessed. However, on November 30, 2022 LastPass disclosed a far more serious breach that the company said leveraged data stolen in the August breach. LastPass said criminal hackers had stolen encrypted copies of some password vaults, as well as other personal information. In February 2023, LastPass disclosed that the intrusion involved a highly complex, targeted attack against a DevOps engineer who was one of only four LastPass employees with access to the corporate vault. In that incident, the attackers exploited a security vulnerability in a Plex media server that the employee was running on his home network, and succeeded in installing malicious software that stole passwords and other authentication credentials. The vulnerability exploited by the intruders was patched back in 2020, but the employee never updated his Plex software. As it happens, Plex announced its own data breach one day before LastPass disclosed its initial August intrusion. On August 24, 2022, Plex’s security team urged users to reset their passwords, saying an intruder had accessed customer emails, usernames and encrypted passwords. A review of thousands of messages that Sosa and King Bob posted to several public forums and Discord servers over the past two years shows that the person behind these identities was mainly focused on two things: Sim-swapping, and trading in stolen, unreleased rap music recordings from popular artists. Indeed, those messages show Sosa/King Bob was obsessed with finding new “ grails ,” the slang term used in some cybercrime discussion channels to describe recordings from popular artists that have never been officially released. It stands to reason that King Bob was SIM-swapping important people in the music industry to obtain these files, although there is little to support this conclusion from the public chat records available. “I got the most music in the com,” King Bob bragged in a Discord server in November 2022. “I got thousands of grails.” King Bob’s chats show he was particularly enamored of stealing the unreleased works of his favorite artists —  Lil Uzi Vert ,  Playboi Carti , and  Juice Wrld . When another Discord user asked if he has Eminem grails, King Bob said he was unsure. “I have two folders,” King Bob explained. “One with Uzi, Carti, Juicewrld. And then I have ‘every other artist.’ Every other artist is unorganized as fuck and has thousands of random shit.” King Bob’s posts on Discord show he quickly became a celebrity on  Leaked[.]cx , one of most active forums for trading, buying and selling unreleased music from popular artists. The more grails that users share with the Leaked[.]cx community, the more their status and access on the forum grows. The last cache of Leaked dot cx indexed by the archive.org on Jan. 11, 2024. And King Bob shared a large number of his purloined tunes with this community. Still others he tried to sell. It’s unclear how many of those sales were ever consummated, but it is not unusual for a prized grail to sell for anywhere from $5,000 to $20,000. In mid-January 2024, several Leaked[.]cx regulars began complaining that they hadn’t seen King Bob in a while and were really missing his grails. On or around Jan. 11, the same day the Justice Department unsealed the indictment against Urban, Leaked[.]cx started blocking people who were trying to visit the site from the United States. Days later, frustrated Leaked[.]cx users speculated about what could be the cause of the blockage. “Probs blocked as part of king bob investigation i think?,” wrote the user “Plsdontarrest.” “Doubt he only hacked US artists/ppl which is why it’s happening in multiple countries.” On Sept. 21, 2022, KrebsOnSecurity told the story of a “ Foreshadow ,” the nickname chosen by a Florida teenager who was working for a SIM-swapping crew when he was  abducted, beaten and held for a $200,000 ransom . A rival SIM-swapping group claimed that Foreshadow and his associates had robbed them of their fair share of the profits from a recent SIM-swap. In a video released by his abductors on Telegram, a bloodied, battered Foreshadow was made to say they would kill him unless the ransom was paid. As I wrote in that story, Foreshadow appears to have served as a “holder” — a term used to describe a low-level member of any SIM-swapping group who agrees to carry out the riskiest and least rewarding role of the crime: Physically keeping and managing the various mobile devices and SIM cards that are used in SIM-swapping scams. KrebsOnSecurity has since learned that Foreshadow was a holder for a particularly active SIM-swapper who went by “Elijah,” which was another nickname that prosecutors say Urban used.  Shortly after Foreshadow’s hostage video began circulating on Telegram and Discord, multiple known actors in the SIM-swapping space told everyone in the channels to delete any previous messages with Foreshadow, claiming he was fully cooperating with the FBI. This was not the first time Sosa and his crew were hit with violent attacks from rival SIM-swapping groups. In early 2022, a video surfaced on a popular cybercrime channel purporting to show attackers hurling a brick through a window at an address that matches the spacious and  upscale home of Urban’s parents in Sanford, Fl . “Brickings” are among the  “violence-as-a-service” offerings broadly available on many cybercrime channels . SIM-swapping and adjacent cybercrime channels are replete with job offers for in-person assignments and tasks that can be found if one searches for posts titled, “If you live near,” or “IRL job” — short for “in real life” job. A number of these classified ads are in service of performing brickings, where someone is hired to visit a specific address and toss a brick through the target’s window. Other typical IRL job offers involve tire slashings and even drive-by shootings. Sosa was known to be a top member of the broader cybercriminal community online known as “ The Com ,” wherein hackers boast loudly about high-profile exploits and hacks that almost invariably begin with social engineering — tricking people over the phone, email or SMS into giving away credentials that allow remote access to corporate internal networks. Sosa also was active in a particularly destructive group of accomplished criminal SIM-swappers known as “ Star Fraud .” Cyberscoop’s  AJ Vicens  reported last year that individuals within Star Fraud were likely involved in the high-profile  Caesars Entertainment  an  MGM Resorts  extortion attacks. “ALPHV, an established ransomware-as-a-service operation thought to be based in Russia and linked to attacks on dozens of entities, claimed responsibility for Caesars and MGM attacks in a note posted to its website earlier this month,” Vicens  wrote . “Experts had said the attacks were the work of a group tracked variously as UNC 3944 or Scattered Spider, which has been described as an affiliate working with ALPHV made up of people in the United States and Britain who excel at social engineering.” In February 2023, KrebsOnSecurity published data taken from the Telegram channels for Star Fraud and two other SIM-swapping groups showing these crooks focused on SIM-swapping  T-Mobile  customers, and that they collectively  claimed access to T-Mobile on 100 separate occasions over a 7-month period in 2022 . The SIM-swapping groups were able to switch targeted phone numbers to another device on demand because they constantly phished T-Mobile employees into giving up credentials to employee-only tools. In each of those cases the goal was the same: Phish T-Mobile employees for access to internal company tools, and then convert that access into a cybercrime service that could be hired to divert  any  T-Mobile user’s text messages and phone calls to another device. Allison Nixon , chief research officer at the New York cybersecurity consultancy  Unit 221B , said the increasing brazenness of many Com members is a function of how long it has taken federal authorities to go after guys like Sosa. “These incidents show what happens when it takes too long for cybercriminals to get arrested,” Nixon said. “If governments fail to prioritize this source of threat, violence originating from the Internet will affect regular people.” The Daytona Beach News-Journal   reports  that Urban was arrested Jan. 9 and his trial is scheduled to begin in the trial term starting March 4 in Jacksonville. The publication said the judge overseeing Urban’s case denied bail because the defendant was a strong flight risk. At Urban’s arraignment, it emerged that he had no fixed address and had been using an alias to stay at an Airbnb. The judge reportedly said that when a search warrant was executed at Urban’s residence, the defendant was downloading programs to delete computer files. What’s more, the judge explained, despite telling authorities in May that he would not have any more contact with his co-conspirators and would not engage in cryptocurrency transactions, he did so anyway. Urban entered a plea of not guilty. Urban’s court-appointed attorney said her client would have no comment at this time. Prosecutors charged Urban with eight counts of wire fraud, one count of conspiracy to commit wire fraud, and five counts of aggravated identity theft. According to the government, if convicted Urban faces up to 20 years in federal prison on each wire fraud charge. He also faces a minimum mandatory penalty of two years in prison for the aggravated identity offenses, which will run consecutive to any other prison sentence imposed.</t>
+          <t>The fake USPS phishing page. Recent weeks have seen a sizable uptick in the number of phishing scams targeting  U.S. Postal Service  (USPS) customers. Here’s a look at an extensive SMS phishing operation that tries to steal personal and financial data by spoofing the USPS, as well as postal services in at least a dozen other countries. KrebsOnSecurity recently heard from a reader who received an SMS purporting to have been sent by the USPS, saying there was a problem with a package destined for the reader’s address. Clicking the link in the text message brings one to the domain  usps.informedtrck[.]com . The landing page generated by the phishing link includes the USPS logo, and says “Your package is on hold for an invalid recipient address. Fill in the correct address info by the link.” Below that message is a “Click update” button that takes the visitor to a page that asks for more information. The remaining buttons on the phishing page all link to the real USPS.com website. After collecting your address information, the fake USPS site goes on to request additional personal and financial data. This phishing domain was recently registered and its WHOIS ownership records are basically nonexistent. However, we can find some compelling clues about the extent of this operation by loading the phishing page in Developer Tools, a set of debugging features built into Firefox, Chrome and Safari that allow one to closely inspect a webpage’s code and operations. Check out the bottom portion of the screenshot below, and you’ll notice that this phishing site fails to load some external resources, including an image from a link called  fly.linkcdn[.]to . Click the image to enlarge. A search on this domain at the always-useful  URLscan.io  shows that  fly.linkcdn[.]to  is  tied to a slew of USPS-themed phishing domains . Here are just a few of those domains (links defanged to prevent accidental clicking): usps.receivepost[.]com 
+usps.informedtrck[.]com 
+usps.trckspost[.]com 
+postreceive[.]com 
+usps.trckpackages[.]com 
+usps.infortrck[.]com 
+usps.quicktpos[.]com 
+usps.postreceive].]com 
+usps.revepost[.]com 
+trackingusps.infortrck[.]com 
+usps.receivepost[.]com 
+usps.trckmybusi[.]com 
+postreceive[.]com 
+tackingpos[.]com 
+usps.trckstamp[.]com 
+usa-usps[.]shop 
+usps.infortrck[.]com 
+unlistedstampreceive[.]com 
+usps.stampreceive[.]com 
+usps.stamppos[.]com 
+usps.stampspos[.]com 
+usps.trckmypost[.]com 
+usps.trckintern[.]com 
+usps.tackingpos[.]com 
+usps.posinformed[.]com As we can see in the screenshot below, the developer tools console for informedtrck[.]com complains that the site is unable to load a  Google Analytics  code —  UA-80133954-3  — which apparently was rejected for pointing to an invalid domain. Notice the highlighted Google Analytics code exposed by a faulty Javascript element on the phishing website. Click to enlarge. That code actually belongs to the USPS. The valid domain for that Google Analytics code is the official usps.com website. According to  dnslytics.com , that same analytics code has shown up on at least six other nearly identical USPS phishing pages dating back nearly as many years, including  onlineuspsexpress[.]com , which  DomainTools.com  says was registered way back in September 2018 to an individual in Nigeria. A different domain with that same Google Analytics code that was registered in 2021 is  peraltansepeda[.]com , which  archive.org   shows  was running a similar set of phishing pages targeting USPS users. DomainTools.com indicates this website name was registered by  phishers based in Indonesia . DomainTools says the above-mentioned USPS phishing domain  stamppos[.]com  was registered in 2022 via Singapore-based  Alibaba.com , but the registrant city and state listed for that domain says “Georgia, AL,” which is not a real location. Alas, running a search for domains registered through Alibaba to anyone claiming to reside in Georgia, AL reveals nearly 300 recent postal phishing domains ending in “.top.” These domains are either administrative domains obscured by a password-protected login page, or are .top domains phishing customers of the USPS as well as postal services serving other countries. Those other nations include the  Australia Post,   An Post  (Ireland),  Correos.es  (Spain), the  Costa Rican post , the  Chilean Post , the  Mexican Postal Service ,  Poste Italiane  (Italy),  PostNL  (Netherlands),  PostNord  (Denmark, Norway and Sweden), and  Posti  (Finland). A complete list of these domains is available  here  (PDF). A phishing page targeting An Post, the state-owned provider of postal services in Ireland. The Georgia, AL domains at Alibaba also encompass several that spoof sites claiming to collect outstanding road toll fees and fines on behalf of the governments of  Australia ,  New Zealand  and  Singapore . An anonymous reader wrote in to say they submitted fake information to the above-mentioned phishing site usps.receivepost[.]com via the malware sandbox  any.run . A  video recording of that analysis  shows that the site sends any submitted data via an automated bot on the Telegram instant messaging service. The traffic analysis just below the any.run video shows that any data collected by the phishing site is being sent to the Telegram user  @chenlun , who offers to sell customized source code for phishing pages. From a review of @chenlun’s other Telegram channels, it appears this account is being massively spammed at the moment — possibly thanks to public attention brought by this story.  Meanwhile, researchers at DomainTools recently  published a report  on an apparently unrelated but equally sprawling SMS-based phishing campaign targeting USPS customers that appears to be the work of cybercriminals based in Iran. Phishers tend to cast a wide net and often spoof entities that are broadly used by the local population, and few brands are going to have more household reach than domestic mail services. In June, the  United Parcel Service  (UPS) disclosed that fraudsters were  abusing an online shipment tracking tool in Canada  to send highly targeted SMS phishing messages that spoofed the UPS and other brands. With the holiday shopping season nearly upon us, now is a great time to remind family and friends about the best advice to sidestep phishing scams: Avoid clicking on links or attachments that arrive unbidden in emails, text messages and other mediums. Most phishing scams invoke a temporal element that warns of negative consequences should you fail to respond or act quickly. If you’re unsure whether the message is legitimate, take a deep breath and visit the site or service in question manually — ideally, using a browser bookmark so as to avoid  potential typosquatting sites . Update: Added information about the Telegram bot and any.run analysis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>January 30, 2024</t>
+          <t>October 9, 2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Who is Alleged Medibank Hacker Aleksandr Ermakov?</t>
+          <t>Karma Catches Up to Global Phishing Service 16Shop</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Authorities in Australia, the United Kingdom and the United States this week levied financial sanctions against a Russian man accused of stealing data on nearly 10 million customers of the Australian health insurance giant  Medibank . 33-year-old  Aleksandr Ermakov  allegedly stole and leaked the Medibank data while working with one of Russia’s most destructive ransomware groups, but little more is shared about the accused. Here’s a closer look at the activities of Mr. Ermakov’s alleged hacker handles. Aleksandr Ermakov, 33, of Russia. Image: Australian Department of Foreign Affairs and Trade. The allegations against Ermakov mark the first time Australia has sanctioned a cybercriminal. The documents released by the Australian government included multiple photos of Mr. Ermakov, and it was clear they wanted to send a message that this was personal. It’s not hard to see why. The attackers who broke into Medibank in October 2022 stole 9.7 million records on current and former Medibank customers. When the company refused to pay a $10 million ransom demand, the hackers selectively leaked highly sensitive health records, including those tied to abortions, HIV and alcohol abuse. The U.S. government says Ermakov and the other actors behind the Medibank hack are believed to be linked to the Russia-backed cybercrime gang  REvil . “REvil was among the most notorious cybercrime gangs in the world until July 2021 when they disappeared. REvil is a ransomware-as-a-service (RaaS) operation and generally motivated by financial gain,” a  statement  from the  U.S. Department of the Treasury  reads. “REvil ransomware has been deployed on approximately 175,000 computers worldwide, with at least $200 million paid in ransom.” The sanctions say Ermakov went by multiple aliases on Russian cybercrime forums, including  GustaveDore ,  JimJones , and Blade Runner. A search on the handle GustaveDore at the cyber intelligence platform  Intel 471  shows this user created a ransomware affiliate program in November 2021 called  Sugar  (a.k.a. Encoded01), which focused on  targeting single computers and end-users instead of corporations . An ad for the ransomware-as-a-service program Sugar posted by GustaveDore warns readers against sharing information with security researchers, law enforcement, or “friends of Krebs.” In November 2020, Intel 471 analysts concluded that GustaveDore’s alias JimJones “was using and operating several different ransomware strains, including a private undisclosed strain and one developed by the REvil gang.” In 2020, GustaveDore advertised on several Russian discussion forums that he was part of a Russian technology firm called  Shtazi , which could be hired for computer programming, web development, and “reputation management.” Shtazi’s website remains in operation today. A Google-translated version of Shtazi dot ru. Image: Archive.org. The third result when one searches for  shtazi[.]ru  in Google is an  Instagram  post from a user named  Mikhail Borisovich Shefel , who promotes Shtazi’s services as if it were also his business. If this name sounds familiar, it’s because in December 2023 KrebsOnSecurity  identified Mr. Shefel as “Rescator,”  the cybercriminal identity tied to tens of millions of payment cards that were stolen in 2013 and 2014 from big box retailers  Target  and  Home Depot , among others. How close was the connection between GustaveDore and Mr. Shefel? The Treasury Department’s sanctions page says Ermakov used the email address  ae.ermak@yandex.ru . A search for this email at  DomainTools.com  shows it was used to register just one domain name:  millioner1[.]com . DomainTools further finds that a phone number tied to Mr. Shefel (79856696666) was used to register two domains:  millioner[.]pw , and  shtazi[.]net . The December 2023 story here that outed Mr. Shefel as Rescator noted that Shefel recently changed his last name to “ Lenin ” and had launched a service called Lenin[.]biz that sells physical USSR-era Ruble notes bearing the image of Vladimir Lenin, the founding father of the Soviet Union. The Instagram account for Mr. Shefel includes images of stacked USSR-era Ruble notes, as well as multiple links to Shtazi. The Instagram account of Mikhail Borisovich Shefel, aka MikeMike aka Rescator. Intel 471’s research revealed Ermakov was affiliated in some way with REvil because the stolen Medibank data was published on a blog that had one time been controlled by REvil affiliates who carried out attacks and paid an affiliate fee to the gang. But by the time of the Medibank hack, the REvil group had mostly scattered after a series of high-profile attacks led to the group being disrupted by law enforcement. In November 2021,  Europol   announced  it arrested seven REvil affiliates who collectively made more than $230 million worth of ransom demands since 2019. At the same time, U.S. authorities  unsealed two indictments against a pair of accused REvil cybercriminals . “The posting of Medibank’s data on that blog, however, indicated a connection with that group, although the connection wasn’t clear at the time,” Intel 471 wrote. “This makes sense in retrospect, as Ermakov’s group had also been a REvil affiliate.” It is easy to dismiss sanctions like these as ineffective, because as long as Mr. Ermakov remains in Russia he has little to fear of arrest. However, his alleged role as an apparent top member of REvil paints a target on him as someone who likely possesses large sums of cryptocurrency,  said   Patrick Gray , the Australian co-host and founder of the security news podcast  Risky Business . “I’ve seen a few people poo-poohing the sanctions…but the sanctions component is actually less important than the doxing component,” Gray said. “Because this guy’s life just got a lot more complicated. He’s probably going to have to pay some bribes to stay out of trouble. Every single criminal in Russia now knows he is a vulnerable 33 year old with an absolute ton of bitcoin. So this is not a happy time for him.” Update, Feb. 21, 1:10 p.m. ET:  The Russian security firm  F.A.C.C.T  reports that Ermakov has been arrested in Russia, and charged with violating domestic laws that prohibit the creation, use and distribution of malicious computer programs. “During the investigation, several defendants were identified who were not only promoting their ransomware, but also developing custom-made malicious software, creating phishing sites for online stores, and driving user traffic to fraudulent schemes popular in Russia and the CIS,” F.A.C.C.T. wrote. “Among those detained was the owner of the nicknames blade_runner, GistaveDore, GustaveDore, JimJones.”</t>
+          <t xml:space="preserve">You’ve probably never heard of “ 16Shop ,” but there’s a good chance someone using it has tried to phish you. A 16Shop phishing page spoofing Apple and targeting Japanese users. Image: Akamai.com. The international police organization  INTERPOL   said  last week it had shuttered the notorious 16Shop, a popular phishing-as-a-service platform launched in 2017 that made it simple for even complete novices to conduct complex and convincing phishing scams. INTERPOL said authorities in Indonesia arrested the 21-year-old proprietor and one of his alleged facilitators, and that a third suspect was apprehended in Japan. The INTERPOL statement says the platform sold hacking tools to compromise more than 70,000 users in 43 countries. Given how long 16Shop has been around and how many paying customers it enjoyed over the years, that number is almost certainly highly conservative. Also, the sale of “hacking tools” doesn’t quite capture what 16Shop was all about: It was a fully automated phishing platform that gave its thousands of customers a series of brand-specific phishing kits to use, and provided the domain names needed to host the phishing pages and receive any stolen credentials. Security experts investigating 16Shop found the service used an application programming interface (API) to manage its users, an innovation that allowed its proprietors to shut off access to customers who failed to pay a monthly fee, or for those attempting to copy or pirate the phishing kit. 16Shop also  localized phishing pages  in multiple languages, and the service would display relevant phishing content depending on the victim’s geolocation. Various 16Shop lures for Apple users in different languages. Image: Akamai. For example, in 2019  McAfee  found that for targets in Japan, the 16Shop kit would also collect Web ID and Card Password, while US victims will be asked for their Social Security Number. “Depending on location, 16Shop will also collect ID numbers (including Civil ID, National ID, and Citizen ID), passport numbers, social insurance numbers, sort codes, and credit limits,” McAfee  wrote . In addition, 16Shop employed various tricks to help its users’ phishing pages stay off the radar of security firms, including a local “blacklist” of Internet addresses tied to security companies, and a feature that allowed users to block entire Internet address ranges from accessing phishing pages. The INTERPOL announcement does not name any of the suspects arrested in connection with the 16Shop investigation. However, a number of security firms — including  Akamai , McAfee and  ZeroFox , previously connected the service to a young Indonesian man named  Riswanda Noor Saputra , who sold 16Shop under the hacker handle “ Devilscream .” According to the Indonesian security blog  Cyberthreat.id , Saputra  admitted being the administrator of 16Shop , but told the publication he handed the project off to others by early 2020. 16Shop documentation instructing operators on how to deploy the kit. Image: ZeroFox. Nevertheless, Cyberthreat reported that Devilscream was arrested by Indonesian police in late 2021 as part of a collaboration between INTERPOL and the  U.S. Federal Bureau of Investigation  (FBI). Still, researchers who tracked 16Shop  since its inception  say Devilscream was  not the original proprietor of the phishing platform , and he may not be the last. It is not uncommon for cybercriminals  to accidentally infect their own machines with password-stealing malware , and that is exactly what seems to have happened with one of the more recent administrators of 16Shop. Constella Intelligence , a data breach and threat actor research platform, now allows users to cross-reference popular cybercrime websites and denizens of these forums with  inadvertent malware infections by information-stealing trojans . A search in Constella on 16Shop’s domain name shows that in mid-2022, a key administrator of the phishing service infected their Microsoft Windows desktop computer with the  Redline information stealer trojan  — apparently by downloading a cracked (and secretly backdoored) copy of Adobe Photoshop. Redline infections steal gobs of data from the victim machine, including a list of recent downloads, stored passwords and authentication cookies, as well as browser bookmarks and auto-fill data. Those records indicate the 16Shop admin used the nicknames “ Rudi ” and “ Rizki/Rizky ,” and maintained  several  Facebook profiles under these monikers. It appears this user’s full name (or at least part of it) is  Rizky Mauluna Sidik , and they are from Bandung in West Java, Indonesia. One of this user’s Facebook pages says Rizky is the chief executive officer and founder of an entity called  BandungXploiter , whose  Facebook page  indicates it is a group focused mainly on hacking and defacing websites. A  LinkedIn profile for Rizky  says he is a backend Web developer in Bandung who earned a bachelor’s degree in information technology in 2020. Mr. Rizky did not respond to requests for comment. </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>January 26, 2024</t>
+          <t>August 17, 2023</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hackers Stole Access Tokens from Okta’s Support Unit</t>
+          <t>Who’s Behind the Botnet-Based Service BHProxies?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Okta , a company that provides identity tools like multi-factor authentication and single sign-on to thousands of businesses, has suffered a security breach involving a compromise of its customer support unit, KrebsOnSecurity has learned. Okta says the incident affected a “very small number” of customers, however it appears the hackers responsible had access to Okta’s support platform for at least two weeks before the company fully contained the intrusion.  In an advisory sent to an undisclosed number of customers on Oct. 19, Okta said it “has identified adversarial activity that leveraged access to a stolen credential to access Okta’s support case management system. The threat actor was able to view files uploaded by certain Okta customers as part of recent support cases.” Okta explained that when it is troubleshooting issues with customers it will often ask for a recording of a Web browser session (a.k.a. an HTTP Archive or  HAR  file). These are sensitive files because they can include the customer’s cookies and session tokens, which intruders can then use to impersonate valid users. “Okta has worked with impacted customers to investigate, and has taken measures to protect our customers, including the revocation of embedded session tokens,” their notice continued. “In general, Okta recommends sanitizing all credentials and cookies/session tokens within a HAR file before sharing it.” The security firm  BeyondTrust  is among the Okta customers who received Thursday’s alert from Okta. BeyondTrust Chief Technology Officer  Marc Maiffret  said that alert came more than two weeks after his company alerted Okta to a potential problem. Maiffret emphasized that BeyondTrust caught the attack earlier this month as it was happening, and that none of its own customers were affected. He said that on Oct 2., BeyondTrust’s security team detected that someone was trying to use an Okta account assigned to one of their engineers to create an all-powerful administrator account within their Okta environment. When BeyondTrust reviewed the activity of the employee account that tried to create the new administrative profile, they found that — just 30 minutes prior to the unauthorized activity — one of their support engineers shared with Okta one of these HAR files that contained a valid Okta session token, Maiffret said. “Our admin sent that [HAR file] over at Okta’s request, and 30 minutes after that the attacker started doing session hijacking, tried to replay the browser session and leverage the cookie in that browser recording to act on behalf of that user,” he said. Maiffret said BeyondTrust followed up with Okta on Oct. 3 and said they were fairly confident Okta had suffered an intrusion, and that he reiterated that conclusion in a phone call with Okta on October 11 and again on Oct. 13. In an interview with KrebsOnSecurity, Okta’s Deputy Chief Information Security Officer  Charlotte Wylie  said Okta initially believed that BeyondTrust’s alert on Oct. 2 was not a result of a breach in its systems. But she said that by Oct. 17, the company had identified and contained the incident — disabling the compromised customer case management account, and invalidating Okta access tokens associated with that account. Wylie declined to say exactly how many customers received alerts of a potential security issue, but characterized it as a “very, very small subset” of its more than 18,000 customers. The disclosure from Okta comes just weeks after casino giants  Caesar’s Entertainment  and  MGM Resorts  were hacked. In both cases, the attackers managed to social engineer employees into  resetting the multi-factor login requirements for Okta administrator accounts . In March 2022, Okta disclosed a breach from the hacking group  LAPSUS$ , which specialized in social-engineering employees at targeted companies. An  after-action report from Okta  on that incident found that LAPSUS$ had social engineered its way onto the workstation of a support engineer at Sitel, a third-party outsourcing company that had access to Okta resources. Okta’s Wylie declined to answer questions about how long the intruder may have had access to the company’s case management account, or who might have been responsible for the attack. However, she did say the company believes this is an adversary they have seen before. “This is a known threat actor that we believe has targeted us and Okta-specific customers,” Wylie said. Update, 2:57 p.m. ET:  Okta has published  a blog post  about this incident that includes some “indicators of compromise” that customers can use to see if they were affected. But the company stressed that “all customers who were impacted by this have been notified. If you’re an Okta customer and you have not been contacted with another message or method, there is no impact to your Okta environment or your support tickets.” Update, 3:36 p.m. ET:  BeyondTrust has  published a blog post  about their findings. Update, Oct. 24, 10:20 a.m. ET:   1Password  and  Cloudflare  have disclosed compromises of their Okta authentication platforms as a result of the Okta breach. Both companies say an investigation has determined no customer information or systems were affected. Meanwhile, an Okta spokesperson told  TechCrunch  that the company notified about 1 percent of its customer base (~170 customers), so we are likely to see more such disclosures in the days and weeks ahead.</t>
+          <t>A security firm has discovered that a six-year-old crafty botnet known as  Mylobot  appears to be powering a residential proxy service called  BHProxies , which offers paying customers the ability to route their web traffic anonymously through compromised computers. Here’s a closer look at Mylobot, and a deep dive into who may be responsible for operating the BHProxies service. The BHProxies website. First identified in 2017 by the security firm  Deep Instinct , Mylobot employs a number of fairly sophisticated methods to remain undetected on infected hosts, such as running exclusively in the computer’s temporary memory, and waiting 14 days before attempting to contact the botnet’s command and control servers. Last year, researchers at  Minerva Labs  spotted the botnet  being used to blast out sextortion scams . But according to  a new report  from  BitSight , the Mylobot botnet’s main functionality has always been about transforming the infected system into a proxy. The Mylobot malware includes more than 1,000 hard-coded and encrypted domain names, any one of which can be registered and used as control networks for the infected hosts. BitSight researchers found significant overlap in the Internet addresses used by those domains and a domain called  BHproxies[.]com . BHProxies sells access to “residential proxy” networks, which allow someone to rent a residential IP address to use as a relay for their Internet communications, providing anonymity and the advantage of being perceived as a residential user surfing the web. The service is currently advertising access to more than 150,000 devices globally. “At this point, we cannot prove that BHProxies is linked to Mylobot, but we have a strong suspicion,” wrote BitSight’s  Stanislas Arnoud . To test their hypothesis, BitSight obtained 50 proxies from BHProxies. The researchers were able to use 48 of those 50 proxies to browse to a website they controlled — allowing them to record the true IP addresses of each proxy device. “Among these 48 recovered residential proxies IP addresses, 28 (58.3%) of those were already present in our sinkhole systems, associated with the Mylobot malware family,” Arnoud continued. “This number is probably higher, but we don’t have a full visibility of the botnet. This gave us clear evidence that Mylobot infected computers are used by the BHProxies service.” BitSight said it is currently seeing more than 50,000 unique Mylobot infected systems every day, and that India appears to be the most targeted country, followed by the United States, Indonesia and Iran. “We believe we are only seeing part of the full botnet, which may lead to more than 150,000 infected computers as advertised by BHProxies’ operators,” Arnoud wrote. The website BHProxies[.]com has been advertised for nearly a decade on the forum  Black Hat World  by the user  BHProxies . BHProxies has authored 129 posts on Black Hat World since 2012, and their last post on the forum was in December 2022. BHProxies initially was fairly active on Black Hat World between May and November 2012, after which it suddenly ceased all activity. The account didn’t resume posting on the forum until April 2014. According to cyber intelligence firm  Intel 471 , the user BHProxies also used the handle “ hassan_isabad_subar ” and marketed various software tools, including “Subar’s free email creator” and “Subar’s free proxy scraper.” Intel 471’s data shows that hassan_isabad_subar registered on the forum using the email address  jesus.fn.christ@gmail.com . In a June 2012 private message exchange with a website developer on Black Hat World, hassan_isabad_subar confided that they were working at the time to develop two websites, including the now-defunct  customscrabblejewelry.com . DomainTools.com  reports that customscrabblejewelry.com was registered in 2012 to a  Teresa Shotliff  in Chesterland, Ohio. A search on jesus.fn.christ@gmail.com at  Constella Intelligence , a company that tracks compromised databases, shows this email address is tied to an account at the fundraising platform  omaze.com,  for a  Brian Shotliff  from Chesterland, Ohio. Reached via LinkedIn, Mr. Shotliff said he sold his BHProxies account to another Black Hat World forum user from Egypt back in 2014. Shotliff shared an April 2014 password reset email from Black Hat World, which shows he forwarded the plaintext password to the email address  legendboy2050@yahoo.com . He also shared a PayPal receipt and snippets of Facebook Messenger logs showing conversations in March 2014 with legendboy2050@yahoo.com. Constella Intelligence confirmed that legendboy2050@yahoo.com was indeed another email address tied to the hassan_isabad_subar/BHProxies identity on Black Hat World. Constella also connects legendboy2050 to Facebook and Instagram accounts for one  Abdala Tawfik  from Cairo. This user’s  Facebook page  says Tawfik also uses the name  Abdalla Khafagy . Tawfik’s  Instagram account  says he is a former operations manager at the social media network  TikTok , as well as a former director at  Crypto.com . Abdalla Khafagy’s  LinkedIn profile  says he was “global director of community” at Crypto.com for about a year ending in January 2022. Before that, the resume says he was operations manager of TikTok’s Middle East and North Africa region for approximately seven months ending in April 2020. Khafagy’s LinkedIn profile says he is currently founder of  LewkLabs , a Dubai-based “blockchain-powered, SocialFi content monetization platform” that  last year reported funding of $3.26 million  from private investors. The only experience listed for Khafagy prior to the TikTok job is labeled “Marketing” at “Confidential,” from February 2014 to October 2019. Reached via LinkedIn, Mr. Khafagy told KrebsOnSecurity that he had a Black Hat World account at some point, but that he didn’t recall ever having used an account by the name BHProxies or hassan_isabad_subar. Khafagy said he couldn’t remember the name of the account he had on the forum. “I had an account that was simply hacked from me shortly after and I never bothered about it because it wasn’t mine in the first place,” he explained. Khafagy declined to elaborate on the five-year stint in his resume marked “Confidential.” When asked directly whether he had ever been associated with the BHProxies service, Mr. Khafagy said no. That Confidential job listing is interesting because its start date lines up with the creation of BHproxies[.]com. Archive.org indexed its first copy of BHProxies[.]com  on Mar. 5, 2014 , but historic DNS records show BHproxies[.]com first came online Feb. 25, 2014. Shortly after that conversation with Mr. Khafagy, Mr. Shotliff shared a Facebook/Meta message he received that indicated Mr. Khafagy wanted him to support the claim that the BHProxies account had somehow gone missing. “Hey mate, it’s been a long time. Hope you are doing well. Someone from Krebs on Security reached out to me about the account I got from you on BHW,” Khafagy’s Meta account wrote. “Didn’t we try to retrieve this account? I remember mentioning to you that it got stolen and I was never able to retrieve it.” Mr. Shotliff said Khafagy’s sudden message this week was the first time he’d heard that claim. “He bought the account,” Shotliff said. “He might have lost the account or had it stolen, but it’s not something I remember.” If you liked this story, you may also enjoy these other investigations into botnet-based proxy services: A Deep Dive Into the Residential Proxy Service ‘911’ 
+ 911 Proxy Service Implodes After Disclosing Breach 
+ Meet the Administrators of the RSOCKS Proxy Botnet 
+ The Link Between AWM Proxy &amp; the Glupteba Botnet 
+ 15-Year-Old Malware Proxy Network VIP72 Goes Dark 
+ Who’s Behind the TDSS Botnet?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>October 20, 2023</t>
+          <t>February 24, 2023</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FBI Hacker Dropped Stolen Airbus Data on 9/11</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>In December 2022, KrebsOnSecurity broke the news that a cybercriminal using the handle “ USDoD ” had  infiltrated  the  FBI ‘s vetted information sharing network  InfraGard , and was selling the contact information for all 80,000 members. The FBI responded by reverifying InfraGard members and by seizing the cybercrime forum where the data was being sold. But on Sept. 11, 2023, USDoD resurfaced after a lengthy absence to leak sensitive employee data stolen from the aerospace giant  Airbus , while promising to visit the same treatment on top U.S. defense contractors. USDoD’s avatar used to be the seal of the U.S. Department of Defense. Now it’s a charming kitten. In a post on the English language cybercrime forum  BreachForums , USDoD leaked information on roughly 3,200 Airbus vendors, including names, addresses, phone numbers, and email addresses. USDoD claimed they grabbed the data by using passwords stolen from a Turkish airline employee who had third-party access to Airbus’ systems. USDoD didn’t say why they decided to leak the data on the 22nd anniversary of the 9/11 attacks, but there was definitely an aircraft theme to the message that accompanied the leak, which concluded with the words, “Lockheed martin, Raytheon and the entire defense contractos [sic], I’m coming for you [expletive].” Airbus has apparently confirmed the cybercriminal’s account to the threat intelligence firm  Hudson Rock , which determined that the Airbus credentials were stolen after a Turkish airline employee infected their computer with a prevalent and powerful info-stealing trojan called  RedLine . Info-stealers like RedLine typically are deployed via opportunistic email malware campaigns, and by secretly bundling the trojans with cracked versions of popular software titles made available online. Credentials stolen by info-stealers often end up for sale on cybercrime shops that peddle purloined passwords and authentication cookies (these logs also often show up in the malware scanning service  VirusTotal ). Hudson Rock  said  it recovered the log files created by a RedLine infection on the Turkish airline employee’s system, and found the employee likely infected their machine after downloading pirated and secretly backdoored software for Microsoft Windows. Hudson Rock says info-stealer infections from RedLine and a host of similar trojans have surged in recent years, and that they remain “a primary initial attack vector used by threat actors to infiltrate organizations and execute cyberattacks, including ransomware, data breaches, account overtakes, and corporate espionage.” The prevalence of RedLine and other info-stealers means that a great many consequential security breaches begin with cybercriminals abusing stolen employee credentials. In this scenario, the attacker temporarily assumes the identity and online privileges assigned to a hacked employee, and the onus is on the employer to tell the difference. In addition to snarfing any passwords stored on or transmitted through an infected system, info-stealers also siphon authentication cookies or tokens that allow one to remain signed-in to online services for long periods of time without having to resupply one’s password and multi-factor authentication code. By stealing these tokens, attackers can often reuse them in their own web browser, and bypass any authentication normally required for that account. Microsoft Corp.  this week acknowledged that a China-backed hacking group was able to steal one of the keys to its email kingdom that granted near-unfettered access to U.S. government inboxes. Microsoft’s detailed  post-mortem cum mea culpa  explained that a secret signing key was stolen from an employee in an unlucky series of unfortunate events, and thanks to  TechCrunch  we now know that the culprit once again was “token-stealing malware” on the employee’s system. In April 2023, the FBI  seized Genesis Market , a bustling, fully automated cybercrime store that was continuously restocked with freshly hacked passwords and authentication tokens stolen by a network of contractors who deployed RedLine and other info-stealer malware. In March 2023, the FBI  arrested and charged the alleged administrator of BreachForums (aka Breached) , the same cybercrime community where USDoD leaked the Airbus data. In June 2023, the  FBI seized the BreachForums domain name , but the forum has since migrated to a new domain. USDoD’s InfraGard sales thread on Breached. Unsolicited email continues to be a huge vector for info-stealing malware, but lately the crooks behind these schemes have been gaming the search engines so that their malicious sites impersonating popular software vendors actually appear before the legitimate vendor’s website. So take special care when downloading software to ensure that you are in fact getting the program from the original, legitimate source whenever possible. Also, unless you  really  know what you’re doing, please don’t download and install pirated software. Sure, the cracked program might do exactly what you expect it to do, but the chances are good that it is also laced with something nasty. And when all of your passwords are stolen and your important accounts have been hijacked or sold, you will wish you had simply paid for the real thing.</t>
+          <t>U.S. state and federal investigators are being inundated with reports from people who’ve lost hundreds of thousands or millions of dollars in connection with a complex investment scam known as “ pig butchering ,” wherein people are lured by flirtatious strangers online into investing in cryptocurrency trading platforms that eventually seize any funds when victims try to cash out.  The term “pig butchering” refers to a time-tested, heavily scripted, and human-intensive process of using fake profiles on dating apps and social media to lure people into investing in elaborate scams. In a more visceral sense, pig butchering means fattening up a prey before the slaughter. “The fraud is named for the way scammers feed their victims with promises of romance and riches before cutting them off and taking all their money,” the  Federal Bureau of Investigation  (FBI) warned in April 2022. “It’s run by a fraud ring of cryptocurrency scammers who mine dating apps and other social media for victims and the scam is becoming alarmingly popular.” As documented in a  series  of  investigative reports   published over the past year   across Asia , the people creating these phony profiles are largely men and women from China and neighboring countries who have been kidnapped and trafficked to places like Cambodia, where they are forced to scam complete strangers over the Internet — day after day. The most prevalent pig butchering scam today involves sophisticated cryptocurrency investment platforms, where investors invariably see fantastic returns on their deposits — until they try to withdraw the funds. At that point, investors are told they owe huge tax bills. But even those who pay the phony levies never see their money again. The come-ons for these scams are prevalent on dating sites and apps, but they also frequently start with what appears to be a wayward SMS — such as an instant message about an Uber ride that never showed. Or a reminder from a complete stranger about a planned meetup for coffee. In many ways, the content of the message is irrelevant; the initial goal to simply to get the recipient curious enough to respond in some way. Those who respond are asked to continue the conversation via  WhatsApp , where an attractive, friendly profile of the opposite gender will work through a pre-set script that is tailored to their prey’s apparent socioeconomic situation. For example, a divorced, professional female who responds to these scams will be handled with one profile type and script, while other scripts are available to groom a widower, a young professional, or a single mom. That’s according to  Erin West , deputy district attorney for Santa Clara County in Northern California. West said her office has been fielding a large number of pig butchering inquiries from her state, but also from law enforcement entities around the country that are ill-equipped to investigate such fraud. “The people forced to perpetrate these scams have a guide and a script, where if your victim is divorced say this, or a single mom say this,” West said. “The scale of this is so massive. It’s a major problem with no easy answers, but also with victim volumes I’ve never seen before. With victims who are really losing their minds and in some cases are suicidal.” West is a key member of REACT, a task force set up to tackle  especially complex forms of cyber theft involving virtual currencies . West said the initial complaints from pig butchering victims came early this year. “I first thought they were one-off cases, and then I realized we were getting these daily,” West said. “A lot of them are being reported to local agencies that don’t know what to do with them, so the cases languish.” West said pig butchering victims are often quite sophisticated and educated people. “One woman was a university professor who lost her husband to COVID, got lonely and was chatting online, and eventually ended up giving away her retirement,” West recalled of a recent case. “There are just horrifying stories that run the gamut in terms of victims, from young women early in their careers, to senior citizens and even to people working in the financial services industry.” In some cases reported to REACT, the victims said they spent days or weeks corresponding with the phony WhatsApp persona before the conversation shifted to investing. “They’ll say ‘Hey, this is the food I’m eating tonight’ and the picture they share will show a pretty setting with a glass of wine, where they’re showcasing an enviable lifestyle but not really mentioning anything about how they achieved that,” West said. “And then later, maybe a few hours or days into the conversation, they’ll say, ‘You know I made some money recently investing in crypto,’ kind of sliding into the topic as if this wasn’t what they were doing the whole time.” Curious investors are directed toward elaborate and official-looking online crypto platforms that appear to have thousands of active investors. Many of these platforms include extensive study materials and tutorials on cryptocurrency investing. New users are strongly encouraged to team up with more seasoned investors on the platform, and to make only small investments that they can afford to lose. The now-defunct homepage of xtb-market[.]com, a scam cryptocurrency platform tied to a pig butchering scheme. “They’re able to see some value increase, and maybe even be allowed to take out that value increase so that they feel comfortable about the situation,” West said. Some investors then need little encouragement to deposit additional funds, which usually generate increasingly higher “returns.” The now-defunct homepage of xtb-market[.]com, a scam cryptocurrency platform tied to a pig butchering scheme. West said many crypto trading platforms associated with pig butchering scams appear to have been designed much like a video game, where investor hype is built around upcoming “trading opportunities” that hint at even more fantastic earnings. “There are bonus levels and VIP levels, and they’ll build hype and a sense of frenzy into the trading,” West said. “There are definitely some psychological mechanisms at work to encourage people to invest more.” “What’s so devastating about many of the victims is they lose that sense of who they are,” she continued. “They thought they were a savvy, sophisticated person, someone who’s sort of immune to scams. I think the large scale of the trickery and psychological manipulation being used here can’t be understated. It’s like nothing I’ve seen before.” Courtney  is a divorced mother of three daughters, says she lost more than $5 million to a pig butchering scam. She lives in St. Louis and has a background in investment finance, but only started investing in cryptocurrencies in the past year. Courtney’s case may be especially bad because she was already interested in crypto investing when the scammer reached out. At the time, Bitcoin was trading at or near all-time highs of nearly $68,000 per coin. Courtney said her nightmare began in late 2021 with a Twitter direct message from someone who was following many of the same cryptocurrency influencers she followed. Her fellow crypto enthusiast then suggested they continue their discussion on WhatsApp. After much back and forth about his trading strategies, her new friend agreed to mentor her on how to make reliable profits using the crypto trading platform  xtb.com . “I had dabbled in leveraged trading before, but his mentor program gave me over 100 pages of study materials and agreed to walk me through their investment strategies over the course of a year,” Courtney told KrebsOnSecurity. Courtney’s mentor had her create an account website  xtb-market[.]com , which was made to be confusingly similar to XTB’s official platform. The site promoted several different investment packages, including a “starter plan” that involves a $5,250 up-front investment and promises more than 15 percent return across four separate trading bursts. Platinum plans on xtb-market promised a whopping 45 percent ROI, with a minimum investment of $265,000. The site also offered a generous seven percent commission for referrals, which encouraged new investors to recruit others. The now-defunct xtb-market[.]com. While chatting via WhatsApp, Courtney and her mentor would trade side by side in xtb-market, initially with small investments ranging from $500 to $5,000. When those generated hefty returns, she made bigger deposits. On several occasions she was able to withdraw amounts ranging from $10,000 to $30,000. The now-defunct xtb-market[.]com. But after investing more than $4.5 million of her own money over nearly four months, Courtney found her account was suddenly frozen. She was then issued a tax statement saying she owed nearly $500,000 in taxes before she could reactivate her account or access her funds. Courtney said it seems obvious in hindsight that she should never have paid the tax bill. Because xtb-market and her mentor cut all communications with her after that, and the entire website disappeared just a few weeks later. Justin Maile , an investigation partner manager at  Chainalysis , told  Vice News  that the tax portion of the pig butchering scam relies on the “sunk costs fallacy,” when people are reluctant to abandon a failing strategy or course of action because they have already invested heavily in it. “Once the victim starts getting skeptical or tries to withdraw their funds, they are often told that they have to pay tax on the gains before funds can be unlocked,” Maile told Vice News. “The scammers will try to get any last payments out of the victims by exploiting the sunk cost fallacy and dangling huge profits in front of them.” Vice recently published  an in-depth report on pig butchering’s link to organized crime gangs  in Asia that lure young job seekers with the promise of customer service jobs in call centers. Instead, those who show up at the appointed place and time are taken on long car rides and/or forced hikes across the borders into Cambodia, where they are pressed into indentured servitude. Vice found many of the people forced to work in pig-butchering scams are being held in Chinese-owned casinos operating in Cambodia. Many of those casinos were newly built when the Covid pandemic hit. As the new casinos and hotels sat empty, organized crime groups saw an opportunity to use these facilities to generate huge income streams, and many foreign travelers stranded in neighboring countries were eventually trafficked to these scam centers. Vice reports: “While figures on the number of people in scam centers in Cambodia is unknown, best estimates pieced together from various sources point to the tens of thousands across scam centers in Sihanoukville, Phnom Penh, and sites in border regions Poipet and Bavet. In April, Thailand’s assistant national police commissioner said 800 Thai citizens had been rescued from scam centers in Cambodia in recent months, with a further 1,000 citizens still trapped across the country. One Vietnamese worker estimated 300 of his compatriots were held on just one floor in a tall office block hosting scam operations.” “…within Victory Paradise Resort alone there were 7,000 people, the majority from mainland China, but also Indonesians, Singaporeans and Filipinos. According to the Khmer Times, one 10-building complex of high-rises in Sihanoukville, known as The China Project, holds between 8,000 to 10,000 people participating in various scams—a workforce that would generate profits around the $1 billion mark each year at $300 per worker per day.” REACTs’ West said while there are a large number of pig butchering victims reporting their victimization to the FBI, very few are receiving anything more than instructions about filing a complaint with the FBI’s  Internet Crime Complaint Center  (IC3), which keeps track of cybercrime losses and victims. “There’s a huge gap in victims that are seeing any kind of service at all, where they’re reporting to the FBI but not being able to talk to anyone,” she said. “They’re filling out the IC3 form and never hearing back. It sort of feels like the federal government is ignoring this, so people are going to local agencies, which are sending these victims our way.” For many younger victims of pig butchering, even losses of a few thousand dollars can be financially devastating. KrebsOnSecurity recently heard from two different readers who said they were in their 20s and lost more than $40,000 each when the investment platforms they were trading on vanished with their money. The FBI can often bundle numerous IC3 complaints involving the same assailants and victims into a single case for federal prosecutors to pursue the guilty, and/or try to recapture what was stolen. In general, however, victims of crypto crimes rarely see that money again, or if they do it can take many years. “The next piece is what can we actually do with these cases,” West said. “We used to frame success as getting bad people behind bars, but these cases leave us as law enforcement with not a lot of opportunity there.” West said the good news is U.S. authorities are seeing some success in freezing cryptocurrency wallets suspected of being tied to large-scale cybercriminal operations. Indeed, Courtney told KrebsOnSecurity that her losses were substantial enough to warrant an official investigation by the FBI, which she says has since taken steps to freeze at least some of the assets tied to xtb-market[.]com. Likewise, West said she was recently able to freeze cryptocurrency funds stolen from some pig butchering victims, and now REACT is focusing on helping state and local authorities learn how to do the same. “It’s important to be able to mobilize quickly and know how to freeze and seize crypto and get it back to its rightful owner,” West said. “We definitely have made seizures in cases involving pig butchering, but we haven’t gotten that back to the rightful owners yet.” In April, the FBI  warned Internet users  to be on guard against pig butchering scams, which it said attracts victims with “promises of romance and riches” before duping them out of their money. The IC3 said it received more than 4,300 complaints related to crypto-romance scams, resulting in losses of more than $429 million. Here are some common elements of a pig butchering scam: – Dating apps:  Pig-butchering attempts are common on dating apps, but they can begin with almost any type of communication, including SMS text messages. 
+– WhatsApp:  In virtually all documented cases of pig butchering, the target is moved fairly quickly into chatting with the scammer via WhatsApp. 
+– No video:  The scammers will come up with all kinds of excuses not to do a video call. But they will always refuse. 
+– Investment chit-chat:  Your contact (eventually) claims to have inside knowledge about the cryptocurrency market and can help you make money. The FBI’s tips on avoiding crypto scams: -Never send money, trade, or invest based on the advice of someone you have only met online. 
+-Don’t talk about your current financial status to unknown and untrusted people. 
+-Don’t provide your banking information, Social Security Number, copies of your identification or passport, or any other sensitive information to anyone online or to a site you do not know is legitimate. 
+-If an online investment or trading site is promoting unbelievable profits, it is most likely that—unbelievable. 
+-Be cautious of individuals who claim to have exclusive investment opportunities and urge you to act fast.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>September 13, 2023</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Russian Hacker “Wazawaka” Indicted for Ransomware</t>
+          <t>U.S. Indicts North Korean Hackers in Theft of $200 Million</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A Russian man identified by KrebsOnSecurity in January 2022 as a prolific and vocal member of several top ransomware groups was the subject of two indictments unsealed by the  Justice Department  today. U.S. prosecutors say  Mikhail Pavolovich Matveev , a.k.a. “ Wazawaka ” and “ Boriselcin ” worked with three different ransomware gangs that extorted hundreds of millions of dollars from companies, schools, hospitals and government agencies. An FBI wanted poster for Matveev. Indictments returned in New Jersey and the District of Columbia allege that Matveev was involved in a conspiracy to distribute ransomware from three different strains or affiliate groups, including  Babuk ,  Hive  and  LockBit . The indictments allege that on June 25, 2020, Matveev and his LockBit co-conspirators deployed LockBit ransomware against a law enforcement agency in Passaic County, New Jersey. Prosecutors say that on May 27, 2022, Matveev conspired with Hive to ransom a nonprofit behavioral healthcare organization headquartered in Mercer County, New Jersey. And on April 26, 2021, Matveev and his Babuk gang allegedly deployed ransomware against the Metropolitan Police Department in Washington, D.C. Meanwhile, the  U.S. Department of Treasury  has  added Matveev  to its list of persons with whom it is illegal to transact financially. Also, the  U.S. State Department   is offering  a $10 million reward  for the capture and/or prosecution of Matveev, although he is unlikely to face either as long as he continues to reside in Russia. In a January 2021 discussion on a top Russian cybercrime forum, Matveev’s alleged alter ego Wazawaka said he had no plans to leave the protection of “Mother Russia,” and that traveling abroad was not an option for him. “Mother Russia will help you,” Wazawaka concluded. “Love your country, and you will always get away with everything.” In January 2022, KrebsOnSecurity published  Who is the Network Access Broker ‘Wazawaka,’  which followed clues from Wazawaka’s many pseudonyms and contact details on the Russian-language cybercrime forums back to a 33-year-old Mikhail Matveev from Abaza, RU (the FBI  says  his date of birth is Aug. 17, 1992). A month after that story ran, a man who appeared identical to the social media photos for Matveev began posting on Twitter  a series of bizarre selfie videos  in which he lashed out at security journalists and researchers (including this author), while using the same Twitter account to drop exploit code for a widely-used virtual private networking (VPN) appliance. “Hello Brian Krebs! You did a really great job actually, really well, fucking great — it’s great that journalism works so well in the US,” Matveev said in one of the videos. “By the way, it is my voice in the background, I just love myself a lot.” Prosecutors allege Matveev used a dizzying stream of monikers on the cybercrime forums, including “ Boriselcin ,” a talkative and brash personality who was simultaneously the public persona of Babuk, a ransomware affiliate program that surfaced on New Year’s Eve 2020. Previous reporting here revealed that Matveev’s alter egos included “ Orange, ” the founder of the  RAMP  ransomware forum. RAMP stands for “Ransom Anon Market Place, and analysts at the security firm Flashpoint say the forum was created “directly in response to several large Dark Web forums banning ransomware collectives on their site following  the Colonial Pipeline attack  by ransomware group ‘ DarkSide .” As noted in last year’s investigations into Matveev, his alleged cybercriminal handles all were driven by a uniquely communitarian view that when organizations being held for ransom decline to cooperate or pay up, any data stolen from the victim should be published on the Russian cybercrime forums for all to plunder — not privately sold to the highest bidder. In thread after thread on the crime forum  XSS , Matveev’s alleged alias “ Uhodiransomwar ” could be seen posting download links to databases from companies that have refused to negotiate after five days. Matveev is charged with conspiring to transmit ransom demands, conspiring to damage protected computers, and intentionally damaging protected computers. If convicted, he faces more than 20 years in prison. Further reading: Who is the Network Access Broker “Wazawaka?” Wazawaka Goes Waka Waka The  New Jersey indictment against Matveev  (PDF) The  indictment from the U.S. attorney’s office in Washington, D.C.  (PDF)</t>
+          <t>The  U.S. Justice Department  today unsealed indictments against three men accused of working with the North Korean regime to carry out some of the most damaging cybercrime attacks over the past decade, including the  2014 hack of Sony Pictures , the global  WannaCry ransomware contagion of 2017 , and the theft of roughly $200 million and attempted theft of more than $1.2 billion from banks and other victims worldwide.  Investigators with the DOJ,  U.S. Secret Service  and  Department of Homeland Security  told reporters on Wednesday the trio’s activities involved extortion, phishing, direct attacks on financial institutions and ATM networks, as well as malicious applications that masqueraded as software tools to help people manage their cryptocurrency holdings. Prosecutors say the hackers were part of an effort to circumvent ongoing international financial sanctions against the North Korean regime. The group is thought to be responsible for the attempted theft of approximately $1.2 billion, although it’s unclear how much of that was actually stolen. Confirmed thefts attributed to the group include the 2016 hacking of the SWIFT payment system for Bangladesh Bank, which netted thieves $81 million; $6.1 million in a 2018  ATM cash out scheme  targeting a Pakistani bank; and a total of $112 million in virtual currencies stolen between 2017 and 2020 from cryptocurrency companies in Slovenia, Indonesia and New York. “The scope of the criminal conduct by the North Korean hackers was extensive and longrunning, and the range of crimes they have committed is staggering,” said  Acting U.S. Attorney Tracy L. Wilkison  for the Central District of California. “The conduct detailed in the indictment are the acts of a criminal nation-state that has stopped at nothing to extract revenge and obtain money to prop up its regime.” The indictments name  Jon Chang Hyok  (a.k.a “Alex/Quan Jiang”),  Kim Il  (a.k.a. “Julien Kim”/”Tony Walker”), and  Park Jin   Hyok  (a.k.a. Pak Jin Hek/Pak Kwang Jin). U.S. prosecutors say the men were members of the  Reconnaissance General Bureau  (RGB), an intelligence division of the Democratic People’s Republic of Korea (DPRK) that manages the state’s clandestine operations. The Justice Department says those indicted were members of a DPRK-sponsored cybercrime group variously identified by the security community as the  Lazarus Group  and  Advanced Persistent Threat 38  (APT 38). The government alleges the men reside in North Korea but were frequently stationed by the DPRK in other countries, including China and Russia. Park was  previously charged in 2018  in connection with the WannaCry and Sony Pictures attacks. But today’s indictments expanded the range of crimes attributed to Park and his alleged co-conspirators, including cryptocurrency thefts, phony cryptocurrency investment schemes and apps, and efforts to launder the proceeds of their crimes. Prosecutors in California also today unsealed an indictment against  Ghaleb Alaumary , a 37-year-old from Mississauga, Ontario who pleaded guilty in November 2020 to charges of laundering tens of millions of dollars stolen by the DPRK hackers. The accused allegedly developed and marketed a series of cryptocurrency applications that were advertised as tools to help people manage their crypto holdings. In reality, prosecutors say, the programs were malware or downloaded malware after the applications were installed. A  joint cyber advisory  from the FBI, the Treasury and DHS’s Cybersecurity and Infrastructure Agency (CISA) delves deeper into these backdoored cryptocurrency apps, a family of malware activity referred to as “ AppleJeus . “ Hidden Cobra ” is the collective handle assigned to the hackers behind the AppleJeus malware. “In most instances, the malicious application—seen on both Windows and Mac operating systems—appears to be from a legitimate cryptocurrency trading company, thus fooling individuals into downloading it as a third-party application from a website that seems legitimate,” the advisory reads. “In addition to infecting victims through legitimate-looking websites, HIDDEN COBRA actors also use phishing, social networking, and social engineering techniques to lure users into downloading the malware.” The alert notes that these apps have been posing as cryptocurrency trading platforms since 2018, and have been tied to cryptocurrency thefts in more than 30 countries. Image: CISA. For example, the DOJ indictments say these apps were involved in stealing $11.8 million in August 2020 from a financial services company based in New York. Warrants obtained by the government allowed the FBI to seize roughly $1.9 million from two different cryptocurrency exchanges used by the hackers, money that investigators say will be returned to the New York financial services firm. Other moneymaking and laundering schemes attributed to the North Korean hackers include the development and marketing of an initial coin offering (ICO) in 2017 called  Marine Chain Token . That blockchain-based cryptocurrency offering promised early investors the ability to purchase “fractional ownership in marine shipping vessels,” which the government says was just another way for the North Korean government to “secretly obtain funds from investors, control interests in marine shipping vessels, and evade U.S. sanctions.” A copy of the indictments is available  here  (PDF).</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>May 16, 2023</t>
+          <t>February 17, 2021</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hackers Claim They Breached T-Mobile More Than 100 Times in 2022</t>
+          <t>Romanian Skimmer Gang in Mexico Outed by KrebsOnSecurity Stole $1.2 Billion</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Image: Shutterstock.com Three different cybercriminal groups claimed access to internal networks at communications giant  T-Mobile  in more than 100 separate incidents throughout 2022, new data suggests. In each case, the goal of the attackers was the same: Phish T-Mobile employees for access to internal company tools, and then convert that access into a cybercrime service that could be hired to divert  any  T-Mobile user’s text messages and phone calls to another device. The conclusions above are based on an extensive analysis of  Telegram  chat logs from three distinct cybercrime groups or actors that have been identified by security researchers as particularly active in and effective at “ SIM-swapping ,” which involves temporarily seizing control over a target’s mobile phone number. Countless websites and online services use SMS text messages for both password resets and multi-factor authentication. This means that stealing someone’s phone number often can let cybercriminals hijack the target’s entire digital life in short order — including access to any financial, email and social media accounts tied to that phone number. All three SIM-swapping entities that were tracked for this story remain active in 2023, and they all conduct business in open channels on the instant messaging platform Telegram. KrebsOnSecurity is not naming those channels or groups here because they will simply migrate to more private servers if exposed publicly, and for now those servers remain a useful source of intelligence about their activities. Each advertises their claimed access to T-Mobile systems in a similar way. At a minimum, every SIM-swapping opportunity is announced with a brief “ Tmobile up!”  or “ Tmo up! ” message to channel participants. Other information in the announcements includes the price for a single SIM-swap request, and the handle of the person who takes the payment and information about the targeted subscriber. The information required from the customer of the SIM-swapping service includes the target’s phone number, and  the serial number  tied to the new SIM card that will be used to receive text messages and phone calls from the hijacked phone number. Initially, the goal of this project was to count how many times each entity claimed access to T-Mobile throughout 2022, by cataloging the various “Tmo up!” posts from each day and working backwards from Dec. 31, 2022. But by the time we got to claims made in the middle of May 2022, completing the rest of the year’s timeline seemed unnecessary. The tally shows that in the last seven-and-a-half months of 2022, these groups collectively made SIM-swapping claims against T-Mobile on 104 separate days — often with multiple groups claiming access on the same days. The 104 days in the latter half of 2022 in which different known SIM-swapping groups claimed access to T-Mobile employee tools. KrebsOnSecurity shared a large amount of data gathered for this story with T-Mobile. The company declined to confirm or deny any of these claimed intrusions. But in a written statement, T-Mobile said this type of activity affects the entire wireless industry. “And we are constantly working to fight against it,” the statement reads. “We have continued to drive enhancements that further protect against unauthorized access, including enhancing multi-factor authentication controls, hardening environments, limiting access to data, apps or services, and more. We are also focused on gathering threat intelligence data, like what you have shared, to help further strengthen these ongoing efforts.” While it is true that each of these cybercriminal actors periodically offer SIM-swapping services for other mobile phone providers — including  AT&amp;T ,  Verizon  and smaller carriers — those solicitations appear  far  less frequently in these group chats than T-Mobile swap offers. And when those offers do materialize, they are considerably more expensive. The prices advertised for a SIM-swap against T-Mobile customers in the latter half of 2022 ranged between USD $1,000 and $1,500, while SIM-swaps offered against AT&amp;T and Verizon customers often cost well more than twice that amount.  To be clear, KrebsOnSecurity is not aware of specific SIM-swapping incidents tied to any of these breach claims. However, the vast majority of advertisements for SIM-swapping claims against T-Mobile tracked in this story had two things in common that set them apart from random SIM-swapping ads on Telegram. First, they included an offer to use a mutually trusted “middleman” or escrow provider for the transaction (to protect either party from getting scammed). More importantly, the cybercriminal handles that were posting ads for SIM-swapping opportunities from these groups generally did so on a daily or near-daily basis — often teasing their upcoming swap events in the hours before posting a “Tmo up!” message announcement. In other words, if the crooks offering these SIM-swapping services were ripping off their customers or claiming to have access that they didn’t, this would be almost immediately obvious from the responses of the more seasoned and serious cybercriminals in the same chat channel. There are plenty of people on Telegram claiming to have SIM-swap access at major telecommunications firms, but a great many such offers are simply four-figure scams, and any pretenders on this front are soon identified and banned ( if not worse ). One of the groups that reliably posted “Tmo up!” messages to announce SIM-swap availability against T-Mobile customers also reliably posted “Tmo down!” follow-up messages announcing exactly when their claimed access to T-Mobile employee tools was discovered and revoked by the mobile giant. A review of the timestamps associated with this group’s incessant “Tmo up” and “Tmo down” posts indicates that while their claimed access to employee tools usually lasted less than an hour, in some cases that access apparently went undiscovered for several hours or even days. How could these SIM-swapping groups be gaining access to T-Mobile’s network as frequently as they claim? Peppered throughout the daily chit-chat on their Telegram channels are solicitations for people urgently needed to serve as “callers,” or those who can be hired to social engineer employees over the phone into navigating to a phishing website and entering their employee credentials. Allison Nixon  is chief research officer for the New York City-based cybersecurity firm  Unit 221B . Nixon said these SIM-swapping groups will typically call employees on their mobile devices, pretend to be someone from the company’s IT department, and then try to get the person on the other end of the line to visit a phishing website that mimics the company’s employee login page. Nixon argues that many people in the security community tend to discount the threat from voice phishing attacks as somehow “low tech” and “low probability” threats. “I see it as not low-tech at all, because there are a lot of moving parts to phishing these days,” Nixon said. “You have the caller who has the employee on the line, and the person operating the phish kit who needs to spin it up and down fast enough so that it doesn’t get flagged by security companies. Then they have to get the employee on that phishing site and steal their credentials.” In addition, she said, often there will be yet another co-conspirator whose job it is to use the stolen credentials and log into employee tools. That person may also need to figure out how to make their device pass “posture checks,” a form of device authentication that some companies use to verify that each login is coming only from employer-issued phones or laptops. For aspiring criminals with little experience in scam calling, there are plenty of sample call transcripts available on these Telegram chat channels that walk one through how to impersonate an IT technician at the targeted company — and how to respond to pushback or skepticism from the employee. Here’s a snippet from one such tutorial that appeared recently in one of the SIM-swapping channels: “Hello this is James calling from Metro IT department, how’s your day today?” (yea im doing good, how r u) i’m doing great, thank you for asking i’m calling in regards to a ticket we got last week from you guys, saying you guys were having issues with the network connectivity which also interfered with [Microsoft] Edge, not letting you sign in or disconnecting you randomly. We haven’t received any updates to this ticket ever since it was created so that’s why I’m calling in just to see if there’s still an issue or not….” The TMO UP data referenced above, combined with comments from the SIM-swappers themselves, indicate that while many of their claimed accesses to T-Mobile tools in the middle of 2022 lasted hours on end, both the frequency and duration of these events began to steadily decrease as the year wore on.  T-Mobile declined to discuss what it may have done to combat these apparent intrusions last year. However, one of the groups began to complain loudly in late October 2022 that T-Mobile must have been doing something that was causing their phished access to employee tools to die very soon after they obtained it. One group even remarked that they suspected T-Mobile’s security team had begun monitoring their chats. Indeed, the timestamps associated with one group’s TMO UP/TMO DOWN notices show that their claimed access was often limited to less than 15 minutes throughout November and December of 2022. Whatever the reason, the calendar graphic above clearly shows that the frequency of claimed access to T-Mobile decreased significantly across all three SIM-swapping groups in the waning weeks of 2022. T-Mobile US reported revenues of nearly $80 billion last year. It currently employs more than 71,000 people in the United States, any one of whom can be a target for these phishers. T-Mobile declined to answer questions about what it may be doing to beef up employee authentication. But  Nicholas Weaver , a researcher and lecturer at University of California, Berkeley’s  International Computer Science Institute , said T-Mobile and all the major wireless providers should be requiring employees to use physical security keys for that second factor when logging into company resources. A U2F device made by Yubikey. “These breaches should not happen,” Weaver said. “Because T-Mobile should have long ago issued all employees security keys and switched to security keys for the second factor. And because security keys provably block this style of attack.” The most commonly used security keys are inexpensive USB-based devices. A security key implements a form of multi-factor authentication known as Universal 2nd Factor (U2F), which allows the user to complete the login process simply by inserting the USB key and pressing a button on the device. The key works without the need for any special software drivers. The allure of U2F devices for multi-factor authentication is that even if an employee who has enrolled a security key for authentication tries to log in at an impostor site, the company’s systems simply refuse to request the security key if the user isn’t on their employer’s legitimate website, and the login attempt fails. Thus, the second factor cannot be phished, either over the phone or Internet. Nixon said one confounding aspect of SIM-swapping is that these criminal groups tend to recruit teenagers to do their dirty work. “A huge reason this problem has been allowed to spiral out of control is because children play such a prominent role in this form of breach,” Nixon said. Nixon said SIM-swapping groups often advertise low-level jobs on places like  Roblox  and  Minecraft , online games that are extremely popular with young adolescent males. “Statistically speaking, that kind of recruiting is going to produce a lot of people who are underage,” she said. “They recruit children because they’re naive, you can get more out of them, and they have legal protections that other people over 18 don’t have.” For example, she said, even when underage SIM-swappers are arrested, the offenders tend to go right back to committing the same crimes as soon as they’re released. In January 2023, T-Mobile  disclosed  that a “bad actor” stole records on roughly 37 million current customers, including their name, billing address, email, phone number, date of birth, and T-Mobile account number. In August 2021, T-Mobile acknowledged that hackers made off with the names, dates of birth, Social Security numbers and driver’s license/ID information on more than 40 million current, former or prospective customers who applied for credit with the company. That breach came to light after  a hacker began selling the records on a cybercrime forum . In the shadow of such mega-breaches, any damage from the continuous attacks by these SIM-swapping groups can seem insignificant by comparison. But Nixon says it’s a mistake to dismiss SIM-swapping as a low volume problem. “Logistically, you may only be able to get a few dozen or a hundred SIM-swaps in a day, but you can pick  any  customer you want across their entire customer base,” she said. “Just because a targeted account takeover is low volume doesn’t mean it’s low risk. These guys have crews that go and identify people who are high net worth individuals and who have a lot to lose.” Nixon said another aspect of SIM-swapping that causes cybersecurity defenders to dismiss the threat from these groups is the perception that they are full of low-skilled “script kiddies,” a derisive term used to describe novice hackers who rely mainly on point-and-click hacking tools. “They underestimate these actors and say this person isn’t technically sophisticated,” she said. “But if you’re rolling around in millions worth of stolen crypto currency, you can buy that sophistication. I know for a fact some of these compromises were at the hands of these ‘script kiddies,’ but they’re not ripping off other people’s scripts so much as hiring people to make scripts for them. And they don’t care what gets the job done, as long as they get to steal the money.”</t>
+          <t>An exhaustive inquiry published today by a consortium of investigative journalists says a three-part series KrebsOnSecurity published in 2015 on a Romanian ATM skimming gang operating in Mexico’s top tourist destinations disrupted their highly profitable business, which raked in an estimated $1.2 billion and enjoyed the protection of top Mexican authorities. The multimedia investigation by the  Organized Crime and Corruption Reporting Project  (OCCRP) and several international journalism partners detailed the activities of the so-called  Riviera Maya  crime gang, allegedly a mafia-like group of Romanians who until very recently ran their own ATM company in Mexico called “ Intacash ” and installed sophisticated electronic card skimming devices inside at least 100 cash machines throughout Mexico. According to the OCCRP, Riviera Maya’s skimming devices allowed thieves to clone the cards, which were used to withdraw funds from ATMs in other countries — often halfway around the world in places like India, Indonesia, and Taiwan. Investigators say each skimmer captured on average 1,000 cards per month, siphoning about $200 from individual victim accounts. This allowed the crime gang to steal approximately $20 million monthly. “The gang had little tricks,” OCCRP reporters recounted in their video documentary (above). “They would use the cards in different cities all over the globe and wait three months so banks would struggle to trace where the card had originally been cloned.” In September 2015, I traveled to Mexico’s Yucatan Peninsula  to find   and document  almost two dozen ATMs in the region that were compromised with Bluetooth-based skimming devices. Unlike most skimmers — which can be detected by looking for out-of-place components attached to the exterior of a compromised cash machine — these skimmers were hooked to the internal electronics of ATMs operated by Intacash’s competitors by authorized personnel who’d reportedly been bribed or coerced by the gang. But because the skimmers were Bluetooth-based, allowing thieves periodically to collect stolen data just by strolling up to a compromised machine with a mobile device, I was able to detect which ATMs had been hacked using nothing more than a cheap smart phone. One of the Bluetooth-enabled PIN pads pulled from a compromised ATM in Mexico. The two components on the left are legitimate parts of the machine. The fake PIN pad made to be slipped under the legit PIN pad on the machine, is the orange bit, top right. The Bluetooth and data storage chips are in the middle. Several days of wandering around Mexico’s top tourist areas uncovered these sophisticated skimmers inside ATMs in Cancun, Cozumel, Playa del Carmen and Tulum, including a compromised ATM in the lobby of my hotel in Cancun. OCCRP investigators said the gang also had installed the same skimmers in ATMs at tourist hotspots on the western coast of Mexico, in Puerto Vallarta, Sayulita and Tijuana. Part III of my 2015 investigation  concluded that Intacash was likely behind the scheme. An ATM industry source told KrebsOnSecurity at the time that his technicians had been approached by ATM installers affiliated with Intacash, offering those technicians many times their monthly salaries if they would provide periodic access to the machines they maintained. The alleged leader of the Riviera Maya organization and principal owner of Intacash, 43-year-old  Florian “The Shark” Tudor , is a Romanian with permanent residence in Mexico. Tudor claims he’s an innocent, legitimate businessman who’s been harassed and robbed by Mexican authorities. Last year, police in Mexico arrested Tudor for illegal weapons possession, and raided his various properties there in connection with  an investigation into the 2018 murder of his former bodyguard ,  Constantin Sorinel Marcu . According to prosecution documents, Marcu and The Shark spotted my reporting shortly after it was published in 2015, and discussed what to do next on a messaging app: The Shark:  Krebsonsecurity.com See this. See the video and everything. There are two episodes. They made a telenovela. Marcu:  I see. It’s bad. The Shark:  They destroyed us. That’s it. Fuck his mother. Close everything. The intercepted communications indicate The Shark also wanted revenge on whoever was responsible for leaking information about their operations. The Shark:  Tell them that I am going to kill them. Marcu:  Okay, I can kill them. Any time, any hour. The Shark:  They are checking all the machines. Even at banks. They found over 20. Marcu:  Whaaaat?!? They found? Already?? Throughout my investigation, I couldn’t be sure whether Intacash’s shiny new ATMs — which positively blanketed tourist areas in and around Cancun — also were used to siphon customer card data. I did write about my suspicions that Intacash’s ATMs were up to no good when I found they frequently canceled transactions just after a PIN was entered, and typically failed to provide paper receipts for withdrawals made in U.S. dollars. But citing some of the thousands of official documents obtained in their investigation, the OCCRP says investigators now believe  Intacash installed the same or similar skimming devices in its own ATMs prior to deploying them  — despite advertising them as equipped with the latest security features and fraudulent device inhibitors. Tudor’s organization “had the access that gave The Shark’s crew huge opportunities for fraud,” the OCCRP reports. “And on the Internet, the number of complaints grew. Foreign tourists in Mexico fleeced” by Intacash’s ATMs. Many of the compromised ATMs I located in my travels throughout Mexico were at hotels, and while Intacash’s ATMs could be found on many street locations in the region, it was rare to find them installed at hotels. The confidential source with whom I drove from place to place at the time said Intacash avoided installing their machines at hotels — despite such locations being generally far more profitable — for one simple reason: If one’s card is cloned from a hotel ATM, the customer can easily complain to the hotel staff. With a street ATM, not so much. The investigation by the OCCRP and its partners paints a vivid picture of a highly insular, often violent transnational organized crime ring that controlled at least 10 percent of the $2 billion annual global market for skimmed cards. It also details  how the group laundered their ill-gotten gains , and is alleged to have  built a human smuggling ring  that helped members of the crime gang cross into the U.S. and ply their skimming trade against ATMs in the United States. Finally, the series highlights how the Riviera Maya gang operated with impunity for several years by  exploiting relationships with powerful anti-corruption officials in Mexico . Tudor and many of his associates maintain their innocence and are still living as free men in Mexico, although Tudor is facing charges in Romania for his alleged involvement with organized crime, attempted murder and blackmail. Intacash is no longer operating in Mexico. In 2019, Intacash’s sponsoring bank in Mexico suspended the company’s contract to process ATM transactions. For much more on this investigation, check out OCCRP’s multi-part series,  How a Crew of Romanian Criminals Conquered the World of ATM Skimming .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>February 28, 2023</t>
+          <t>June 3, 2020</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Finland’s Most-Wanted Hacker Nabbed in France</t>
+          <t>Apple Explains Mysterious iPhone 11 Location Requests</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Julius “Zeekill” Kivimäki,  a 25-year-old Finnish man charged with extorting a local online psychotherapy practice and leaking therapy notes for more than 22,000 patients online, was arrested this week in France. A notorious hacker convicted of perpetrating tens of thousands of cybercrimes, Kivimäki had been in hiding since October 2022, when he failed to show up in court and Finland issued an international warrant for his arrest.  In late October 2022, Kivimäki was charged (and “arrested in absentia,” according to the Finns) with attempting to extort money from the  Vastaamo Psychotherapy Center . In that breach, which occurred in October 2020, a hacker using the handle “Ransom Man” threatened to publish patient psychotherapy notes if Vastaamo did not pay a six-figure ransom demand. Vastaamo refused, so Ransom Man shifted to extorting individual patients — sending them targeted emails threatening to publish their therapy notes unless paid a 500-euro ransom. When Ransom Man found little success extorting patients directly, they uploaded to the dark web a large compressed file containing all of the stolen Vastaamo patient records. But as  documented by KrebsOnSecurity in November 2022 , security experts soon discovered Ransom Man had mistakenly included an entire copy of their home folder, where investigators found many clues pointing to Kivimäki’s involvement. From that story: “Among those who grabbed a copy of the database was  Antti Kurittu , a team lead at  Nixu Corporation  and a former criminal investigator. In 2013, Kurittu worked on an investigation involving Kivimäki’s use of the Zbot botnet, among other activities Kivimäki engaged in as a member of the hacker group  Hack the Planet  (HTP).” “It was a huge opsec [operational security] fail, because they had a lot of stuff in there — including the user’s private SSH folder, and a lot of known hosts that we could take a very good look at,” Kurittu told KrebsOnSecurity, declining to discuss specifics of the evidence investigators seized. “There were also other projects and databases.” According to the  French news site actu.fr , Kivimäki was arrested around 7 a.m. on Feb. 3, after authorities in  Courbevoie  responded to a domestic violence report. Kivimäki had been out earlier with a woman at a local nightclub, and later the two returned to her home but reportedly got into a heated argument. Police responding to the scene were admitted by another woman — possibly a roommate — and found the man inside still sleeping off a long night. When they roused him and asked for identification, the 6′ 3″ blonde, green-eyed man presented an ID that stated he was of Romanian nationality. The French police were doubtful. After consulting records on most-wanted criminals, they quickly identified the man as Kivimäki and took him into custody. Kivimäki initially gained notoriety as a self-professed member of the  Lizard Squad , a mainly low-skilled hacker group that specialized in DDoS attacks. But American and Finnish investigators say Kivimäki’s involvement in cybercrime dates back to at least 2008, when he was introduced to a founding member of what would soon become HTP. Finnish police said Kivimäki also used the nicknames “Ryan”, “RyanC” and “Ryan Cleary” (Ryan Cleary was actually a member of a rival hacker group —  LulzSec  — who was sentenced to prison for hacking). Kivimaki and other HTP members were involved in mass-compromising web servers using known vulnerabilities, and by 2012 Kivimäki’s alias Ryan Cleary was selling access to those servers in the form of a DDoS-for-hire service. Kivimäki was 15 years old at the time. The DDoS-for-hire service allegedly operated by Kivimäki in 2012. In 2013, investigators going through devices seized from Kivimäki found computer code that had been used to crack more than 60,000 web servers using a previously unknown vulnerability in  Adobe’s ColdFusion  software. KrebsOnSecurity detailed the work of HTP in September 2013, after the group  compromised servers inside data brokers LexisNexis, Kroll, and Dun &amp; Bradstreet . The group used the same ColdFusion flaws  to break into the National White Collar Crime Center (NWC3) , a non-profit that provides research and investigative support to the  U.S. Federal Bureau of Investigation  (FBI). As KrebsOnSecurity reported at the time, this small ColdFusion botnet of data broker servers was being controlled by the same cybercriminals who’d assumed control over  ssndob[.]ms , which operated one of the underground’s most reliable services for obtaining Social Security Number, dates of birth and credit file information on U.S. residents. Multiple law enforcement sources told KrebsOnSecurity that Kivimäki was responsible for making  an August 2014 bomb threat  against former  Sony Online Entertainment President John Smedley  that grounded an American Airlines plane. That incident was widely reported to have started with a tweet from the Lizard Squad, but Smedley and others said it started with a call from Kivimäki. Kivimäki also was involved in calling in multiple fake bomb threats and “swatting” incidents — reporting fake hostage situations at an address to prompt a heavily armed police response to that location. Kivimäki’s apparent indifference to hiding his tracks drew the interest of Finnish and American cybercrime investigators, and soon Finnish prosecutors charged him with an array of cybercrime violations. At trial, prosecutors presented evidence showing he’d used stolen credit cards to buy luxury goods and shop vouchers, and participated in a money laundering scheme that he used to fund a trip to Mexico. Kivimäki was ultimately convicted of orchestrating more than 50,000 cybercrimes. But largely because he was still a minor at the time (17) , he was given a 2-year suspended sentence and ordered to forfeit EUR 6,558. As  I wrote in 2015 following Kivimäki’s trial : “The danger in such a decision is that it emboldens young malicious hackers by reinforcing the already popular notion that there are no consequences for cybercrimes committed by individuals under the age of 18. Kivimäki is now crowing about the sentence; He’s changed the description on his Twitter profile to “Untouchable hacker god.” The Twitter account for the Lizard Squad tweeted the news of Kivimäki’s non-sentencing triumphantly: “All the people that said we would rot in prison don’t want to comprehend what we’ve been saying since the beginning, we have free passes.” Something tells me Kivimäki won’t get off so easily this time, assuming he is successfully extradited back to Finland. A statement by the Finnish police says they are seeking Kivimäki’s extradition and that they expect the process to go smoothly. Kivimäki could not be reached for comment. But he has been  discussing his case on Reddit  using his legal first name —  Aleksanteri  (he stopped using his middle name Julius when he moved abroad several years ago). In a post dated Jan. 31, 2022, Kivimäki responded to another Finnish-speaking Reddit user who said they were a fugitive from justice. “Same thing,” Kivimäki replied. “Shall we start some kind of club? A support organization for wanted persons?”</t>
+          <t>KrebsOnSecurity  ran a story this week  that puzzled over  Apple ‘s response to inquiries about a potential privacy leak in its new  iPhone 11  line, in which the devices appear to intermittently seek the user’s location even when all applications and system services are individually set never to request this data. Today, Apple disclosed that this behavior is tied to the inclusion of a short-range technology that lets iPhone 11 users share files locally with other nearby phones that support this feature, and that a future version of its mobile operating system will allow users to disable it.  I published Tuesday’s story mainly because Apple’s initial and somewhat dismissive response — that this was expected behavior and not a bug — was at odds with its own privacy policy and with its  recent commercials  stating that customers should be in full control over what they share via their phones and what their phones share about them. But in a statement provided today, Apple said the location beaconing  I documented in a video  was related to  Ultra Wideband  technology that “provides spatial awareness allowing iPhone to understand its position relative to other Ultra Wideband enabled devices (i.e. all new iPhone 11s, including the Pro and Pro Max). Ultra-wideband (a.k.a UWB) is  a radio technology  that uses a very low energy level for short-range, high-bandwidth communications of a large portion of the radio spectrum without interfering with more conventional transmissions. “So users can do things like share a file with someone using AirDrop simply by pointing at another user’s iPhone,” Apple’s statement reads. The company further explained that the location information indicator (a small, upward-facing arrow to the left of the battery icon) appears because the device periodically checks to see whether it is being used in a handful of countries for which Apple hasn’t yet received approval to deploy Ultra Wideband. “Ultra Wideband technology is an industry standard technology and is subject to international regulatory requirements that require it to be turned off in certain locations,” the statement continues. “iOS uses Location Services to help determine if iPhone is in these prohibited locations in order to disable Ultra Wideband and comply with regulations. The management of Ultrawide Band compliance and its use of location data is done entirely on the device and Apple is not collecting user location data.” Apple’s privacy policy says users can disable all apps and system services that query the user’s location all at once by toggling the main “Location Services” option to “off.” Alternatively, it says, users can achieve the same results by individually turning off all System Services that use location in the iPhone settings. What prompted my initial inquiry to Apple about this on Nov. 13 was that the location services icon on the iPhone 11 would reappear every few minutes even though all of the device’s individual location services had been disabled. “It is expected behavior that the Location Services icon appears in the status bar when Location Services is enabled,” Apple stated in their initial response. “ The icon appears for system services that do not have a switch in Settings ” [emphasis added]. Now we know more about at least one of those services. Apple says it plans to include the option of a dedicated toggle in System Services to disable the UWB activity in an upcoming update of its  iOS  operating system, although it didn’t specify when that option might be available. The one head-scratcher remaining is that the new iPhone seems to check whether it’s in a country that allows UWB fairly frequently, even though the list of countries where this feature is not yet permitted is fairly small, and includes Argentina, Indonesia and Paraguay. A complete list of countries where iPhones  can  use UWB is  here . The principal remaining concern may be that these periodic checks unnecessarily drain the iPhone 11’s battery. It is never my intention to create alarm where none should exist; there are far too many real threats to security and privacy that deserve greater public attention and scrutiny from the news media. However, Apple does itself and its users no favors when it takes weeks to respond (or not, as my colleague  Zack Whittaker  at  TechCrunch   discovered ) to legitimate privacy concerns, and then does so in a way that only generates more questions.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>February 5, 2023</t>
+          <t>December 5, 2019</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hacker Charged With Extorting Online Psychotherapy Service</t>
+          <t>Alleged Chief of Romanian ATM Skimming Gang Arrested in Mexico</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A 25-year-old Finnish man has been charged with extorting a once popular and now-bankrupt online psychotherapy company and its patients. Finnish authorities rarely name suspects in an investigation, but they were willing to make an exception for  Julius “Zeekill” Kivimaki , a notorious hacker who — at the tender age of 17 — had been  convicted of more than 50,000 cybercrimes , including data breaches, payment fraud, operating botnets, and calling in bomb threats. In late October 2022, Kivimaki was charged (and arrested in absentia, according to the Finns) with attempting to extort money from the  Vastaamo Psychotherapy Center .  On October 21, 2020, Vastaamo became the target of blackmail when a tormentor identified as “ ransom_man ” demanded payment of 40 bitcoins (~450,000 euros at the time) in return for a promise not to publish highly sensitive therapy session notes Vastaamo had exposed online. In a series of posts over the ensuing days on a Finnish-language dark net discussion board, ransom_man said Vastaamo appeared unwilling to negotiate a payment, and that he would start publishing 100 patient profiles every 24 hours “to provide further incentive for the company to continue communicating with us.” “We’re not asking for much, approximately 450,000 euros which is less than 10 euros per patient and only a small fraction of the around 20 million yearly revenues of this company,” ransom_man wrote. When Vastaamo declined to pay, ransom_man shifted to extorting individual patients. According to  Finnish police , some 22,000 victims reported extortion attempts targeting them personally, targeted emails that threatened to publish their therapy notes online unless paid a 500 euro ransom. The extortion message targeted Vastaamo patients. On Oct. 23, 2020, ransom_man uploaded to the dark web a large compressed file that included all of the stolen Vastaamo patient records. But investigators found the file also contained an entire copy of ransom_man’s home folder, a likely mistake that exposed a number of clues that they say point to Kivimaki. Ransom_man quickly deleted the large file (accompanied by a “whoops” notation), but not before it had been downloaded a number of times. The entire archive has since been made into a searchable website on the Dark Web. Among those who grabbed a copy of the database was  Antti Kurittu , a team lead at  Nixu Corporation  and a former criminal investigator. In 2013, Kurittu worked on investigation involving Kivimaki’s use of the Zbot botnet, among other activities Kivimaki engaged in as a member of the hacker group  Hack the Planet . “It was a huge opsec [operational security] fail, because they had a lot of stuff in there — including the user’s private SSH folder, and a lot of known hosts that we could take a very good look at,” Kurittu told KrebsOnSecurity, declining to discuss specifics of the evidence investigators seized. “There were also other projects and databases.” Kurittu said he and others he and others who were familiar with illegal activities attributed to Kivimäki couldn’t shake suspicion that the infamous cybercriminal was also behind the Vastaamo extortion. “I couldn’t find anything that would link that data directly to one individual, but there were enough indicators in there that put the name in my head and I couldn’t shake it,” Kurittu said. “When they named him as the prime suspect I was not surprised.” A handful of individually extorted victims paid a ransom, but when news broke that the entire Vastaamo database had been leaked online, the extortion threats no longer held their sting. However, someone would soon set up a site on the dark web where anyone could search this sensitive data. Kivimaki stopped using his middle name Julius in favor of his given first name  Aleksanteri  when he moved abroad several years ago. A Twitter account by that name was verified by Kivimaki’s attorney as his, and through that account he denied being involved in the Vastaamo extortion. “I believe [the Finnish authorities] brought this to the public in order to influence the decision-making of my old case from my teenage years, which was just processed in the Court of Appeal, both cases are investigated by the same persons,” Kivimaki  tweeted on Oct. 28 . Kivimaki is appealing a 2020 district court decision sentencing him to “one year of conditional imprisonment for two counts of fraud committed as a young person, and one of gross fraud, interference with telecommunications as a young person, aggravated data breach as a young person and incitement to fraud as a young person,” according to the Finnish tabloid  Ilta-Sanomat. “Now in the Court of Appeal, the prosecutor is demanding a harsher punishment for the man, i.e. unconditional imprisonment,” reads the  Ilta-Sanomat story . “The prosecutor notes in his complaint that the young man has been committing cybercrimes from Espoo since he was 15 years old, and the actions have had to be painstakingly investigated through international legal aid.” As described in  this Wired story last year , Vastaamo filled an urgent demand for psychological counseling, and it won accolades from Finnish health authorities and others for its services. “Vastaamo was a private company, but it seemed to operate in the same spirit of tech-enabled ease and accessibility: You booked a therapist with a few clicks, wait times were tolerable, and Finland’s Social Insurance Institution reimbursed a big chunk of the session fee (provided you had a diagnosed mental disorder),”  William Ralston  wrote for  Wired . “The company was run by  Ville Tapio , a 39-year-old coder and entrepreneur with sharp eyebrows, slicked-back brown hair, and a heavy jawline. He’d cofounded the company with his parents. They pitched ­Vastaamo as a humble family-run enterprise committed to improving the mental health of all Finns.” But for all the good it brought, the healthcare records management system that Vastaamo used relied on little more than a MySQL database that was left dangerously exposed to the web for 16 months, guarded by nothing more than an administrator account with a blank password. The Finnish daily  Iltalehti  said Tapio was relieved of his duties as CEO of Vastaamo in October 2020, and that in September, prosecutors brought charges against Tapio for a data protection offense in connection with Vastaamo’s information leak. “According to Vastaamo, the data breach in Vastaamo’s customer databases took place in November 2018,” Iltalehti reported last month. “According to Vastaamo, Tapio concealed information about the data breach for more than a year and a half.”</t>
+          <t>An alleged top boss of a Romanian crime syndicate that U.S. authorities say is responsible for deploying card-skimming devices at Automated Teller Machines (ATMs) throughout North America was arrested in Mexico last week on firearms charges. The arrest comes months after the accused allegedly ordered the execution of a former bodyguard who was trying to help U.S. authorities bring down the group’s lucrative skimming operations. On Mar. 31, police in Cancun, Mexico  arrested two Romanian men , identified only as 42-year-old “ Florian N ” and 37-year-old “ Adrian Nicholae N ,” 37, for the possession of an illegal firearm and cash totaling nearly 500,000 pesos (~USD $26,000) in both American and Mexican denominations. An uncaptioned photo published by the Mexican police. According to multiple sources, the individual on the left is Intacash boss Florian Tudor, along with his deputy Nicholae Cosmin. The two men’s faces were partially obscured in the mugshots released to Mexican media. But according to multiple sources familiar with the investigation, the older man arrested (pictured on the left) is  Florian “The Shark” Tudor , reputed to be in charge of a relatively new ATM company based in Mexico called  Intacash . The man on the right has been identified as  Nicolae Cosmin , Tudor’s deputy. Intacash was the central focus of a  three – part   investigation  KrebsOnSecurity published in September 2015. That story tracked the activities of a crime gang that was bribing and otherwise coercing ATM technicians to install sophisticated Bluetooth-based skimmers inside cash machines throughout popular tourist destinations in and around Mexico’s Yucatan Peninsula — including Cancun, Cozumel, Playa del Carmen and Tulum. Meanwhile, Intcash’s machines were about the only ATMs in top tourist spots in Mexico that  weren’t  getting compromised with these bluetooth skimming devices. Law enforcement and ATM industry sources cited in that story said they believe Intacash is controlled by Romanian nationals and that its key principals were the ones paying ATM technicians to compromise machines at competing ATM providers. As I discovered in reporting that series, it was possible to tell which ATMs were compromised in Mexico’s top tourist spots just by approaching each with a smart phone and looking for the presence of a Bluetooth signal beaconing out a wireless network with the name “Free2Move”. This functionality allowed the crime syndicate to siphon credit and debit card details and PINs from hacked ATMs wirelessly, without ever again having to touch the compromised machines (see the video below for more on that investigation). In April 2018, KrebsOnSecurity heard from a Romanian person who claimed to have been working for Intacash. This individual seemed extremely concerned for their safety, but at the same time eager to share details about the company’s operations and owners. The source shared photographs of Intacash’s chief deputies, as well as screenshots of card data allegedly hoovered up by the company’s various skimming operations. The source repeatedly told me the Romanian gang was paying large sums of money to Mexican authorities to stay off their radar. The last time I heard from that source was June 2018, just after a like-minded associate at Intacash was found shot dead in his car. The associate, 44-year-old  Sorinel Constantin Marcu , was already wanted on a warrant from  Interpol , the international criminal police organization. In 2014, a Romanian court issued a criminal warrant for Marcu on allegations of attempted murder back in his hometown of Craiova, Romanian’s 6th-largest city. But Marcu was able to flee to Mexico before he could be tried. The court later convicted Marcu in abstentia, leveling a sentence of eight years in prison. On  the evening of June 11, 2018, Marcu was shot in the head, reportedly while trying to kidnap a businessman in Mexico, according to multiple media accounts. A street surveillance video of the incident published by  Romanian daily Gazeta de SUD  shows a  Dodge Nitro  allegedly driven by Marcu hitting the businessman’s parked car. The businessman manages to flee, and the passenger in Marcu’s vehicle briefly starts after him, before returning to the picture a few seconds later. Marcu’s passenger gets back in the vehicle, which then moves out of view of the security camera. “Later, one of the businessman’s guards came out of the house and shot several gun shots in the car driven by Marcu, and he was killed on the spot,” Gazeta reported. My source’s last communication was that they had tried to reach out to U.S. federal investigators but hadn’t had much luck. The source wanted the name and a number of someone to talk to at the FBI or Secret Service. That source also said corrupt Mexican authorities were complicit in changing the news media narrative of what happened to Sorinel Marcu. “Hi Brian do you have some news about your contact? Because the person who was going to testify now is dead,” my source wrote. “The boss of the gang do it, who I told you kill him, now he pay a lot of money to change the real story, and now that Cancun’s police work for him. Because the maybe guilty stayed 24 hours arrested (or less) for homicide. Please if this week you can do something for us, help us!” Searching for others who might have knowledge of the shooting, I found a Facebook posting by Marcu’s brother —  Aurelio Marcu  — who  commented on a Facebook video  recorded shortly after Marcu’s execution in which bystanders can be heard telling those approaching the car not to move his brother’s body. The video was posted by a Mexican news channel, which reported the men questioned by police in connection with the incident were carrying Russian passports. “They are from Romania, not Russia,” Aurelio Marcu wrote in a comment on the video, saying the boss of the gang is a guy named Tudor Florin, also known as “Rechinu” or “shark” in Romanian. Police in Puerto Morelos seized weapons and a Cadillac Escalade from Romanians Florian Tudor and Nicolae Cosmin. Image: Riviera-maya-news.com. In an interview with KrebsOnSecurity, Aurelio Marcu said his younger brother was killed in front of a new apartment complex being built and paid for by Mr. Tudor, and that the dead man’s body was moved to his car to make it look like he was slain there instead. He also said his brother and the passenger in the Dodge Nitro were following a man who worked in Tudor’s crew, not some random businessman. “He was unarmed, and if you look at  the pictures  in the papers from his death, you can see he is wearing flip flops when he was shot,” Aurelio Marcu said, speaking through an interpreter. “How can you go kidnap someone wearing flip flops and with no weapon?” Marcu the elder said his dead brother long served as Tudor’s personal bodyguard, but at some point the two had a falling out over the money and women. Marcu said things got really tense between Tudor and his brother when the latter began sabotaging Intacash’s operations by applying superglue to the PIN pads and card acceptance slots of Intacash ATMs throughout Cancun. A warrant for Constantine Sorinel Marcu, on attempted murder charges. Marcu was shot and killed in June 2018, allegedly by Mr. Tudor and/or his associates. Marcu said Tudor’s crew had tried once before to kill his brother, but only managed to seriously wound him in a knife attack that ruptured his spleen. Asked why he believes Florian Tudor was responsible for his brother’s death, Marcu said Sorinel “was an impediment for them, and Mr. Tudor was afraid that he would talk to the police.” Marcu said Tudor and his associates are working with criminal syndicates in China, India and Indonesia to help cash out credit and debit card accounts stolen via Intacash’s extensive ATM skimming operations. He also said Mr. Tudor is reputed to keep up to USD $50,000 in cash on hand at all times, just in case he needs to buy himself out of a sticky situation with the police. “This is so that if anything happens to him, he has a window to escape,” Marcu said. “He used to brag that he had days when he was making like $200,000 a day doing all this ATM and fake credit cards stuff.” Additionally, Marcu said Mr. Tudor is working on building a theme park in the Puerto Morelos area of Quintana Roo, a Mexican state on the Yucatan Peninsula that encompasses Cancun and other tourist areas close by. Aurelio Marcu says he and his brother are from the the same hometown as Tudor and his crew — Craiova, Romania, and that he’s been living under active protection from the Romanian police out of fear for his life. Marcu is doubly worried now because he’s recently learned that both Tudor and Cosmin made bail on the weapons charges. He believes they are probably trying to figure out how to quietly wind down their operations in Mexico and flee the country. KrebsOnSecurity has learned that Tudor and others alleged to be part of the Romanian ATM skimming ring in Mexico are the target of a more wide-ranging FBI investigation into the alleged Romanian crime family. The FBI did not respond to requests for comment. According to people briefed on the investigation, Mexico is a central hub for hundreds of individuals from Romania who have moved into tourist areas to help execute various ATM skimming and money laundering schemes there and across the border in the United States. Those officials describe the Romanian crime network in Mexico as part of a far larger criminal syndicate that has foot soldiers who are ready and able to execute ATM skimming attacks throughout North America and in virtually every major U.S. city. Sources say Romanian intelligence services also have been keeping tabs on this group’s operations south of the U.S. border — specifically on Mssrs. Tudor and Cosmin, as well as the now-deceased Sorinel Marcu.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>November 3, 2022</t>
+          <t>April 4, 2019</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hackers Gaining Power of Subpoena Via Fake “Emergency Data Requests”</t>
+          <t>The Backstory Behind Carder Kingpin Roman Seleznev’s Record 27 Year Prison Sentence</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>There is a terrifying and highly effective “method” that criminal hackers are now using to harvest sensitive customer data from Internet service providers, phone companies and social media firms. It involves compromising email accounts and websites tied to police departments and government agencies, and then sending unauthorized demands for subscriber data while claiming the information being requested can’t wait for a court order because it relates to an urgent matter of life and death.  In the United States, when federal, state or local law enforcement agencies wish to obtain information about who owns an account at a social media firm, or what Internet addresses a specific cell phone account has used in the past, they must submit an official court-ordered warrant or subpoena. Virtually all major technology companies serving large numbers of users online have departments that routinely review and process such requests, which are typically granted as long as the proper documents are provided and the request appears to come from an email address connected to an actual police department domain name. But in certain circumstances — such as a case involving imminent harm or death — an investigating authority may make what’s known as an  Emergency Data Request  (EDR), which largely bypasses any official review and does not require the requestor to supply any court-approved documents. It is now clear that some hackers have figured out there is no quick and easy way for a company that receives one of these EDRs to know whether it is legitimate. Using their illicit access to police email systems, the hackers will send a fake EDR along with an attestation that innocent people will likely suffer greatly or die unless the requested data is provided immediately. In this scenario, the receiving company finds itself caught between two unsavory outcomes: Failing to immediately comply with an EDR — and potentially having someone’s blood on their hands — or possibly leaking a customer record to the wrong person. “We have a legal process to compel production of documents, and we have a streamlined legal process for police to get information from ISPs and other providers,” said  Mark Rasch , a former prosecutor with the  U.S. Department of Justice . “And then we have this emergency process, almost like you see on [the television series] Law &amp; Order, where they say they need certain information immediately,” Rasch continued. “Providers have a streamlined process where they publish the fax or contact information for police to get emergency access to data. But there’s no real mechanism defined by most Internet service providers or tech companies to test the validity of a search warrant or subpoena. And so as long as it looks right, they’ll comply.” To make matters more complicated, there are tens of thousands of police jurisdictions around the world — including roughly  18,000 in the United States alone  — and all it takes for hackers to succeed is illicit access to a single police email account. The reality that teenagers are now impersonating law enforcement agencies to subpoena privileged data on their targets at whim is evident in the dramatic backstory behind  LAPSUS$ , the data extortion group that  recently hacked into some of the world’s most valuable technology companies , including  Microsoft ,  Okta ,  NVIDIA  and  Vodafone . In  a blog post  about their recent hack, Microsoft said LAPSUS$ succeeded against its targets through a combination of low-tech attacks, mostly involving old-fashioned social engineering — such as bribing employees at or contractors for the target organization. “Other tactics include phone-based social engineering;  SIM-swapping  to facilitate account takeover; accessing personal email accounts of employees at target organizations; paying employees, suppliers, or business partners of target organizations for access to credentials and multi-factor authentication (MFA) approval; and intruding in the ongoing crisis-communication calls of their targets,” Microsoft wrote of LAPSUS$. The roster of the now-defunct “Infinity Recursion” hacking team, from which some members of LAPSUS$ allegedly hail. Researchers from security firms  Unit 221B  and  Palo Alto Networks  say that prior to launching LAPSUS$, the group’s leader “White” (a.k.a. “WhiteDoxbin,” “Oklaqq”) was a founding member of a cybercriminal group calling itself the “ Recursion Team. ” This group specialized in SIM swapping targets of interest and participating in  “swatting” attacks , wherein fake bomb threats, hostage situations and other violent scenarios are phoned in to police as part of a scheme to trick them into visiting potentially deadly force on a target’s address. The founder of the Recursion Team was a then 14-year-old from the United Kingdom who used the handle “ Everlynn .” On April 5, 2021, Everlynn posted a new sales thread to the cybercrime forum cracked[.]to titled, “Warrant/subpoena service (get law enforcement data from any service).” The price: $100 to $250 per request. Everlynn advertising a warrant/subpoena service based on fake EDRs. Image: Ke-la.com. “Services [include] Apple, Snapchat, Google (more expensive), not doing Discord, basically any site mostly,” read Everlynn’s ad, which was posted by the user account “InfinityRecursion.” A month prior on Cracked, Everlynn posted a sales thread, “1x Government Email Account || BECOME A FED!,” which advertised the ability to send email from a federal agency within the government of Argentina. “I would like to sell a government email that can be used for subpoena for many companies such as Apple, Uber, Instagram, etc.,” Everlynn’s sales thread explained, setting the price at $150. “You can breach users and get private images from people on SnapChat like nudes, go hack your girlfriend or something haha. You won’t get the login for the account, but you’ll basically obtain everything in the account if you play your cards right. I am not legally responsible if you mishandle this. This is very illegal and you will get raided if you don’t use a vpn. You can also breach into the government systems for this, and find LOTS of more private data and sell it for way, way more.” Last week, the  BBC  reported that authorities in the United Kingdom  had detained seven individuals aged 16 to 21  in connection with LAPSUS$. It remains unclear whether White or Everlynn were among those detained; U.K. police declined to name the suspects. But White’s real-life identity became public recently after he crossed the wrong people. The de-anonymization of the LAPSUS$ leader began late last year after he purchased a website called  Doxbin , a long-running and highly toxic online community that is used to “dox” or post deeply personal information on people. Based on the feedback posted by Doxbin members, White was not a particularly attentive administrator. Longtime members soon took to harassing him about various components of the site falling into disrepair. That pestering eventually prompted White to sell Doxbin back to its previous owner at a considerable loss. But before doing so, White leaked the Doxbin user database. White’s leak triggered a swift counterpunch from Doxbin’s staff, which naturally responded by posting on White perhaps the most thorough dox the forum had ever produced. KrebsOnSecurity recently interviewed the past and current owner of the Doxbin — an established hacker who goes by the handle “ KT .” According to KT, it is becoming more common for hackers to use EDRs for stalking, hacking, harassing and publicly humiliating others. KT shared several recent examples of fraudulent EDRs obtained by hackers who bragged about their success with the method. “Terroristic threats with a valid reason to believe somebody’s life is in danger is usually the go-to,” KT said, referring to the most common attestation that accompanies a fake EDR. One of the phony EDRs shared by KT targeted an 18-year-old from Indiana, and was sent to the social media platform  Discord  earlier this year. The document requested the Internet address history of Discord accounts tied to a specific phone number used by the target. Discord complied with the request. “Discord replies to EDRs in 30 minutes to one hour with the provided information,” KT claimed. Asked about the validity of the unauthorized EDR shared by KT, Discord said the request came from a legitimate law enforcement account that was later determined to have been compromised. “We can confirm that Discord received requests from a legitimate law enforcement domain and complied with the requests in accordance with our policies,” Discord said in a written statement. “We verify these requests by checking that they come from a genuine source, and did so in this instance. While our verification process confirmed that the law enforcement account itself was legitimate, we later learned that it had been compromised by a malicious actor. We have since conducted an investigation into this illegal activity and notified law enforcement about the compromised email account.” KT said fake EDRs don’t have to come from police departments based in the United States, and that some people in the community of those sending fake EDRs are hacking into police department emails by first compromising the agency’s website. From there, they can drop a backdoor “shell” on the server to secure permanent access, and then create new email accounts within the hacked organization. In other cases, KT said, hackers will try to guess the passwords of police department email systems. In these attacks, the hackers will identify email addresses associated with law enforcement personnel, and then attempt to authenticate using passwords those individuals have used at other websites that have been breached previously. “A lot of governments overseas are using WordPress, and I know a kid on Telegram who has multiple shells on gov sites,” KT said. “It’s near impossible to get U.S. dot-govs nowadays, although I’ve seen a few people with it. Most govs use [Microsoft] Outlook, so it’s more difficult because theres usually some sort of multi-factor authentication. But not all have it.” According to KT, Everlynn and White recently had a falling out, with White paying KT to publish a dox on Everlynn and to keep it pinned to the site’s home page. That dox states that Everlynn is a 15-year-old from the United Kingdom who has used a variety of monikers over the past year alone, including “ Miku ” and “ Anitsu .” KT said Everlynn’s dox is accurate, and that the youth has been arrested multiple times for issuing fake EDRs. But KT said each time Everlynn gets released from police custody, they go right back to committing the same cybercrimes. “Anitsu (Miku, Everlynn), an old staff member of Doxbin, was arrested probably 4-5 months ago for jacking government emails used for EDR’ing,” KT said. “White and him are not friends anymore though. White paid me a few weeks ago to pin his dox on Doxbin. Also, White had planned to use EDRs against me, due to a bet we had planned; dox for dox, winner gets 1 coin.” Nicholas Weaver , a security specialist and lecturer at the  University of California, Berkeley , said one big challenge to combating fraudulent EDRs is that there is fundamentally no notion of global online identity. “The only way to clean it up would be to have the FBI act as the sole identity provider for all state and local law enforcement,” Weaver said. “But even that won’t necessarily work because how does the FBI vet in real time that some request is really from some podunk police department?” It’s not clear that the FBI would be willing or able to take on such a task. In November 2021, KrebsOnSecurity broke the news that hackers sent a fake email alert to thousands of state and local law enforcement entities through the FBI’s  Law Enforcement Enterprise Portal  (LEEP). In that attack, the intruders abused a  fairly basic and dangerous coding error on the website , and the fake emails all came from a real  fbi.gov  address. The phony message sent in November 2021 via the FBI’s email system. KrebsOnSecurity asked the FBI whether it had any indication that its own systems were used for unauthorized EDRs. The FBI declined to answer that question, but confirmed it was aware of different schemes involving phony EDRs targeting both the public and the agency’s private sector partners. “We take these reports seriously and vigorously pursue them,” reads a written statement shared by the FBI. “Visit  this page  for tips and resources to verify the information you are receiving. If you believe you are a victim of an emergency data request scheme, please report to  www.ic3.gov  or contact your local FBI field office.” Rasch said while service providers need more rigorous vetting mechanisms for all types of legal requests, getting better at spotting unauthorized EDRs would require these companies to somehow know and validate the names of every police officer in the United States. “One of the problems you have is there’s no validated master list of people who are authorized to make that demand,” Rasch said. “And that list is going to change all the time. But even then, the entire system is only as secure as the least secure individual police officer email account.” The idea of impersonating law enforcement officers to obtain information typically only available via search warrant or subpoena is hardly new. A fictionalized example appeared in the second season of the hit television show  Mr. Robot , wherein the main character Elliot  pretends to be a police officer to obtain location data in real time from a cellular phone company . Weaver said what probably keeps fraudulent EDRs from being more common is that most people in the criminal hacking community perceive it as too risky. This is supported by the responses in discussion threads across multiple hacking forums where members sought out someone to perform an EDR on their behalf. “It’s highly risky if you get caught,” Weaver said. “But doing this is not a matter of skill. It’s one of will. It’s a fundamentally unfixable problem without completely redoing how we think about identity on the Internet on a national scale.” The current situation with fraudulent EDRs illustrates the dangers of relying solely on email to process legal requests for highly sensitive subscriber data. In July 2021, a bipartisan group of U.S. senators introduced new legislation to combat the growing use of counterfeit court orders by scammers and criminals. The bill calls for funding for state and tribal courts to adopt widely available digital signature technology that meets standards developed by the National Institute of Standards and Technology. “Forged court orders, usually involving copy-and-pasted signatures of judges, have been used to authorize illegal wiretaps and fraudulently take down legitimate reviews and websites by those seeking to conceal negative information and past crimes,” the lawmakers said in a statement introducing their bill. The  Digital Authenticity for Court Orders Act  would require federal, state and tribal courts to use a digital signature for orders authorizing surveillance, domain seizures and removal of online content.</t>
+          <t>Roman Seleznev , a 32-year-old Russian cybercriminal and prolific credit card thief, was sentenced Friday to 27 years in federal prison. That is a record punishment for hacking violations in the United States and by all accounts one designed to send a message to criminal hackers everywhere. But a close review of the case suggests that Seleznev’s record sentence was severe in large part because the evidence against him was substantial and yet he declined to cooperate with prosecutors prior to his trial. The Maldives is a South Asian island country, located in the Indian Ocean, situated in the Arabian Sea. Source: Wikipedia. The son of an influential Russian politician, Seleznev made international headlines in 2014 after he was  captured  while vacationing in  The Maldives , a popular vacation spot for Russians and one that  many Russian cybercriminals  previously  considered  to be out of reach for western law enforcement agencies. However, U.S. authorities were able to negotiate a secret deal with the Maldivian government to apprehend Seleznev. Following his capture, Seleznev was whisked away to Guam for  more than a month  before being transported to Washington state to stand trial for computer hacking charges. The U.S. Justice Department says the laptop found with him when he was arrested contained more than 1.7 million stolen credit card numbers, and that evidence presented at trial showed that Seleznev earned tens of millions of dollars defrauding more than 3,400 financial institutions. Investigators also reportedly  found a smoking gun: a password cheat sheet  that linked Seleznev to a decade’s worth of criminal hacking. Seleznev was initially identified as a major cybercriminal by U.S. government investigators in 2011, when prosecutors in Nevada named him as part of a conspiracy involving more than three dozen popular merchants on  carder[dot]su , a bustling fraud forum where he and other members openly marketed various cybercrime-oriented services. Known by the hacker handle “nCux,” Seleznev operated multiple online shops that sold stolen credit and debit card data. According to  Seleznev’s indictment in the Nevada case , he was part of a group that hacked into restaurants between 2009 and 2011 and planted malicious software to steal card data from store point-of-sale devices. In Seattle on Aug. 25, 2016 , Seleznev was convicted of 10 counts of wire fraud, eight counts of intentional damage to a protected computer, nine counts of obtaining information from a protected computer, nine counts of possession of 15 or more unauthorized access devices and two counts of aggravated identity theft. “Simply put, Roman Seleznev has harmed more victims and caused more financial loss than perhaps any other defendant that has appeared before the court,” federal prosecutors charged in their sentencing memorandum.  “This prosecution is unprecedented.” Seleznev’s lawyer  Igor Litvak  called his client’s sentence “draconian,” saying that Seleznev was gravely injured in a 2011 terrorist attack in Morocco, has Hepatitis B and is not well physically. Litvak noted that his client also faces two more prosecutions — in Georgia and Nevada, and that his client is likely to be shipped off to Nevada soon. “It’s unprecedented, yes, but it’s also a draconian sentence for a person who is very gravely ill,” Litvak said in an interview with KrebsOnSecurity. “He’s not going to live that long. He’s going to die in jail. I’m certain of that.” As for the severity of his sentence, Seleznev did himself no favors by rededicating himself to his carding empire after having been clearly marked by U.S. investigators in the 2011 indictment as a key figure in an online organized crime ring. Many of the documents related to Seleznev’s prosecution and conviction in Washington state last week remain sealed, as he still faces federal criminal hacking charges in Nevada and Georgia. But former  black hat Russian hacker  turned political and cybersecurity blogger  Andrey “Sporaw” Sporov   published snippets  from documents apparently related to Seleznev’s prosecution indicating that investigators with the  U.S. Secret Service and FBI  met with the  Russian Federal Security Service  (FSB) in 2009 to discuss Seleznev’s activities, presenting “substantial” evidence that Seleznev was a bigtime cybercrook. 2pac[dot]cc credit card shop that Seleznov operated, among others. Seleznev’s online alter ego nCux reportedly got word of the meeting, and was soon after seen deleting his identities on hacker forums and saying he was closing up shop: 2pac[dot]cc credit card shop that Seleznov operated, among others. “As U.S. Probation noted, the information that U.S. law enforcement was investigating Seleznev ‘clearly got back to Mr. Seleznev,'” reads the document. “Indeed, Seleznev had his own contacts inside the FSB. In chat messages between Seleznev and an associate from 2008, Seleznev stated that he had obtained protection through the law enforcement contacts in the computer crime squad of the FSB. Later, in 2010, Seleznev told another associate that the FSB knew his identity and was working with the FBI.”. But nCux didn’t go away, he merely  reinvented himself as “Bulba,”  operating a number of carding sites including track2[dot]name, bulba[dot]cc, and 2Pac[dot]cc. These sites sold tens of thousands of “dumps,” data that thieves encode onto new plastic cards and use to buy high-priced electronics and gift cards from big box retailers. Seleznev’s sites specialized in selling tens of thousands of dumps at a time to criminal groups and street gangs operating throughout the United States A private mesasge between card merchant “Bulba” and an interested buyer on the fraud bazaar carder[dot]pro. Seleznev reportedly used this money to live an extravagant lifestyle, buying up properties in Bali, Indonesia. Photographs seized from Seleznev show his associates with large bundles of cash, at luxurious resorts, and posing for photographs next to flashy sports cars. Just before his capture, Seleznev reportedly spent over $20,000 to stay in a resort in the Maldives and boasting of having rented the most expensive accommodations there. A private mesasge between card merchant “Bulba” and an interested buyer on the fraud bazaar carder[dot]pro. Sporov’s documents describe Seleznev’s years to evade law enforcement officials following his then-sealed indictment in Nevada: “Seleznev remained at large for over three years. During this period, Seleznev carefully evaded apprehension, employing practices like buying last-minute plane tickets to avoid giving authorities advance notice of his travel plans. Seleznev obtained an account with the U.S. Court’s PACER system, which he monitored for criminal indictments naming him or his nicknames. He avoided travel to countries that had entered into extradition treaties with the United States. Indeed, when Seleznev was finally confronted by U.S. agents in the Maldives, his first words were to question whether the United States had an extradition treaty with the Maldives.” The defendant also apparently burned through multiple lawyers, almost all of whom appear to have advised him to seek a plea deal with the U.S. government: “Seleznev repeatedly attempted to manipulate and protract these proceedings, resulting in a cumulative delay of 26 months, and six sets of counsel, between his capture and trial….Transcripts of jail calls previously submitted to the Court reveal that, in the days leading up to the hearing, Seleznev and his father resolved to delay the hearing so that they could work on a secret strategy they elliptically referred to as ‘Uncle Andrey’s option.’ To manufacture the delay, Seleznev’s father suggested that Seleznev either ‘get sick’ or ‘completely stop the communication with the lawyers.'” Seleznev is the son of  Valery Seleznev , a prominent member of the Russian Duma (Russia’s parliament) and is considered an ally of  President Vladimir Putin . As the Seattle Times  wrote  at Seleznev’s conviction in 2016, “federal prosecutors accused Seleznev and his father of plotting to tamper with witnesses and  possibly discussing an escape  from the Federal Detention Center in SeaTac. The assertions were based on recorded conversations, according to the government.” Seleznev posing with a sports car in Red Square. Image: DOJ. Perhaps Mr. Seleznev thought his father’s influence and/or his own apparent connections with Russian law enforcement officials would rescue him. Maybe Seleznev believed he could prevail against the U.S. government in court. But it seems clear that Seleznev’s record 27-year sentence had at least as much to do with the impact of his crimes as it did the enormity of the charges and evidence against him combined with his refusal to cooperate with investigators. Seleznev’s lawyer  Igor Litvak  said his client declined a plea deal prior to his trial, and by the time Seleznev had changed his mind the trial was over and the government no longer needed the information he could offer. Prosecutors sought to put him away for 35 years: They got eight years shy of that request. “The prosecution said if he would have cooperated this case would have turned out very differently,” Litvak said. The docket for Seleznev’s case is  available here  and includes a number of unsealed documents related to this case. Update, Apr. 25, 5:09 p.m. ET:  Added link in the third paragraph to documentation of Seleznev’s month-long hiatus in Guam.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>March 29, 2022</t>
+          <t>April 24, 2017</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Try This One Weird Trick Russian Hackers Hate</t>
+          <t>Inside ‘The Attack That Almost Broke the Internet’</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>In a  Twitter  discussion last week on ransomware attacks, KrebsOnSecurity  noted  that virtually all ransomware strains have a built-in failsafe designed to cover the backsides of the malware purveyors: They simply will not install on a  Microsoft Windows  computer that already has one of many types of virtual keyboards installed — such as Russian or Ukrainian. So many readers had questions in response to the tweet that I thought it was worth a blog post exploring this one weird cyber defense trick. The Commonwealth of Independent States (CIS) more or less matches the exclusion list on an awful lot of malware coming out of Eastern Europe. The Twitter thread came up in a discussion on  the ransomware attack against Colonial Pipeline , which earlier this month shut down 5,500 miles of fuel pipe for nearly a week, causing fuel station supply shortages throughout the country and driving up prices. The  FBI said  the attack was the work of  DarkSide , a new-ish ransomware-as-a-service offering that says it targets only large corporations. DarkSide and other Russian-language affiliate moneymaking programs have long barred their criminal associates from installing malicious software on computers in a host of Eastern European countries, including Ukraine and Russia. This prohibition dates back to the earliest days of organized cybercrime, and it is intended to minimize scrutiny and interference from local authorities. In Russia, for example, authorities there generally will not initiate a cybercrime investigation against one of their own unless a company or individual within the country’s borders files an official complaint as a victim. Ensuring that no affiliates can produce victims in their own countries is the easiest way for these criminals to stay off the radar of domestic law enforcement agencies. Possibly feeling the heat from being  referenced  in  President Biden’s Executive Order on cybersecurity  this past week, the DarkSide group sought to distance itself from their attack against Colonial Pipeline. In a message posted to its victim shaming blog, DarkSide tried to say it was “apolitical” and that it didn’t wish to participate in geopolitics. “Our goal is to make money, and not creating problems for society,” the DarkSide criminals wrote last week. “From today we introduce moderation and check each company that our partners want to encrypt to avoid social consequences in the future.” But here’s the thing:  Digital extortion gangs like DarkSide take great care to make their entire platforms geopolitical, because their malware is engineered to work only in certain parts of the world. DarkSide, like a great many other malware strains, has a hard-coded do-not-install list of countries which are the principal members of the Commonwealth of Independent States (CIS) — former Soviet satellites that mostly have favorable relations with the Kremlin. The full exclusion list in DarkSide (published by  Cybereason ) is below: Image: Cybereason. Simply put, countless malware strains will check for the presence of one of these languages on the system, and if they’re detected the malware will exit and fail to install. [Side note. Many security experts have pointed to connections between the DarkSide and REvil (a.k.a. “Sodinokibi”) ransomware groups. REvil was previously known as  GandCrab , and one of the many things GandCrab had in common with REvil was that  both programs barred affiliates from infecting victims in Syria.  As we can see from the chart above, Syria is also exempted from infections by DarkSide ransomware. And DarkSide itself proved their connection to REvil this past week  when it announced it was closing up shop after its servers and bitcoin funds were seized .] Will installing one of these languages keep your Windows computer safe from all malware? Absolutely not. There is plenty of malware that doesn’t care where in the world you are. And there is no substitute for adopting a defense-in-depth posture, and avoiding risky behaviors online. But is there really a downside to taking this simple, free, prophylactic approach? None that I can see, other than perhaps a sinking feeling of capitulation. The worst that could happen is that you accidentally toggle the language settings and all your menu options are in Russian. If this happens (and the first time it does the experience may be a bit jarring) hit the Windows key and the space bar at the same time; if you have more than one language installed you will see the ability to quickly toggle from one to the other. The little box that pops up when one hits that keyboard combo looks like this:  Cybercriminals are notoriously responsive to defenses which cut into their profitability, so why wouldn’t the bad guys just change things up and start ignoring the language check? Well, they certainly can and maybe even will do that ( a recent version of DarkSide analyzed by Mandiant  did  not  perform the system language check). But doing so increases the risk to their personal safety and fortunes by some non-trivial amount, said  Allison Nixon , chief research officer at New York City-based cyber investigations firm  Unit221B . Nixon said because of Russia’s unique legal culture, criminal hackers in that country employ these checks to ensure they are only attacking victims outside of the country. “This is for their legal protection,” Nixon said. “Installing a Cyrillic keyboard, or changing a specific registry entry to say ‘RU’, and so forth, might be enough to convince malware that you are Russian and off limits. This can technically be used as a ‘vaccine’ against Russian malware.” Nixon said if enough people do this in large numbers, it may in the short term protect some people, but more importantly in the long term it forces Russian hackers to make a choice: Risk losing legal protections, or risk losing income. “Essentially, Russian hackers will end up facing the same difficulty that defenders in the West must face — the fact that it is very difficult to tell the difference between a domestic machine and a foreign machine masquerading as a domestic one,” she said. KrebsOnSecurity asked Nixon’s colleague at Unit221B — founder  Lance James  — what he thought about the efficacy of another anti-malware approach suggested by Twitter followers who chimed in on last week’s discussion: Adding entries to the Windows registry that specify the system is running as a virtual machine (VM). In a bid to stymie analysis by antivirus and security firms, some malware authors have traditionally configured their malware to quit installing if it detects it is running in a virtual environment. But James said this prohibition is no longer quite so common, particularly since so many organizations have transitioned to virtual environments for everyday use. “Being a virtual machine doesn’t stop malware like it used to,” James said. “In fact, a lot of the ransomware we’re seeing now is running on VMs.” But James says he loves the idea of everyone adding a language from the CIS country list so much he’s produced his own  clickable two-line Windows batch script  that adds a Russian language reference in the specific Windows registry keys that are checked by malware. The script effectively allows one’s Windows PC to look like it has a Russian keyboard installed without actually downloading the added script libraries from Microsoft. To install a different keyboard language on a Windows 10 computer the old fashioned way, hit the Windows key and X at the same time, then select Settings, and then select “Time and Language.” Select Language, and then scroll down and you should see an option to install another character set. Pick one, and the language should be installed the next time you reboot. Again, if for some reason you need to toggle between languages, Windows+Spacebar is your friend.</t>
+          <t xml:space="preserve">In March 2013, a coalition of spammers and spam-friendly hosting firms pooled their resources to launch what would become the largest  distributed denial-of-service (DDoS) attack  the Internet had ever witnessed. The assault briefly knocked offline the world’s largest anti-spam organization, and caused a great deal of collateral damage to innocent bystanders in the process. Here’s a never-before-seen look at how that attack unfolded, and a rare glimpse into the shadowy cybercrime forces that orchestrated it. The following are excerpts taken verbatim from a series of Skype and IRC chat room logs generated by a group of “bullet-proof cybercrime hosts” — so called because they specialized in providing online hosting to a variety of clientele involved in spammy and scammy activities. Facebook profile picture of Sven Olaf Kamphuis Gathered under the banner ‘STOPhaus,’ the group included a ragtag collection of hackers who got together on the 17th of March 2013 to launch what would quickly grow to a 300+Gigabits per second (Gbps) attack on Spamhaus.org, an anti-spam organization that they perceived as a clear and present danger to their spamming operations. The attack –a stream of some  300 billion bits of data per second  — was so large that it briefly knocked offline  Cloudflare , a company that specializes in helping organizations stay online in the face of such assaults. Cloudflare dubbed it “ The Attack that Almost Broke the Internet. ” The campaign was allegedly organized by a Dutchman named  Sven Olaf Kamphuis  (pictured above). Kamphuis ran a company called CB3ROB, which in turn provided services for a Dutch company called “ Cyberbunker ,” so named because the organization was housed in a five-story NATO bunker and because it had advertised its services as a bulletproof hosting provider. Kamphuis seemed to honestly believe his Cyberbunker was sovereign territory, even signing his emails “Prince of Cyberbunker Republic.” Arrested in Spain in April 2013 in connection with the attack on Spamhaus, Kamphuis was later extradited to The Netherlands to stand trial. He has publicly denied being part of the attacks and his trial is ongoing. According to investigators, Kamphuis began coordinating the attack on Spamhaus after the anti-spam outfit added to its blacklist several of Cyberbunker’s Internet address ranges. The following logs, obtained by one of the parties to the week-long offensive, showcases the planning and executing of the DDoS attack, including digital assaults on a number of major Internet exchanges. The record also exposes the identities and roles of each of the participants in the attack. The logs below are excerpts from a much longer conversation. The entire, unedited chat logs are available  here . The logs are periodically broken up by text in italics, which includes additional context about each snippet of conversation. Also please note that the logs below may contain speech that some find offensive. ==================================================================== THE CHAT LOG MEMBERS 
+———————————————————— 
+ Aleksey Frolov  : vainet[dot]biz, vainet[dot].ru, Russian host. 
+———————————————————— 
+ Alex Optik  : Russian ‘BP host’. AKA NEO 
+———————————————————— 
+ Andrei Stanchevici  : secured[dot]md Moldova 
+———————————————————— 
+ Cali  : Vitalii Boiko AKA Vitaliyi Boyiko AKA Cali Yhzar, alleged by Spamhaus to be dedicated crime hosters urdn[dot]com.ua AKA Xentime[dot]com AKA kurupt[dot]ru 
+———————————————————— 
+ Darwick  : Zemancsik Zsolt, 23net[dot]hu, Hungarian host. 
+———————————————————— 
+ eDataKing  :  Andrew Jacob Stephens , Ohio/Florida based spamware seller formerly listed on Spamhaus’s  Register of Known Spam Operations (ROKSO) . Was main social media mouthpiece of Stophaus (e.g. see  @stophaus ). Andrew threatens to sue everyone for libel, and is likely to show up in the comments below and do the same here. 
+———————————————————— 
+ Erik Bais  : A2B Internet, Netherlands 
+———————————————————— 
+ Goo  : Peter van Gorkum AKA Gooweb.nl, alleged by Spamhaus to be a botnet supplier in the Netherlands. 
+———————————————————— 
+ Hephaistos  : AKA @AnonOps on Twitter 
+———————————————————— 
+ HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP : Sven Olaf Kamphuis 
+AKA Cyberbunker AKA CB3ROB 
+———————————————————— 
+ Karlin König :  Suavemente/SplitInfinity, San Diego based host. 
+———————————————————— 
+ marceledler :  German hoster that Spamhaus says has a history of hosting spammers, AKA Optimate-Server[dot]de 
+———————————————————— 
+ Mark – Evgeny Pazderin :  Russian, alleged by Spamhaus to be hoster of webinjects used for man-in-the-middle attacks (MITM) against online banking sessions. 
+———————————————————— 
+ Mastermind of Possibilities :  Norman “Chris” Jester AKA Suavemente/SplitInfinity, alleged by Spamhaus to be San Diego based spam host. 
+———————————————————— 
+ Narko : Sean Nolan McDonough, UK-based teenager, trigger man in the attack. Allegedly hired by  Yuri  to perform the DDoS. Later  pleaded guilty  to coordinating the attack in 2013. 
+———————————————————— 
+ NM :  Nikolay Metlyuk, according to Spamhaus a Russian botnet provider 
+———————————————————— 
+ simomchen :  Simon Chen AKA idear4business counterfeit Chinese products, formerly listed on  Spamhaus ROKSO . 
+———————————————————— 
+ Spamahost :  As its name suggests, a Russian host specializing in spam, spam and spam. 
+———————————————————— 
+ twisted :  Admin of Cyberbunker[dot]com 
+———————————————————— 
+ valeralelin :  Valerii Lolin, infiumhost[dot]com, Ukraine 
+———————————————————— 
+ Valeriy Uhov :  Per Spamhaus, a Russian ‘bulletproof hoster’. 
+———————————————————— 
+ WebExxpurts :  Deepak Mehta, alleged cybercrime host specializing in hosting botnet C&amp;Cs. AKA Turbovps (&lt;bd[at]turbovps[dot]com&gt;). 
+———————————————————— 
+ wmsecurity :  off-sho[dot]re ‘Bulletproof’ hoster. Lithuania. AKA “Antitheist”. Profiled in  this story . 
+———————————————————— 
+ Xennt :  H.J. Xennt, owner of Cyberbunker. 
+———————————————————— 
+ Yuri :  Yuri Bogdanov, owner of 2×4[dot]ru. According to Spamhaus, 2×4[dot]ru is a longtime spam friendly Russian host, formerly part of  Russian Business Network  (RBN). Allegedly hired  Narko  to launch DDoS attack against Spamhaus. 
+============================================================ [17.03.2013 19:51:31] eDataKing: watch the show: http://www.webhostingtalk.com/showthread.php?t=1247982 
+[17.03.2013 19:52:02] -= Darwick =-: hell yeah! 🙂 
+[17.03.2013 19:52:09] -= Darwick =-: hit them hard 🙂 
+[17.03.2013 19:54:07] -= Darwick =-: is that a ddos attack? 
+[17.03.2013 19:54:56] eDataKing: but let’s forget what it is and focus on it’s consequence lol 😉 ==================================================================== A number of chat members chastise eDataKing for incessantly posting comments to what they refer to as “nanae,” a derisive reference to the venerable  USENET  anti-spam list ( news.admin.net-abuse.email ) that focused solely on exposing spammers and their spamming activities. eDataKing is flustered and posting on nanae with rapid-fire, emotional replies to anti-spammers, but his buddies don’t want that kind of attention to their cause. [17.03.2013 20:27:57] Mastermind of Possibilities: Andrew why are you posting in nanae? Stop man lol ==================================================================== Some of the chat participants begin debating whether they should consider adopting residence in a country that does not play well with the United States in terms of extradition. [18.03.2013 02:28:30] eDataKing: what about a place that takes an ex-felon from the US for citizenship or expat? ==================================================================== The plotters begin running scans to find misconfigured or ill-protected systems that can be enslaved in attacks. They’re scanning the Web for domain name servers (DNS) systems that can be used to amplify and disguise or “reflect” the source of their attacks. Narko warns Sven about trying to enlist servers hosted by Dutch ISP Leaseweb, which was known to anticipate such activity and re-route attack traffic back to the true source of the traffic. [18.03.2013 16:39:22] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: is just global transit thats filtered with them 
+[18.03.2013 16:39:33] narko: they change the ip back to your real server ip 
+[18.03.2013 16:39:38] narko: you will ddos your own server if you try this attack at leaseweb 
+[18.03.2013 16:39:46] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: hmm 
+[18.03.2013 16:39:50] Antitheist: what about root.lu? 
+[18.03.2013 16:39:54] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: very creative of them 
+[18.03.2013 16:39:55] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: lol 
+[18.03.2013 16:40:21] Antitheist: and nforce 
+18.03.2013 16:49:22] Antitheist: i host many cc shops, they even appeared on krebs blog 😀 
+[18.03.2013 16:49:27] narko: where? At around 4 p.m. GMT that same day, Sven announces that the group’s various cyber armies had succeeded in knocking Spamhaus off the Internet. Incredibly, Sven advertises his involvement with the group to all 3,850 of his Facebook friends. 17.03.2013 22:30:01] my 3850 facebook friends 😛 www.spamhaus.org still down, and that criminal bunch of self declared internet dictators will still remain down, until our demands are met 😛 over 48h already 😛 resolving your shit. end of the line buddy 😛 should have called and paid for the damages. 
+[17.03.2013 22:25:54] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: rokso no longer exists haha 
+[17.03.2013 22:29:51] Mastermind of Possibilities: Where is that posted ? 
+[17.03.2013 22:30:01] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: my 3850 facebook friends 😛 
+[17.03.2013 22:30:12] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: you know, stuff people actually -use-… unlike smtp and nntp 
+[17.03.2013 22:30:12] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: lol 
+[17.03.2013 22:30:23] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP:facebook.com/cb3rob ==================================================================== Spamhaus uses a friendly blog — Wordtothewise.com — to publish  an alert  that it is “under major dDos.” While Spamhaus is offline, various parties to the attack begin hatching ways to take advantage by poisoning search-engine results so that when one searches for “Spamhaus,” the first several results instead redirect to Stophaus[dot]org, the forum this group set up to coordinate the attacks.  18.03.2013 13:09:09] Alex Optik:http://www.stopspamhaus.org/2013_02_01_archive.html 
+[18.03.2013 13:09:35] Alex Optik: as i see there is already has same projects 
+[18.03.2013 13:09:59] narko: (wave) 
+[18.03.2013 13:10:17] eDataKing: that site is owned by a person in this group Alex 
+stealing seo to bump spamhaus while it’s offline 3 days 
+[18.03.2013 16:14:14] Antitheist: do you mind if we put spamhaus metatags on stophaus? 
+[18.03.2013 16:14:24] Antitheist: so we can come up first on google soon 😀 
+file fake info alert to ICANN 
+[18.03.2013 16:26:45] narko: Your report concerning whois data inaccuracy regarding the domain spamhaus.org has been confirmed. You will receive an email with further details shortly. Thank you. 
+[18.03.2013 16:29:26] narko: Any future correspondence sent to ICANN must contain your report ID number. 
+Please allow 45 days for ICANN’s WDPRS processing of your Whois inaccuracy 
+claim. This 45 day WDPRS processing cycle includes forwarding the complaint 
+to the registrar for handling, time for registrar action and follow-up by 
+ICANN if necessary. ==================================================================== Sven Kamphuis then posts to Pastebin about “OPERATION STOPHAUS,” a tirade that includes  a lengthy list of demands  Sven says Spamhaus will have to meet in order for the DDoS attack to be called off. Meanwhile, another spam-friendly hosting provider — helpfully known as “Spamahost[dot].com,” joins the chat channel. At this point, the attack has kept Spamhaus.org offline for the better part of 48 hours. Narko’s account on Stophaus. [19.03.2013 00:02:43] Yuri: another one hoster, spamahost.com added. 
+[19.03.2013 00:02:48] Yuri: i hope he can help with some servers. 
+[19.03.2013 00:02:57] spamahost: Will do ^^ 🙂 
+[19.03.2013 00:05:49] eDataKing: be safe when accessing this link, but there was an edu writeup:http://isc.sans.edu/diary/Spamhaus+DDOS/15427 
+[19.03.2013 00:05:51] spamahost: Spamhaus can blow me. 
+[19.03.2013 00:06:00] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: me too 😛 
+[19.03.2013 00:06:20] spamahost: What software you using to send out attacks? 
+[19.03.2013 00:06:22] spamahost: IRC and bots? 
+[19.03.2013 00:06:28] Yuri: spamhaus like spamahost very very much. 
+[19.03.2013 00:06:35] Yuri: that’s the realy true love 
+[19.03.2013 00:06:37] spamahost: Yes they love us 
+[19.03.2013 00:38:20] Yuri: MEGALOL 
+[19.03.2013 00:38:27] Yuri: spamhaus is down 3 days 
+[19.03.2013 00:38:58] Yuri: this is the graph of our mail server http://mx1.2×4.ru/cgi-bin/mailgraph.cgi 
+that shows amount of spam rejected by our mail server. 
+last days there are much less SPAm 
+[19.03.2013 00:39:13] Yuri: http://mail.2×4.ru same graph here. ==================================================================== The Stophaus members discover that Spamhaus is now protected by Cloudflare. This amuses the Stophaus members, who note that Spamhaus has frequently listed large swaths of Cloudflare Internet addresses as sources of spam.  [19.03.2013 00:47:07] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: cloudflare 
+[19.03.2013 00:47:48] Antitheist: fuck who would believe 
+[19.03.2013 00:48:10] Antitheist: after they listed all cloudlares /24 for being criminal supportive because of free reverse proxying 
+[19.03.2013 00:49:11] Antitheist: here we go again… 
+[19.03.2013 00:49:12] Antitheist: http://www.spamhaus.org/sbl/query/SBL179312 
+[19.03.2013 00:49:14] Antitheist: lol 
+[19.03.2013 00:49:46] Antitheist: it had been officialy bought…b-o-u-g-h-t 
+[19.03.2013 00:50:45] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: hmm 
+[19.03.2013 00:50:57] Antitheist: narko? 
+[19.03.2013 00:51:11] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: k… just take down the spamhaus.org nameservers…all 8 of em 
+[19.03.2013 00:51:22] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: after all the client on cloudflare is ‘spamhaus.eu’ 
+[19.03.2013 00:51:33] Cali: spamhaus under cloudflare? 
+[19.03.2013 00:51:35] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: they still need the spamhaus.org nameservers for that and their shitlist to work 
+[19.03.2013 00:51:40] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: yeah with spamhaus.eu 
+[19.03.2013 00:51:46] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: which is a cname to spamhaus.org 
+[19.03.2013 00:51:59] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: so just take out the 8 spamhaus nameservers and stop targetting the old website 
+[19.03.2013 00:52:09] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: that ALSO takes out their dns shitlists… 
+[19.03.2013 00:52:12] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: indirectly 
+[19.03.2013 00:52:22] Yuri: that’s a fuck. a lot of work for us 
+[19.03.2013 00:53:20] Yuri: may be just let’s make cloudflare down ? 
+[19.03.2013 00:53:29] Antitheist: thats hard yuri 
+[19.03.2013 00:53:31] Yuri: so they will refuse any spamhaus 
+[19.03.2013 00:53:43] Antitheist: you need to cripple level3 and nlayer 
+[19.03.2013 00:54:04] Antitheist: |OR| 
+[19.03.2013 00:54:12] Antitheist: you need to spend too much traffic 
+[19.03.2013 00:54:16] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: narko: new target… the 8 nameservers of spamhaus.org… and still smtp-ext-layer.spamhaus.org ofcourse 
+[19.03.2013 00:54:20] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: no morewww.spamhaus.org 
+[19.03.2013 00:54:24] Antitheist: since cloudflares packages are traffic volume priced 
+[19.03.2013 00:55:44] Karlin Konig: I don’t think they are charging spamhaus 
+[19.03.2013 00:56:27] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: as stated before, unfair competition, in many ways 
+[19.03.2013 00:56:28] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: lulz 
+[19.03.2013 00:57:46] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: hmm is cloudflare hosting? or a reverse proxy? 
+[19.03.2013 00:57:57] Cali: reverse proxy. 
+[19.03.2013 00:58:00] Yuri: reverse 
+[19.03.2013 00:58:09] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: as when its a reverse proxy, it probably goes to that spamhaus.as1101.net box 
+[19.03.2013 00:58:13] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: aka, surfnet. 
+[19.03.2013 01:00:10] Cali: already offline 😀 
+[19.03.2013 01:00:17] Cali: This website is offline 
+[19.03.2013 01:02:26] narko: I will make down their cloudflare 😉 if I have enough free servers 
+[19.03.2013 01:02:30] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: they moved it to cloudlfare 
+[19.03.2013 01:02:31] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: lol 
+[19.03.2013 01:02:43] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: then just go for the nameservers on spamhaus.org 
+[19.03.2013 01:02:49] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: which also breaks their dns shitlist 
+[19.03.2013 01:02:52] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: after 24h 
+[19.03.2013 01:02:55] Cali: usually websites use cloudflare dns as well. 
+[19.03.2013 01:02:58] Cali: so they might change soon. 
+[19.03.2013 01:03:03] Cali: I think you should give them some hope 
+[19.03.2013 01:03:10] Cali: because they will be so proud to bring it back 
+[19.03.2013 01:03:14] Cali: then you switch it off again 🙂 
+[19.03.2013 01:03:20] Cali: they will rage 🙂 
+[19.03.2013 01:03:23] Karlin Konig: it’s down again 
+[19.03.2013 01:03:24] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: they do… spamhaus.EU is on cloudflare dns 
+[19.03.2013 01:03:25] Karlin Konig: lol 
+[19.03.2013 01:03:30] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP:spamhaus.org… is on spamhaus dns 
+[19.03.2013 01:03:45] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: for the very obvious reason that they have 70 dns shitlist servers in that zone 
+[19.03.2013 01:03:49] Cali: yeah but I think they might change that soon. 
+[19.03.2013 01:03:52] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: and those use their weird rotating system 
+[19.03.2013 01:03:54] Cali: ahah 
+[19.03.2013 01:03:57] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: cloudflare can’t do that 
+[19.03.2013 01:04:04] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: they can’t change the domain of the dns shitlist 
+[19.03.2013 01:04:05] Cali: even with the paid version? 
+[19.03.2013 01:04:07] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: so they have to keep that 
+[19.03.2013 01:04:30] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: soo… if they come up again, just kill the dns servers on their main domainspamhaus.org 
+[19.03.2013 01:04:33] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: 😛 
+[19.03.2013 01:04:33] Cali: ok, now it is online and responds. 
+[19.03.2013 01:04:50] narko: ok 
+[19.03.2013 01:04:52] narko: moment 
+[19.03.2013 01:05:07] Cali:https://www.spamhaus.org/images/spamhaus_dnsbl_basic.gif “meet spamhaus policy” 
+[19.03.2013 01:05:07] Cali: lol 
+[19.03.2013 01:05:14] Cali: like IPs have to meet Spamhaus policies 
+[19.03.2013 01:05:18] Cali: lol 
+[19.03.2013 01:05:24] narko: they are using the cloudflare paid plan 
+[19.03.2013 01:05:31] narko: as they have 5 IP 
+[19.03.2013 01:05:31] narko: not 2 
+[19.03.2013 01:05:44] narko: i think it means that cf will keep them longer 
+[19.03.2013 01:05:46] narko: 🙁 
+[19.03.2013 02:09:03] narko: added some extra gbit/s to two dns servers that seemed half-up 🙂 lets see if google dns renews it now 
+[19.03.2013 02:09:28] Yuri: fuck.. no dns resolve :)))) 
+[19.03.2013 02:09:45] narko: (mm) 
+[19.03.2013 02:09:57] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: when -these- time out, they’re out of business 
+[19.03.2013 02:10:01] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: &lt;&lt;&gt;&gt; DiG 9.8.1-P1 &lt;&lt;&gt;&gt; A b.ns.spamhaus.org 
+[19.03.2013 08:01:24] Yuri: good morning 
+[19.03.2013 08:01:32] Yuri: it was short night for me…. fuck 
+[19.03.2013 08:01:40] Yuri: spamhaus is down ? again 🙂 ? 
+[19.03.2013 08:02:09] Yuri: looks it’s some our friend work 
+[19.03.2013 08:10:30] simomchen: how about we hijack spamhaus’s IP together , if can not take them down again ? 
+[19.03.2013 08:10:59] Yuri: we would like to. 
+[19.03.2013 08:11:08] Yuri: but we need upstream who will allow us to do that 
+[19.03.2013 08:11:25] simomchen: we can just announce those over IX exchange 
+[19.03.2013 08:11:34] simomchen: them , do not need upstream allow this 
+[19.03.2013 08:11:39] nmetluk: Russian upstreams allow:) 
+[19.03.2013 08:13:10] Yuri: (at least we have one good russian upstream here) 
+[19.03.2013 08:14:15] Yuri: spamhaus desided to bring some shit sbls toinfiumhost.com, /22 listed just for nothing.and some extra SBLs to pinspb 
+[19.03.2013 08:14:28] eDataKing: that is how they do it 
+[19.03.2013 08:14:35] eDataKing: that is why it is terrorism 
+[19.03.2013 08:14:57] simomchen: SH will force upstreams disconnect them 
+[19.03.2013 08:15:05] simomchen: that’s their next step 
+[19.03.2013 08:15:15] Yuri: they are too big to be disconneted 
+[19.03.2013 08:15:22] eDataKing: yes, the upstream does not really make the decision because the decision is coerced through damages 
+[19.03.2013 08:15:43] eDataKing: who is too big to be disconnected? 
+[19.03.2013 08:16:03] simomchen: infiumhost.com ? 
+[19.03.2013 08:16:31] Yuri: pinspb.ru 
+[19.03.2013 08:16:33] Yuri: gpt.ru 
+[19.03.2013 08:16:42] Yuri: and other that was with some new sbls today 
+[19.03.2013 08:16:50] Yuri: currenty it’s just nothing serious 
+[19.03.2013 08:16:58] Yuri: they keep searching 
+[19.03.2013 08:24:33] simomchen: Donate to the fund needed to shut SH down for good. Send your donations via Bitcoin to 17SgMS56W6s1oMU7oEZ66NFkbEk1socnTJ ==================================================================== At this point, several media outlets begin erroneously reporting that the DDoS attack on Spamhaus and Cloudflare is the work of Anonymous (probably because Kamphuis ended his manifesto with the Anonymous tagline, “We do not forgive. We do not forget”). [19.03.2013 12:35:51] Antitheist: lol, anonymous indonesia took the responsibility for the spamhaus ddos 
+[19.03.2013 12:35:51] Antitheist: https://twitter.com/anonnewsindo 
+[19.03.2013 12:36:38] Antitheist: wait no, its all over softpedia! hahaha 
+[19.03.2013 12:37:31] Antitheist: http://news.softpedia.com/news/Anonymous-Hackers-Launch-DDOS-Attack-Against-Spamhaus-338382.shtml 
+[19.03.2013 12:46:11] narko: http://www.spamhaus.org/sbl/query/SBL179322 
+[19.03.2013 12:46:39] Antitheist: http://www.spamhaus.org/sbl/query/SBL179321 
+[19.03.2013 12:55:30] Yuri: people report that MAIL from spamhaus start working 
+[19.03.2013 12:55:42] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: oeh! spam! 
+[19.03.2013 12:56:03] Antitheist: the mail is their weakest point, since cloudflare cannot protect it 
+[19.03.2013 12:56:22] Antitheist: so we need to hit there. the result means no SBL removals 🙂 
+[19.03.2013 12:56:33] Antitheist: mad mad admins pulling off hair 😀 
+[19.03.2013 14:46:09] Yuri: news.softpedia.com 
+[19.03.2013 14:46:16] Antitheist: they think its anonymous because of Svens pastebin 
+[19.03.2013 14:46:48] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: also good 
+[19.03.2013 14:46:56] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: then the rest of anon also thinks its anon 😛 
+[19.03.2013 14:47:00] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: and starts to help 
+[19.03.2013 14:47:01] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: lol 
+[19.03.2013 14:47:17] Yuri: wow what a news 
+[19.03.2013 14:47:17] Antitheist: lol anon-amplification yeah 
+[19.03.2013 14:47:26] Yuri: spamhaus says in twitter that softpedia new is false 
+[19.03.2013 14:47:29] Yuri: :))) 
+[19.03.2013 14:47:40] Yuri:http://www.spamhaus.org/news/article/693/softpedia-publish-misleading-story-of-anonymous-attack-on-spamhaus 
+[19.03.2013 15:10:05] eDataKing: 1. Let them think Anons were behind it and do not dispute 
+[19.03.2013 15:10:05] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: can’t sign up for twitter as i don’t have any working email lol 
+[19.03.2013 15:10:21] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: edataking: its allready all over the press that its not anons lol. 
+[19.03.2013 15:10:22] Antitheist: I know Mohit from thehackernews, if it gets posted there it will soon be viral 
+[19.03.2013 15:10:26] eDataKing: or 2. Remind them that Anons are everyone and Anonymous as a group did not orchestrate it 
+[19.03.2013 15:10:30] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: at least in .nl its quite clear that its the republic cyberbunker and others 
+[19.03.2013 15:10:30] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: haha 
+[19.03.2013 15:10:58] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: that anon also has some ehm… stuff to ‘arrange’ with spamhaus, is a different story 
+[19.03.2013 15:11:19] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: *points out that over half of my facebook friends have the masks anyway* 
+[19.03.2013 15:11:28] eDataKing: Anonymous name gets major media 
+[19.03.2013 15:11:33] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: and that i’m still officially the PR guy for anonymous germany 
+[19.03.2013 15:14:36] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: y my name don’t fit twitter.. 
+[19.03.2013 15:14:40] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: HRH Sven Olaf Prince 
+getting twitter accounts shut down, listing stophaus on the sbl. ==================================================================== Spamhaus has by now worked out the identity of many Stophaus members, and has begun retaliating at them individually by listing Internet addresses tied to their businesses and personal life. Here, Narko reveals that he runs his own (unprofitable) hosting firm that Spamhaus found and listed it as an address to be blocked because it was hosting stophaus[dot]org. [19.03.2013 17:50:04] narko: im back 
+[19.03.2013 17:50:25] narko: the nameservers for stophaus need to be changed 
+[19.03.2013 17:51:04] narko: spamhaus SBLed my site and my host will terminate me unless spamhaus tells them that it’s ok 
+[19.03.2013 17:51:08] narko: fucking internet police 
+[19.03.2013 17:52:57] eDataKing: ok, what are we changing them to? 
+[19.03.2013 17:53:40] narko: i will set up dns servers on my home connection 
+[19.03.2013 17:53:41] narko: lol 
+[19.03.2013 17:53:45] narko: i dont think my isp gives a shit 
+[19.03.2013 17:53:48] narko: i’m alraedy in PBL 
+[19.03.2013 17:53:56] eDataKing: lol, as long as you are safe 
+[19.03.2013 17:53:59] narko: what does it matter if i’m in SBL? 😛 
+[19.03.2013 17:54:04] narko: well.. as long as they won’t ddos me 
+[19.03.2013 17:54:05] eDataKing: ok, then it should be all good 
+[19.03.2013 17:54:06] narko: I have a static ip 
+[19.03.2013 17:54:18] eDataKing: what about your upstream? 
+[19.03.2013 17:54:50] narko: I want to buy a /24 and host this just to fuck spamhaus 
+[19.03.2013 17:54:57] narko: anyone selling /24 😛 i pay â‚¬200 
+[19.03.2013 17:55:34] narko: i cannot believe that my host is telling me i need to leave for a fake SBL listing that is not even hosted at their network 
+[19.03.2013 17:55:38] Yuri: they will list all network at once and put upsteam 
+[19.03.2013 17:55:39] narko: why do they listen to spamhaus..? 
+[19.03.2013 18:21:28] simomchen: let me make a CC to them in China 
+[19.03.2013 18:21:35] eDataKing: then this will kill them in the end 
+[19.03.2013 18:21:49] Antitheist: https://www.cloudflare.com/business 
+[19.03.2013 18:22:10] Yuri: stophaus.com moved to new DNS. 
+[19.03.2013 18:22:16] simomchen: I brought 50K adsl Broilers just now 
+[19.03.2013 18:22:48] eDataKing: Then their DNS is a ticking timebomb dependent on public support. They don’t have a lot of that left 
+[19.03.2013 18:23:46] Yuri: 50k of what? 
+[19.03.2013 18:23:52] Antitheist: DNS of stophaus should be hosted on cloudflare imho 
+[19.03.2013 18:24:13] Antitheist: they will be afraid to list it lol 
+[19.03.2013 18:24:20] simomchen: 50000 ADSL broilers zombies , hehe 
+[19.03.2013 18:24:23] Yuri: cloudflare will kick off 
+[19.03.2013 18:24:27] Yuri: oohh.. shit. 
+[19.03.2013 18:24:48] Yuri: we need a plan how to fight 🙂 
+[19.03.2013 18:27:02] simomchen: Antitheist: 
+&lt;&lt;&lt; we need bots that will do large POST requests on the search form of ROKSOyes, that’s CC attack I said just now. ROKSO is not big enought , I’m CC their http://www.spamhaus.org/sbl/latest/ currently 
+[19.03.2013 18:27:11] simomchen: do not know cloudflare can handle that 
+[19.03.2013 18:27:24] Antitheist: SBL are not in mysql 
+[19.03.2013 18:27:53] Antitheist: there is no search on the DB when you request them [19.03.2013 18:28:06] eDataKing: true 
+[19.03.2013 18:28:12] Antitheist: but a search form, any of them, must have at least 1 SELECT statement [19.03.2013 18:28:15] 
+simomchen: okay, http://www.spamhaus.org/rokso/ how about this page ? 
+[19.03.2013 18:28:23] Antitheist: yes, see the search form 
+[19.03.2013 18:28:27] eDataKing: RBLs are on a Logistics server at abuseat.org 
+[19.03.2013 18:28:29] Antitheist: you need to post long random shit there 
+[19.03.2013 18:28:34] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: SBL157600 5.157.0.0/22 webexxpurts.com 19-Mar 13:53 GMT Spammer hosting (escalation) SBL157599 5.153.238.0/24 webexxpurts.com 19-Mar 13:53 GMT Spammer hosting (escalation) 
+[19.03.2013 18:28:36] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: lol 
+[19.03.2013 18:28:41] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: wasn’t he in here the other day 😛 
+[19.03.2013 18:28:46] eDataKing: at least the cbl is 
+[19.03.2013 18:28:54] eDataKing: yes 
+[19.03.2013 18:28:59] eDataKing: He left? 
+[19.03.2013 18:29:05] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: dunno 
+[19.03.2013 18:29:05] simomchen: okay, let me make a ‘search’ 
+[19.03.2013 18:29:08] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: changed names? 
+[19.03.2013 18:29:12] eDataKing: maybe 
+[19.03.2013 18:29:21] eDataKing: that was who I thought Darwin was 
+[19.03.2013 18:29:47] eDataKing: like he changed his name in the middle of a conversation 
+[19.03.2013 18:29:54] eDataKing: and Darwin picked up the chat 
+[19.03.2013 18:29:54] Antitheist: oh good news, its available in GET as well 
+[19.03.2013 18:30:01] Antitheist: http://www.spamhaus.org/rokso/search/?evidence=LONGSHITGOESHERE 
+[19.03.2013 18:30:40] eDataKing: They are desperate to take down the content though 
+[19.03.2013 18:30:55] eDataKing: I knew they would be scared to show their faces to public scrutiny 
+[19.03.2013 18:36:03] Yuri: SBL179370 66.192.253.42/32 twtelecom.net 19-Mar 15:15 GMT Suavemente/SplitInfinity/Innova Direct 
+: Feed to Jelly Digital (AS4323 &gt;&gt;&gt; AS33431) 
+SBL179369 4.53.122.98/32 level3.net 
+19-Mar 15:03 GMT Suavemente/SplitInfinity/Innova Direct : Feed to Critical Data Network, Inc. (AS3356 &gt;&gt;&gt; AS53318) spamhaus started to fuck hardly everywhere. they are angry. 
+[19.03.2013 18:37:39] Antitheist: no mercy anymore, everyone who they scraped out of stophaus members gets the entire /24 listed in ROKSO 🙂 
+[19.03.2013 18:37:40] simomchen: cloudflare service them , we are angry too 
+[19.03.2013 18:40:35] simomchen: but if the ddos keeping , I think spamhaus would go bankrupt 
+[19.03.2013 18:40:52] narko: they won’t go bankrupt 
+[19.03.2013 18:40:55] narko: he will just buy a smaller boat 
+[19.03.2013 18:41:00] simomchen: because cloudflare must charge tons of money form them 
+[19.03.2013 18:41:34] simomchen: what they can do in that boat ? if they do not pay to cloudflare , they will down again 
+[19.03.2013 18:41:48] narko: cloudflare only cost $200 per month 
+[19.03.2013 19:02:27] Yuri: For SBLs spamhaus 
+use 
+[19.03.2013 19:02:27] Yuri: 
+&lt;&lt;&lt; http://stopforumspam.com/ 
+https://www.projecthoneypot.org/ – ÑÑ‚Ð¾Ñ‚ Ñ‚Ð¾Ñ‡Ð½Ð¾ 
+https://zeustracker.abuse.ch/ 
+https://spyeyetracker.abuse.ch/those sites 100% 
+[19.03.2013 19:02:39] narko: ok let’s make these down 😉 
+[19.03.2013 21:32:06] narko: i run my host company since FEB 2012 and i am still losing like 350$ per month lol 
+[19.03.2013 21:32:28] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: we’ve been doing it commercially since 1996 on ‘cb3rob’ 
+[19.03.2013 21:32:34] eDataKing: how much would that be? 
+[19.03.2013 21:32:39] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: and well.. there are times where it runs at a loss 😛 
+[19.03.2013 21:32:45] HRH Prinz Sven Olaf von CyberBunker-Kamphuis MP: and there are times where it makes heaps 😛 
+[19.03.2013 21:32:55] narko: i have not had a single </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>May 17, 2021</t>
+          <t>August 26, 2016</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>U.S. Indicts North Korean Hackers in Theft of $200 Million</t>
+          <t>Who Else Was Hit by the RSA Attackers?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The  U.S. Justice Department  today unsealed indictments against three men accused of working with the North Korean regime to carry out some of the most damaging cybercrime attacks over the past decade, including the  2014 hack of Sony Pictures , the global  WannaCry ransomware contagion of 2017 , and the theft of roughly $200 million and attempted theft of more than $1.2 billion from banks and other victims worldwide.  Investigators with the DOJ,  U.S. Secret Service  and  Department of Homeland Security  told reporters on Wednesday the trio’s activities involved extortion, phishing, direct attacks on financial institutions and ATM networks, as well as malicious applications that masqueraded as software tools to help people manage their cryptocurrency holdings. Prosecutors say the hackers were part of an effort to circumvent ongoing international financial sanctions against the North Korean regime. The group is thought to be responsible for the attempted theft of approximately $1.2 billion, although it’s unclear how much of that was actually stolen. Confirmed thefts attributed to the group include the 2016 hacking of the SWIFT payment system for Bangladesh Bank, which netted thieves $81 million; $6.1 million in a 2018  ATM cash out scheme  targeting a Pakistani bank; and a total of $112 million in virtual currencies stolen between 2017 and 2020 from cryptocurrency companies in Slovenia, Indonesia and New York. “The scope of the criminal conduct by the North Korean hackers was extensive and longrunning, and the range of crimes they have committed is staggering,” said  Acting U.S. Attorney Tracy L. Wilkison  for the Central District of California. “The conduct detailed in the indictment are the acts of a criminal nation-state that has stopped at nothing to extract revenge and obtain money to prop up its regime.” The indictments name  Jon Chang Hyok  (a.k.a “Alex/Quan Jiang”),  Kim Il  (a.k.a. “Julien Kim”/”Tony Walker”), and  Park Jin   Hyok  (a.k.a. Pak Jin Hek/Pak Kwang Jin). U.S. prosecutors say the men were members of the  Reconnaissance General Bureau  (RGB), an intelligence division of the Democratic People’s Republic of Korea (DPRK) that manages the state’s clandestine operations. The Justice Department says those indicted were members of a DPRK-sponsored cybercrime group variously identified by the security community as the  Lazarus Group  and  Advanced Persistent Threat 38  (APT 38). The government alleges the men reside in North Korea but were frequently stationed by the DPRK in other countries, including China and Russia. Park was  previously charged in 2018  in connection with the WannaCry and Sony Pictures attacks. But today’s indictments expanded the range of crimes attributed to Park and his alleged co-conspirators, including cryptocurrency thefts, phony cryptocurrency investment schemes and apps, and efforts to launder the proceeds of their crimes. Prosecutors in California also today unsealed an indictment against  Ghaleb Alaumary , a 37-year-old from Mississauga, Ontario who pleaded guilty in November 2020 to charges of laundering tens of millions of dollars stolen by the DPRK hackers. The accused allegedly developed and marketed a series of cryptocurrency applications that were advertised as tools to help people manage their crypto holdings. In reality, prosecutors say, the programs were malware or downloaded malware after the applications were installed. A  joint cyber advisory  from the FBI, the Treasury and DHS’s Cybersecurity and Infrastructure Agency (CISA) delves deeper into these backdoored cryptocurrency apps, a family of malware activity referred to as “ AppleJeus . “ Hidden Cobra ” is the collective handle assigned to the hackers behind the AppleJeus malware. “In most instances, the malicious application—seen on both Windows and Mac operating systems—appears to be from a legitimate cryptocurrency trading company, thus fooling individuals into downloading it as a third-party application from a website that seems legitimate,” the advisory reads. “In addition to infecting victims through legitimate-looking websites, HIDDEN COBRA actors also use phishing, social networking, and social engineering techniques to lure users into downloading the malware.” The alert notes that these apps have been posing as cryptocurrency trading platforms since 2018, and have been tied to cryptocurrency thefts in more than 30 countries. Image: CISA. For example, the DOJ indictments say these apps were involved in stealing $11.8 million in August 2020 from a financial services company based in New York. Warrants obtained by the government allowed the FBI to seize roughly $1.9 million from two different cryptocurrency exchanges used by the hackers, money that investigators say will be returned to the New York financial services firm. Other moneymaking and laundering schemes attributed to the North Korean hackers include the development and marketing of an initial coin offering (ICO) in 2017 called  Marine Chain Token . That blockchain-based cryptocurrency offering promised early investors the ability to purchase “fractional ownership in marine shipping vessels,” which the government says was just another way for the North Korean government to “secretly obtain funds from investors, control interests in marine shipping vessels, and evade U.S. sanctions.” A copy of the indictments is available  here  (PDF).</t>
+          <t>The data breach disclosed in March by security firm RSA received worldwide attention because it highlighted the challenges that organizations face in detecting and blocking intrusions from targeted cyber attacks. The subtext of the story was that if this could happen to one of the largest and most integral security firms, what hope was there for organizations that aren’t focused on security? Security experts have said that RSA wasn’t the only corporation victimized in the attack, and that dozens of other multinational companies were infiltrated using many of the same tools and Internet infrastructure. But so far, no one has been willing to talk publicly about which other companies may have been hit.  Today’s post features a never-before-published list of those victim organizations.  The information suggests that more than 760 other organizations had networks that were compromised with some of the same resources used to hit RSA . Almost 20 percent of the current Fortune 100 companies are on this list. Since the RSA incident was disclosed, lawmakers in the U.S. Congress have taken a renewed interest in so-called “advanced persistent threat” or  APT attacks . Some of the industry’s top security experts have been summoned to Capitol Hill to brief lawmakers and staff about the extent of the damage. The information below was shared with congressional staff. Below is a list of companies whose networks were shown to have been phoning home to some of the same control infrastructure that was used in the attack on RSA. The first victims appear to have begun communicating with the attacker’s control networks as early as November 2010. A few caveats are in order here. First, many of the network owners listed are Internet service providers, and are likely included because some of their subscribers were hit. Second, it is not clear how many systems in each of these companies or networks were compromised, for how long those intrusions persisted, or whether the attackers successfully stole sensitive information from all of the victims. Finally, some of these organizations (there are several antivirus firms mentioned  below) may be represented because they  intentionally compromised internal systems in an effort to reverse engineer malware used in these attacks. Among the more interesting names on the list are Abbott Labs, the Alabama Supercomputer Network, Charles Schwabb &amp; Co., Cisco Systems, eBay, the European Space Agency, Facebook, Freddie Mac, Google, the General Services Administration, the Inter-American Development Bank, IBM, Intel Corp., the Internal Revenue Service (IRS), the Massachusetts Institute of Technology, Motorola Inc., Northrop Grumman, Novell, Perot Systems, PriceWaterhouseCoopers LLP, Research in Motion (RIM) Ltd., Seagate Technology, Thomson Financial, Unisys Corp., USAA, Verisign, VMWare, Wachovia Corp., and Wells Fargo &amp; Co. At the end of the victim list is a pie chart that shows the geographic distribution of the command and control networks used to coordinate the attacks. The chart indicates that the overwhelming majority of the C&amp;Cs are located in or around Beijing, China. 302-DIRECT-MEDIA-ASN 
+8e6 Technologies, Inc. 
+AAPT AAPT Limited 
+ABBOTT Abbot Labs 
+ABOVENET-CUSTOMER – Abovenet Communications, Inc 
+ACCNETWORKS – Advanced Computer Connections 
+ACEDATACENTERS-AS-1 – Ace Data Centers, Inc. 
+ACSEAST – ACS Inc. 
+ACS-INTERNET – Affiliated Computer Services 
+ACS-INTERNET – Armstrong Cable Services 
+ADELPHIA-AS – Road Runner HoldCo LLC 
+Administracion Nacional de Telecomunicaciones 
+AERO-NET – The Aerospace Corporation 
+AHP – WYETH-AYERST/AMERICAN HOME PRODUCTS 
+AIRLOGIC – Digital Magicians, Inc. 
+AIRTELBROADBAND-AS-AP Bharti Airtel Ltd., Telemedia Services 
+AIS-WEST – American Internet Services, LLC. 
+AKADO-STOLITSA-AS _AKADO-Stolitsa_ JSC 
+ALCANET Corporate ALCANET Access 
+ALCANET-DE-AS Alcanet International Deutschland GmbH 
+ALCATEL-NA – Alcanet International NA 
+ALCHEMYNET – Alchemy Communications, Inc. 
+Alestra, S. de R.L. de C.V. 
+ALLIANCE-GATEWAY-AS-AP Alliance Broadband Services Pvt. Ltd.,Alliance Gateway AS,Broadband Services Provider,Kolkata,India 
+ALMAZAYA Almazaya gateway L.L.C 
+AMAZON-AES – Amazon.com, Inc. 
+AMERITECH-AS – AT&amp;T Services, Inc. 
+AMNET-AU-AP Amnet IT Services Pty Ltd 
+ANITEX-AS Anitex Autonomus System 
+AOL-ATDN – AOL Transit Data Network 
+API-DIGITAL – API Digital Communications Group, LLC 
+APOLLO-AS LATTELEKOM-APOLLO 
+APOLLO-GROUP-INC – University of Phoenix 
+APT-AP AS 
+ARLINGTONVA – Arlington County Government  ARMENTEL Armenia Telephone Company 
+AS INFONET 
+AS3215 France Telecom – Orange 
+AS3602-RTI – Rogers Cable Communications Inc. 
+AS4196 – Wells Fargo &amp; Company 
+AS702 Verizon Business EMEA – Commercial IP service provider in Europe 
+ASATTCA AT&amp;T Global Network Services – AP 
+ASC-NET – Alabama Supercomputer Network 
+ASDANIS DANIS SRL 
+ASGARR GARR Italian academic and research network 
+ASIAINFO-AS-AP ASIA INFONET Co.,Ltd./ TRUE INTERNET Co.,Ltd. 
+ASIANDEVBANK – Asian Development Bank 
+ASN852 – Telus Advanced Communications 
+AS-NLAYER – nLayer Communications, Inc. 
+ASTOUND-CABLE – Wave Broadband, LLC 
+AT&amp;T Global Network Services – EMEA 
+AT&amp;T US 
+ATMAN ATMAN Autonomous System 
+ATOMNET ATOM SA 
+ATOS-AS ATOS Origin Infogerance Autonomous System 
+ATT-INTERNET4 – AT&amp;T Services, Inc. 
+AUGERE-AS-AP Augere Wireless Broadband Bangladesh Limited 
+AVAYA AVAYA 
+AVENUE-AS Physical person-businessman Kuprienko Victor Victorovich 
+AXAUTSYS ARAX I.S.P. 
+BACOM – Bell Canada 
+BAHNHOF Bahnhof AB 
+BALTKOM-AS SIA _Baltkom TV SIA_ 
+BANGLALINK-AS an Orascom Telecom Company, providing GSM service in Bangladesh 
+BANGLALION-WIMAX-BD Silver Tower (16 &amp; 18th Floor) 
+BANKINFORM-AS Ukraine 
+BASEFARM-ASN Basefarm AS. Oslo – Norway 
+BBIL-AP BHARTI Airtel Ltd. 
+BBN Bredbaand Nord I/S 
+BC-CLOUD-SERVICES 
+BEAMTELE-AS-AP Beam Telecom Pvt Ltd 
+BEE-AS JSC _VimpelCom_ 
+BELINFONET Belinfonet Autonomus System, Minsk, Belarus 
+BELLSOUTH-NET-BLK – BellSouth.net Inc. 
+BELPAK-AS BELPAK 
+BELWUE Landeshochschulnetz Baden-Wuerttemberg (BelWue) 
+BENCHMARK-ELECTRONICS – Benchmark Electronics Inc. 
+BEND-BROADBAND – Bend Cable Communications, LLC 
+BEZEQ-INTERNATIONAL-AS Bezeqint Internet Backbone 
+BIGNET-AS-ID Elka Prakarsa Utama, PT 
+BLUEWIN-AS Swisscom (Schweiz) AG 
+BM-AS-ID PT. Broadband Multimedia, Tbk 
+BN-AS Business network j.v. 
+BNSF-AS – Burlington Northern Sante Fe Railway Corp 
+BNT-NETWORK-ACCESS – Biz Net Technologies 
+BORNET Boras Energi Nat AB 
+BREEZE-NETWORK TOV TRK _Briz_ 
+BSC-CORP – Boston Scientific Corporation 
+BSKYB-BROADBAND-AS BSkyB Broadband 
+BSNL-NIB National Internet Backbone 
+BT BT European Backbone 
+BT-ITALIA BT Italia S.p.A. 
+BTN-ASN – Beyond The Network America, Inc. 
+BTTB-AS-AP Telecom Operator &amp; Internet Service Provider as well 
+BT-UK-AS BTnet UK Regional network 
+CABLECOM Cablecom GmbH 
+CABLE-NET-1 – Cablevision Systems Corp. 
+CABLEONE – CABLE ONE, INC. 
+CABLEVISION S.A. 
+CACHEFLOW-AS – Bluecoat Systems, Inc. 
+CANET-ASN-4 – Bell Aliant Regional Communications, Inc. 
+CANTV Servicios, Venezuela 
+CAPEQUILOG – CapEquiLog 
+CARAVAN CJSC Caravan-Telecom 
+CARRIER-NET – Carrier Net 
+CATCHCOM Ventelo 
+CCCH-3 – Comcast Cable Communications Holdings, Inc 
+CDAGOVN – Government Telecommunications and Informatics Services 
+CDS-AS Cifrovye Dispetcherskie Sistemy 
+CDT-AS CD-Telematika a.s. 
+CE-BGPAC – Covenant Eyes, Inc. 
+CELLCO-PART – Cellco Partnership DBA Verizon Wireless 
+CENSUSBUREAU – U. S. Bureau of the Census 
+CERNET-ASN-BLOCK – California Education and Research Federation Network 
+CERT – Computer Emergency Response Team (CERT) – Coordination Center 
+CGINET-01 – CGI Inc 
+CHARLES-SCHWAB – Charles Schwab &amp; Co., Inc. 
+CHARTER-NET-HKY-NC – Charter Communications 
+CHINA169-BACKBONE CNCGROUP China169 Backbone 
+CHINA169-BJ CNCGROUP IP network China169 Beijing Province Network 
+CHINA169-GZ China Unicom IP network China169 Guangdong province 
+CHINANET-BACKBONE No.31,Jin-rong Street 
+CHINANET-IDC-BJ-AP IDC, China Telecommunications Corporation 
+CHINANET-SH-AP China Telecom (Group) 
+CIPHERKEY – Cipherkey Exchange Corp. 
+CISCO-EU-109 Cisco Systems Global ASN – ARIN Assigned 
+CITEC-AU-AP QLD Government Business (IT) 
+CITelecom-AS 
+CITYNET – CityNet 
+CLARANET-AS ClaraNET 
+CLIX-NZ TelstraClear Ltd 
+CMCS – Comcast Cable Communications, Inc. 
+CMNET-BEIJING-AP China Mobile Communicaitons Corporation 
+CMNET-GD Guangdong Mobile Communication Co.Ltd. 
+CMNET-V4SHANDONG-AS-AP Shandong Mobile Communication Company Limited 
+CNCGROUP-GZ CNCGROUP IP network of GuangZhou region MAN network 
+CNCGROUP-SH China Unicom Shanghai network 
+CNIX-AP China Networks Inter-Exchange 
+CNNIC-DSNET-AP Shanghai Data Solution Co., Ltd. 
+CNNIC-WASU-AP WASU TV &amp; Communication Holding Co.,Ltd. 
+CO-2COM-AS 2COM Co ltd. 
+COGECOWAVE – Cogeco Cable 
+COGENT Cogent/PSI 
+COLO4 – Colo4Dallas LP 
+COLOMBIA TELECOMUNICACIONES S.A. ESP 
+COLT COLT Technology Services Group Limited 
+COLUMBUS-NETWORKS – Columbus Networks USA, Inc. 
+COMCAST-33490 – Comcast Cable Communications, Inc. 
+COMCAST-33491 – Comcast Cable Communications, Inc. 
+COMCAST-36732 – Comcast Cable Communications, Inc. 
+COMCAST-7015 – Comcast Cable Communications Holdings, Inc 
+COMCAST-7725 – Comcast Cable Communications Holdings, Inc 
+COMCAST-HOUSTON – Comcast – Houston 
+COMHEM-SWEDEN Com Hem Sweden 
+COMNET-TH KSC Commercial Internet Co. Ltd. 
+Completel Autonomous System in France 
+COMSAT COLOMBIA 
+COMSTAR COMSTAR-Direct global network 
+CORBINA-AS Corbina Telecom 
+COVAD – Covad Communications Co. 
+CPMBLUE-AS-BD CPM BLUE ONLINE LTD.Transit AS Internet Service Provider, Dhaka 
+CRRSTV – CRRS-TV 
+CSC Computer Management and CSC Denmark 
+CSC-IGN-AUNZ-AP Computer Sciences Corporation 
+CSC-IGN-EMEA – Computer Sciences Corporation 
+CSC-IGN-FTW – Computer Sciences Corporation 
+CSLOXINFO-AS-AP CS LOXINFO PUBLIC COMPANY LIMITED 
+CSP-AS CSP 
+CSUNET-NW – California State University Network 
+CSXT-AS-1 – CSX Technology 
+CTIHK-AS-AP City Telecom (H.K.) Ltd. 
+CTS-MD I.S. Centrul de Telecomunicatii Speciale 
+CXA-ALL-CCI-22773-RDC – Cox Communications Inc. 
+CYBERVERSE – Cyberverse, Inc. 
+CYPRESS-SEMICONDUCTOR – Cypress Semiconductor 
+CYTA-NETWORK Cyprus Telecommunications Authority 
+DARLICS-AS Darlics ltd. provides IP transport and Internet 
+DATAGRUPA SIA _Datagrupa.lv_ Marijas 7 – 412a Riga, LV-1050, LATVIA 
+DCI-AS DCI Autonomous System 
+DECHO – Decho Corporation 
+DFINET DFi Service SA 
+DHL-AS DHL Systems Inc. 
+DHSINETNOC – DEPARTMENT OF HOMELAND SECURITY 
+DIGCOMM Digital communications, LTD 
+DIGITAL-TELEPORT – Digital Teleport Inc. 
+DIL-AP DIRECT INTERNET LTD. 
+DIN-AS TOMSKTELECOM AS 
+DINAS-AS PE Kuznetsova Viktoria Viktorovna 
+DINET-AS Digital Network JSC 
+Diveo do Brasil Telecomunicacoes Ltda 
+DK-ESS-AS Syd Energi Bredbaand A/S 
+DMSLABNET – DoD Network Information Center 
+DNC-AS IM Data Network Communication SRL 
+DNEO-OSP7 – Comcast Cable Communications, Inc. 
+DNIC-ASBLK-00721-00726 – DoD Network Information Center 
+DNIC-ASBLK-27032-27159 – DoD Network Information Center 
+DOGAN-ONLINE Dogan Iletisim Elektronik Servis Hizmetleri 
+DOMAINFACTORY domainfactory GmbH 
+DOMAINTOOLS – DomainTools, LLC 
+DONTELE-AS Telenet LLC 
+DOPC-AS 
+DOPC-AS-NGN 
+DOPC-AS-US 
+DREAMHOST-AS – New Dream Network, LLC 
+DREAMX-AS DREAMLINE CO. 
+DRWEB-AS Doctor Web Ltd 
+DSE-VIC-GOV-AS Department of Sustainability &amp; Environment, 
+DSIJSC-AS DSI Autonomous system 
+DSLEXTREME – DSL Extreme 
+DTAG Deutsche Telekom AG 
+DWL-AS-IN Dishnet Wireless Limited. Broadband Wireless 
+DYNDNS – Dynamic Network Services, Inc. 
+EASYDNS EasyDNS Technologies, Inc. 
+EASYNET Easynet Global Services 
+EBAY – eBay, Inc 
+ECI-TELECOM-LTD ECI Telecom-Ltd. 
+EDGECAST – EdgeCast Networks, Inc. 
+EIRCOM Eircom 
+ELISA-AS Elisa Oyj 
+EMBARQ-WNPK – Embarq Corporation 
+EMBIT-AS BURTILA &amp; Co. ELECTRON M.BIT SRL 
+EMC-AS12257 – EMC Corporation 
+EMCATEL 
+EMIRATES-INTERNET Emirates Internet 
+EMOBILE eMobile Ltd. 
+ENTEL CHILE S.A. 
+EPM Telecomunicaciones S.A. E.S.P. 
+EQUANT-ASIA Equant AS for Asian Region covering Japan 
+EQUINIX-EDMA-ASH-ASN – Equinix, Inc. 
+ERICSSON-APAC-MY-AS Ericsson Global Services. BUGS N&amp;V APAC 
+ERX-SINGNET SingNet 
+ESRI – Environmental Systems Research Institute 
+ESS-PR-WEBMASTERS – ESS/PR WebMasters 
+EthioNet-AS 
+ETISALAT-MISR 
+ETPI-IDS-AS-AP Eastern Telecoms Phils., Inc. 
+ETSI Autonomous System 
+EURONET Online Breedband B.V. Global AS 
+European Space Agency 
+EUSKALTEL Euskaltel S.A. 
+EXCELL-AS Excellmedia 
+EXIM – Export Import Bank of the U.S 
+FACEBOOK – Facebook, Inc. 
+FANNIEMAE – Fannie Mae 
+FasoNet-AS 
+FASTMETRICS – Fastmetrics, LLC 
+FAST-TELCO Fast Telecommunications Company W.L.L. 
+FASTWEB Fastweb SpA 
+FAWRI-AS 
+FDA – Parklawn Computer Center / DIMES HQ 
+FIBREONE-AS fibre one networks GmbH, Duesseldorf 
+FITC-AS – FITC – FedEx International Transmission Corporation 
+FMAC-I-BILLING – Freddie Mac 
+FMI-NET-AS – Freeport-McMoran Inc. 
+FORATEC-AS Foratec Communication AS at Sverdlovsk, Tyumen, Perm regions 
+FORTINET-CANADA – Fortinet Inc. 
+FPT-AS-AP The Corporation for Financing &amp; Promoting Technology 
+FRONTIER-AND-CITIZENS – Frontier Communications of America, Inc. 
+FRONTIER-FRTR – Frontier Communications of America, Inc. 
+FR-RENATER Reseau National de telecommunications pour la Technologie 
+FULLRATE Fullrate A/S 
+FX-PRIMARY-AS FX Networks Limited 
+GBLX Global Crossing Ltd. 
+GET-NO GET Norway 
+GHANATEL-AS 
+GIGAINFRA Softbank BB Corp. 
+GLOBAL-SPLK – Sprint International 
+GLOBE-TELECOM-AS Globe Telecoms 
+GOLDENLINES-ASN 012 Smile Communications Main Autonomous System 
+GOLDENTELECOM-UKRAINE Golden Telecom 
+GOOGLE – Google Inc. 
+GRAMEENPHONE-AS-AP GrameenPhone Ltd. 
+GSA-GOV – General Services Administration 
+GT-BELL – Bell Canada 
+Gtd Internet S.A. 
+GYRON ==== 
+H3G-AS H3G S.p.A. 
+H3GUKNIE Hutchison 3G UK and Ireland Core AS 
+HANARO-AS Hanaro Telecom Inc. 
+HATHWAY-NET-AP Hathway IP Over Cable Internet 
+HETZNER-AS Hetzner Online AG RZ 
+HHES – HAMILTON HYDRO ELECTRIC SYSTEM 
+HINET Data Communication Business Group 
+HKNET-AP HKNet Co. Ltd 
+HKTIMS-AP PCCW Limited 
+HNS-DIRECPC – Hughes Network Systems 
+HOPONE-GLOBAL – HopOne Internet Corporation 
+HOSTEUROPE-AS AS of Hosteurope Germany / Cologne 
+HP-INTERNET-AS Hewlett-Packard Company 
+HTCL-IAS-HK-AP Hutchison Telephone Company Limited 
+HTIL-TTML-IN-AP Tata Teleservices Maharashtra Ltd 
+HURRICANE – Hurricane Electric, Inc. 
+HUTCHISON-AS-AP Hutchison Global Communications 
+HUTCHVAS-AS Vodafone Essar Ltd., Telecommunication – Value Added Services, 
+IADB-NETWORKS – The Inter-American Development Bank 
+IAM-AS 
+IBM E-business Hosting Delivery 
+IBMCCH-RTP – IBM 
+IBMCCH-SBY – IBM 
+IBMDES-AS – IBM Dallas Engineering &amp; Scientific 
+IBSNAZ Telecom Italia S.p.a. 
+IBURST-GH 
+ICONNECT-BD Planners Tower 
+IDK-NETWORK CJSC Interdnestrcom AS 
+IEUNET BT Ireland Backbone 
+IFX-NW – IFX Communication Ventures, Inc. 
+IHNET – IHNetworks, LLC 
+IINET iiNet Limited 
+IJ-NET – Internet Junction Corp. 
+ILX-ASN – THOMSON FINANCIAL 
+IN2CABLE-AP AS Number of In2cable.com (India) Ltd. 
+INDONET-AS-AP INDO Internet, PT 
+INDOSATM2-ID INDOSATM2 ASN 
+INEA-AS INEA S.A. 
+INET-AS-ID PT. Inet Global Indo 
+INETCOMM-AS INET LTD 
+I-NETPARTNER-AS I-NetPartner GmbH ASN 
+INETTEHNO Inet Tehno 
+INFINEON-AS Infineon AG 
+INFINEON-SG 8 Kallang Sector 
+INFLOW19294 – Inflow Inc. 
+INFOSPHERE NTT PC Communications, Inc. 
+INFOSTRADA Infostrada S.p.A. 
+INIT7 Init7 Global Backbone 
+INS-AS – AT&amp;T Data Communications Services 
+Instituto Costarricense de Electricidad y Telecom. 
+Instituto Tecnol??gico y de Estudios Superiores de Monterrey 
+INTEGRATELECOM – Integra Telecom, Inc. 
+INTELSAT Intelsat Global BGP Routing Policy 
+INTEL-SC-AS – Intel Corporation 
+INTERNAP-2BLK – Internap Network Services Corporation 
+INTERNAP-BLK – Internap Network Services Corporation 
+INTERNAP-BLK – Internap Network Services Corporation 
+INTERNAP-BLK3 – Internap Network Services Corporation 
+INTERNAP-BLOCK-4 – Internap Network Services Corporation 
+INTERNETIA-AS Netia SA 
+INTERNET-PATH – Internet Path, Inc. 
+INTERNET-PRO-AS Internet-Pro Ltd 
+INTEROUTE Interoute Communications Ltd 
+INTERPHONE-AS Interphone Ltd. 
+INTERTELECOM Intertelecom 
+IPASAULE-AS _Interneta Pasaule_ SIA 
+IPG-AS-AP Philippine Long Distance Telephone Company 
+IPGOMA – THE INTERPUBLIC GROUP OF COMPANIES, INC. 
+IPNXng 
+IPO-EU IP-Only Telecommunication Networks AB 
+IQUEST-AS – IQuest Internet 
+IRONPORT-SYSTEMS-INC – Cisco Systems Ironport Division 
+IRS – Internal Revenue Service 
+IS 
+ISC-AS1280 Internet Systems Consortium, Inc. 
+ISKON ISKON INTERNET d.d. za informatiku i telekomunikacije 
+ISKRATELECOM-AS ISKRATELECOM ZAO 
+ISP-KIM-NET Kalush Information Network LTD 
+ISSC-AS – ISSC 
+ISW – Internet Specialties West Inc. 
+ITNS ITNS. NET SRL 
+ITSCOM its communications Inc. 
+JAWWAL Jawwal will be multihoming with us AS15975 and AS12975 
+JAZZNET Jazz Telecom S.A. 
+Jordan Data Communications Company LLC 
+JUNIPER-NETWORKS – Juniper Networks, Inc. 
+KABELBW-ASN Kabel Baden-Wuerttemberg GmbH &amp; Co. KG 
+KAISER-NCAL – Kaiser Foundation Health Plan 
+KAMOPOWER – KAMO Electric Cooperative, Inc. 
+KAZTELECOM-AS JSC Kazakhtelecom 
+KHERSON-TS Kherson Telecommunication Systems Ltd. 
+KIXS-AS-KR Korea Telecom 
+K-OPTICOM K-Opticom Corporation 
+KSNET KSNet 
+KSNET-AS Kyivstar GSM 
+KVH KVH Co.,Ltd 
+LANTELECOM-AS Lan-Telecom AS Number 
+LATISYS-ASHBURN – Latisys-Ashburn, LLC 
+LATNETSERVISS-AS LATNET ISP 
+LDCOMNET NEUF CEGETEL (formerly LDCOM NETWORKS) 
+LEASEWEB LEASEWEB AS 
+LEVEL3 Level 3 Communications 
+LGCNS-AS – LG CNS America Inc. 
+LGDACOM LG DACOM Corporation 
+LGH-AS-KR LGHitachi 
+LGNET-AS-KR LG CNS 
+LINKdotNET-AS 
+LINKLINE – LinkLINE Communications, Inc. 
+LINKNET-ID-AP Linknet ASN 
+LOQAL-AS Loqal AS 
+LUCENT-CIO – Lucent Technologies Inc. 
+LUGANET-AS ARTA Ltd 
+LVBALTICOM-AS _Balticom_ JSC 
+LVLT594-598 – Level 3 Communications, Inc. 
+LYSE-AS Altibox AS 
+MAGNUS-AS TOV _Magnus Limited_ 
+MANGOTELESERVICE-AS-BD Only private Owned IIG in Bangladesh 
+MAP Moscow Network Access Point 
+MASERGY-US Masergy US Autonomous System 
+MASSCOM – Massillon Cable Communications 
+MAXIS-AS1-AP Binariang Berhad 
+MBL-AS-AP Micronet Broadband (Pvt) Ltd. 
+MCAFEE – McAfee, Inc. 
+MCAFEE-COM – McAfee, Inc. 
+MCC OJSC _Moscow Cellular Communications_, 
+MCI-ASN – MCI 
+MCT-SYDNEY Macquarie Telecom 
+MDITNET-AS ITNET (ITPAY SRL) 
+MEDIASERV-AS Mediaserv 
+Mega Cable, S.A. de C.V. 
+MEGAPATH2-US – MegaPath Networks Inc. 
+METROTEL REDES S.A. 
+MF-KAVKAZ-AS Caucasus Branch of OJSC MegaFon AS 
+MF-NWGSM-AS North-West Branch of OJSC MegaFon Network 
+MFNX MFN – Metromedia Fiber Network 
+MICRON21-AS-AU-AP Micron21 Melbourne Australia Datacentre. Co-Location Dedicated Servers Web Hosting 
+MICROSOFT-CORP-AS – Microsoft Corp 
+MICROSOFT-CORP—MSN-AS-BLOCK – Microsoft Corp 
+MISD-NET – Macomb Intermediate School District 
+MIT-GATEWAYS – Massachusetts Institute of Technology 
+MOLDCELL_AS Moldcell SA Autonomous System 
+MOLDDATA-AS Administrator of the top level domain .MD, 
+MOLDTELECOM-AS Moldtelecom Autonomous System 
+MORENET – University of Missouri – dba the Missouri Research and Education Network (MOREnet) 
+MOTOROLA – Motorola, Inc. 
+MOTOROLA-PHX – Motorola, Inc. 
+MP-ELEKTRONIKA-AS MP ELEKTRONIKA Autonomous System 
+MPX-AS Microplex PTY LTD 
+MTNL-AP Mahanagar Telephone Nigam Ltd. 
+MTS-INDIA-IN 334,Udyog Vihar 
+MTSNET OJSC _Mobile TeleSystems_ Autonomous System 
+N9E7X5E3N1I2N4C – Nexen Inc. 
+NAWALA-AS-ID Asosiasi Warung Internet Indonesia (AWARI) 
+NAWRAS-AS Omani Qatari Telecommunications Company SAOC 
+NBLNETWORKS-AS Nebula Oy Autonomous System 
+NC-FUNB-AS – WACHOVIA CORP 
+NCNET-AS National Cable Networks 
+NEOLINK CJSC _ER-Telecom Holding_ Izhevsk branch 
+NERIM Nerim SAS 
+NET-ACCESS-CORP – Net Access Corporation 
+NET-AIG – American International Group (AIG) Data Center, Inc. 
+NETCOM-AS NetCom as Autonomous system 
+NETELLIGENT – Netelligent Hosting Services Inc. 
+NEWCOM-AS NEWCOM mirror object from ARIN 
+NEWCOM-ASN New Com Telecomunicatii SA 
+NEWEDGENETS – New Edge Networks 
+NEWSKIES-NETWORKS SES WORLD SKIES ARIN AS, for routing RIPE space. 
+NEWTT-IP-AP Wharf T&amp;T Ltd. 
+NEXTGENTEL NEXTGENTEL Autonomous System 
+NEXTTELL-VRN-AS LLC NextTell-Voronezh AS Number 
+NG-AS NextGen Communications SRL 
+NIANET-AS nianet is a Danish carrier and Internet Service Provider 
+NO_NAME 
+NOC – Network Operations Center Inc. 
+NOKIA Nokia Internet 
+NOKIA-AS NOKIANET APAC Data Centre network 
+NOKIANET_DALLAS NOKIANET Dallas office 
+Nominum Global NameServer network 
+NOMINUM-SKYE1 – SKYE 
+NORDLINKS-AS S.C. _NordLinks_ S.R.L. 
+NORMA-PLUS-AS TOV Norma Plus 
+NORTHROP-GRUMMAN – Northrop Grumman 
+NOVELL – Novell, Inc. 
+NTL Virgin Media Limited 
+NTT do Brasil Telecomunicaoes Ltda 
+NTT-COMMUNICATIONS-2914 – NTT America, Inc. 
+NUMERICABLE NUMERICABLE is a cable network operator in France, offering TV,VOICE and Internet services 
+NUVOX – NuVox Communications, Inc. 
+NV-ASN 013 NetVision Ltd. 
+NYFX-RTR – NYFIX, INC 
+O1COMM – O1 COMMUNICATIONS 
+OCN NTT Communications Corporation 
+OFIDEN – OppenheimerFunds, Inc. 
+OMD-FNO Orange Moldova Fix Network Autonomous System 
+OMNITURE ==== 
+OPENDNS – OpenDNS, LLC 
+ORANGE-BUSINESS-SERVICES-SOUTHEUR Equant Inc. 
+ORANGE-BUSINESS-SERVICES-UK Orange Business Services (formerly Equant) AS for UK 
+OSIS-PACOM – Joint Intelligence Center Pacific 
+OVH OVH 
+P4NET P4 Sp. z o.o. 
+PACIFIC-INTERNET-INDIA-ASN Pacific Internet India Pvt. Ltd. 
+PACIFIC-INTERNET-IX Pacific Internet Ltd 
+PACNET Pacnet Global Ltd 
+PAH-INC – GoDaddy.com, Inc. 
+PAIR-NETWORKS – pair Networks 
+PALTEL-AS PALTEL Autonomous System 
+PARTNER-AS Partner Communications Ltd. 
+PBTL-BD-AS-AP Pacific Bangladesh Telecom Limited. 
+PDX – PORTLAND INTERNETWORKS 
+PEER1 – Peer 1 Network Inc. 
+Pegaso PCS, S.A. de C.V. 
+PERSNET Korea Telecom Freetel 
+PI-AU Pacific Internet (Australia) Pty Ltd 
+PI-HK Pacnet Internet (Hong Kong) Limited 
+PIXNET-AS – Providers Internet Exchange 
+PKTELECOM-AS-PK Pakistan Telecom Company Limited 
+PLUSSERVER-AS PlusServer AG, Germany 
+POLYCOM – Polycom, Inc. 
+POWEREDCOM KDDI CORPORATION 
+Prima S.A. 
+PRIMORYE-AS Open Joint Stock Company _Far East Telecommunications Company_ 
+PRINCETON-AS – Princeton University 
+PROBENETWORKS-AS Probe Networks 
+PRONET_LV SIA _PRONETS_ 
+PROXAD Free SAS 
+PS-NETPLEX-AS – Perot Systems 
+PT KPN Internet Solutions 
+PTK-CENTERTEL-DSL-AS PTK Centertel Sp. z o.o. 
+PTLP-CORE – People_s Tel Limited Partnership 
+PTPRIMENET PT PRIME – Solucoes Empresariais de Telecomunicacoes e Sistemas S.A. 
+PUBNET1-AS KT 
+PUSAN-AS-KR Pusan National University 
+PWC-AS – PriceWaterhouseCoopers, LLP 
+Q9-AS – Q9 Networks Inc. 
+Q9-AS-BRAM – Q9 Networks Inc. 
+QNETCZ QNET CZ s.r.o. 
+QSC-1 QSC AG 
+QUALCOMM – Qualcomm, Inc. 
+QUALCOMM-BLR-AS-AP Qualcomm Inc. Bangalore AS, Developer of CDMA Technology India 
+QWEST – Qwest Communications Company, LLC 
+RACKSPACE – Rackspace Hosting 
+RADIOGRAFICA COSTARRICENSE 
+RAPID-LINK-AS RAPID LINK SRL 
+RAYA-AS 
+RCN-AS – RCN Corporation 
+RDSNET RCS &amp; RDS S.A. 
+Rede Nacional de Ensino e Pesquisa 
+REEDLAN-AS ISP REEDLAN 
+RELARN RELARN-MSK 
+RELIANCE-COMMUNICATIONS-IN Reliance Communications Ltd.DAKC MUMBAI 
+RELIANCEGLOBALCOM – Reliance Globalcom Services, Inc 
+RENAM RENAM Association 
+RIML-CORP-AS-3 – Research In Motion Limited 
+RIPE-NCC-AS RIPE Network Coordination Centre 
+RISC-SYSTEM – Rockwell Scientific Company 
+RMH-14 – Rackspace Hosting 
+RMIFL RM Education PLC – Internet for Learning 
+ROGERS-CABLE – Rogers Cable Communications Inc. 
+ROSTELECOM-AS JSC Rostelecom 
+ROSTOV-TELEGRAF-AS Rostovelectrosviaz_ of Public Joint Stock Company 
+RTCOMM-AS OJSC RTComm.RU 
+RTD ROMTELECOM S.A 
+RUSTAVI2ONLINEAS Caucasus Online LLC 
+RU-SURNET Uralsvyazinform, Chelyabinsk branch 
+RWT – RagingWire Telecommunications 
+SAFELINES The network of ISP Safelines,includes POPs in various cities 
+SAFENZ-TRANSIT-AS-NZ SafeNZ Networks LTD 
+SAITIS-NETWORK Saitis Network, N.Desir 
+SAMSUNGNETWORKS-AS-KR Samsung Networks Inc. 
+SAN-JUAN-CABLE – San Juan Cable, LLC 
+SASUSA SunGard Availability Services USA 
+SAVVIS – Savvis 
+SBIS-AS – AT&amp;T Internet Services 
+SCARTEL-AS Scartel Ltd. 
+SCOTTS-AS – CITY OF SCOTTSBURG 
+SCRR-10796 – Road Runner HoldCo LLC 
+SCRR-11426 – Road Runner HoldCo LLC 
+SCRR-12271 – Road Runner HoldCo LLC 
+SCV-AS-AP SCV Broadband Access Provider 
+SDL-20-AS – Smithville Digital, LLC 
+SEAGATE-USA-MN-1 – Seagate Technology 
+SEEDNET Digital United Inc. 
+SELECTNET-AS – SelectNet Internet Services 
+SERBIA-BROADBAND-AS Serbia BroadBand-Srpske Kablovske mreze d.o.o. 
+SERVICENET-AP Internet service provision to Western 
+SGNET-AS-AP Singapore Government Network AS 
+SHAW – Shaw Communications Inc. 
+SIBNETWORKS-AS Siberian Networks 
+SIFY-AS-IN Sify Limited 
+SIGMANET-NIC LU MII AS 
+SIKA-AS Sika Informationssysteme AG 
+SITA SITA 
+sixtelecoms-as 
+SKTELECOM-NET-AS SK Telecom., Ltd. 
+SKYNET-SPB-AS SkyNet Ltd. 
+SKYVISION SkyVision Network Services 
+SLTINT-AS-AP Sri Lanka Telecom Internet 
+SOFTLAYER – SoftLayer Technologies Inc. 
+SOFTNET-AS-AP Software Technology Parks of India – Bangalore 
+SOLNET BSE Software GmbH 
+SONICDUO-AS AS for MegaFon-Moscow 
+SONOMA – Sonoma Interconnect 
+SONY-APAC-AP Sony – ASN for Asia Pacific 
+SOVAM-AS OJSC _Vimpelcom_ 
+SPBMTS-AS Mobile TeleSystems, OJSC, MR North-West 
+SPCS – Sprint Personal Communications Systems 
+SPEAKEASY – Speakeasy, Inc. 
+SPECTRANET FIRST FIBRE BROADBAND NETWORK IN NEW DELHI, INDIA 
+Sprint US 
+SPRINTLINK – Sprint 
+SPRINTLINK-HOSTING – SPRINT, Business Serices Group 
+SS-NOC-AS – Straitshot Communications, Inc. 
+STARHUBINTERNET-AS StarHub Internet Exchange 
+STARNET-AS StarNet Moldova 
+STATEL-AS Stavropol branch of Southern Telecommunications Company 
+STEADFAST – Steadfast Networks 
+STOMI – State of Michigan, DMB-CNOC 
+STSN-SLC-UT-US – STSN GENERAL HOLDINGS, INC. 
+SUDDENLINK-COMMUNICATIONS – Suddenlink Communications 
+SUMTEL-AS-RIPE Summa Telecom 
+SUNCOMMUNICATIONS-AS JV _Sun Communications_ Autonomous System 
+SUNRISE Sunrise Communications AG 
+SUPERNET-PAKISTAN-AS-AP Supernet Limited Transit Autonomous System Number 
+SURFCONTROL-US-ASN Websense Hosted Security Network 
+SURFNET-NL SURFnet, The Netherlands 
+SWEETNET-AS Private entrepreneur Bliznichenko Vitalij Volodumirovich 
+SWISSCOM Swisscom (Switzerland) Ltd 
+SWITCH SWITCH, Swiss Education and Research Network 
+SWKO – SOUTHWEST KANSAS ONLINE 
+TACHYON-AS-ID PT Remala Abadi 
+TATA-AS TATA ISP 
+TATACOMM-AS TATA Communications formerly VSNL is Leading ISP 
+TATTELECOM-AS Tattelecom.ru/Tattelecom Autonomous System 
+TC Radio Systems Autonomous System 
+TCH – TCH Network Services 
+TDC TDC Data Networks 
+TDDE-ASN1 Telefonica o2 Germany Autonomous System 
+TDN Tikona Digital Networks Pvt Ltd. 
+TEAM-CYMRU – Team Cymru Inc. 
+TE-AS TE-AS 
+TELCOMNET TelCom Ltd. 
+TELCOM-UA-AS _Telecomunikatsiina Companiya_ Ltd 
+TELE2 
+Telecom Argentina S.A. 
+TELECOMMD-AS ICS Networks Solutions SRL 
+Telecomunicacoes da Bahia S.A. 
+TELEFONICA CHILE S.A. 
+Telefonica de Argentina 
+Telefonica Empresas SA 
+TELEFONICA-DATA-ESPANA Internet Access Network of TDE 
+TELEKOM-AS TELEKOM SRBIJA a.d. 
+TELENERGO EXATEL S.A. Autonomous System 
+TELENET-AS Autonomous System of Teleset-Servis Ltd. 
+TELENET-AS Telenet N.V. 
+TELENOR-NEXTEL Telenor Norge AS 
+TELESC – Telecomunicacoes de Santa Catarina SA 
+TELESWEET-AS Telesweet ISP Autonomous System 
+TELETECH – TeleTech Holdings, Inc 
+Television Internacional, S.A. de C.V. 
+TELEZUG WWZ Telekom AG 
+TELIANET-DENMARK TeliaNet Denmark 
+TELIANET-SWEDEN TeliaNet Sweden 
+TELKOMNET-AS2-AP PT Telekomunikasi Indonesia 
+TELKOMSEL-ASN-ID PT. Telekomunikasi Selular 
+TELLCOM-AS Tellcom Iletisim Hizmetleri 
+Telmex Chile Internet S.A. 
+Telmex Colombia S.A. 
+TELSTRA Telstra Pty Ltd 
+TEOLTAB TEO LT AB Autonomous System 
+TERREMARK Terremark 
+TFN-TW Taiwan Fixed Network, Telco and Network Service Provider. 
+TFO-BOSTON – THOMSON FINANCIAL 
+THEPLANET-AS – ThePlanet.com Internet Services, Inc. 
+T-HT T-Com Croatia Internet network 
+TINET-BACKBONE Tinet SpA 
+TISCALI-UK Tiscali UK 
+TISNL-BACKBONE Telfort B.V. 
+TKPSA-AS TKP S.A. is 3S.pl network operator. 
+TKT-AS JSC TKT 
+TMIB-BD-AS-AP TM International Bangladesh Ltd. ISP, Gulshan-1,Dhaka-1212 
+TMN-AS TMN Autonomous System 
+TMNET-AS-AP TM Net, Internet Service Provider 
+TM-NETSYS-ASH – TicketMaster 
+TOMLINE Tomsk telecommunication company Ltd 
+TOTNET-TH-AS-AP TOT Public Company Limited 
+TPG-INTERNET-AP TPG Internet Pty Ltd 
+TPNET Telekomunikacja Polska S.A. 
+TRANSTEL S.A. 
+TRAVELERS – Travelers Property Casualty Corp. 
+TRENDMICRO Global IDC and Backbone of Trend Micro Inc. 
+TRENDMICRO Trend Micro Inc. 
+TRUENORTHCOMM – True North Communications 
+TSF-IP-CORE TeliaSonera Finland IP Network 
+TSU-SM – Texas State University – San Marcos 
+TTCLDATA 
+TTNET Turk Telekomunikasyon Anonim Sirketi 
+TTSL-MEISISP Tata Teleservices ISP AS 
+TULIP Tulip Telecom Ltd. 
+TURKCELL-AS TURKCELL ILETISIM HIZMETLERI A.S. 
+TVCABO-AS TVCABO Autonomous System 
+TWTC – tw telecom holdings, inc. 
+UAEXPRESS EXPRESS Radio Network 
+UARNET-AS Ukrainian Academic and Research Network 
+UA-SEECH Seech-Infocom NCC 
+UA-SMART-AS Broadcasting company _Smart_ Ltd 
+UCOM UCOM Corp. 
+UCSB-NET-AS – University of California, Santa Barbara 
+UCSC – University of California, Santa Cruz 
+UDMVT-AS OJSC VolgaTelecom branch in Udmurtia Republic AS Number 
+UECOMM-AU Uecomm Ltd 
+UKRBIT-NET-AS SPD Bilopol Roman Leonidovich 
+UKRTELNET JSC UKRTELECOM, 
+ULTRADNS – Centergate Research, LLC. 
+UMANITOBA – University of Manitoba 
+UMC-AS UMC Autonomous System 
+UMICH-AS-5 – University of Michigan 
+UMN Ural-TransTeleCom Autonomous System 
+UNI2-AS France Telecom Espana SA 
+Uninet S.A. de C.V. 
+UNINETT UNINETT, The Norwegian University &amp; Research Network 
+UNISYS-6072 For routing issues, email hostmaster@unisys.com 
+UNISYS-AP-UI-AS-AP Unisys AsiaPac Intranet Access to Internet 
+UNISYS-AS-E – Unisys Corporation 
+Universidad Nacional de Colombia 
+University de Los Andes 
+UNL-AS – University of Nebraska-Lincoln 
+UNSPECIFIED 
+UPC UPC Broadband 
+UPITT-AS – University of Pittsburgh 
+URAN URAN Autonomous system 
+USAA – USAA 
+USI Uralsviazinform 
+UUNET – MCI Communications Services, Inc. d/b/a Verizon Business 
+UUNET-INT – MCI Communications Services, Inc. d/b/a Verizon Business 
+VEGA-OD-UA DCS Ltd. 
+VERISIGN-CORP – VeriSign Infrastructure &amp; Operations 
+VERSATEL AS for the Trans-European Tele2 IP Transport backbone 
+VIA-NET-WORKS-AS PSINet Europe / VIA NET.WORKS international AS 
+VIAPASS-FR VIAPASS SAS 
+VIDEOTRON – Videotron Telecom Ltee 
+VIETEL-AS-AP Vietel Corporation 
+VINAKOM – VINAKOM COMMUNICATIONS 
+VINS – ViaWest 
+VIRGINIA-AS – University of Virginia 
+VITSSEN-SUWON-AS-KR Tbroad Suwon Broadcating Corporati 
+VMWARENET-1 – VMWare, Inc. 
+VNET-AS VNET ISP Bratislava, Slovakia, SK 
+VNPT-AS-VN Vietnam Posts and Telecommunications (VNPT) 
+VODAFONE_ICELAND Backbone Autonomous System 
+VODAFONE-IT-ASN Vodafone N.V. 
+VODANET International IP-Backbone of Vodafone 
+VOLIA-AS Kyivski Telekomunikatsiyni Merezhi LLC 
+VOLKSWAGEN Volkswagen AG, Wolfsburg 1 
+VRIS-AS-BLOCK – Verizon Online LLC 
+VSI-AS VSI AS 
+VTX-NETWORK VTX Services SA 
+VZB-AU-AS Verizon Australia PTY Limited 
+VZGNI-TRANSIT – Verizon Online LLC 
+WATEEN-IMS-PK-AS-AP National WiMAX/IMS environment 
+WAYPORT – AT&amp;T Wi-Fi Services 
+Webex Communications, Inc. 
+WEBSENSE Websense, Inc. 
+WELLSFARGO – Wells Fargo &amp; Company 
+WESTHOST – WestHost, Inc. 
+WESTNET-AS-AP Westnet Internet Services 
+WESTPUB-A – West Publishing Corporation 
+WICAM-AS WiCAM ISP Cambodia Peering AS 
+WIDEXS ion-ip B.V. 
+WINDSTREAM – Windstream Communications Inc 
+WIRELESSNET-ID-AP WIRELESSNET AS 
+WITCOM- Wiesbadener Informations – und Telekommunikations GmbH 
+WN-AS Private enterprise Gorbunov A.A. 
+WORLDBANK-AS – WORLD BANK 
+WORLDCALL-AS-LHR Worldcall Broadband Limited 
+WORLDNET-AS World Net &amp; Services Co., Ltd. 
+WOW-INTERNET – WideOpenWest Finance LLC 
+WXC-AS-NZ WorldxChange Communications LTD 
+WYOMING – wyoming.com 
+XO-AS15 – XO Communications 
+XS4ALL-NL XS4ALL 
+XTRA-AS Telecom XTRA, Auckland, NZ 
+YAHOO-BANGALORE-AS-AP Yahoo Bangalore Network Monitoring Center 
+YAHOO-US – Yahoo 
+ZIGGO Ziggo – tv, internet, telefoon 
+ZIPNETBD-DKB-AS-AP Zipnet Limited DKB AS number The following chart maps the location of more than 300 command and control networks that were used in these attacks. 299 of them were located in China. The geographic location of the more than 300 control networks used in the attacks.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>February 17, 2021</t>
+          <t>October 24, 2011</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>New Charges Derail COVID Release for Hacker Who Aided ISIS</t>
+          <t>Microsoft to Issue Emergency Patch for Critical Windows Bug</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A hacker serving a 20-year sentence for stealing personal data on 1,300 U.S. military and government employees and giving it to an Islamic State hacker group in 2015 has been charged once again with fraud and identity theft. The new charges have derailed plans to deport him under compassionate release because of the COVID-19 pandemic. Ardit Ferizi , a 25-year-old citizen of Kosovo, was  slated to be sent home earlier this month  after a federal judge signed an order commuting his sentence to time served. The release was granted in part due to Ferizi’s 2018 diagnosis of asthma, as well as a COVID outbreak at the facility where he was housed in 2020. But while Ferizi was in quarantine awaiting deportation the Justice Department  unsealed new charges against him , saying he’d conspired from prison with associates on the outside to access stolen data and launder the bitcoin proceeds of his previous crimes. In the years leading up to his arrest, Ferizi was the administrator of a cybercrime forum called  Pentagon Crew . He also served as the leader of an ethnic Albanian group of hackers from Kosovo known as Kosova Hacker’s Security (KHS), which focused on compromising government and private websites in Israel, Serbia, Greece, Ukraine and the United States. The Pentagon Crew forum founded by Ferizi. In December 2015, Ferizi was apprehended in Malaysia and extradited to the United States. In January 2016, Ferizi pleaded guilty to providing material support to a terrorist group and to unauthorized access. He admitted to hacking a U.S.-based e-commerce company, stealing personal and financial data on 1,300 government employees, and providing the data to an Islamic State hacking group. Ferizi gave the purloined data to  Junaid “Trick” Hussain , a 21-year-old hacker and recruiter for ISIS who published it in August 2015 as part of a directive that ISIS supporters kill the named U.S. military members and government employees. Later that month, Hussain was reportedly killed by a drone strike in Syria. The government says Ferizi and his associates made money by hacking PayPal and other financial accounts, and through pornography sites he allegedly set up mainly to steal personal and financial data from visitors. Junaid Hussain’s Twitter profile photo. Between 2015 and 2019, Ferizi was imprisoned at a facility in Illinois that housed several other notable convicts. For example, prosecutors allege that Ferizi was an associate of  Mahmud “Red” Abouhalima , who was serving a 240 year sentence at the prison for his role in  the 1993 World Trade Center bombing . Another inmate incarcerated at the same facility was  Shawn Bridges , a former  U.S. Secret Service  agent  serving almost eight years  for stealing $820,000 worth of bitcoin from online drug dealers while investigating the hidden underground website Silk Road. Prosecutors say Ferizi and Bridges discussed ways to hide their bitcoin. The information about Ferizi’s inmate friends came via a tip from another convict, who told the FBI that Ferizi was allegedly using his access to the prison’s email system to share email and bitcoin account passwords with family members back home. The Justice Department said subpoenas served on Ferizi’s email accounts and interviews with his associates show Ferizi’s brother in Kosovo used the information to “liquidate the proceeds of Ferizi’s previous criminal hacking activities.” [Side note: It may be little more than a coincidence, but  my PayPal account was hacked in Dec. 2015  by criminals who social engineered PayPal employees over the phone into changing my password and bypassing multi-factor authentication. The hackers attempted to send my balance to an account tied to Hussain, but the transfer never went through.] Ferizi is being tried in California, but has not yet had an initial appearance in court. He’s charged with one count of aggravated identity theft and one count of wire fraud. If convicted of wire fraud, he faces a maximum penalty of 20 years in prison and a fine of $250,000. If convicted of aggravated identity theft, he faces a mandatory penalty of 2 years in prison in addition to the punishment imposed for a wire fraud conviction.</t>
+          <t>Microsoft said Thursday that it will issue an out-of-band security update on Monday to fix a critical, remotely-exploitable security hole present in all versions of Windows, which the software giant says is fueling an increasing number of online attacks. On July 15, KrebsOnSecurity.com  first warned  that a flaw in the way Windows processes shortcut files (those ending in “.lnk”) was being exploited by highly targeted malicious software called “Stuxnet”. Researchers learned that Stuxnet was aimed at infiltrating Windows computers running  Siemens  WinCC SCADA software ,  or machines responsible for controlling the  operations of large,  distributed systems, such as manufacturing and  power plants. Since then, experts have found several new variants of Stuxnet, while a growing number of  more mainstream attacks  have been spotted exploiting the underlying Windows flaw. “We’re able to confirm that, in  the past few days, we’ve seen an increase in attempts to exploit the  vulnerability,”  wrote   Christopher Budd , senior security response communications manager at Microsoft, on one of the company’s TechNet blogs. “We firmly believe that releasing the update out of band  is the best thing to do to help protect our customers.” I’m looking forward to applying this fix: About a week ago, Microsoft  provided a stopgap “FixIt” tool  that blunts the threat from this vulnerability, but it also changes the appearance of certain icons on the Windows desktop, often making it difficult for users to tell one program from the next. For example, here’s a screen shot of my Windows 7 desktop toolbar after I applied the fix: I’ve found it fascinating to watch the speculation and hype swirl around this Stuxnet worm: Early on, the news media and pundits fixated on the notion that this was  proof that other countries were planning cyber attacks  on our power grid and other highly complex networks that rely on the types of SCADA systems targeted by Stuxnet. Then, about a week ago, experts began charting where in the world most victims were based. According to  Symantec , roughly 60 percent of the systems infected with this family of malware  were based in Iran , while computers in Indonesia and India also were hard-hit. One equally likely scenario that I haven’t heard suggested much yet is that perhaps we are seeing evidence of our country’s own cyber warriors probing the networks of other nations. It is notable that the first definitions that the major anti-virus firms shipped for the Stuxnet malware were issued on or around the same day as my story, and that this malware was first discovered one month earlier by  VirusBlokada , a relatively tiny anti-virus firm in Belarus that said it found the worm on computers belonging to one of its Iranian customers. What’s more, it’s unlikely that a malware threat initially directed at Iran would show up on the radar of U.S.-based anti-virus makers, all of whom are prohibited by U.S. trade sanctions from selling products and services to Iran.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>January 19, 2021</t>
+          <t>July 30, 2010</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Porn Clip Disrupts Virtual Court Hearing for Alleged Twitter Hacker</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Perhaps fittingly, a Web-streamed court hearing for the 17-year-old alleged mastermind of the July 15 mass hack against  Twitter  was cut short this morning after mischief makers injected a pornographic video clip into the proceeding. 17-year-old Graham Clark of Tampa, Fla. was among those charged in the July 15 Twitter hack. Image: Hillsborough County Sheriff’s Office. The incident occurred at a bond hearing held via the videoconferencing service  Zoom  by the Hillsborough County, Fla. criminal court in the case of  Graham Clark . The 17-year-old from Tampa was arrested earlier this month on suspicion of social engineering his way into Twitter’s internal computer systems and tweeting out a bitcoin scam through the accounts of high-profile Twitter users. Notice of the hearing was available via public records filed with the Florida state attorney’s office. The notice specified the Zoom meeting time and ID number, essentially allowing anyone to participate in the proceeding. Even before the hearing officially began it was clear that the event would likely be “zoom bombed.” That’s because while participants were muted by default, they were free to unmute their microphones and transmit their own video streams to the channel. Sure enough, less than a minute had passed before one attendee not party to the case interrupted a discussion between Clark’s attorney and the judge by streaming a live video of himself adjusting his face mask. Just a few minutes later, someone began interjecting loud music. It became clear that presiding  Judge Christopher C. Nash  was personally in charge of administering the video hearing when, after roughly 15 seconds worth of random chatter interrupted the prosecution’s response, Nash told participants he was removing the troublemakers as quickly as he could. Judge Nash, visibly annoyed immediately after one of the many disruptions to today’s hearing. What transpired a minute later was almost inevitable given the permissive settings of this particular Zoom conference call: Someone streamed a graphic video clip from Pornhub for approximately 15 seconds before Judge Nash abruptly terminated the broadcast. With the ongoing pestilence that is the COVID-19 pandemic, the nation’s state and federal courts have largely been forced to conduct proceedings remotely via videoconferencing services. While Zoom and others do offer settings that can prevent participants from injecting their own audio and video into the stream unless invited to do so, those settings evidently were not enabled in today’s meeting. At issue before the court today was a defense motion to modify the amount of the defendant’s bond, which has been set at $750,000. The prosecution had argued that Clark should be required to show that any funds used toward securing that bond were gained lawfully, and were not merely the proceeds from his alleged participation in the Twitter bitcoin scam or some other form of cybercrime. Florida State Attorney Andrew Warren’s reaction as a Pornhub clip began streaming to everyone in today’s Zoom proceeding. Mr. Clark’s attorneys disagreed, and spent most of the uninterrupted time in today’s hearing explaining why their client could safely be released under a much smaller bond and close supervision restrictions. On Sunday, The New York Times  published an in-depth look into Clark’s wayward path  from a small-time cheater and hustler in online games like Minecraft to big-boy schemes involving  SIM swapping , a form of fraud that involves social engineering employees at mobile phone companies to gain control over a target’s phone number and any financial, email and social media accounts associated with that number. According to The Times, Clark was suspected of being involved in a 2019 SIM swapping incident which led to the theft of 164 bitcoins from  Gregg Bennett , a tech investor in the Seattle area. That theft would have been worth around $856,000 at the time; these days 164 bitcoins is worth approximately $1.8 million. The Times said that soon after the theft, Bennett received an extortion note signed by Scrim, one of the hacker handles alleged to have been used by Clark. From that story: “We just want the remainder of the funds in the Bittrex,” Scrim wrote, referring to the Bitcoin exchange from which the coins had been taken. “We are always one step ahead and this is your easiest option.” In April, the Secret Service seized 100 Bitcoins from Mr. Clark, according to government forfeiture documents. A few weeks later, Mr. Bennett received a letter from the Secret Service saying they had recovered 100 of his Bitcoins, citing the same code that was assigned to the coins seized from Mr. Clark. Florida prosecutor Darrell Dirks was in the middle of explaining to the judge that investigators are still in the process of discovering the extent of Clark’s alleged illegal hacking activities since the Secret Service returned the 100 bitcoin when the porn clip was injected into the Zoom conference. Ultimately, Judge Nash decided to keep the bond amount as is, but to remove the condition that Clark prove the source of the funds. Clark has been charged with 30 felony counts and is being tried as an adult. Federal prosecutors also have  charged two other young men suspected of playing roles in the Twitter hack , including a 22-year-old from Orlando, Fla. and a 19-year-old from the United Kingdom.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>August 5, 2020</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French Firms Rocked by Kasbah Hacker?</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A large number of French critical infrastructure firms were hacked as part of an extended malware campaign that appears to have been orchestrated by at least one attacker based in Morocco, KrebsOnSecurity has learned. An individual thought to be involved has earned accolades from the likes of  Apple ,  Dell , and  Microsoft  for helping to find and fix security vulnerabilities in their products.  In 2018, security intelligence firm  HYAS  discovered a malware network communicating with systems inside of a French national power company. The malware was identified as a version of the remote access trojan (RAT) known as  njRAT , which has been used against  millions of targets globally  with a focus on victims in the Middle East. Further investigation revealed the electricity provider was just one of many French critical infrastructure firms that had systems beaconing home to the malware network’s control center. Other victims included one of France’s largest hospital systems; a French automobile manufacturer; a major French bank; companies that work with or manage networks for French postal and transportation systems; a domestic firm that operates a number of airports in France; a state-owned railway company; and multiple nuclear research facilities. HYAS said it quickly notified the French national computer emergency team and the FBI about its findings, which pointed to a  dynamic domain name system  (DNS) provider on which the purveyors of this attack campaign relied for their various malware servers. When it didn’t hear from French authorities after almost a week, HYAS asked the dynamic DNS provider to “ sinkhole ” the malware network’s control servers. Sinkholing is a practice by which researchers assume control over a malware network’s domains, redirecting any traffic flowing to those systems to a server the researchers control. While sinkholing doesn’t clean up infected systems, it can prevent the attackers from continuing to harvest data from infected PCs or sending them new commands and malware updates. HYAS found that despite its notifications to the French authorities, some of the apparently infected systems were still attempting to contact the sinkholed control networks up until late 2019. “Due to our remote visibility it is impossible for us to determine if the malware infections have been contained within the [affected] organizations,” HYAS wrote in a report summarizing their findings. “It is possible that an infected computer is beaconing, but is unable to egress to the command and control due to outbound firewall restrictions.” About the only French critical infrastructure vertical not touched by the Kasbah hackers was the water management sector. HYAS said given the entities compromised — and that only a handful of known compromises occurred outside of France — there’s a strong possibility this was the result of an orchestrated phishing campaign targeting French infrastructure firms. It also concluded the domains associated with this campaign were very likely controlled by a group of adversaries based in Morocco. “What caught our attention was the nature of the victims and the fact that there were no other observed compromises outside of France,” said Sasha Angus, vice president of intelligence for HYAS. “With the exception of water management, when looking at the organizations involved, each fell within one of the verticals in France’s critical infrastructure strategic plan. While we couldn’t rule out financial crime as the actor’s potential motive, it didn’t appear that the actor leveraged any normal financial crime tools.” HYAS said the dynamic DNS provider shared information showing that one of the email addresses used to register a key DNS server for the malware network was tied to a domain for a legitimate business based in Morocco. According to historic records maintained by  Domaintools.com  [an advertiser on this site], that email address —  ing.equipepro@gmail.com  — was used in 2016 to register the Web site  talainine.com , a now-defunct business that offered recreational vehicle-based camping excursions just outside of a city in southern Morocco called  Guelmim .  Archived copies of talainine.com  indicate the business was managed by two individuals, including someone named  Yassine Algangaf . A Google search for that name reveals a similarly named individual has been credited by a number of major software companies — including  Apple ,  Dell  and  Microsoft  — with reporting security vulnerabilities in their products. A search on this name at Facebook  turned up a page for another now-defunct business  called  Yamosoft.com  that lists Algangaf as an owner.  A cached copy of Yamosoft.com at archive.org  says it was a Moroccan computer security service that specialized in security audits, computer hacking investigations, penetration testing and source code review. A search on the ing.equipepro@gmail.com address at  4iq.com  — a service that indexes account details like usernames and passwords exposed in Web site data breaches — shows this email address was used to register an account at the computer hacking forum  cracked[.]to  for a user named “ fatal.001 .” A LinkedIn profile for a Yassine Algangaf  says he’s a penetration tester from the Guelmim province of Morocco. Yet  another LinkedIn profile  under the same name and location says he is a freelance programmer and penetration tester. Both profiles include the phrase “attack prevention mechanisms researcher security tools proof of concepts developer” in the description of the user’s job experience. Searching for this phrase in Google turns up  another Facebook page , this time for a “ Yassine Majidi, ” under the profile name “ FatalW01 .” A review of Majidi’s Facebook profile shows that phrase as his tag line, and that he has signed several of his posts over the years as “Fatal.001.” There are also two different Skype accounts registered to the ing.equipepro.com email address, one for Yassine Majidi and another for Yassine Algangaf. There is a third Skype account nicknamed “Fatal.001” that is tied to the same phone number included on talainine.com as a contact number for Yassine Algangaf (+212611604438).  A video on Majidi’s Facebook page  shows him  logged in to the “Fatal.001” Skype account . On his Facebook profile, Majidi includes screen shots of several emails from software companies thanking him for reporting vulnerabilities in their products. Fatal.001 was an active member on  dev-point[.]com , an Arabic-language computer hacking forum. Throughout multiple posts, Fatal.001 discusses his work in developing  spam   tools  and RAT malware. In  this two-hour Arabic language YouTube tutorial from 2014 , Fatal.001 explains how to use a RAT he developed called “Little Boy” to steal credit card numbers and passwords from victims. The main control screen for the Little Boy botnet interface includes a map of Morocco.  Reached via LinkedIn, Algangaf confirmed he used the pseudonyms Majidi and Fatal.001 for his security research and bug hunting. But he denied ever participating in illegal hacking activities. He acknowledged that ing.equipepro@gmail.com is his email address, but claims the email account was hacked at some point in 2017. “It has already been hacked and recovered after a certain period,” Algangaf said. “Since I am a security researcher, I publish from time to time a set of blogs aimed at raising awareness of potential security risks.” As for the notion that he has somehow been developing hacking programs for years, Algangaf says this, also, is untrue. He said he never sold any copies of the Little Boy botnet, and that this was one of several tools he created for raising awareness. “In 2013, I developed a platform for security research through which penetration test can be done for phones and computers,” Algangaf said. “It contained concepts that could benefit from a controlled domain. As for the fact that unlawful attacks were carried out on others, it is impossible because I simply have no interest in blackhat [activities].”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>March 2, 2020</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hackers Were Inside Citrix for Five Months</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Networking software giant  Citrix Systems  says malicious hackers were inside its networks for five months between 2018 and 2019, making off with personal and financial data on company employees, contractors, interns, job candidates and their dependents. The disclosure comes almost a year after Citrix acknowledged that digital intruders had broken in by probing its employee accounts for weak passwords.  Citrix provides software used by hundreds of thousands of clients worldwide, including most of the Fortune 100 companies. It is perhaps best known for selling virtual private networking (VPN) software that lets users remotely access networks and computers over an encrypted connection. In March 2019, the  Federal Bureau of Investigation  (FBI) alerted Citrix they had reason to believe cybercriminals had gained access to the company’s internal network. The FBI told Citrix the hackers likely got in using a technique called “ password spraying ,” a relatively crude but remarkably effective attack that attempts to access a large number of employee accounts (usernames/email addresses) using just a handful of common passwords. In  a statement  released at the time, Citrix said it appeared hackers “may have accessed and downloaded business documents,” and that it was still working to identify what precisely was accessed or stolen. But in a letter sent to affected individuals dated Feb. 10, 2020, Citrix disclosed additional details about the incident. According to the letter, the attackers “had intermittent access” to Citrix’s internal network between Oct. 13, 2018 and Mar. 8, 2019, and that there was no evidence that the cybercrooks still remain in the company’s systems. Citrix said the information taken by the intruders may have included Social Security Numbers or other tax identification numbers, driver’s license numbers, passport numbers, financial account numbers, payment card numbers, and/or limited health claims information, such as health insurance participant identification number and/or claims information relating to date of service and provider name. It is unclear how many people received this letter, but the communication suggests Citrix is contacting a broad range of individuals who work or worked for the company at some point, as well as those who applied for jobs or internships there and people who may have received health or other benefits from the company by virtue of having a family member employed by the company. Citrix’s letter was prompted by laws in virtually all U.S. states that require companies to notify affected consumers of any incident that jeopardizes their personal and financial data. While the notification does not specify whether the attackers stole proprietary data about the company’s software and internal operations, the intruders certainly had ample opportunity to access at least some of that information as well. Shortly after Citrix initially disclosed the intrusion in March 2019, a little-known security company  Resecurity   claimed  it had evidence Iranian hackers were responsible, had been in Citrix’s network for years, and had offloaded terabytes of data. Resecurity also presented evidence that it notified Citrix of the breach as early as Dec. 28, 2018, a claim Citrix initially denied but later acknowledged. Iranian hackers recently have been blamed for hacking VPN servers around the world in a bid to plant backdoors in large corporate networks. A  report released this week  (PDF) by security firm  ClearSky  details how Iran’s government-backed hacking units have been busy exploiting security holes in popular VPN products from Citrix and a number of other software firms. ClearSky says the attackers have focused on attacking VPN tools because they provide a long-lasting foothold at the targeted organizations, and frequently open the door to breaching additional companies through supply-chain attacks. The company says such tactics have allowed the Iranian hackers to gain persistent access to the networks of companies across a broad range of sectors, including IT, security, telecommunications, oil and gas, aviation, and government. Among the VPN flaws available to attackers is a recently-patched vulnerability ( CVE-2019-19781 ) in Citrix VPN servers dubbed “Shitrix” by some in the security community. The derisive nickname may have been chosen because while Citrix  initially warned customers about the vulnerability in mid-December 2019 , it didn’t start releasing patches to plug the holes until late January 2020 — roughly two weeks after attackers started using  publicly released exploit code  to break into vulnerable organizations. How would your organization hold up to a password spraying attack? As the Citrix hack shows, if you don’t know you should probably check, and then act on the results accordingly. It’s a fair bet the bad guys are going to find out even if you don’t.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>February 19, 2020</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Why Were the Russians So Set Against This Hacker Being Extradited?</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Russian government has for the past four years been fighting to keep 29-year-old alleged cybercriminal  Aleksei Burkov  from being extradited by Israel to the United States. When Israeli authorities turned down requests to send him back to Russia — supposedly to face separate hacking charges there — the Russians then imprisoned an Israeli woman for seven years on trumped-up drug charges in a bid to trade prisoners. That effort failed as well, and Burkov had his first appearance in a U.S. court last week. What follows are some clues that might explain why the Russians are so eager to reclaim this young man. Aleksei Burkov, seated second from right, attends a hearing in Jerusalem in 2015. Andrei Shirokov / Tass via Getty Images. On the surface,  the charges  the U.S. government has  leveled against Burkov  may seem fairly unremarkable: Prosecutors  say  he ran a credit card fraud forum called  CardPlanet  that sold more than 150,000 stolen cards. However, a deep dive into the various pseudonyms allegedly used by Burkov suggests this individual may be one of the most connected and skilled malicious hackers ever apprehended by U.S. authorities, and that the Russian government is probably concerned that he simply knows too much. Burkov calls himself a specialist in information security and denies having committed the crimes for which he’s been charged. But according to denizens of several Russian-language cybercrime forums that have been following his case in the Israeli news media, Burkov was by all accounts an elite cybercrook who primarily operated under the hacker alias “ K0pa .” This is the same nickname used by an individual who served as co-administrator of perhaps the most exclusive Russian-language hacking forums ever created, including  Mazafaka  and  DirectConnection . A screen shot from the Mazafaka cybercrime forum, circa 2011. Since their inception in the mid-aughts, both of these forums have been among the most difficult to join — admitting only native Russian speakers and requiring each applicant to furnish a non-refundable cash deposit and “vouches” or guarantees from at least three existing members. Also, neither forum was accessible or even visible to anyone without a special encryption certificate supplied by forum administrators that allowed the sites to load properly in a Web browser. DirectConnection, circa 2011. The identity shown at the bottom of this screenshot — Severa — belonged to Peter Levashov, a prolific spammer who pleaded guilty in the United States last year to operating the Kelihos spam botnet. Notably, some of the world’s most-wanted cybercriminals were members of these two highly exclusive forums, and many of those individuals have already been arrested, extradited and tried for various cybercrime charges in the United States over the years. Those include convicted credit card fraudsters  Vladislav “Badb” Horohorin  and  Sergey “zo0mer” Kozerev , as well as the infamous spammer and botnet master  Peter “Severa” Levashov . A user database obtained by KrebsOnSecurity several years back indicates K0pa relied on the same email address he used to register at Mazafaka and DirectConnection to register the user account “ Botnet ” on  Spamdot , which for years was  the closely-guarded stomping ground  of the world’s most prolific spammers and virus writers, as well as hackers who created services catering to both professions. As a reporter for  The Washington Post  in 2008, I wrote about the core offering that K0pa/Botnet advertised on Spamdot and other exclusive forums:  A botnet-based anonymity service called  FraudCrew . This service sold access to hacked computers, which FraudCrew customers used for the purposes of hiding their real location online while conducting cybercriminal activities. FraudCrew, a botnet-based anonymity service offered by K0pa. K0pa also was a top staff member at  Verified , among the oldest and most venerated of Russian language cybercrime forums. Specifically, K0pa’s role at Verified was in maintaining its blacklist, a dispute resolution process designed to weed out “dishonest” cybercriminals who seek only to rip off less experienced crooks. From this vantage point, K0pa would have held considerable sway on the forum, and almost certainly played a key role in vetting new applicants to the site. Prior to his ascendance at these forums, K0pa was perhaps best known for being a founding member of a hacker group calling themselves  the CyberLords . Over nearly a decade, the CyberLords team would release dozens of hacking tools and exploits targeting previously unknown security vulnerabilities in Web-based services and computer software. A cached copy of cyberlords[.]ru, circa 2005. According to security firm  Cybereason , Russia has a history of using contractors — even cybercriminals —  to run intelligence operations . These crooks-turned-spies “offer a resource to the state while enjoying a cloak of semi-protected ‘status’ for their extracurricular activities, provided they are directed against foreign targets.” “Cybercriminals are recruited to Russia’s national cause through a mix of coercion, payments and appeals to patriotic sentiment,” reads  a 2017 story  from  The Register  on Cybereason’s  analysis  of the Russian cybercrime scene. “Russia’s use of private contractors also has other benefits in helping to decrease overall operational costs, mitigating the risk of detection and gaining technical expertise that they cannot recruit directly into the government. Combining a cyber-militia with official state-sponsored hacking teams has created the most technically advanced and bold cybercriminal community in the world.” A banner that ran on top of the Verified cybercrime forum for many years. It’s probably worth noting that also present on both DirectConnection and Mazafaka were the core members of a prolific gang of online bank robbers called the  JabberZeus Crew , who used custom versions of the ZeuS Trojan to steal tens — if not hundreds — of millions of dollars  from hacked small businesses across the United States . In 2011, most of that crew was  rounded up in an international cybercrime crackdown , although virtually all of them escaped prosecution in their home countries (mainly Russia and Ukraine). I mention this because K0pa also was in regular communications with — if not a core member of –the JabberZeus crew. This gang worked directly with the author of the ZeuS trojan —  Evgeniy “Slavik” Bogachev  — a Russian man with  a $3 million bounty on his head from the FBI . The cybercriminal organization Bogchev allegedly ran was responsible for the theft of more than $100 million from banks and businesses worldwide that were infected with his ZeuS malware. That organization, dubbed the “Business Club,” had members spanning most of Russia’s 11 time zones. In this 2011 screenshot of DirectConnection, we can see the nickname “aqua,” one of the JabberZeus crime gang actors. K0pa also was affiliated with the JabberZeus crew. Fox-IT , a Dutch security firm that infiltrated the Business Club’s back-end operations, found that beginning in late fall 2013 — about the time that conflict between Ukraine and Russia was just beginning to heat up — Slavik retooled his cyberheist botnet to serve as purely a spying machine, and began scouring infected systems in Ukraine for specific keywords in emails and documents that would likely only be found in classified documents. Likewise, the keyword searches that Slavik used to scour bot-infected systems in Turkey suggested the botmaster was searching for specific files from the Turkish Ministry of Foreign Affairs – a specialized police unit. Fox-IT said it was clear that Slavik was looking to intercept communications about the conflict in Syria on Turkey’s southern border — one that Russia has supported by reportedly shipping arms into the region. To my knowledge, no one has accused Burkov of being some kind of cybercrime fixer or virtual badguy Rolodex for the Russian government. On the other hand, from his onetime lofty perch atop some of the most exclusive Russian cybercrime forums, K0pa certainly would have fit that role nicely. Further reading, including the fascinating story on the diplomatic back and forth between Russia and Israel mentioned in the first paragraph:  The Russian Hacker Who Just Became One of Israel’s Most Famous Prisoners . How Russia Recruited Elite Hackers for Its Cyberwar</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>November 18, 2019</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hackers Sell Access to Bait-and-Switch Empire</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cybercriminals are auctioning off access to customer information stolen from an online data broker behind a dizzying array of bait-and-switch Web sites that sell access to a vast range of data on U.S. consumers, including DMV and arrest records, genealogy reports, phone number lookups and people searches. In an ironic twist, the marketing empire that owns the hacked online properties appears to be run by a Canadian man who’s been sued for fraud by the  U.S. Federal Trade Commission ,  Microsoft  and  Oprah Winfrey , to name a few. Earlier this week, a cybercriminal on a Dark Web forum posted an auction notice for access to a Web-based administrative panel for an unidentified “US Search center” that he claimed holds some four million customer records, including names, email addresses, passwords and phone numbers. The starting bid price for that auction was $800. Several screen shots shared by the seller suggested the customers in question had all purchased subscriptions to a variety of sites that aggregate and sell public records, such as  dmv.us.org ,  carhistory.us.org ,  police.us.org , and  criminalrecords.us.org . A (redacted) screen shot shared by the apparent hacker who was selling access to usernames and passwords for customers of multiple data-search Web sites. A few hours of online sleuthing showed that these sites and dozens of others with similar names all at one time shared several toll-free phone numbers for customer support. The results returned by searching on those numbers suggests a singular reason this network of data-search Web sites changed their support numbers so frequently: They quickly became associated with online reports of fraud by angry customers. That’s because countless people who were enticed to pay for reports generated by these services later complained that although the sites advertised access for just $1, they were soon hit with a series of much larger charges on their credit cards. Using historic Web site registration records obtained from  Domaintools.com  (a former advertiser on this site), KrebsOnSecurity discovered that all of the sites linked back to two related companies — Las Vegas, Nev.-based  Penguin Marketing , and  Terra Marketing Group  out of Alberta, Canada. Both of these entities are owned by  Jesse Willms , a man  The Atlantic  magazine described in  an unflattering January 2014 profile  as “The Dark Lord of the Internet” [not to be confused with  The Dark Overlord ]. Jesse Willms’ Linkedin profile. The Atlantic pointed to a sprawling lawsuit filed by the Federal Trade Commission, which  alleged  that between 2007 and 2011, Willms defrauded consumers of some $467 million by enticing them to sign up for “risk free” product trials and then billing their cards recurring fees for a litany of automatically enrolled services they hadn’t noticed in the fine print. “In just a few months, Willms’ companies could charge a consumer hundreds of dollars like this, and making the flurry of debits stop was such a convoluted process for those ensnared by one of his schemes that some customers just canceled their credit cards and opened new ones,” wrote The Atlantic’s  Taylor Clark . Willms’ various previous ventures reportedly extended far beyond selling access to public records. In fact, it’s likely everyone reading this story has at one time encountered an ad for one of his dodgy, bait-and-switch business schemes, The Atlantic noted: “If you’ve used the Internet at all in the past six years, your cursor has probably lingered over ads for Willms’s Web sites more times than you’d suspect. His pitches generally fit in nicely with what have become the classics of the dubious-ad genre: tropes like photos of comely newscasters alongside fake headlines such as “Shocking Diet Secrets Exposed!”; too-good-to-be-true stories of a “local mom” who “earns $629/day working from home”; clusters of text links for miracle teeth whiteners and “loopholes” entitling you to government grants; and most notorious of all, eye-grabbing animations of disappearing “belly fat” coupled with a tagline promising the same results if you follow “1 weird old trick.” (A clue: the “trick” involves typing in 16 digits and an expiration date.)” In a separate lawsuit, Microsoft accused Willms’ businesses of trafficking in massive quantities of counterfeit copies of its software. Oprah Winfrey also sued a Willms-affiliated site (oprahsdietscecrets.com) for linking her to products and services she claimed she had never endorsed. KrebsOnSecurity reached out to multiple customers whose name, email address and cleartext passwords were exposed in the screenshot shared by the Dark Web auctioneer who apparently hacked Willms’ Web sites. All three of those who responded shared roughly the same experience: They said they’d ordered reports for specific criminal background checks from the sites on the promise of a $1 risk-free fee, never found what they were looking for, and were subsequently hit by the same merchant for credit card charges ranging from $20 to $38. I also pinged several customer support email addresses tied to the data-broker Web sites that were hacked. I received a response from a “ Mike Stef ,” who described himself as a Web developer for Terra Marketing Group. Stef said the screenshots appeared to be legitimate, and that the company would investigate the matter and alert affected customers if warranted. Stef told me he doubts the company has four million customers, and that the true number was probably closer to a half million. He also insisted that the panel in question did not have access to customer credit card data. Nevertheless, it appears from the evidence above that Willms and several others who were named in the  FTC’s 2012 stipulated final judgment  (PDF) are still up to their old tricks. The FTC has not yet responded to requests for comment. Nor has Mr. Willms. I can’t help express feeling a certain amount of  schadenfreude  (schadenfraud?) at the victim in this hacking case. But that amusement is tempered by the reality that the hundreds of thousands or possibly millions of people who got suckered into paying money to this company are quite likely to find themselves on the receiving end of additional phishing and fraud attacks (particularly  credential stuffing ) as a result of their data being auctioned off to the highest bidder. Terra Marketing Group’s Web developer Mike Stef responded to my inquiries from an email address at the domain “ tmgbox.com .” That message was instrumental in identifying the connection to Willms and Terra Marketing/Penguin. In the interests of better informing people who might wish to become future customers of this group, I am publishing the list of the domains associated with tmgbox.com and its parent entities. This list may be updated periodically as new information surfaces. In case it is useful for others, KrebsOnSecurity is also publishing the results of several reverse WHOIS lookups for historic domains tied to email addresses of several people Mike Stef described as “senior customer support managers” of Terra Marketing, as these also include some interesting and related (albeit mostly dead) domains. Reverse WHOIS on Peter Graver and Jesse Willms (rickholl2k9@gmail.com) Reverse WHOIS on mike@tmgbox.com Reverse WHOIS on Jason Oster (joster2008@gmail.com) Public records search domains associated with Terra Marketing Group and Penguin Marketing: memberreportaccess.com 
-publicrecords.us.org 
-dmvrecords.co 
-dmv.us.org 
-courtrecords.us.org 
-myfeeplan.com 
-police.us.org 
-warrantcheck.com 
-myinfobill.com 
-propertysearch.us.org 
-homevalue.us.org 
-carinfo2.com 
-backgroundchecks.us.org 
-arrestrecords.us.org 
-propertyrecord.com 
-criminalrecords.us.org 
-jailinmates.us.org 
-vehiclereportusa.com 
-dmvinfocheck.com 
-carrecordusa.com 
-carhistoryindex.com 
-autohistorychecks.com 
-mugshots.us.org 
-trafficticket.us.org 
-prison.us.org 
-reversephonelookup.us.org 
-deathrecords.us.org 
-deathrecord.com 
-deathcertificates.us.org 
-census.us.org 
-phonelookup.us.org 
-vehiclehistoryreports.us.org 
-vinsearchusa.org KrebsOnSecurity would like to thank cybersecurity firm  Intel471  for their assistance in researching this post.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>March 4, 2019</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hackers Breached Virginia Bank Twice in Eight Months, Stole $2.4M</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hackers used phishing emails to break into a Virginia bank in two separate cyber intrusions over an eight-month period, making off with more than $2.4 million total. Now the financial institution is suing its insurance provider for refusing to fully cover the losses. According to a lawsuit filed last month in the Western District of Virginia, the first heist took place in late May 2016, after an employee at  The National Bank of Blacksburg  fell victim to a targeted phishing email. Photo copyright: Kerri Farley The email allowed the intruders to install malware on the victim’s PC and to compromise a second computer at the bank that had access to the  STAR Network , a system run by financial industry giant  First Data  that the bank uses to handle debit card transactions for customers. That second computer had the ability to manage National Bank customer accounts and their use of ATMs and bank cards. Armed with this access, the bank says, hackers were able to disable and alter anti-theft and anti-fraud protections, such as 4-digit personal identification numbers (PINs), daily withdrawal limits, daily debit card usage limits, and fraud score protections. National Bank said the first breach began Saturday, May 28, 2016 and continued through the following Monday. Normally, the bank would be open on a Monday, but that particular Monday was  Memorial Day , a federal holiday in the United States. The hackers used hundreds of ATMs across North America to dispense funds from customer accounts. All told, the perpetrators stole more than $569,000 in that incident. Following the 2016 breach, National Bank hired cybersecurity forensics firm  Foregenix  to investigate. The company determined the hacking tools and activity appeared to come from Russian-based Internet addresses. In June of 2016, National Bank implemented additional security protocols, as recommended by FirstData. These protocols are known as “ velocity rules ” and were put in place to help the bank flag specific types of repeated transaction patterns that happen within a short period of time. But just eight months later — in January 2017 according to the lawsuit — hackers broke in to the bank’s systems once more, again gaining access to the financial institution’s systems via a phishing email. This time not only did the intruders regain access to the bank’s STAR Network, they also managed to compromise a workstation that had access to  Navigator , which is software used by National Bank to manage credits and debits to customer accounts. Prior to executing the second heist, the hackers used the bank’s Navigator system to fraudulently credit more than $2 million to various National Bank accounts. As with the first incident, the intruders executed their heist on a weekend. Between Jan. 7 and 9, 2017, the hackers modified or removed critical security controls and withdrew the fraudulent credits using hundreds of ATMs. All the while, the intruders used the bank’s systems to actively monitor customer accounts from which the funds were being withdrawn. At the conclusion of the 2017 heist, the hackers used their access to delete evidence of fraudulent debits from customer accounts. The bank’s total reported loss from that breach was $1,833,984. Verizon  was hired to investigate the 2017 attack, and according to the bank Verizon’s forensics experts concluded that the tools and servers used by the hackers were of Russian origin. The lawsuit notes  the company determined that it was likely the same group of attackers responsible for both intrusions . Verizon also told the bank that the malware the attackers used to gain their initial foothold at the bank in the 2017 breach was embedded in a  booby-trapped   Microsoft Word  document. In  its lawsuit  (PDF), National Bank says it had an insurance policy with  Everest National Insurance Company  for two types of coverage or “riders” to protect it against cybercrime losses. The first was a “computer and electronic crime” (C&amp;E) rider that had a single loss limit liability of $8 million, with a $125,000 deductible. The second was a “debit card rider” which provided coverage for losses which result directly from the use of lost, stolen or altered debit cards or counterfeit cards. That policy has a single loss limit of liability of $50,000, with a $25,000 deductible and an aggregate limit of $250,000. According to the lawsuit, in June 2018 Everest determined both the 2016 and 2017 breaches were covered exclusively by the debit card rider, and not the $8 million C&amp;E rider. The insurance company said the bank could not recover lost funds under the C&amp;E rider because of two “exclusions” in that rider which spell out circumstances under which the insurer will not provide reimbursement. The first of those exclusions rules out coverage for any loss “resulting directly or indirectly from the use or purported use of credit, debit, charge, access, convenience, or other cards . . . (1) in obtaining credit or funds, or (2) in gaining access to automated mechanical devices which, on behalf of the Insured, disburse Money, accept deposits, cash checks, drafts or similar Written instruments or make credit card loans . . ..” The second exclusion in the C&amp;E rider negates coverage for “loss involving automated mechanical devices which, on behalf of the Insured, disburse Money, accept deposits, cash checks, drafts or similar Written instruments or make credit card loans . . ..” “In its Coverage Determination, Everest further determined that the 2016 Intrusion and the 2017 Intrusion were a single event, and thus, pursuant to the Debit Card Rider, National Bank’s total coverage under the Bond was $50,000.00 for both intrusions,” the bank said in its lawsuit. Everest National Insurance Company did not respond to requests for comment. But on July 20 it  filed a response  (PDF) to the bank’s claims, alleging that National Bank has not accurately characterized the terms of its coverage or fully explained the basis for Everest’s coverage decision. Charisse Castagnoli , an adjunct professor with  The John Marshall Law School , said the bank’s claim appears to be based on a legal concept known as “ proximate cause ,” a claim that usually includes the telltale term “but for,” as this lawsuit does throughout. “Proximate cause tries to get at where’s the legal liability associated with the original element that caused the loss,” Castagnoli said. “Take the example of a car crash victim whose master cylinder in the vehicle ran out of fluid and as a result the driver ran a red light and hit another car. The driver at fault might make the claim in a lawsuit against the car maker ‘but for your failure to manufacture this part correctly, this accident wouldn’t have occurred.'” In this case, Castagnoli said what the bank seems to be claiming is that the Debit Card Rider shouldn’t apply because —  but for  the computer hacking — the losses wouldn’t have occurred. Indeed, the bank’s lawsuit claims: “All losses related to the 2017 Intrusion were the result of and would not have been possible but for the hacking of National Bank’s Computer Systems which resulted in the entering or changing of Electronic Data and Computer Programs within the Computer Systems.” “Therefore, even though the losses were physically sustained  through ATM extractions, the Debit Card Rider limits shouldn’t apply because that kind of a rider doesn’t contemplate the dynamic changes in credit limits, and overrides of fraud monitoring, were only possible through  computer hacking  to which the C&amp;E Rider should apply,” Castagnoli explained. The bank’s complaint against Everest notes that the financial institution doesn’t yet know for sure how the thieves involved in the 2017 breach extracted funds. In previous such schemes (known as “ unlimited cashouts “), the fraudsters orchestrating the intrusion recruit armies of “money mules” — usually street criminals who are given cloned debit cards and stolen or fabricated PINs along with instructions on where and when to withdraw funds. Castagnoli said establishing and proving these fine lines of proximate cause can be very difficult in insurance claims. “While it is fairly easy to write a policy around data breach liability, when it comes to actual intrusions and managing intrusions, it’s a wild wild west,” she said.  “The policies and definitions they use are not consistent across carriers.” Castagnoli advises companies contemplating cyber insurance policies to closely scrutinize their policies and riders, and find an expert who can help craft a policy that is tailored for the insured. “The serious brokers who are out there selling cyber insurance all say the same thing: Have an expert help you to write your policy,” she said. “It’s mind-numbingly complicated and we don’t have standard language in insurance policies that help insurance clients decide what policy is right for them.” She added that although there have been a handful of cases where cyber insurance providers have denied coverage to the insured, most of those disputes have been settled out of court. “This is a rapidly growing area and a profit center for a lot of insurance companies,” Castagnoli said. “But there is not a lot of published case law on this, and you have to wonder if something public comes out like this what it’s going to do to the reputation of the industry.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>July 24, 2018</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Adrian Lamo, ‘Homeless Hacker’ Who Turned in Chelsea Manning, Dead at 37</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adrian Lamo , the hacker probably best known for breaking into  The New York Times ‘s network and for reporting  Chelsea Manning ‘s theft of classified documents to the FBI, was found dead in a Kansas apartment on Wednesday. Lamo was widely reviled and criticized for turning in Manning, but that chapter of his life eclipsed the profile of a complex individual who taught me quite a bit about security over the years. Adrian Lamo, in 2006. Source: Wikipedia. I first met Lamo in 2001 when I was a correspondent for  Newsbytes.com , a now-defunct tech publication that was owned by  The Washington Post  at the time. A mutual friend introduced us over AOL Instant Messenger, explaining that Lamo had worked out a simple method allowing him to waltz into the networks of some of the world’s largest media companies using nothing more than a Web browser. The panoply of alternate nicknames he used on instant messenger in those days shed light on a personality not easily grasped: Protagonist, Bitter Geek, AmINotMerciful, Unperceived, Mythos, Arcane, truefaith, FugitiveGame. In this, as in so many other ways, Lamo was a study in contradictions: Unlike most other hackers who break into online networks without permission, he didn’t try to hide behind the anonymity of screen names or Internet relay chat networks. By the time I met him, Adrian had already earned the nickname “the homeless hacker” because he had no fixed address, and found shelter most evenings in abandoned buildings or on friend’s couches. He launched the bulk of his missions from Internet cafes or through the nearest available dial-up connections, using an old Toshiba laptop that was missing seven keys. His method was the same in every case: find security holes; offer to fix them; refuse payment in exchange for help; wait until hole is patched; alert the media. Lamo had previously hacked into the likes of  AOL Time Warner,   Comcast ,  MCI Worldcom, Microsoft, SBC Communications  and  Yahoo  after discovering that these companies had enabled remote access to their internal networks via Web proxies, a kind of security by obscurity that allowed anyone who knew the proxy’s Internet address and port number to browse internal shares and other network resources of the affected companies. By 2002, Lamo had taken to calling me on the phone frequently to relate his various exploits, often spoofing his phone number to make it look like the call had come from someplace ominous or important, such as The White House or the FBI. At the time, I wasn’t actively taking any measures to encrypt my online communications, or to suggest that my various sources do likewise. After a few weeks of almost daily phone conversations with Lamo, however, it became abundantly clear that this had been a major oversight. In February 2002, Lamo told me that he’d found an open proxy on the network of The New York Times that allowed him to browse the newsroom’s corporate intranet. A few days after that conversation, Lamo turned up at Washingtonpost.com’s newsroom (then in Arlington, Va.). Just around the corner was a Kinkos, and Adrian insisted that I follow him to the location so he could get online and show me his discovery firsthand. While inside the Times’ intranet, he downloaded a copy of the Times’ source list, which included phone numbers and contact information for such household names as Yogi Berra, Warren Beatty, and Robert Redford, as well as high-profile political figures – including Palestinian leader Yassir Arafat and Secretary of State Colin Powell. Lamo also added his own contact information to the file. My  exclusive story in Newsbytes  about the Times hack was soon picked up by other news outlets. In August 2003, federal prosecutors issued an arrest warrant for Lamo in connection with the New York Times hack, among other intrusions. The next month, The Washington Post’s attorneys  received a letter from the FBI  urging them not to destroy any correspondence I might have had with Lamo, and warning that my notes may be subpoenaed. In response, the Post opted to take my desktop computer at work and place it in storage. We also received a letter from the FBI requesting an interview (that request was summarily denied). In October 2003, the Associated Press ran a story saying the FBI didn’t follow proper procedures when it notified reporters that their notes concerning Lamo might be subpoenaed (the DOJ’s policy was to seek materials from reporters only after all other investigative steps had been exhausted, and then only as a last resort). In 2004, Lamo pleaded guilty to one felony count of computer crimes against the Times, as well as LexisNexis and Microsoft. He was sentenced to six month’s detention and two years probation, an ordered to pay $65,000 in restitution. Several months later while attending a formal  National Press Foundation  dinner at the Washington Hilton, my bulky  Palm Treo  buzzed in my suit coat pocket, signaling a new incoming email message. The missive was blank save for an unusually large attachment. Normally, I would have ignored such messages as spam, but this one came from a vaguely familiar address: adrian.lamo@us.army.mil. Years before, Lamo had told me he’d devised a method for minting his own .mil email addresses. The attachment turned out to be the Times’ newsroom source list. The idea of possessing such information was at once overwhelming and terrifying, and for the rest of the evening I felt certain that someone was going to find me out (it didn’t help that I was seated adjacent to a table full of NYT reporters and editors). It was difficult not to stare at the source list and wonder at the possibilities. But ultimately, I decided the right thing to do was to simply delete the email and destroy the file. Lamo was born in 1981 outside of Boston, Mass. into an educated, bilingual family. Lamo’s parents say from an early age he exhibited an affinity for computers and complex problem solving. In grade school, Lamo cut his teeth on a  Commodore64 , but his parents soon bought him a more powerful IBM PC when they grasped the extent of his talents. “Ever since he was very young he has shown a tendency to be a lateral thinker, and any problem you put in front of him with a computer he could solve almost immediately,” Lamo’s mother Mary said in an interview in 2003. “He has a gifted analytical mind and a natural curiosity.” By the time he got to high school, Lamo had graduated to a laptop computer. During a computer class his junior year, Lamo upstaged his teacher by solving a computer problem the instructor insisted was insurmountable. After an altercation with the teacher, he was expelled. Not long after that incident, Lamo earned his high school equivalency degree and left home for a life on his own. For many years after that he lived a vagabond’s existence, traveling almost exclusively on foot or by Greyhound bus, favoring the affordable bus line for being the “only remaining form of mass transit that offers some kind of anonymity.” When he wasn’t staying with friends, he passed the night in abandoned buildings or under the stars. In 1995, Lamo landed contract work at a promising technology upstart called America Online, working on “ PlanetOut.com ,” an online forum that catered to the gay and lesbian community. At the time, advertisers paid AOL based on the amount of time visitors spent on the site, and Lamo’s job was to keep people glued to the page, chatting them up for hours at a time. Ira Wing , a security expert at one of the nation’s largest Internet service providers, met Lamo that year at PlanetOut and the two became fast friends. It wasn’t long before he joined in one of Lamo’s favorite distractions, one that would turn out to be an eerie offshoot of the young hacker’s online proclivities: exploring the labyrinth of California’s underground sewage networks and abandoned mines. Since then, Lamo kept in touch intermittently, popping in and out of Wing’s life at odd intervals. But Wing proved a trustworthy and loyal friend, and Lamo soon granted him power of attorney over his affairs should he run into legal trouble. In 2002, Wing registered the domain “freeadrian.com,” as a joke. He’d later remark on how prescient a decision that had been. “Adrian is like a fast moving object that has a heavy affect on anyone’s life he encounters,” Wing told this reporter in 2003. “And then he moves on.” In 2010, Lamo was contacted via instant message by  Chelsea Manning , a transgender Army private who was then known as  Bradley Manning . The Army private confided that she’d leaked a classified video of a helicopter attack in Baghdad that killed 12 people (including two Reuters employees) to  Wikileaks . Manning also admitted to handing Wikileaks some 260,000 classified diplomatic cables. Lamo reported the theft to the FBI. In explaining his decision, Lamo told news publications that he was worried the classified data leak could endanger lives. “He was just grabbing information from where he could get it and trying to leak it,” Mr. Lamo  told The  Times in 2010 . Manning was later convicted of leaking more than 700,000 government records, and received a 35 year prison sentence. In January 2017, President Barack Obama commuted Manning’s sentence after she’d served seven years of it. In January 2018, Manning  filed to run for a Senate seat in Maryland . The same month he reported Manning to the feds, Lamo  told Wired.com  that he’d been diagnosed with  Asperger Syndrome  after being briefly hospitalized in a psychiatric ward. Lamo told Wired that he suspected someone had stolen his backpack, and that paramedics were called when the police responding to reports of the alleged theft observed him acting erratically and perhaps slurring his speech. Wired later updated the story to note that Lamo’s father had reported him to the Sacramento Sheriff’s office, saying he was worried that his son was over-medicating himself with prescription drugs. In 2011, Lamo  told news outlet Al Jazeera  that he was in hiding because he was getting death threats for betraying Manning’s confidence and turning him in to the authorities. In 2013, he  told The Guardian  that he’d struggled with substance abuse “for a while.” It’s not yet certain what led to Lamo’s demise. He was found dead in a Wichita apartment on March 14. According to  The Wichita Eagle , Lamo had lived in the area for more than a year. The paper quoted local resident  Lorraine Murphy , who described herself as a colleague and friend of Lamo’s. When Murphy sent him a message in December 2016 asking him what he was up to, he reportedly replied “homeless in Wichita.” “Adrian was always homeless or on the verge of it,” Murphy is quoted as saying. “He bounced around a great deal, for no particular reason. He was a believer in the Geographic Cure. Whatever goes wrong in your life, moving will make it better. And he knew people all over the country.” The Eagle reports that Wichita police found no signs of foul play or anything suspicious about Lamo’s death. A toxicology test was ordered but the results won’t be available for several weeks.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>March 18, 2018</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Carding Kingpin Sentenced Again. Yahoo Hacker Pleads Guilty</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Roman Seleznev , a Russian man who is already serving a record 27-year sentence in the United States for cybercrime charges, was handed a 14-year sentence this week by a federal judge in Atlanta for his role in a credit card and identity theft conspiracy that prosecutors say netted more than $50 million. Separately, a Canadian national has pleaded guilty to charges of helping to steal more than a billion user account credentials from  Yahoo . Seleznev, 33, was given the  14-year sentence  in connection with two prosecutions that were consolidated in Georgia: The  2008 heist  against Atlanta-based credit card processor  RBS Worldpay ; and a case out of Nevada where he was charged as a leading merchant of stolen credit cards at  carder[dot]su , at one time perhaps the most bustling fraud forum where members openly marketed a variety of cybercrime-oriented services. Roman Seleznev, pictured with bundles of cash. Image: US DOJ. Seleznev’s conviction comes more than a year after he was convicted in a Seattle court on 38 counts of cybercrime charges, including wire fraud and aggravated identity theft. The Seattle conviction earned Seleznev a 27-year prison sentence — the most jail time ever given to an individual convicted of cybercrime charges in the United States. This latest sentence will be served concurrently — meaning it will not add any time to his 27-year sentence. But it’s worth noting because Seleznev is appealing the Seattle verdict. In the event he prevails in Seattle and gets that conviction overturned, he will still serve out his 14-year sentence in the Georgia case because he pleaded guilty to those charges and waived his right to an appeal. Prosecutors say Seleznev, known in the underworld by his hacker nicknames “nCux” and “Bulba,” enjoyed an extravagant lifestyle prior to his arrest, driving expensive sports cars and dropping tens of thousands of dollars at lavish island vacation spots. The son of an influential Russian politician, Seleznev made international headlines in 2014 after he was  captured  while vacationing in  The Maldives , a popular destination for Russians and one that  many Russian cybercriminals  previously  considered  to be out of reach for western law enforcement agencies. However, U.S. authorities were able to negotiate a secret deal with the Maldivian government to apprehend Seleznev. Following his capture, Seleznev was whisked away to Guam for  more than a month  before being transported to Washington state to stand trial for computer hacking charges. The U.S. Justice Department says the laptop found with him when he was arrested contained more than 1.7 million stolen credit card numbers, and that evidence presented at trial showed that Seleznev earned tens of millions of dollars defrauding more than 3,400 financial institutions. Investigators also reportedly  found a smoking gun: a password cheat sheet  that linked Seleznev to a decade’s worth of criminal hacking. For more on Seleznev’s arrest and prosecution, see  The Backstory Behind Carder Kingpin Roman Seleznev’s Record 27-Year Sentence , and  Feds Charge Carding Kingpin in Retail Hacks . In an unrelated case, federal prosecutors in California  announced a guilty plea  from  Karim Baratov , one of  four men indicted in March 2017  for hacking into Yahoo beginning in 2014. Yahoo initially said the intrusion exposed the usernames, passwords and account data for roughly 500 million Yahoo users, but in December 2016 Yahoo said the actual number of victims  was closer to one billion  (read: all of its users). Baratov, 22, is a Canadian and Kazakh national who lived in Canada (he’s now being held in California). He was charged with being hired by two  Russian FSB  officer defendants in this case —  Dmitry Dokuchaev,  33, and  Igor Sushchin , 43 — to hack into the email accounts of thousands of individuals. According to prosecutors, Baratov’s role in the charged conspiracy was to hack webmail accounts of individuals of interest to the FSB and send those accounts’ passwords to Dokuchaev in exchange for money. Karim Baratov, a.k.a. “Karim Taloverov,” as pictured in 2014 on his own site, mr-karim.com. Baratov operated several business that he advertised openly online that could be hired to hack into email accounts at the world’s largest email providers, including Google, Yahoo and Yandex. As part of his plea agreement, Baratov not only admitted to agreeing and attempting to hack at least 80 webmail accounts on behalf of one of his FSB co-conspirators, but also to hacking more than 11,000 webmail accounts in total from in or around 2010 until his arrest by Canadian authorities. Shortly after Baratov’s arrest and indictment, KrebsOnSecurity  examined many of the email hacking services he operated  and that were quite clearly tied to his name. One such business advertised the ability to steal email account passwords without actually changing the victim’s password. According to prosecutors, Baratov’s service relied on “spear phishing” emails that targeted individuals with custom content and enticed recipients to click a booby-trapped link. For example, one popular email hacking business registered to Baratov was  xssmail[dot]com , which for several years advertised the ability to break into email accounts of virtually all of the major Webmail providers. XSS is short for “cross-site-scripting.” XSS attacks rely on vulnerabilities in Web sites that don’t properly parse data submitted by visitors in things like search forms or anyplace one might enter data on a Web site. Archive.org’s cache of xssmail.com In the context of phishing links, the user clicks the link and is actually taken to the domain he or she thinks she is visiting (e.g., yahoo.com) but the vulnerability allows the attacker to inject malicious code into the page that the victim is visiting. This can include fake login prompts that send any data the victim submits directly to the attacker. Alternatively, it could allow the attacker to steal “cookies,” text files that many sites place on visitors’ computers to validate whether they have visited the site previously, as well as if they have authenticated to the site already. Baratov pleaded guilty to nine counts, including one count of aggravated identity theft and eight violations of the  Computer Fraud and Abuse Act . His sentencing hearing is scheduled for Feb. 20, 2018. The aggravated identity theft charge carries a mandatory two-year sentence; each of the other counts is punishable by up to 10 years in jail and fines of $250,000, although any sentence he receives will likely be heavily tempered by  U.S. federal sentencing guidelines . Meanwhile, Baratov’s co-defendant Dokuchaev is embroiled in his own legal worries in Russia, charges that could carry a death sentence. He and his former boss  Sergei Mikhailov  — once deputy chief of the FSB’s Center for Information Security — were arrested in December 2016 by Russian authorities and charged with treason. Also charged with treason in connection with that case was  Ruslan Stoyanov , a senior employee at Russian security firm  Kaspersky Lab . There are many competing theories for the reasons behind their treason charges, some of which are explored in  this Washington Post story . I have my own theory, detailed in my January 2017 piece,  A Shakeup in Russia’s Top Cybercrime Unit .</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>December 1, 2017</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Equifax Hackers Stole Info on 693,665 UK Residents</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Equifax Inc.  said today an investigation into information stolen in the epic data breach the company disclosed on Sept. 7 revealed that intruders took a file containing 15.2 million UK records. The company says it is now working to inform 693,665 U.K. consumers whose data was stolen in the attack. Previously, Equifax said the breach impacted approximately 400,000 U.K. residents. But in a statement released Tuesday, Equifax said it would notify 693,665 U.K. consumers by mail that their personal information was jeopardized in the breach. This includes: -12,086 consumers who had an email address associated with their Equifax.co.uk account in 2014 accessed. 
--14,961 consumers who had portions of their Equifax.co.uk membership details — such as username, password, secret questions and answers, as well as partial credit card details — accessed 
--29,188 consumers who had their drivers license numbers accessed 
--637,430 consumers who had their phone numbers accessed The numbers include data that Equifax held on U.K. consumers as far back as 2011, the company said. Equifax did not say whether any of the above-mentioned data was encrypted. Meanwhile, the U.K.’s  National Cyber Security Centre  is warning residents to be on their guard against phishing attacks made to look like communications from Equifax about the breach. “Another risk to UK citizens affected by this data breach is that they could be on the receiving end of more targeted and realistic phishing messages,” the NCSC  wrote . “Fraudsters can use the data to make their phishing messages look much more credible, including using real names and statements such as: ‘To show this is not a phishing email, we have included the month of your birth and the last 3 digits of your phone number’. These phishing messages may be unrelated to Equifax and may use more well known brands. It is unlikely that any organisations will ask their customers to reset security information or passwords as a result of the Equifax breach, but this may be a tactic employed by criminals.” Equifax has been widely criticized for  continuously bungling their public response  to this still-unfolding data disaster, and today’s update about the extent of the breach in the U.K. was no exception. The Equifax Web site that hosts today’s press release serves “mixed content,” meaning it includes elements that are served over both encrypted and unencrypted pages. The practical effect of this varies depending on which browser you’re using, but some browsers will display a security warning when this happens. That mixed content error may have something to do with a missing image in the press release.  That press release  was supposed to include an image that breaks down what exactly was stolen from U.K. residents — as detailed in the bulleted list above — but apparently the graphic was either removed or moved pre- or post-publication. Here’s what the press release looks like in Firefox (Equifax still hasn’t fixed this):  In Chrome:  In Internet Explorer:  It’s fairly terrifying when you realize that a company which can’t even issue a press release without managing to omit the most important piece of information in it wields so much power over consumers. Nothing says ‘we care about your security and privacy’ like a message which warns “you got hacked!” and then fails to tell you what that actually means. I’ve been spending quite a bit of time looking at Equifax’s various Web properties over the past few weeks and I have to say it gets scarier the more I look. First it was the discovery that Equifax’s consumer dispute portal in Argentina was  protected by nothing more than the username and password “admin/admin.”  It’s worth noting that, as mentioned  countless times by Equifax’s former CEO in front of several congressional committees last week , the breach of sensitive data on 145.5 million Americans began with lax security at just such a dispute portal (the company declined to say which). Earlier this week I pointed out that the company’s TALX Web site  made it trivial to find the salary history of large chunk of the American population , armed with nothing more than someone’s date of birth and Social Security number (both data points, by the way, that were stolen on 145.5 million Americans, thanks to Equifax). The company responded by taking the site offline a few hours after that story ran on Sunday. That site is still “under maintenance,” according to Equifax. While Equifax has stressed that it will offer free credit monitoring services to victims of its own breach, it is still using the entire incident to drive traffic to areas of its consumer business that make the company oodles of money, such as “FREE* credit report &amp; score” services for only £14.95 per month. It’s impossible to understand how Equifax could fail to notice the atrocious optics here, unless of course it really doesn’t care. Equifax.co.uk By the way, if you’re somehow just tuning in to news about this breach, don’t sweat it:  Here’s a Q&amp;A  that explains what’s at stake and what you should do.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>October 10, 2017</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Equifax Hackers Stole 200k Credit Card Accounts in One Fell Swoop</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Visa  and  MasterCard  are sending confidential alerts to financial institutions across the United States this week, warning them about more than 200,000 credit cards that were stolen in the epic data breach announced last week at big-three credit bureau  Equifax . At first glance, the private notices obtained by KrebsOnSecurity appear to suggest that hackers initially breached Equifax starting in November 2016. But Equifax says the accounts were all stolen at the same time — when hackers accessed the company’s systems in mid-May 2017.  Both Visa and MasterCard frequently send alerts to card-issuing financial institutions with information about specific credit and debit cards that may have been compromised in a recent breach. But it is unusual for these alerts to state from which company the accounts were thought to have been pilfered. In this case, however, Visa and MasterCard were unambiguous, referring to Equifax specifically as the source of an e-commerce card breach. In a non-public alert sent this week to sources at multiple banks, Visa said the “window of exposure” for the cards stolen in the Equifax breach was between Nov. 10, 2016 and July 6, 2017. A similar alert from MasterCard included the same date range. “The investigation is ongoing and this information may be amended as new details arise,” Visa said in its confidential alert, linking to the press release Equifax initially posted about the breach on Sept. 7, 2017. The card giant said the data elements stolen included card account number, expiration date, and the cardholder’s name. Fraudsters can use this information to conduct e-commerce fraud at online merchants. It would be tempting to conclude from these alerts that the card breach at Equifax dates back to November 2016, and that perhaps the intruders then managed to install software capable of capturing customer credit card data in real-time as it was entered on one of Equifax’s Web sites. Indeed, that was my initial hunch in deciding to report out this story. But according to a statement from Equifax, the hacker(s) downloaded the data in one fell swoop in mid-May 2017. “The attacker accessed a storage table that contained historical credit card transaction related information,” the company said. “The dates that you provided in your e-mail appear to be the transaction dates. We have found no evidence during our investigation to indicate the presence of card harvesting malware, or access to the table before mid-May 2017.” Equifax did not respond to questions about how it was storing credit card data, or why only card data collected from customers after November 2016 was stolen. In its  initial breach disclosure  on Sept. 7, Equifax said it discovered the intrusion on July 29, 2017. The company said the hackers broke in through a vulnerability in the software that powers some of its Web-facing applications. In  an update to its breach disclosure  published Wednesday evening, Equifax confirmed reports that the application flaw in question was a weakness disclosed in March 2017 in a popular open-source software package called  Apache Struts  ( CVE-2017-5638 ) . “Equifax has been intensely investigating the scope of the intrusion with the assistance of a leading, independent cybersecurity firm to determine what information was accessed and who has been impacted,” the company wrote. “We know that criminals exploited a U.S. website application vulnerability. The vulnerability was Apache Struts CVE-2017-5638. We continue to work with law enforcement as part of our criminal investigation, and have shared indicators of compromise with law enforcement.” The Apache flaw was  first spotted around March 7, 2017 , when security firms began warning that attackers were actively exploiting a “zero-day” vulnerability in Apache Struts. Zero-days refer to software or hardware flaws that hackers find and figure out how to use for commercial or personal gain before the vendor even knows about the bugs. By March 8, Apache had released new versions of the software to mitigate the vulnerability. But by that time exploit code that would allow anyone to take advantage of the flaw was already published online — making it a race between companies needing to patch their Web servers and hackers trying to exploit the hole before it was closed. Screen shots apparently taken on March 10, 2017 and later posted to the vulnerability tracking site xss[dot]cx indicate that the Apache Struts vulnerability  was present at the time on annualcreditreport.com  — the only web site mandated by Congress where all Americans can go to obtain a free copy of their credit reports from each of the three major bureaus annually. In  another screen shot  apparently made that same day and uploaded to xss[dot]cx, we can see evidence that the Apache Struts flaw also was present in Experian’s Web properties. Equifax has said the unauthorized access occurred from mid-May through July 2017, suggesting either that the company’s Web applications were still unpatched in mid-May or that the attackers broke in earlier but did not immediately abuse their access. It remains unclear when exactly Equifax managed to fully eliminate the Apache Struts flaw from their various Web server applications. But one thing we do know for sure: The hacker(s) got in before Equifax closed the hole, and their presence wasn’t discovered until July 29, 2017. Update, Sept. 15, 12:31 p.m. ET:  Visa has updated their advisory about these 200,000+ credit cards stolen in the Equifax breach. Visa now says it believes the records also included the cardholder’s Social Security number and address, suggesting that (ironically enough) the accounts were stolen from people who were signing up for credit monitoring services through Equifax. Equifax also clarified the breach timeline to note that it patched the Apache Struts flaw in its Web applications only after taking the hacked system(s) offline on July 30, 2017. Which means Equifax left its systems unpatched for more than four months after a patch (and exploit code to attack the flaw) was publicly available.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>September 14, 2017</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Why So Many Top Hackers Hail from Russia</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Conventional wisdom says one reason so many hackers seem to hail from Russia and parts of the former Soviet Union is that these countries have traditionally placed a much greater emphasis than educational institutions in the West on teaching information technology in middle and high schools, and yet they lack a Silicon Valley-like pipeline to help talented IT experts channel their skills into high-paying jobs. This post explores the first part of that assumption by examining a breadth of open-source data. The supply side of that conventional wisdom seems to be supported by an analysis of educational data from both the U.S. and Russia, which indicates there are several stark and important differences between how American students are taught and tested on IT subjects versus their counterparts in Eastern Europe.  Compared to the United States there are quite a few more high school students in Russia who choose to specialize in information technology subjects. One way to measure this is to look at the number of high school students in the two countries who opt to take the advanced placement exam for computer science. According to  an analysis  (PDF) by  The College Board , in the ten years between 2005 and 2016 a total of 270,000 high school students in the United States opted to take the national exam in computer science (the “ Computer Science Advanced Placement ” exam). Compare that to the numbers from Russia: A  2014 study  (PDF) on computer science (called “Informatics” in Russia) by the  Perm State National Research University  found that roughly 60,000 Russian students register each year to take their nation’s equivalent to the AP exam — known as the “Unified National Examination.” Extrapolating that annual 60,000 number over ten years suggests that more than twice as many people in Russia — 600,000 — have taken the computer science exam at the high school level over the past decade. In “ A National Talent Strategy ,” an in-depth analysis from  Microsoft Corp.  on the outlook for information technology careers, the authors warn that despite its critical and growing importance computer science is taught in only a small minority of U.S. schools. The Microsoft study notes that although there currently are just over 42,000 high schools in the United States, only 2,100 of them were certified to teach the AP computer science course in 2011. If more people in Russia than in America decide to take the computer science exam in secondary school, it may be because Russian students are required to study the subject beginning at a much younger age. Russia’s Federal Educational Standards (FES) mandate that informatics be compulsory in middle school, with any school free to choose to include it in their high school curriculum at a basic or advanced level. “In elementary school, elements of Informatics are taught within the core subjects ‘Mathematics’ and ‘Technology,” the Perm University research paper notes. “Furthermore, each elementary school has the right to make [the] subject “Informatics” part of its curriculum.” The core components of the FES informatics curriculum for Russian middle schools are the following: 1. Theoretical foundations 
-2. Principles of computer’s functioning 
-3. Information technologies 
-4. Network technologies 
-5. Algorithmization 
-6. Languages and methods of programming 
-7. Modeling 
-8. Informatics and Society There also are stark differences in how computer science/informatics is taught in the two countries, as well as the level of mastery that exam-takers are expected to demonstrate in their respective exams. Again, drawing from the Perm study on the objectives in Russia’s informatics exam, here’s a rundown of what that exam seeks to test: Block 1: “Mathematical foundations of Informatics”, 
-Block 2: “Algorithmization and programming”, and 
-Block 3: “Information and computer technology.” The testing materials consist of three parts. Part 1 is a multiple-choice test with four given options, and it covers all the blocks. Relatively little time is set aside to complete this part. Part 2 contains a set of tasks of basic, intermediate and advanced levels of complexity. These require brief answers such as a number or a sequence of characteristics. Part 3 contains a set of tasks of an even higher level of complexity than advanced. These tasks usually involve writing a detailed answer in free form. According to the Perm study, “in 2012, part 1 contained 13 tasks; Part 2, 15 tasks; and Part 3, 4 tasks. The examination covers the key topics from the Informatics school syllabus. The tasks with detailed answers are the most labor intensive. These include tasks on the analysis of algorithms, drawing up computer programs, among other types. The answers are checked by the experts of regional examination boards based on standard assessment criteria.” Image: Perm State National Research University, Russia. In the U.S., the content of the AP computer science exam is spelled out in  this College Board document  (PDF). US Test Content Areas: Computational Thinking Practices (P) P1: Connecting Computing 
-P2: Creating Computational Artifacts 
-P3: Abstracting 
-P4: Analyzing Problems and Artifacts 
-P5: Communicating 
-P6: Collaborating The Concept Outline: Big Idea 1: Creativity 
-Big idea 2: Abstraction 
-Big Idea 3: Data and Information 
-Big Idea 4: Algorithms 
-Big idea 5: Programming 
-Big idea 6: The Internet 
-Big idea 7: Global Impact How do these two tests compare?  Alan Paller , director of research for the  SANS Institute  — an information security education and training organization — says topics 2, 3, 4 and 6 in the Russian informatics curriculum above are the “basics” on which cybersecurity skills can be built, and they are present beginning in middle school for all Russian students. “Very few middle schools teach this in the United States,” Paller said. “We don’t teach these topics in general and we definitely don’t test them. The Russians do and they’ve been doing this for the past 30 years. Which country will produce the most skilled cybersecurity people?” Paller said the Russian curriculum virtually ensures kids have far more hands-on experience with computer programming and problem solving. For example, in the American AP test no programming language is specified and the learning objectives are: “How are programs developed to help people and organizations?” 
-“How are programs used for creative expression?” 
-“How do computer programs implement algorithms?” 
-“How does abstraction make the development of computer programs possible?” 
-“How do people develop and test computer programs?” 
-“Which mathematical and logical concepts are fundamental to programming?” “Notice there is almost no need to learn to program — I think they have to write one program (in collaboration with other students),” Paller wrote in an email to KrebsOnSecurity. “It’s like they’re teaching kids to admire it without learning to do it. The main reason that cyber education fails is that much of the time the students come out of school with almost no usable skills.” On the bright side, there are signs that computer science is becoming a more popular focus for U.S. high school students. According to  the latest AP Test report  (PDF) from the College Board, almost 58,000 Americans took the AP exam in computer science last year — up from 49,000 in 2015. However, computer science still is far less popular than most other AP test subjects in the United States. More than a half million students opted for the English AP exam in 2016; 405,000 took English literature; almost 283,000 took AP government, while some 159,000 students went for an AP test called “Human Geography.” A breakdown of subject specialization in the 2016 v. 2015 AP tests in the United States. Source: The College Board. This is not particularly good news given the dearth of qualified cybersecurity professionals available to employers.  ISACA , a non-profit information security advocacy group, estimates there will be a global shortage of two million cyber security professionals by 2019. A  report  from  Frost &amp; Sullivan  and  (ISC) 2  prognosticates there will be more than 1.5 million cybersecurity jobs unfilled by 2020. The IT recruitment problem is especially acute for companies in the United States. Unable to find enough qualified cybersecurity professionals to hire here in the U.S., companies increasingly are counting on hiring foreigners who have the skills they’re seeking. However, the Trump administration in April ordered a full review of the country’s high-skilled immigration visa program, a step that  many believe  could produce new rules to clamp down on companies that hire foreigners instead of Americans. Some of Silicon Valley’s biggest players are urging policymakers to adopt a more forward-looking strategy to solving the skills gap crisis domestically. In its  National Talent Strategy report  (PDF), Microsoft said it spends 83 percent of its worldwide R&amp;D budget in the United States. “But companies across our industry cannot continue to focus R&amp;D jobs in this country if we cannot fill them here,” reads the Microsoft report. “Unless the situation changes, there is a growing probability that unfilled jobs will migrate over time to countries that graduate larger numbers of individuals with the  STEM  backgrounds that the global economy so clearly needs.” Microsoft is urging U.S. policymakers to adopt a nationwide program to strengthen K-12 STEM education by recruiting and training more teachers to teach it. The software giant also says states should be given more funding to broaden access to computer science in high school, and that computer science learning needs to start much earlier for U.S. students. “In the short-term this represents an unrealized opportunity for American job growth,” Microsoft warned. “In the longer term this may spur the development of economic competition in a field that the United States pioneered.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>June 22, 2017</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>San Francisco Rail System Hacker Hacked</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The  San Francisco Municipal Transportation Agency  (SFMTA) was hit with a  ransomware  attack on Friday, causing fare station terminals to carry the message, “You are Hacked. ALL Data Encrypted.” Turns out, the miscreant behind this extortion attempt got hacked himself this past weekend, revealing details about other victims as well as tantalizing clues about his identity and location. A copy of the ransom message left behind by the “Mamba” ransomware. On Friday,  The San Francisco Examiner   reported  that riders of SFMTA’s Municipal Rail or “Muni” system were greeted with handmade “Out of Service” and “Metro Free” signs on station ticket machines. The computer terminals at all Muni locations carried the “hacked” message: “Contact for key ( cryptom27@yandex.com ),” the message read. The hacker in control of that email account said he had compromised thousands of computers at the SFMTA, scrambling the files on those systems with strong encryption. The files encrypted by his ransomware, he said, could only be decrypted with a special digital key, and that key would cost 100 Bitcoins, or approximately USD $73,000. On Monday, KrebsOnSecurity was contacted by a security researcher who said he hacked this very same cryptom27@yandex.com inbox after reading a news article about the SFMTA incident. The researcher, who has asked to remain anonymous, said he compromised the extortionist’s inbox by guessing the answer to his secret question, which then allowed him to reset the attacker’s email password. A screen shot of the user profile page for cryptom27@yandex.com shows that it was tied to a backup email address,  cryptom2016@yandex.com , which also was protected by the same secret question and answer. Copies of messages shared with this author from those inboxes indicate that on Friday evening, Nov. 25, the attacker sent a message to SFMTA infrastructure manager  Sean Cunningham  with the following demand (the entirety of which has been trimmed for space reasons), signed with the pseudonym “ Andy Saolis .” “if You are Responsible in MUNI-RAILWAY ! All Your Computer’s/Server’s in MUNI-RAILWAY Domain Encrypted By AES 2048Bit! We have 2000 Decryption Key ! Send 100BTC to My Bitcoin Wallet , then We Send you Decryption key For Your All Server’s HDD!!” One hundred Bitcoins may seem like a lot, but it’s apparently not far from a usual payday for this attacker. On Nov. 20, hacked emails show that he successfully extorted 63 bitcoins (~$45,000) from a U.S.-based manufacturing firm. The attacker appears to be in the habit of switching Bitcoin wallets randomly every few days or weeks. “For security reasons” he explained to some victims who took several days to decide whether to pay the ransom they’d been demanded.  A review of more than a dozen Bitcoin wallets this criminal has used since August indicates that he has successfully extorted at least $140,000 in Bitcoin from victim organizations. That is almost certainly a conservative estimate of his overall earnings these past few months: My source said he was unable to hack another Yandex inbox used by this attacker between August and October 2016, “w889901665@yandex.com,” and that this email address is tied to many search results for tech help forum postings from people victimized by a strain of ransomware known as  Mamba  and  HDD Cryptor . Copies of messages shared with this author answer many questions raised by news media coverage of this attack, such as whether the SFMTA was targeted. In short: No. Here’s why. Messages sent to the attacker’s cryptom2016@yandex.com account show a financial relationship with at least two different hosting providers. The credentials needed to manage one of those servers were also included in the attacker’s inbox in plain text, and my source shared multiple files from that server. KrebsOnSecurity sought assistance from several security experts in making sense of the data shared by my source.  Alex Holden , chief information security officer at  Hold Security Inc , said the attack server appears to have been used as a staging ground to compromise new systems, and was equipped with several open-source tools to help find and infect new victims. “It appears our attacker has been using a number of tools which enabled the scanning of large portions of the Internet and several specific targets for vulnerabilities,” Holden said. “The most common vulnerability used ‘weblogic unserialize exploit’ and especially targeted  Oracle Corp.  server products, including  Primavera  project portfolio management software.” According to a review of email messages from the Cryptom27 accounts shared by my source, the attacker routinely offered to help victims secure their systems from other hackers for a small number of extra Bitcoins. In one case, a victim that had just forked over a 20 Bitcoin ransom seemed all too eager to pay more for tips on how to plug the security holes that got him hacked. In return, the hacker pasted a link to a Web server, and urged the victim to install a critical security patch for the company’s Java applications. “Read this and install patch before you connect your server to internet again,” the attacker wrote, linking to  this advisory  that Oracle issued for a security hole that it plugged in November 2015. In many cases, the extortionist told victims their data would be gone forever if they didn’t pay the ransom in 48 hours or less. In other instances, he threatens to increase the ransom demand with each passing day. The server used to launch the Oracle vulnerability scans offers tantalizing clues about the geographic location of the attacker. That server kept detailed logs about the date, time and Internet address of each login. A review of the more than 300 Internet addresses used to administer the server revealed that it has been controlled almost exclusively from Internet addresses in Iran. Another hosting account tied to this attacker says his contact number is  +78234512271 , which maps back to a mobile phone provider based in Russia. But other details from the attack server indicate that the Russian phone number may be a red herring. For example, the attack server’s logs includes the Web link or Internet address of each victimized server, listing the hacked credentials and short notations apparently made next to each victim by the attacker. Google Translate had difficulty guessing which language was used in the notations, but a fair amount of searching indicates the notes are transliterated Farsi or Persian, the primary language spoken in Iran and several other parts of the Middle East. User account names on the attack server hold other clues, with names like “Alireza,” “Mokhi.” Alireza may pertain to  Ali Reza , the seventh descendant of the Islamic prophet Muhammad, or just to  a very common name among Iranians, Arabs and Turks . The targets successfully enumerated as vulnerable by the attacker’s scanning server include the username and password needed to remotely access the hacked servers, as well as the IP address (and in some cases domain name) of the victim organization. In many cases, victims appeared to use newly-registered email addresses to contact the extortionist, perhaps unaware that the intruder had already done enough reconnaissance on the victim organization to learn the identity of the company and the contact information for the victim’s IT department. The list of victims from our extortionist shows that the SFMTA was something of an aberration.  The vast majority of organizations victimized by this attacker were manufacturing and construction firms based in the United States, and most of those victims ended up paying the entire ransom demanded — generally one Bitcoin (currently USD $732) per encrypted server. Emails from the attacker’s inbox indicate some victims managed to negotiate a lesser ransom.  China Construction of America Inc. , for example, paid 24 Bitcoins (~$17,500) on Sunday, Nov. 27 to decrypt some 60 servers infected with the same ransomware — after successfully haggling the attacker down from his original demand of 40 Bitcoins. Other construction firms apparently infected by ransomware attacks from this criminal include King of Prussia, Pa. based  Irwin &amp; Leighton ;  CDM Smith Inc.  in Boston; Indianapolis-based  Skillman ; and the  Rudolph Libbe Group , a construction consulting firm based in Walbridge, Ohio. It’s unclear whether any of these companies paid a ransom to regain access to their files. The data leaked from this one actor shows how successful and lucrative ransomware attacks can be, and how often victims pay up. For its part, the SFMTA said it never considered paying the ransom. “We have an information technology team in place that can restore our systems and that is what they are doing,” said SFMTA spokesman  Paul Rose . “Existing backup systems allowed us to get most affected computers up and running this morning, and our information technology team anticipates having the remaining computers functional in the next two days.” As the SFMTA’s experience illustrates, having proper and regular backups of your data can save you bundles. But unsecured backups can also be encrypted by ransomware, so it’s important to ensure that backups are not connected to the computers and networks they are backing up. Examples might include securing backups in the cloud or physically storing them offline. It should be noted, however, that some instances of ransomware  can lock cloud-based backups  when systems are configured to continuously back up in real-time. That last tip is among dozens offered by the Federal Bureau of Investigation, which has been warning businesses about the dangers of ransomware attacks for several years now. For more tips on how to avoid becoming the next ransomware victim, check out the FBI’s  most recent advisory on ransomware . Finally, as I hope this story shows, truthfully answering secret questions is a surefire way to get your online account hacked. Personally, I try to avoid using vital services that allow someone to  reset my password  if they can guess the answers to my secret questions. But in some cases — as with  United Airlines’s atrocious new password system  — answering secret questions is unavoidable. In cases where I’m allowed to type in the answer, I always choose a gibberish or completely unrelated answer that only I will know and that cannot be unearthed using social media or random guessing.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>November 29, 2016</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Russian ‘Dukes’ of Hackers Pounce on Trump Win</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Less than six hours after Donald Trump became the presumptive president-elect of the United States, a Russian hacker gang perhaps best known for breaking into computer networks at the  Democratic National Committee  launched a volley of targeted phishing campaigns against American political think-tanks and non-government organizations (NGOs). One of the phishing emails in the latest political espionage attack launched by The Dukes. Source: Volexity. That’s according to a new report from Washington, D.C.-based cyber incident response firm  Volexity . The firm’s researchers say they’ve been closely monitoring the activities of an well-established Russian malware development gang known variously as  Cozy Bear ,  APT29 , and  The Dukes . Hacking attacks launched by The Dukes were thought to be connected to intrusions at the  Democratic National Committee  (DNC), as well as cyber break-ins at multiple high-profile United States Government organizations, Volexity  reports in a blog post  published Thursday morning. Last month, the Obama administration  publicly acknowledged  for the first time that it believed that the Russian government was responsible for stealing and disclosing emails from the DNC and a range of other institutions and prominent individuals, most recently  Hillary Clinton’s campaign chairman, John  D .  Podesta . The emails were posted on  WikiLeaks  and other sites. Volexity CEO Steven Adair  said The Dukes have launched at least five sorties of email-based malware phishing attacks since Trump’s acceptance speech, and that the malware campaigns are ongoing. “Two of the attacks purported to be messages forwarded on from the  Clinton Foundation  giving insight and perhaps a postmortem analysis into the elections,” Adair wrote.”Two of the other attacks purported to be eFax links or documents pertaining to the election’s outcome being revised or rigged. The last attack claimed to be a link to a PDF download on “ Why American Elections Are Flawed. ” According to Volexity, in July 2015 the Dukes started heavily targeting think tanks and NGOs. “This represented a fairly significant shift in the group’s previous operations and one that continued in the lead up to and immediately after the 2016 United States Presidential election,” Adair wrote. Prior to the election, The Dukes were active on August 10, 2016 and on August 25, 2016, launching several waves of highly targeted spear phishing attacks against several U.S.-based think tanks and NGOs. “These spear phishing messages were spoofed and made to appear to have been sent from real individuals at well-known think tanks in the United States and Europe,” Adair wrote. “These August waves of attacks purported to be from individuals at  Transparency International , the  Center for a New American Security (CNAS) ,  the  International Institute for Strategic Studies (IISS) ,  Eurasia Group , and the  Council on Foreign Relations (CFR) .” Adair said the more typical attacks from The Dukes come in the form of slightly less-targeted email blasts — often to just a few dozen recipients at a time — that include booby-trapped  Microsoft Office  documents. When launched, the tainted  Excel  or  Word  document opens an actual file with real content, but it also prompts the target to enable “macros” — a powerful functionality built into Office documents that hackers can use to automatically download and run malicious code on a Windows system. The Dukes prefer to launch the attacks using hacked servers and email inboxes belonging to unsuspecting, trusted workers at NGOs and U.S. government systems, Adair explained. Most often, he said, the intruders will repurpose a legitimate document found in one of these hacked inboxes and inject a sophisticated backdoor “trojan horse program.” If the phishing target opens the document and has macros enabled in Microsoft Office — or allows macros to be run after the decoy document is shown — a malicious script embedded in the macro installs on the target’s system a powerful foothold for the attacker. Adair said The Dukes have a well-earned reputation for coding and constantly improving their own custom backdoor trojans, but that they’re not known for using so-called “zero day” threats — previously unknown security weaknesses in software and hardware that knowledgeable attackers can use to remotely compromise a target’s computer just by loading a Web page or opening a document. “In some ways, these guys seem kind of low-budget, but their macros are well-obfuscated and will sail right through just about any [antivirus] tool, appliance or cloud service,” Adair said in an interview. The Dukes also take great care not to phish security personnel at targeted organizations. For example, if the phishing target has macros enabled in Microsoft Office or allows them to be run after the decoy document is shown, a malicious script embedded in the macro executes a busy little program that scours the target’s computer for signs that it is running on an network administrator’s machine. If the malicious script detects the user is “admin” or “administrator,” the infection goes no further and the malware shuts down. Likewise, it checks many other signs that it might be running in a “sandbox” environment — a test lab often used by security and malware researchers. Adair said his although his research team doesn’t have specific insight into to how successful these latest espionage attacks may have been, The Dukes are an effective information- and resource gathering machine. “My opinion is that if this group got access to a zero-day and it’s something they can embed in a document, they could devastate anyone they target,” Adair said. “This is a well-funded and in some respects professional organization. What they’re doing takes time and effort, and for eight plus years now they’ve been in continuous development of new backdoors. They’re continually targeting different verticals — universities, NGOs and governments — and they learn from others, retool and modify their attacks constantly.” As  The New York Times   reported  last month, “President Obama is weighing a ‘proportional’ response to Russia’s efforts to interfere with this fall’s election campaign through hacking. Thursday morning, security vendor Kaspersky Lab warned that a massive cyberattack hit five of Russia’s largest banks. Kaspersky said in a statement that the distributed denial of service attacks (DDoS) began Tuesday at 1830 IST and targeted “the websites of at least five well-known financial institutions in the top 10” in Russia. It remains unclear who launched the bank cyberattacks, which are  reportedly  ongoing. Kaspersky said the attack on Russia’s banking system is apparently being launched by a network of more than 24,000 hacked  Internet of Things (IoT) devices , and that more than half of the hacked things were in the United States, India, Taiwan and Israel. Further reading on the storied hacking history of The Dukes: F-Secure  calls them  CozyDuke  (PDF).   FireEye ‘s  take  (PDF).  Crowdstrike  on  Cozy Bear .</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>November 10, 2016</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hackers Hit U.S. Senate GOP Committee</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The national news media has been consumed of late with  reports  of Russian hackers breaking into networks of the  Democratic National Committee . Lest the Republicans feel left out of all the excitement, a report this past week out of The Netherlands suggests Russian hackers have for the past six months been siphoning credit card data from visitors to the Web storefront of the  National Republican Senatorial Committee  (NRSC). That’s right: If you purchased a “Never Hillary” poster or donated funds to the NRSC through  its Web site  between March 2016 and the first week of this month, there’s an excellent chance that your payment card data was siphoned by malware and is now for sale in the cybercrime underground. News of the break-in comes from Dutch researcher  Willem De Groot , co-founder and head of security at Dutch e-commerce site  byte.nl . De Groot said  the NRSC was one of more than 5,900 e-commerce sites apparently hacked by the same actors , and that the purloined card data was sent to a network of servers operated by a Russian-language Internet service provider incorporated in Belize. De Groot said he dissected the malware planted on the NRSC’s site and other servers (his analysis of the malware is available  here ) and found that the hackers used security vulnerabilities or weak passwords to break in to the various e-commerce sites. The researcher found the malware called home to specific Web destinations made to look like legitimate sites associated with e-commerce activity, such as jquery-cloud[dot]net, visa-cdn[dot]com, and magento-connection[dot]com. “[The attackers] really went out of their way to pick domain names that look legitimate,” De Groot said. The NRSC did not respond to multiple requests for comment, but  a cached copy of the site’s source code  from October 5, 2016 indicates the malicious code was on the site at the time (load  this link , click “view source” and then Ctrl-F for “jquery-cloud.net”). A majority of the malicious domains inserted into the hacked sites by the malware map back to a few hundred Internet addresses assigned to a company called  dataflow[dot]su . Dataflow markets itself as an “offshore” hosting provider with presences in Belize and The Seychelles. Dataflow has long been advertised on Russian-language cybercrime forums as an offshore haven that offers so-called “ bulletproof hosting ,” a phrase used to describe hosting firms that court all manner of sites that most legitimate hosting firms shun, including those that knowingly host spam and phishing sites as well as malicious software. De Groot published  a list of the sites  currently present at Dataflow. The list speaks for itself as a collection of badness, including quite a number of Russian-language sites selling synthetic drugs and stolen credit card data. According to De Groot, other sites that were retrofitted with the malware included e-commerce sites for the shoe maker  Converse  as well as the automaker  Audi , although he says those sites and the NRSC’s have been scrubbed of the malicious software since his report was published. But De Groot said the hackers behind this scheme are continuing to find new sites to compromise. “Last Monday my scans found about 5,900 hacked sites,” he said. “When I did another scan two days later, I found about 340 of those had been fixed, but that another 170 were newly compromised.” According to  the researcher’s analysis , many of the hacked sites are running outdated e-commerce software or content management software. In other cases, it appears the attackers simply brute-forced or guessed passwords needed to administer the sites. Further, he said, the attackers appear to have inserted their malware into the e-commerce sites’ databases, rather than into the portion of the Web server used to store HTML and other components that make up how the site looks to visitors “That’s why I think this has remained under the radar for a while now,” De Groot said. “Because some companies use filesystem checkers so that if some file changes on the system they will get a notice that alerts them something is wrong.” Unfortunately, those same checking systems generally aren’t configured to look for changes in the site’s database files, he explained, since those are expected to change constantly — such as when a new customer order for merchandise is added. De Groot said he was amazed at how many e-commerce merchants he approached about the hack dismissed the intrusion, reasoning that they employed secure sockets layer (SSL) technology that encrypted the customers’ information end-to-end. What many Webmaster fail to realize is that just as PC-based trojan horse programs can steal data from Web browsers of infected victims, Web-based keylogging programs can do the same, except they’re designed to steal data from Web server applications. PC Trojans siphon information using two major techniques: snarfing passwords stored in the browser, and conducting “form grabbing” — capturing any data entered into a form field in the browser before it can be encrypted in the Web session and sent to whatever site the victim is visiting. Web-based keyloggers also can do form grabbing, ripping out form data submitted by visitors — including names, addresses, phone numbers, credit card numbers and card verification code — as customers are submitting the data during the online checkout process. These attacks drive home one immutable point about malware’s role in subverting secure connections: Whether resident on a Web server or on an end-user computer, if either endpoint is compromised, it’s ‘game over’ for the security of that Web session. With PC banking trojans, it’s all about surveillance on the client side pre-encryption, whereas what the bad guys are doing with these Web site attacks involves sucking down customer data post- or pre-encryption (depending on whether the data was incoming or outgoing).</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>October 17, 2016</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hackers Target Anti-DDoS Firm Staminus</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Staminus Communications Inc ., a California-based Internet hosting provider that specializes in protecting customers from massive “distributed denial of service” (DDoS) attacks aimed at knocking sites offline, has itself apparently been massively hacked. Staminus’s entire network was down for more than 20 hours until Thursday evening, leaving customers to vent their rage on the company’s Facebook and Twitter pages. In the midst of the outage, someone posted online download links for what appear to be Staminus’s customer credentials, support tickets, credit card numbers and other sensitive data. The e-zine posted online Thursday following an outage at Staminus Communications. Newport Beach, Calif.-based Staminus first acknowledged an issue on its social media pages because  the company’s Web site  was unavailable much of Thursday. “Around 5am PST today, a rare event cascaded across multiple routers in a system wide event, making our backbone unavailable,” Staminus wrote to its customers. “Our technicians quickly began working to identify the problem. We understand and share your frustration. We currently have all hands on deck working to restore service but have no ETA for full recovery.” Staminus now says its global services are back online, and that ancillary services are being brought back online. However, the company’s Web site still displays a black page with a short message directing customers to Staminus’s social media pages. Meanwhile, a huge trove of data appeared online Thursday, in a classic “ hacker e-zine ” format entitled, “Fuck ’em all.” The page includes links to download databases reportedly stolen from Staminus and from  Intreppid , another Staminus project that targets customers looking for protection against large DDoS attacks. Frustrated Staminus customers vent on the company’s Facebook page. The authors of this particular e-zine indicated that they seized control over most or all of Staminus’s Internet routers and reset the devices to their factory settings. They also accuse Staminus of “using one root password for all the boxes,” and of storing customer credit card data in plain text, which is violation of payment card industry standards. Staminus so far has not offered any additional details about what may have caused the outage, nor has it acknowledged any kind of intrusion. Several Twitter accounts associated with people who claim to be Staminus customers frustrated by the outage say they have confirmed seeing their own account credentials in the trove of data dumped online. I’ve sent multiple requests for comment to Staminus, which is no doubt busy with more pressing matters at the moment. I’ll update this post in the event I hear back from them. It is not unusual for attackers to target Anti-DDoS providers. After all, they typically host many customers whose content or message might be offensive — even hateful — speech to many. For example, among the company’s many other clients is kkk-dot-com, the official home page of the  Ku Klux Klan  (KKK) white supremacist group. In addition, Staminus appears to be hosting a large number of internet relay chat (IRC) networks, text-based communities that are often the staging grounds for large-scale DDoS attack services.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>March 11, 2016</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JPMorgan Hackers Breached Anti-Fraud Vendor G2 Web Services</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Buried in the federal indictments  unsealed this week  against four men accused of stealing tens of millions of consumer records from  JPMorgan Chase  and other brokerage firms are other unnamed companies that were similarly victimized by the accused. One of them, identified in the indictments only as “Victim #12,” is an entity that helps banks block transactions for dodgy goods advertised in spam. Turns out, the hackers targeted this company so that they could more easily push through payments for spam-advertised prescription drugs and fake antivirus schemes. According to multiple sources, Victim #12 is none other than Bellevue, Wash. based  G2 Web Services LLC , a company that helps banks figure out if a website is fraudulent or is selling contraband. G2 Web Services has not responded to multiple requests for comment. In the final chapters of my book,  Spam Nation: The Inside Story of Organized Cybercrime , I detailed the work of  The International AntiCounterfeiting Coalition  (IACC), a non-profit organization dedicated to combating product counterfeiting and piracy. In 2011, G2 Web Services landed  a contract  to help the IACC conduct “test buys” at sites with products that were being advertised via spam. The company would identify which banks (mostly in Asia) were processing payments for these sites, and then  Visa  and  MasterCard  would rain down steep fines on the banks for violating their contracts with the credit card companies. The idea was to follow the money from schemes tied to cybercrime, deter banks from accepting funds from fraudulent transactions, and make it difficult for spammers to maintain stable credit card processing for those endeavors. Prosecutors say the ringleader of the cybercrime gang accused of breaking into JPMC,  Scottrade,   E-Trade  and others is 31-year-old  Gery Shalon , a resident of Tel Aviv and Moscow. Investigators allege Shalon and his co-conspirators monitored credit card transactions processed through their payment processing business to attempt to discern which, if any, were undercover transactions made on behalf of credit card companies attempting to identify unlawful merchants. The government also charges that beginning in or about 2012, Shalon and his co-conspirators hacked into the computer networks of Victim-12 (G2 Web Services). Shalon and his gang allegedly monitored Victim-12’s detection efforts,  including reading emails of Victim-12 employees so they could take steps to evade detection . “In particular, through their unlawful intrusion into Victim-12’s network, Shalon and his co-conspirators determined which credit and debit card numbers Victim-12 employees were using the make undercover purchases of illicit goods in the course of their effort to detect unlawful merchants,” Shalon’s indictment explains. “Upon identifying those credit and debit card numbers, Shalon and his co-conspirators blacklisted the numbers from their payment processing business, automatically declining any transaction for which payment was offered through one of those credit or debit card numbers.” According to the U.S. government, Shalon ran  idpay.com , a dodgy credit card processor that worked with dozens of banks to push through sales for fake antivirus and pharma-spam sites. Interestingly, in 2011, I wrote about a source  who’d stumbled upon a portion of the customer database for idpay.com .  As I wrote then: “The idpay.com database indicates that a large number of fake AV Web sites were using idpay.com to process payments (a partial list is  here ). The idpay.com database revealed even bigger fish: Among the companies it processed was  rx-partners.com , a major rogue pharmacy affiliate program that pays hackers and spammers to promote its pharmacy sites.” “Another interesting client that processes payments through idpay.com was  HzMedia Limited . That entity is owned by   Igor Gusev , the founder of  GlavMed , one of the world’s largest and spammiest rogue Internet pharmacy affiliate programs.” Gusev  would emerge as one of two major cybercrime kingpins I profiled in  Spam Nation . This story is interesting because it shows how money laundering is such a key component of cybercrime operations, and that anyone who has built such networks likely knows or works with a great many of the world’s top cybercrooks. It also illustrates the lengths to which organized cybercriminals will go to preserve their business models. G2 was profiled in a  New York Times  story  last month on firms that pit artificial intelligence against hacking threats. That piece cited G2 Web’s ability to spot “transaction laundering,” in which an illegal business tries to appear legitimate by processing transactions through a legal site. The story didn’t mention a breach, but it quoted a G2 employee on the challenges associated with fighting crooks who possess the means and the motive for hacking those who stand in their way. “The guys who run these illicit sites are also into viruses and malware,” the Times quoted  Alan Krumholz , principal data scientist at G2. “It’s a cat-and-mouse game. They go from one business into another.” The full indictment against Shalon is  here  (PDF). The mention of Victim 12 (G2) is on page 23.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>November 13, 2015</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TalkTalk Hackers Demanded £80K in Bitcoin</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TalkTalk , a British phone and broadband provider with more than four million customers, disclosed Friday that intruders had hacked its Web site and may have stolen personal and financial data. Sources close to the investigation say the company has received a ransom demand of approximately £80,000 (~USD $122,000), with the attackers threatening to publish the TalkTalk’s customer data unless they are paid the amount in Bitcoin. In  a statement  on its Web site, TalkTalk said a criminal investigation was launched by the Metropolitan Police Cyber Crime Unit following “a significant and sustained cyberattack on our website.” “That investigation is ongoing, but  unfortunately there is a chance that some of the following data has been compromised: names, addresses, date of birth, phone numbers, email addresses, TalkTalk account information, credit card details and/or bank details,” the statement continues. “We are continuing to work with leading cyber crime specialists and the Metropolitan Police to establish exactly what happened and the extent of any information accessed.” A source close to the investigation who spoke on condition of anonymity told KrebsOnSecurity that the hacker group who demanded the £80,000 ransom provided TalkTalk with copies of the tables from its user database as evidence of the breach. The database in question, the source said, appears related to at least 400,000 people who have recently undergone credit checks for new service with the company. However, TalkTalk’s statement says it’s too early to say exactly how many customers were impacted. “Identifying the extent of information accessed is part of the investigation that’s underway,” the company said. It appears that multiple hacker collectives have since claimed responsibility for the hack, including one that the  BBC described  as a “Russian Islamist group” — although sources say there is absolutely no evidence to support that claim at this time. Separately, promises to post the stolen data have appeared on  AlphaBay , a Deep Web black market that specialized in selling stolen goods and illicit drugs. The posting was made by someone using the nickname “Courvoisier.” This member, whose signature describes him as “Level 6 Fraud and Drugs seller,” appears to be an active participant in the AlphaBay market with many vouches from happy customers who’ve turned to him for illegal drugs and stolen credit cards, among other goods and services. It seems likely that Courvoisier is not bluffing, at least about posting some subset of TalkTalk customer data. According to  a discussion thread on Reddit.com  dedicated to explaining AlphaBay’s new Levels system, an AlphaBay seller who has reached the status of Level 6 has successfully consummated at least 500 sales worth a total of at least $75,000, and achieved a 90% positive feedback rating or better from previous customers. An AlphaBay dark market thread promising the release of TalkTalk customer data. “Post will be updated shortly,” Courvoisier promised in an AlphaBay message thread Friday. “Data will be supplied in the following format: Name 
-DOB 
-Address 
-TenancyType 
-YearsAtAddress 
-MonthsAtAddress 
-HomeTelephone 
-MobileTelephone 
-Email 
-Employer 
-EmploymentTitle 
-EmploymentLocation 
-EmployersPhone 
-Bank 
-AccountNumber 
-SortCode” This roughly tracks the details that TalkTalk has said might have been accessed on customers: Name 
-DOB 
-Address 
-Email Address 
-Telephone Number 
-TalkTalk Account Information 
-Credit Card and Bank Details According to my source, the intrusion started with an attack technique known as  SQL injection (SQLi) , a method which abuses a misconfiguration in a database that causes the database to cough up or dump information. The source said the SQLi attack was punctuated by a denial-of-service attack that sought to prevent legitimate users from visiting the targeted site, and that the debilitating assault may have been launched to distract from the database hack. Several individuals on Twitter also have been posting information suggesting they may know how the breach occurred, and that there were only a few thousand customer records exposed in the breach. On October 18, 2015, a person using the screen name “Fearful” and alias “Glubz”  reported a vulnerability  in the videos section of TalkTalk’s Web site (videos.talktalk.co.uk). The flaw was reported via xssposed.org, a site that operates as a sort of public clearinghouse for information about unpatched Web site vulnerabilities. Xssposed.org said it verified the flaw indeed existed in the TalkTalk videos page, but that no technical details were being disclosed to the public in order to give website owner time to patch the vulnerability without putting its users at risk. Interestingly, a Twitter user with the Twitter handle  @Fearful  has been posting about expecting a raid from the U.K. authorities at any minute. The Twitter profile links to the (possibly compromised) Web site  elliottg[dot]net , which currently redirects to a page with scrolling images of a blond-haired young man, the TalkTalk logo, and a U.K. policeman. A  Google-cached version of the site  indicates that Glubz has “continuously found website exploits ranging from non critical and critical exploits/bugs. I’ve always wanted to work for a company that specialises in stuff like this and that time has finally come. Being paid for something you enjoy is probably the best job ever. You may also find me on XSSPOSED under the username ‘ Glubz ‘.” Indeed, a listing at xssed.org ranks Glubz among its  Top 50 Security Researchers , and says Glubz’ Twitter handle is “@Fearful”. TalkTalk apologized for the breach and said that since discovering the breach on Wednesday it has undertaken a full security review of its Web site and had taken “all necessary measures” to secure the site. The company also is offering customers 12 months of free credit monitoring through  Noddle , a credit reporting service offered by the credit reference agency  CallCredit . Extortion attacks put victim companies in a bit of bind, because even if they do pay the ransom demand, there is no guarantee the data was not already shared with or stolen by other attackers — or that the extortionists won’t simply go ahead and publish the data even if they are paid. As I noted in  a Reddit Ask Me Anything interview  Friday, there is, unfortunately, a great deal of room for growth in cyber attacks that leverage some type of ransom or extortion. “It seems like the crooks are getting better situational awareness when they break in somewhere, which of course increases the potential for an opportunistic attack (drive-by download, database hack, malware-laden spam blast) to mushroom into something much bigger and more costly for the victim or organization,” I wrote. Update, 11:17 a.m. ET:  Added information about vulnerabilities reported in the video portion of TalkTalk’s Web site.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>October 24, 2015</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hacker Who Sent Me Heroin Faces Charges in U.S.</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A Ukrainian hacker who once hatched a plot to have heroin sent to my Virginia home and then alert police when the drugs arrived had his first appearance in a U.S. court today, after being extradited to the United States to face multiple cybercrime charges. Sergey Vovnenko , a.k.a. “Fly,” “Flycracker” and “MUXACC1” (muxa is transliterated Russian for “муха” which means “fly”), was  set to appear  in a Newark courtroom today on charges of stealing and selling credit card and banking data, emptying bank accounts, and running a botnet of more than 12,000 hacked computers and servers, among other alleged crimes. Fly replies to my direct messages telling him I know his real name and where he lives. I first became acquainted with Fly in 2013, when  his Twitter persona  (warning: images here may not be safe for work) began sending me taunting tweets laced with epithets and occasional attempts to get me to click dodgy-looking Web links. Fly also took to his Livejournal blog to post copies of my credit report, directions to my home and pictures of my front door. After consulting with cybercrime researchers at Russian security firm  Group-IB , I learned that Fly was the administrator of a closely-guarded but now-defunct cybercrime forum dedicated to financial fraud called  thecc[dot]bz  (“cc” is a reference to credit cards). Not long after that, I secretly gained access to his forum. And none too soon: In one lengthy discussion thread on the forum, I found that Fly had solicited donations from fellow fraudsters on the forum to donate Bitcoin currency for a slush fund Fly created for the express purpose of purchasing heroin off of the Silk Road — which was at the time the leading source of illicit drugs on the Dark Web. Flycracker discussing the purchase of a gram of heroin from Silk Road seller “10toes.” Fly’s plan was simple: Have the drugs delivered to my home in my name, and then spoof a call from one of my neighbors to the local police informing them that I was a druggie, that I had druggie friends coming in and out of my house all day long, and that I was even having drugs delivered to my home. The forum members took care to find the most reputable sellers of heroin on the Silk Road. After purchasing a gram of the stuff from the Silk Road’s top smack seller — a drug dealer who used the nickname “Maestro” — Fly posted the USPS tracking link for the package into the discussion thread on his forum. An ad for heroin on the Silk Road. At that point, I called the local police and had a cop come out to take an official police report. The officer asked me to contact him again if the drugs actually arrived. Three days later, our local Postal Service carrier hand delivered a thin USPS Express Mail envelope that was postmarked from Chicago. Inside was another blank envelope containing a May 2013 copy of  Chicago Confidential , a weekly glossy magazine from the  Chicago Tribune . On the back of the magazine, taped to a full-page ad for jewelry from  LesterLampert , were a baker’s dozen individually wrapped packets emblazoned with the same black and gold skull motif that was on  Maestro’s Silk Road ad . I immediately contacted the police, who came and dutifully retrieved the drugs, which turned out to be almost pure heroin. 12 packets of what appears to be heroin arrived at my home via the Silk Road on July 29, 2013. I wrote about the experience of foiling Fly’s plan in a story titled  Mail From the (Velvet) Cybercrime Underground . This did not sit well with Fly, who was made to look bad in front of his forum members who’d contributed roughly two Bitcoins to the scheme. Angry that I’d foiled his plan to have me arrested for drug possession, Fly had a local florist send a gaudy floral arrangement in the shape of  a giant cross  to my home, complete with  a menacing message  that addressed my wife and was signed, “Velvet Crabs.” The floral arrangement that Fly had delivered to my home in Virginia. After this incident, I became intensely curious about the identity of this Fly individual, so I began looking through databases of hacked carding and cybercrime forums. My first real break came when   Group-IB provided a key piece of the puzzle: Group-IB researchers found that   on the now-defunct  vulnes[dot]com , Fly maintained an account under the nickname Flycracker, and signed up with the email address  mazafaka@libero.it (.it is the country code for Italy). According to a trusted source in the security community, that email account was somehow compromised in 2013. The source said the account was full of emailed reports from a keylogging device that was tied to another email address —  777flyck777@gmail.com  (according to Google, mazafaka@libero.it is the recovery email address for 777flyck777@gmail.com). Those keylog reports contained some valuable information, and  indicated that Fly had planted a keylogger on his then-fiancee Irina’s computer . On several occasions, those emails show Fly’s wife typed in her Gmail address, which included her real first and last name —  Irina Gumenyuk . Sergey “Fly” Vovnenko, in an undated photo. Later, Gumenyuk would change the surname on her various social networking profiles online to  Vovnenko . She even mentioned her husband by name several times in emails to friends, identifying him as 28-year-old “Sergei Vovnenko”. Payment information contained in those emails — including shipping and other account information — put the happy couple and their young son in Naples, Italy. This information later was shared with federal authorities in Italy. In June of last year, I received a call from a U.S. law enforcement source who said plainly that “the Fly has been swatted.” Vovnenko had been arrested and was awaiting extradition proceedings that would send him to face charges in the United States. In July 2014, I received the first of several letters from Vovnenko, who was at the time sitting in  Poggioreale Jail , a place of confinement in Naples that Fly described as “the worst prison in Italy.” I didn’t open the letter immediately; I notified my contacts in U.S. federal law enforcement who had an open case on Vovnenko, and they offered to retrieve the letter and test it for any dangerous substances (hey, the previous time he sent me mail it had heroin inside!). The envelope was clean. It contained only a hand-written letter. The opening paragraph was a friendly greeting written in English; the rest was penned in Ukrainian script. A professional translation of the letter revealed it to be a deeply personal and — I believe — heartfelt apology from Vovnenko for sending the heroin, for posting my credit report, and for otherwise terrorizing my family. I believe he was perhaps  12-stepping it , because he also used the occasion to say that he forgave me for posting his personal information and photo of him in my blog shortly after his arrest in Italy. In December 2014, I received another missive from Fly, still awaiting extradition in Poggioreale. It was a postcard with a nice picture of Naples on the front, and simple holiday greetings on the back: “Happy New Year! And Merry Christmas!” the message read. “With Best Regrads [sic], From Fly!” The postcard Vovnenko sent to me from prison in Naples. Cybercrooks have done some pretty crazy stuff to me in response to my reporting about them. But I don’t normally get this kind of closure. I look forward to meeting with Fly in person one day soon now that he will be just a short train ride away. And he may be here for some time: If convicted on all charges, Fly faces up to 30 years in U.S. federal prison. Seasons greetings from my pen pal, Flycracker. The Justice Department’s press release on Vovnenko’s indictment is  here  (PDF). The actual indictment can be found at  this link  (PDF).</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>October 13, 2015</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Arrest of Chinese Hackers Not a First for U.S.</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Washington Post  reported last week that the Chinese government has quietly arrested a handful of hackers at the urging of the U.S. government, a move described as “an  unprecedented  step to defuse tensions with Washington at a time when the Obama administration has threatened economic sanctions.” While this a welcome and encouraging development, it is not the first time Beijing has arrested Chinese hackers in response to pressure from the U.S. government. Image: Democracynow.org. The action reported by The Post and other media outlets came shortly before Chinese  President Xi Jinping ’s state visit to Washington late last month. The hackers arrested had reportedly been identified by U.S. officials as having stolen commercial secrets from U.S. firms to be sold or passed along to Chinese state-run companies. Although The Post has described this action as unprecedented, U.S. government cybercrime investigators have had success convincing Chinese authorities to take such actions in at least one other case previously. In  a report  (PDF) presented to Congress on Feb. 29, 2012, the  Office of Inspector General  for the  National Aeronautics and Space Administration  (NASA) noted that a lengthy investigation into the cyber theft of sensitive technical data from its systems culminated in the arrest of a Chinese national in China. “As a result of an OIG investigation and lengthy international coordination efforts, a 
-Chinese national was detained in December 2010 by Chinese authorities for violations of 
-Chinese Administrative Law,”  NASA Inspector General Paul K. Martin  told a House oversight committee. “This case resulted in the first confirmed detention of a Chinese national for hacking activity targeting U.S. Government agencies. Seven NASA systems, many containing export-restricted technical data, were compromised by the Chinese national.” Many readers probably would not consider NASA when they think about U.S. federal agencies fighting cybercrime, but in truth NASA investigators have been behind some of the more effective and cutting-edge cybercrime investigations of the past decade. As I noted in my book —  Spam Nation: The Inside Story of Organized Cybercrime – From Global Epidemic to Your Front Door  —  NASA officials were deeply involved in the investigations into both  McColo  and  3FN , now-defunct Internet Service providers that ultimately were unplugged from the Internet by their Internet peers after it became apparent how much cybercrime activity was emanating from these providers. In one instance, NASA investigators traveled to Moscow to meet with Russian authorities in the planned arrest of Gugle (pronounced “Google”), a Russian man named  Dmitry Nechvolod —  one of the world’s top cybercriminals at the time and the co-founder of the Cutwail spam botnet code. Here’s a snippet from Spam Nation in which one of the cybercrime kingpins profiled in the book — a Russian man named  Pavel Vrublevsky  who employed Gugle to send spam and develop malicious software — actually warned his best henchman in advance that NASA investigators were coming. “It was late 2010, and Vrublebsky had just called me and was excitedly relaying some intelligence that he’d gleaned from his network of law-enforcement contacts. He’d received word that cybercrime investigators with the U.S. National Aeronautics and Space Administration (NASA) were coming to Moscow to meet with Russian FSB agents. The NASA officials, who have guns and badges and just as much investigative authority as other U.S. law enforcement agencies, were coming to discuss cooperating with Russian authorities over an investigation into Nechvolod.” “By that time, NASA investigators had connected the dots between Nechvolod and Gugle, and had been building a criminal case against him for allegedly infecting countless NASA computers with [his] malware.” “The Americans came to Moscow trying to find the Cutwail owner, who goes by the nickname ‘Gugle,'” Vrublevsky told me excitedly and proudly in a phone interview, speaking of a man who was among the top spammers for [him]. “They got his nickname and even his real name correct, but they were never able to catch him. Honestly, I think someone warned him. You know, Brian, the corruption level in Russian law enforcement related to cybercrime is really quite high.” The NASA OIG report referenced at the top of this story does not state whether the Chinese national arrested for allegedly hacking NASA systems ever stood trial to face the charges. NASA officials did not return calls seeking comment. Whether this latest series of arrests is in fact a turning point in U.S.-Chinese cyber relations or just a ploy to delay sanctions promised by President Obama is anyone’s guess. As The Post notes, U.S. officials will likely be unconvinced unless those arrested are put on trial. “Now, administration officials are watching to see if China will follow through with prosecutions,” wrote Ellen Nakashima and Adam Goldman. “A public trial is important not only because that would be consistent with established principles of criminal justice, but because it could discourage other would-be hackers and show that the arrests were not an empty gesture. Administration officials say they are not sure whether the arrests mark a deeper shift in China’s stance — or whether they were a short-term move to avoid getting hit by sanctions.” According to the White House, at a recent state visit Presidents Xi and Obama agreed to work together to manage their nations’ differences on a number of topics, including cybersecurity. These highlights were taken verbatim from The White House’s own  talking points on the subject : “The United States and China agree that timely responses should be provided to requests for information and assistance concerning malicious cyber activities. Further, both sides agree to cooperate, in a manner consistent with their respective national laws and relevant international obligations, with requests to investigate cybercrimes, collect electronic evidence, and mitigate malicious cyber activity emanating from their territory. Both sides also agree to provide updates on the status and results of those investigation to the other side, as appropriate.” “The United States and China agree that neither country’s government will conduct or knowingly support cyber-enabled theft of intellectual property, including trade secrets or other confidential business information, with the intent of providing competitive advantages to companies or commercial sectors.” “Both sides are committed to making common effort to further identify and promote appropriate norms of state behavior in cyberspace within the international community. The United States and China welcome the July 2015 report of the UN Group of Governmental Experts in the Field of Information and Telecommunications in the Context of International security, which addresses norms of behavior and other crucial issues for international security in cyberspace. The two sides also agree to create a senior experts group for further discussions on this topic.” “The United States and China agree to establish a high-level joint dialogue mechanism on fighting cybercrime and related issues. China will designate an official at the ministerial level to be the lead and the Ministry of Public Security, Ministry of State Security, Ministry of Justice, and the State Internet and Information Office will participate in the dialogue. The U.S. Secretary of Homeland Security and the U.S. Attorney General will co-chair the dialogue, with participation from representatives from the Federal Bureau of Investigation, the U.S. Intelligence Community and other agencies, for the United States. This mechanism will be used to review the timeliness and quality of responses to requests for information and assistance with respect to malicious cyber activity of concern identified by either side. As part of this mechanism, both sides agree to establish a hotline for the escalation of issues that may arise in the course of responding to such requests. Finally, both sides agree that the first meeting of this dialogue will be held by the end of 2015, and will occur twice per year thereafter.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>October 13, 2015</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AshleyMadison: $500K Bounty for Hackers</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AshleyMadison.com,  an online cheating service whose motto is “Life is Short, Have an Affair,” is offering a $500,000 reward for information leading to the arrest and prosecution of the individual or group of people responsible for leaking highly personal information on the company’s more than 30 million users. A snippet of the message left behind by the Impact Team. The bounty offer came at a press conference today by the police in Toronto — where AshleyMadison is based. At the televised and Webcast news conference, Toronto Police Staff Superintendant  Bryce Evans  recounted the key events in “Project Unicorn,” the code name law enforcement officials have assigned to the investigation into the attack. In relaying news of the reward offer, Evans appealed to the public and “white hat” hackers for help in bringing the attackers to justice. “The ripple effect of the impact team’s actions has and will continue to have a long term social and economic impacts, and they have already sparked spin-offs of crimes and further victimization,” Evans said. “As of this morning, we have two unconfirmed reports of suicides that are associated [with] the leak of AshleyMadison customer profiles.” Evans did not elaborate on the suicides, saying only that his office is investigating those reports. The  San Antonio Express-News   reported Friday  that a city worker whose information was found in the leaked AshleyMadison database took his life last Thursday, although the publication acknowledges that it’s unclear whether the worker’s death had anything to do with the leak. Evans warned the public and concerned AshleyMadison users to be on guard against a raft of extortion scams that are already popping up and targeting the site’s customers. On Friday, KrebsOnSecurity  featured an exclusive story  about one such extortion scheme that threatened to alert the victim’s spouse unless the recipient paid the attacker a Bitcoin (worth slightly more than USD $250). The Toronto Police  posted this image  of a similar extortion attempt that they have seen making the rounds. “Criminals have already engaged in online scams by claiming to provide access to the leaked web site,” he said. “The public needs to be aware that by clicking on these links, you are exposing your computer to adware and spyware and viruses. Also there are those offering to erase customer profiles from the list. Nobody is going to be able to erase that information.” Evans said AshleyMadison employees first learned of the intrusion when they arrived at work on the morning July 12, 2015. Evans said employees powered on their computers and  were presented with the initial message from the Impact Team  — the hacker group that has claimed responsibility for the breach — accompanied by the song “Thunderstruck” from rock band AC/DC playing in the background. The Toronto Police Department is encouraging anyone with information about the attacker(s) to contact them via phone or Twitter. Likewise, the department is asking victims of extortion attacks tied to the data leak not to pay the ransom demands, but instead to report the crimes at the addresses and/or numbers listed below. Toronto Police are asking anyone with information about the attacker(s) to contact them. AshleyMadison.com is offering a $500,000 reward for information leading to the arrest and prosecution of the intruders.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>August 24, 2015</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Target Hackers Hit Third Parking Service</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Book2Park.com , an online parking reservation service for airports across the United States, appears to be the latest victim of the hacker gang that stole more than a 100 million credit and debit cards from  Target  and  Home Depot . Book2park.com is the third online parking service since December 2014 to fall victim to this cybercriminal group. Last week, a new batch of credit card numbers [dubbed “ Denarius “] went up for sale on  Rescator[dot]cm , the cybercrime bazaar that earned infamy by selling tens of millions of cards stolen from Target and Home Depot. Multiple banks contacted by this author acquired a handful of cards from this new batch, and each of those financial institutions found the same pattern: All of the cards they bought had been issued to customers who recently made airport parking reservations at Book2Park.com. Contacted about the apparent breach, Book2park.com owner  Anna Infante  said she was not aware that hundreds — if not thousands — of her customers cards were for sale online. But she said a technology firm the company contracts with did recently discover and remove malicious files that were somehow planted on Book2park’s Web server. “We already took action on this, and we are totally on it,” Infante said. “We are taking all further steps in protecting our customers and reporting this to the proper authorities.” In December, the same hacker gang began selling card accounts  stolen from the Web sites of Park ‘N Fly and OneStopParking.com . The card accounts stolen from OneStopParking and Park ‘N Fly sold for prices between $6 and $13, but the cards taken from Book2Park’s site mostly fetch prices ranging from $12 to $18. This may be because most of the cards were issued by European banks, which tend to sell for more (at least on Rescator’s site). Unlike card data stolen from main street retailers — which can be encoded onto new plastic and used to buy stolen goods in physical retail stores — cards stolen from online transactions can only be used by thieves for fraudulent online purchases. However, most online carding shops that sell stolen card data in underground stores market both types of cards, known in thief-speak as “dumps” and “CVVs,” respectively. These e-commerce site hacks are not wholly unlike compromises on consumer/end user PCs. Malware gets planted on the server that watches for visitors to enter sensitive data into order forms. The malware then secretly copies that data from the transaction stream before it can be encrypted (I have no specific knowledge of the malware used, just trying to illustrate a concept in response to several readers who seem to believe that an ecommerce compromise that exposes card data automatically means the merchant is storing card data). It’s unclear why these crooks are targeting online parking reservation systems. There is no clear connection between the three services hacked by this gang, either in their current or previous hosting infrastructures or Web technologies. </t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>February 2, 2015</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Target Hackers Hit OneStopParking.com</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Parking services have taken a beating this year at the hands of hackers bent on stealing credit and debit card data. This week’s victim —  onestopparking.com  — comes compliments of the same organized crime gang thought to be responsible for stealing tens of millions of card numbers from shoppers at  Target  and  Home Depot . Late last week, the cybercrime shop best known for being the first to sell cards stolen in the Target and Home Depot breach moved a new batch of cards taken from an unknown online merchant. Several banks contacted by KrebsOnSecurity acquired cards from this batch, and determined that all had one thing in common: They’d all been used at onestopparking.com, a Florence, Ky. based company that provides low-cost parking services at airport hotels and seaports throughout the United States. Contacted about the suspicious activity that banks have traced back to onestopparking.com,  Amer Ghanem , the site’s manager, said the company began receiving complaints from customers about a week before Christmas. “It’s been something we have been dealing with for the past week, where some of our customers have called in and complained about fraudulent charges,” Ghanem said. He noted that the complaints stopped after the company performed several security scans and upgraded software for the Web site, but the investigation continues. “We have been unable to identify any specific issues that has caused any credit card breach on our website,” Ghanem said in a written statement. “However, being a part of the e-commerce industry and staying up to date with the security news, we are aware of security threats that are always around, especially during the holiday season, when people tend to shop and travel more.  We currently have 2 different services that are always monitoring traffic on our website, 24/7 to ensure the safety of our customers.” Cards from the “Solidus” base at Rescator map back to One Stop Parking. This was the second time in as many weeks that this cybercrime shop — Rescator[dot]cm  —  has put up for sale a batch of credit cards stolen from an online parking service: On Dec. 16, KrebsOnSecurity reported that the same shop was  selling cards stolen from Park-n-Fly , a competing airport parking reservation service.  Sometime over the past few days, Park-n-Fly announced it was suspending its online service. “In the wake of suspicious activity relating to certain Park ‘N Fly’s system containing credit card data, Park ‘N Fly has suspended our online reservations system, pending remediation,” reads  a security update  posted on the company’s site. Park ‘N Fly noted that it is still taking reservations over the phone. The stolen card data that bank sources traced back to Onestopparking.com are among hundreds or thousands that went on sale Dec. 21 at Rescator, in a batch dubbed “Solidus.” The card data ranges in price from $6 to $12 per card, and include the card number, expiration date, 3-digit card verification code, as well as the cardholder’s name, address and phone number. Last month,  SP Plus  — a Chicago-based parking facility provider —  said  payment systems at 17 parking garages in Chicago, Philadelphia and Seattle that were hacked to capture credit card data after thieves installed malware to access credit card data from a remote location. Card data stolen from those SP+ locations ended up for sale on a competing cybercrime store called Goodshop. In Missouri, the St. Louis Parking Company recently  disclosed  that it learned of breach involving card data stolen from its Union Station Parking facility between Oct. 6, 2014 and Oct. 31, 2014.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>December 30, 2014</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Home Depot: Hackers Stole 53M Email Addresses</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>As if the credit card breach at  Home Depot  didn’t already look enough like the  Target breach : Home Depot said yesterday that the hackers who stole 56 million customer credit and debit card accounts also made off with 53 million customer email addresses. In  an update  (PDF) released to its site on Thursday, Home Depot warned customers about the potential for thieves to use the email addresses in phishing attacks (think a Home Depot “survey” that offers a gift card for the first 10,000 people who open the booby-trapped attachment, for example). Home Depot stressed that the files containing the stolen email addresses did not contain passwords, payment card information or other sensitive personal information. Home Depot said the crooks initially broke in using credentials stolen from a third-party vendor. The company said thieves used the vendor’s user name and password to enter the perimeter of Home Depot’s network, but that these stolen credentials alone did not provide direct access to the company’s point-of-sale devices. For that, they had to turn to a vulnerability in Microsoft Windows that was patched only after the breach occurred, according to a story in Thursday’s  Wall Street Journal . Recall that the Target breach also started with  a hacked vendor  — a heating and air conditioning company in Pennsylvania that was relieved of remote-access credentials after someone inside the company  opened a virus-laden email attachment . Target also came out in the days after the breach became public and revealed that the attackers had stolen more than 70 million customer email addresses. Home Depot also confirmed that thieves targeted its self-checkout systems, a pattern  first reported on this blog on Sept. 18 .  The Wall Street Journal r eported that the intruders targeted the 7,500 self-checkout lanes at Home Depot because those terminals were clearly referenced by the company’s internal computer system as payment terminals, whereas another 70,000 regular registers were identified simply by a number. News of the Home Depot breach  broke on this blog on Sept. 2 , after multiple banks confirmed that tens of thousands of their cards had just shown up for sale on the underground cybercrime shop rescator[dot]cc. That same carding shop was  also the tip-off for the breach at Target , which came only after  Rescator and his band of thieves  pushed millions of cards stolen from Target shoppers onto the black market.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>November 7, 2014</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hackers Plundered Israeli Defense Firms that Built ‘Iron Dome’ Missile Defense System</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Three Israeli defense contractors responsible for building the “Iron Dome” missile shield currently protecting Israel from a barrage of rocket attacks were compromised by hackers and robbed of huge quantities of sensitive documents pertaining to the shield technology, KrebsOnSecurity has learned. The never-before publicized intrusions, which occurred between 2011 and 2012, illustrate the continued challenges that defense contractors and other companies face in deterring organized cyber adversaries and preventing the theft of proprietary information. A component of the ‘Iron Dome’ anti-missile system in operation, 2011. According to Columbia, Md.-based threat intelligence firm  Cyber Engineering Services Inc.  (CyberESI), between Oct. 10, 2011 and August 13, 2012, attackers thought to be operating out of China hacked into the corporate networks of three top Israeli defense technology companies, including  Elisra Group ,  Israel Aerospace Industries,  and  Rafael Advanced Defense Systems . By tapping into the secret communications infrastructure set up by the hackers, CyberESI determined that the attackers exfiltrated large amounts of data from the three companies. Most of the information was intellectual property pertaining to Arrow III missiles, Unmanned Aerial Vehicles (UAVs), ballistic rockets, and other technical documents in the same fields of study. Joseph Drissel , CyberESI’s founder and chief executive, said the nature of the exfiltrated data and the industry that these companies are involved in suggests that the Chinese hackers were looking for information related to Israel’s all-weather air defense system called Iron Dome. The Israeli government has  credited  Iron Dome with intercepting approximately one-fifth of the more than 2,000 rockets that Palestinian militants have fired at Israel during the current conflict. The U.S. Congress is currently wrangling over legislation that would send more than $350 million to Israel to further development and deployment of the missile shield technology. If approved, that funding boost would make nearly $1 billion from the United States over five years for Iron Dome production, according to  The Washington Post . Neither Elisra nor Rafael responded to requests for comment about the apparent security breaches. A spokesperson for Israel Aerospace Industries brushed off CyberESI’s finding, calling it “old news.” When pressed to provide links to any media coverage of such a breach, IAI was unable to locate or point to specific stories. The company declined to say whether it had alerted any of its U.S. industry partners about the breach, and it refused to answer any direct questions regarding the incident. “At the time, the issue was treated as required by the applicable rules and procedures,” IAI Spokeswoman  Eliana Fishler  wrote in an email to KrebsOnSecurity. “The information was reported to the appropriate authorities. IAI undertook corrective actions in order to prevent such incidents in the future.” Drissel said many of the documents that were stolen from the defense contractors are designated with markings indicating that their access and sharing is restricted by  International Traffic in Arms Regulations  (ITAR) —  U.S. State Department  controls that regulate the defense industry. For example, Drissel said, among the data that hackers stole from IAI is a 900-page document that provides detailed schematics and specifications for the  Arrow 3 missile . “Most of the technology in the Arrow 3 wasn’t designed by Israel, but by  Boeing  and other U.S. defense contractors,” Drissel said. “We transferred this technology to them, and they coughed it all up. In the process, they essentially gave up a bunch of stuff that’s probably being used in our systems as well.” WHAT WAS STOLEN, AND BY WHOM? According to CyberESI, IAI was initially breached on April 16, 2012 by a series of specially crafted email phishing attacks. Drissel said the attacks bore all of the hallmarks of the “Comment Crew,” a prolific and state-sponsored hacking group associated with the Chinese People’s Liberation Army (PLA) and credited with stealing terabytes of data from defense contractors and U.S. corporations. Image: FBI The Comment Crew is the same hacking outfit  profiled in a February 2013  report by Alexandria, Va. based incident response firm  Mandiant , which referred to the group simply by it’s official designation — “ P.L.A. Unit 61398. ” In May 2014, the  U.S. Justice Department   charged five prominent military members of the Comment Crew  with a raft of criminal hacking and espionage offenses against U.S. firms. Once inside the IAI’s network, Comment Crew members spent the next four months in 2012 using their access to install various tools and trojan horse programs on systems throughout company’s network and expanding their access to sensitive files, CyberESI said. The actors compromised privileged credentials, dumped password hashes, and gathered system, file, and network information for several systems. The actors also successfully used tools to dump Active Directory data from domain controllers on at least two different domains on the IAI’s network. All told, CyberESI was able to identify and acquire more than 700 files — totaling 762 MB total size — that were exfiltrated from IAI’s network during the compromise. The security firm said most of the data acquired was intellectual property and likely represented only a small portion of the entire data loss by IAI. “The intellectual property was in the form of Word documents, PowerPoint presentations, spread sheets, email messages, files in portable document format (PDF), scripts, and binary executable files,” CyberESI wrote in a lengthy report produced about the breaches. “Once the actors established a foothold in the victim’s network, they are usually able to compromise local and domain privileged accounts, which then allow them to move laterally on the network and infect additional systems,” the report continues. “The actors acquire the credentials of the local administrator accounts by using hash dumping tools. They can also use common local administrator account credentials to infect other systems with Trojans. They may also run hash dumping tools on Domain Controllers, which compromises most if not all of the password hashes being used in the network. The actors can also deploy keystroke loggers on user systems, which captured passwords to other non-Windows devices on the network.” The attackers followed a similar modus operandi in targeting Elisra, a breach which CyberESI says began in October 2011 and persisted intermittently until July 2012. The security firm said  the attackers infiltrated and copied the emails for many of Elisra’s top executives, including the CEO, the chief technology officer (CTO) and multiple vice presidents within the company. CyberESI notes it is likely that the attackers were going after persons of interest with access to sensitive information within Elisra, and/or were gathering would be targets for future spear-phishing campaigns. Drissel said like many other such intellectual property breaches the company has detected over the years, neither the victim firms nor the U.S. government provided any response after CyberESI alerted them about the breaches at the time. “The reason that nobody wants to talk about this is people don’t want to re-victimze the victim,” Drissel said. “But the real victims here are the people on the other end who are put in harm’s way because of poor posture on security and the lack of urgency coming from a lot of folks on how to fix this problem. So many companies have become accustomed to low-budget IT costs. But the reality is that if you have certain sensitive information, you’ve got to spend a certain amount of money to secure it.” ANALYSIS While some of the world’s largest defense contractors have spent hundreds of millions of dollars and several years learning how to quickly detect and respond to such sophisticated cyber attacks, it’s debatable whether this approach can or should scale for smaller firms. Michael Assante , project lead for Industrial Control System (ICS) and Supervisory Control and Data Acquisition (SCADA) security at the  SANS Institute , said although there is a great deal of discussion in the security industry about increased information sharing as the answer to detecting these types of intrusions more quickly, this is only a small part of the overall solution. “We collectively talk about all of the things that we should be doing better — that we need to have better security policies, better information sharing, better detection, and we’re laying down the tome and saying ‘Do all of these things’,” Assante said. “And  maybe a $100 million security program can do all these things well or make progress against these types of attacks, but that 80-person defense contractor? Not so much. ” Assante said most companies in the intelligence and defense industries  have  gotten better at sharing information and at the so-called “cyber counter-intelligence” aspect of these attacks: Namely, in identifying the threat actors, tactics and techniques of the various state-sponsored organizations responsible. But he noted that most organizations still struggle with the front end of problem: Identifying the original intrusion and preventing the initial compromise from blossoming into a much bigger problem. “I don’t think we’ve improved much in that regard, where the core challenges are customized malware, persistent activity, and a lot of noise,” Assante said. “Better and broader notification [by companies like CyberESI] would be great, but the problem is that typically these notifications come after sensitive data has already been exfiltrated from the victim organization. Based on the nature of advanced persistent threats, you can’t beat that time cycle. Well, you might be able to, but the amount of investment needed to change that is tremendous.” Ultimately, securing sensitive systems from advanced, nation-state level attacks may require a completely different approach. After all, as Einstein said, “We cannot solve our problems with the same thinking we used when we created them.” Indeed, that appears to be the major thrust of a report released this month by  Richard J. Danzig , a board member of the  Center for New American Security . In “ Surviving on a Diet of Poison Fruit ,” (PDF) Danzig notes that defensive efforts in major mature systems have grown more sophisticated and effective. “However, competition is continuous between attackers and defender,” he wrote. “Moreover, as new information technologies develop we are not making concomitant investments in their protection. As a result, cyber insecurities are generally growing, and are likely to continue to grow, faster than security measures.” In his conclusion, Danzig offers a range of broad (and challenging) suggestions, including this gem, which emphasizes placing a premium on security over ease-of-use and convenience in mission-critical government systems: “For critical U.S. government systems, presume cyber vulnerability and design organizations, operations and acquisitions to compensate for this vulnerability. Do this by a four-part strategy of abnegation, use of out-of-band architectures, diversification and graceful degradation. Pursue the first path by stripping the ‘nice to have’ away from the essential, limiting cyber capabilities in order to minimize cyber vulnerabilities. For the second, create non-cyber interventions in cyber systems. For the third, encourage different cyber dependencies in different systems so single vulnerabilities are less likely to result in widespread failure or compromise. And for the fourth, invest in discovery and recovery capabilities. To implement these approaches, train key personnel in both operations and security so as to facilitate self-conscious and well- informed tradeoffs between the security gains and the operational and economic costs from pursuing these strategies.” Source: Center for New American Security</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>July 28, 2014</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Feds: Hackers Ran Concert Ticket Racket</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A Russian man detained in Spain is facing extradition to the United States on charges of running an international cyber crime ring that allegedly stole more than $10 million in electronic tickets from e-tickets vendor  StubHub . Vadim Polyakov , 30, was detained while vacationing in Spain. Polyakov is wanted on conspiracy charges to be unsealed today in New York, where investigators with the Manhattan District Attorney’s office and the  U.S. Secret Service  are expected to announce coordinated raids of at least 20 people in the United States, Canada and the United Kingdom accused of running an elaborate scam to resell stolen e-tickets and launder the profits. Sources familiar with the matter describe Polyakov, from St. Petersburg, Russia, as the ringleader of the gang, which allegedly used thousands of compromised StubHub user accounts to purchase huge volumes of electronic, downloadable tickets that were fed to a global network of resellers. Robert Capps , senior director of customer success for  RedSeal Networks  and formerly head of StubHub’s global trust and safety organization, said the fraud against StubHub — which is owned by  eBay  — largely was perpetrated with usernames and passwords stolen from legitimate StubHub customers. Capps noted that while banks have long been the target of online account takeovers, many online retailers are unprepared for the wave of fraud that account takeovers can bring. “In the last year online retailers have come under significant attack by cyber criminals using techniques such as account takeover to commit fraud,” Capps said. “Unfortunately, the transactional risk systems employed by most online retailers are not tuned to detect and defend against malicious use of existing customer accounts.  Retooling these systems to detect account takeovers can take some time, leaving retailers exposed to significant financial losses in the intervening time.” Polyakov is the latest in a recent series of accused Russian hackers detained while traveling abroad and currently facing extradition to the United States.  Dmitry Belorossov , a Russian citizen wanted in connection with a federal investigation into a cyberheist gang that leveraged the  Gozi Trojan , also is  facing extradition to the United States from Spain . He was arrested in Spain in August 2013 while attempting to board a flight back to Russia. Last month, federal authorities announced  they had arrested  Russian citizen  Roman Seleznev  as he was vacationing in the Maldives. Seleznev, the son of a prominent Russian lawyer, is currently being held in Guam and is awaiting extradition to the United States. Arkady Bukh , a  New York criminal lawyer  who frequently represents Russian and Eastern European hackers who wind up extradited to the United States, said the Polyakov case will be interesting to watch because his extradition is being handled by New York authorities, not the U.S. government. “I’m not saying they won’t get some help from the feds, but extradition by state prosecutors is often a failure,” Bukh said. “In fact, I don’t remember the last time we saw a successful extradition of cybercrime suspects by U.S. state prosecutors. You have to have a lot of political juice to pull off that kind of thing, and normally state prosecutors don’t have that kind of juice.” Nevertheless, Bukh said, U.S. authorities have made it crystal clear that there are few countries outside of Russia and Ukraine which can be considered safe havens for wanted cybercriminals. “The U.S. government has delivered the message that these guys can get arrested anywhere, that there are very few places they can go and go safely,” Bukh said.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>July 23, 2014</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>White-Hat Hacker Schools Security Pro School</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>If you’re taking an exam to test your skills as an Internet security professional, do you get extra credit for schooling the organization that hosts the test? If that organization is the  International Information Systems Security Certification Consortium  (ISC)² — the non-profit that administers the  Certified Information Systems Security Professional  (CISSP) exam — the answer is “no,” but you might get a nice ‘thank you’ from the head of the organization.  Last month, I heard from  Alex Holden , a  security consultant  who is quite gifted at quickly identifying security holes in Internet-facing things. Holden was visiting the site to pay his annual CISSP membership dues, and was getting ready to fork over the $85 annual fee when he noticed a glaring weakness in the organization’s checkout page: The URL listed all of his registration information in plaintext. The site hadn’t yet requested his credit card, but Holden found that he could skip the payment process merely by changing the $85 amount in the URL produced by the checkout page to a negative number. Clicking submit after that change was made produced an email congratulating him on his successful renewal. Holden said he was surprised to find that a security organization like ISC2 would fail to take the basic precaution of encrypting all form data submitted on its site. He noted that, while he didn’t attempt further tests, the same method likely would have worked to check out without paying for other items on (ISC)²’s site, including (ISC)² conference registrations and the CISSP exam, which (ISC)² exclusively administers. “My personal habit, anytime I submit an electronic payment, is to look at the URL to see if it is HTTPS and on a site that I expect to be (vs fake sites),” Holden said, explaining how he discovered the embarrassing bug. (ISC)²  Executive Director W. Hord Tipton  said the vulnerability Holden reported also was discovered internally in the organization’s annual penetration tests, but that the bug was erroneously flagged as ‘non-exploitable.’ In any case, although some 2,000 security professionals register with the site to take the CISSP exam each month, (ISC)² found no indications that anyone else had previously exploited this weakness to avoid paying for the organization’s events or certifications. (ISC)² thanked Holden for reporting the bug, and noted that the URL at checkout is now using encrypted values instead of plain text. “We’re a highly security-conscious outfit, but sometimes we aren’t as secure as we ought to be,” Tipton said.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>May 16, 2014</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Target Hackers Broke in Via HVAC Company</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Last week,  Target  told reporters at  The Wall Street Journal  and  Reuters  that the initial intrusion into its systems was traced back to network credentials that were stolen from a third party vendor. Sources now tell KrebsOnSecurity that the vendor in question was a refrigeration, heating and air conditioning subcontractor that has worked at a number of locations at Target and other top retailers. Sources close to the investigation said the attackers first broke into the retailer’s network on Nov. 15, 2013 using network credentials stolen from  Fazio Mechanical Services , a Sharpsburg, Penn.-based provider of refrigeration and  HVAC systems . Fazio president Ross Fazio  confirmed that the  U.S. Secret Service  visited his company’s offices in connection with the Target investigation, but said he was not present when the visit occurred. Fazio Vice President  Daniel Mitsch  declined to answer questions about the visit. According to the company’s homepage, Fazio Mechanical also has done refrigeration and HVAC projects for specific Trader Joe’s, Whole Foods and BJ’s Wholesale Club locations in Pennsylvania, Maryland, Ohio, Virginia and West Virginia. Target spokeswoman  Molly Snyder  said the company had no additional information to share, citing a “very active and ongoing investigation.” It’s not immediately clear why Target would have given an HVAC company external network access, or why that access would not be cordoned off from Target’s payment system network. But according to a cybersecurity expert at a large retailer who asked not to be named because he did not have permission to speak on the record, it is common for large retail operations to have a team that routinely monitors energy consumption and temperatures in stores to save on costs (particularly at night) and to alert store managers if temperatures in the stores fluctuate outside of an acceptable range that could prevent customers from shopping at the store. “To support this solution, vendors need to be able to remote into the system in order to do maintenance (updates, patches, etc.) or to troubleshoot glitches and connectivity issues with the software,” the source said. “This feeds into the topic of cost savings, with so many solutions in a given organization. And to save on head count, it is sometimes beneficial to allow a vendor to support versus train or hire extra people.”  CASING THE JOINT  Investigators also shared additional details about the timeline of the breach and how the attackers moved stolen data off of Target’s network. Sources said that between Nov. 15 and Nov. 28 (Thanksgiving and the day before Black Friday), the attackers succeeded in uploading their card-stealing malicious software to a small number of cash registers within Target stores. Those same sources said the attackers used this time to test that their point-of-sale malware was working as designed. By the end of the month — just two days later — the intruders had pushed their malware to a majority of Target’s point-of-sale devices, and were actively collecting card records from live customer transactions, investigators told this reporter. Target has said that the breach exposed approximately 40 million debit and credit card accounts between Nov. 27 and Dec. 15, 2013. DATA DROPS While some reports on the Target breach said the stolen card data was offloaded via FTP communications to a location in Russia, sources close to the case say much of the purloined financial information was transmitted to several “drop” locations. These were essentially compromised computers in the United States and elsewhere that were used to house the stolen data and that could be safely accessed by the suspected perpetrators in Eastern Europe and Russia. For example, card data stolen from Target’s network was stashed on hacked computer servers belonging to a business in Miami, while another drop server resided in Brazil.  Investigators say the United States is currently requesting mutual legal assistance from Brazilian authorities to gain access to the Target data on the server there. It remains unclear when the dust settles from this investigation whether Target will be liable for failing to adhere to payment card industry (PCI) security standards, violations that can come with hefty fines. Avivah Litan , a fraud analyst with  Gartner Inc. , said that although  the current PCI standard  (PDF) does not require organizations to maintain separate networks for payment and non-payment operations (page 7), it does require merchants to incorporate two-factor authentication for remote network access originating from outside the network by personnel and all third parties — including vendor access for support or maintenance (see section 8.3). In any case, Litan estimates that  Target could be facing losses of up to $420 million as a result of this breach , including reimbursement associated with banks recovering the costs of reissuing millions of cards; fines from the card brands for PCI non-compliance; and direct Target customer service costs, including legal fees and credit monitoring for tens of millions of customers impacted by the breach. Litan notes these estimates do not take into account the amounts Target will spend in the short run implementing technology at their checkout counters to accept more secure  chip-and-PIN  credit and debit cards. In testimony before lawmakers on Capitol Hill yesterday, Target’s executive vice president and chief financial officer  said  upgrading the retailer’s systems to handle chip-and-PIN could cost $100 million. Target may be able to cover some of those costs through a mesh network of business insurance claims. According to  a Jan. 19 story at businessinsurance.com , Target has at least $100 million of cyber insurance and $65 million of directors and officers liability coverage. Update, Feb. 6, 3:33 p.m. ET:  Fazio Mechanical Services just issued an official statement through a PR company, stating that its “data connection with Target was exclusively for electronic billing, contract submission and project management.” Their entire statement is below: Fazio Mechanical Services, Inc. places paramount importance on assuring the security of confidential customer data and information.  While we cannot comment on the on-going federal investigation into the technical causes of the breach, we want to clarify important facts relating to this matter: –          Fazio Mechanical does not perform remote monitoring of or control of heating, cooling and refrigeration systems for Target. –          Our data connection with Target was exclusively for electronic billing, contract submission and project management, and Target is the only customer for whom we manage these processes on a remote basis.  No other customers have been affected by the breach. –          Our IT system and security measures are in full compliance with industry practices. Like Target, we are a victim of a sophisticated cyber attack operation.  We are fully cooperating with the Secret Service and Target to identify the possible cause of the breach and to help create proactive initiatives that will further enhance the security of client/vendor connections making them less vulnerable to future breaches.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>February 5, 2014</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hackers Steal Card Data from Neiman Marcus</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Responding to inquiries about a possible data breach involving customer credit and debit card information, upscale retailer  Neiman Marcus  acknowledged today that it is working with the  U.S. Secret Service  to investigate a hacker break-in that has exposed an unknown number of customer cards. Earlier this week, I began hearing from sources in the financial industry about an increasing number of fraudulent credit and debit card charges that were being traced to cards that had been very recently used at brick-and-mortar stores run by the Dallas, Texas based high-end retail chain. Sources said that while it appears the fraud on those stolen cards was perpetrated at a variety of other stores, the common point of purchase among the compromised cards was Neiman Marcus. Today, I reached out to Neiman Marcus and received confirmation that the company is in fact investigating a breach that was uncovered in mid-December. Neiman Marcus spokesperson  Ginger Reeder  said the company does not yet know the cause, size or duration of the breach, noting that these are details being sought by a third-party forensics firm which has yet to complete its investigation. But she said there is no evidence that shoppers who purchased from the company’s online stores were affected by this breach. The entirety of the company’s formal statement is as follows: “Neiman Marcus was informed by our credit card processor in mid-December of potentially unauthorized payment card activity that occurred following customer purchases at our Neiman Marcus Group stores. We informed federal law enforcement agencies and are working actively with the U.S. Secret Service, the payment brands, our credit card processor, a leading investigations, intelligence and risk management firm, and a leading forensics firm to investigate the situation. On January 1st, the forensics firm discovered evidence that the company was the victim of a criminal cyber-security intrusion and that some customers’ cards were possibly compromised as a result. We have begun to contain the intrusion and have taken significant steps to further enhance information security. The security of our customers’ information is always a priority and we sincerely regret any inconvenience. We are taking steps, where possible, to notify customers whose cards we know were used fraudulently after making a purchase at our store.” The disclosure comes as many in the retail sector are seeking more information about the causes of  the breach at nationwide retail giant Target , which extended from around Thanksgiving 2013 to Dec. 15, and affected some 40 million customer debit and credit cards.  Target released  additional details  about the breach today, saying hackers also compromised the names, mailing addresses, phone number and email addresses for up to 70 million individuals. But Target has so far not publicly released information that would help other retailers determine whether their systems may have been hit by the same attackers. Neiman Marcus’s Reeder said the company has no indication at this time that the breach at its stores is in any way related to the Target attack. Still, the timing of the discovery of the Neiman Marcus incident — mid-December — roughly corresponds to the discovery of the Target breach. I will have more on this developing story if additional details become available.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>January 10, 2014</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Hackers Take Limo Service Firm for a Ride</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A hacker break in at a U.S. company that brokers reservations for limousine and Town Car services nationwide has exposed the personal and financial information on more than 850,000 well-heeled customers, including Fortune 500 CEOs, lawmakers, and A-list celebrities. CorporateCarOnline says: “Trust Us: Your Data is Secure” The high-value data cache was found on the same servers where hackers stashed  information stolen from PR Newswire , as well as  huge troves of source code data lifted from Adobe Systems Inc . — suggesting that the same attacker(s) may have been involved in all three compromises. In this case, the name on the file archive reads “ CorporateCarOnline .” That name matches a company based in Kirkwood, Missouri which bills itself as “the leading provider of on-demand software management solutions for the limousine and ground transportation industry.” I reached out several times over almost two weeks seeking comment from CorporateCarOnline.com. At length, I reached owner  Dan Leonard,  who   seemed to know what I was calling about, but declined to discuss the matter, saying only that “I’d prefer not to talk to anybody about that.” It’s understandable why the company would decline to comment: Inside the  plain text archive  apparently stolen from the firm are more than 850,000 credit card numbers, expiry dates and associated names and addresses. More than one-quarter (241,000) of all compromised card numbers were high- or no-limit  American Express  accounts, card numbers that have very high resale value in the cybercrime underground. Alex Holden , chief information security officer at  Hold Security LLC  and a key collaborator on the research in this post, said CorporateCarOnline confirmed to him that the data was stolen from its systems. “While the target is not a household name, it is, arguably, the highest socially impacting target yet,” Holden said. “By its nature, limo and corporate transportation caters to affluent individuals and VIPs.” Further pointing to a compromise at the site is the presence of a vulnerability in its implementation of  ColdFusion , a Web application platform that has become a favorite target of the attackers thought to be responsible for this and other aforementioned breaches of late. Below are some of the rich and famous whose pick up and drop-off information — and in some cases credit card data — was in the stolen archive. Nearly all of these individual records were marked with “VIP” or “SuperVIP!” notations. Included in quotes are notes left for the chauffeur. CELEBRITIES Photo: Keith Allison LeBron James  – Thomas &amp; Mack Center sports arena, athlete entrance, July 22, 2007; “Call Lynn upon arrival.” Tom Hanks  – Chicago Midway, June 19, 2013; “VVIP. No cell/radio use with passenger/prepaid. 1500 W. Taylor Street Chicago, Rosebud, Dinner Reser @8pm” Aaron Rodgers  – Duncan Aviation, Kalamazoo, Mich., June 26, 2010; “ Kregg Lumpkin  and wife. 3 Bottle Waters. Greg Jennings Foundation.” LAWMAKERS -House Judiciary Committee Chairman  Rep. John Conyers , (D-Mich.), July 4, 2011, Indianapolis International Airport; “Meet and Greet Baggage Claim. US Congressman. A DFTU situation” [not quite sure what this stands for, but my guess is “Don’t F*** This Up”] – Sen. Mark Udal l (D-Colo.), chair of the Senate Armed Services Committee’s Subcommittee on Strategic Forces. Boston Logan Intl. Airport, Sept. 14, 2009; “Contact if need be  Yolanda Magallanes  [link added]. Client will have golf clubs with him.” Other current members of Congress whose information appears in this database include  Rep. Joe Garcia  (D-Fla.);  Rep. Gus Bilirakis  (R-Fla.);  Rep. Jim Matheson  (D-Utah);  Rep. Lynn Westmoreland ,  Rep. Joe Baca  (D-Calif.),  Rep. Mario Diaz-Balart  (R-Fla.). A number of former lawmakers were passengers with limo companies that gave their customer data to CorporateCarOneline, including: – Sen. Tom Daschle  (D-SD), Des Moines, Iowa, July 21, 2010; “Ag Innovation Committee. Passengers plus luggage. Passengers: Lori Captain, Mary Langowski, Jonathan Sallet, Tom West, Jim Collins, Senator Tom Daschle, JB Penn, Anthony Farina.” – Sen. John Breaux  (D-La.), Aug. 27, 2010; “Ambassador Steven Green &amp; Senator Breaux. ***VIP***DO NOT COLLECT” – Rep. James Saxton  (R-NJ),  Rep. William Delahunt  (D-Mass.),  Rep. Billy Tauzin  (R-La.),  TOP EXECUTIVES – Donald Trump , Wynn Hotel, Las Vegas, Feb. 12, 2007: “Must be new car, clean, and front seat must be clear.” – Michael D. Grimes , co-head of global technology investment banking for  Morgan Stanley.  Jan. 30, 2013; “Always wants ‘Michael David’ for name sign. Do not use last name! Always wants inside meet. VIP, co-head of worldwide technology.” – Bruce Chesley , director, advanced space and intelligence systems,  Boeing ; LAX, July 5, 2013. – Josue Christiano Gomes da Silva , chairman and CEO of  Companhia de Tecidos Norte de Minas , the largest textile group in Latin America, June 2, 2013: “Cheauffeur meets inside luggage claim with printed name sign. SUPER VIP CLIENT. EVERYTHING MUST BE PERFECT!” – Patrick M. Prevost , president and CEO,  Cabot Corp.  June 2, 2013; “SUPER VIP he is CEO of  Cabot Corp !” – Kjeld Kirk Kristiansen  and  Jorgen Vig Knudstorp , the former and current CEOs of  Lego Corp. AMMO FOR TARGETED ATTACKS? This database would be a gold mine of information for would-be corporate spies or for those engaged in other types of espionage. Records in the limo reservation database telegraphed the future dates and locations of travel for many important people. A ridiculously large number of entries provide the tail number of a customer’s plane, indicating they were to be picked up immediately upon disembarking a private jet. Such information would be extremely useful in the hands of nation-state level attackers. For a very relevant and timely example of this, consider the  cyber spying story  printed last month by  Foreign Policy  magazine. That piece featured an interview with  Kevin Mandia , the chief executive of  Mandiant , an Alexandria, Va. based firm that specializes in helping companies defend against cyber espionage attacks. In the FP story, Mandia said he recently was the target of a targeted cyber attack that tried to foist malicious spyware on him via an email with a booby-trapped PDF copy of a recent limo invoice. “I’ve been receiving PDF invoices not from them, but from an [advanced hacking] group back in China; that’s awesome,” Foreign Policy quoted Mandia as saying. According to the story, Mandia only caught the attack when the hackers sent receipts on days when he hadn’t used the car service. “I forwarded them to our security service, and they said, ‘Yup, that’s got a [malicious] payload,” Mandia said. Incredibly, this purloined limo database may have played a part in those attacks. Among the 850,000+ records in the stolen CorporateCarOnline data are several travel records for Mandiant employees, including Kevin’s. Other Mandiant employees who used limo services via CorporateCarOnline include  David Swanson , manager of strategic solutions at Mandiant, and  Andrew Williams , a sales account executive.  I shared the Mandiant data with a representative for the company, which declined to comment for this story. TABLOID FODDER Any two-bit tabloid would have an absolute field day with this database. Simple text searches for certain words (“sex,” “puke,” “arrest,” “police,” “smoking pot”) reveal dozens of records detailing misbehavior and all kinds of naughtiness by executives, celebrities and people you might otherwise expect to behave civilly. Photo: Arizona Limo Rides For example, the following is an explanation taken from a limo reservation made back in May 2006 by a woman working for  MTV . The limo in question was actually a stretch Hummer with capacity to seat 14 passengers, and was rented for the occasion of visiting a series of wineries in Long Island, NY. When the stretch Hummer returned to the shop after disgorging its passengers, the fleet’s owners discovered that the vehicle had been plastered with cheese slices and crackers, and that someone had left behind a sex toy: “We would like to apologize for the inconvenience that was caused at the beginning of Your rental and we hope that by giving You 2 hours free of overtime we made it up to You. The power problem was out of our control and could not be foreseen since right before dispatching the car everything was properly working. After the vehicle returned to base we discovered that it was left in a complete mess. Slices of cheese were all over the seats, windows and the bars. On top of that, crackers were left on the floor and seats crushed by people sitting and walking all over it. We are transportation company not a restaurant and we specifically put in our terms and conditions that we do not allow any food in our limousines. Also we do not allow any sexual activities in the car and we have found sex toy while cleaning the car.  We have charged your card for cleaning fee of $100 since we had to send limousine to the car wash to get it detailed after all the activities during your rental.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>November 4, 2013</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Data Broker Hackers Also Compromised NW3C</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The same miscreants responsible for breaking into the networks of America’s top consumer and business data brokers appear to have also infiltrated and stolen huge amounts of data from the   National White Collar Crime Center  (NW3C), a congressionally-funded non-profit organization that provides training, investigative support and research to agencies and entities involved in the prevention, investigation and prosecution of cybercrime. The bot that was resident for almost 3 months inside of NW3C. Last week, KrebsOnSecurity  reported  that entrepreneurs behind the underground criminal identity theft service  ssndob[dot]ms  also were responsible for operating a small but powerful collection of hacked computers exclusively at top data brokers, including  LexisNexis ,  Dun &amp; Bradstreet  and  HireRight/Kroll . A closer analysis of the Web server used to control that collection of hacked PCs shows that the attackers also had at least one infected system for several months this summer inside of the NW3c. Core to the NW3C’s mission is its Investigative Support division, which according to the organization’s site “provides timely, relevant and effective services to member agencies involved in the prevention, investigation and prosecution of economic and high-tech crimes. The section has no investigative authority but can provide analytical assistance and perform public database searches.” The NW3C said its analysts are frequently called upon to assist in establishing financial transaction patterns, developing possible links between criminal targets and associated criminal activity and providing link charts, timelines and graphs for court presentations. “Information obtained through public database searches can assist investigations by locating suspects, establishing property ownership and finding hidden assets, just to name a few of the benefits,” the organization’s Web site  explains . The NW3C also works with the Federal Bureau of Investigation (FBI) to run the  Internet Crime Complaint Center  (IC3), which accepts online Internet crime complaints from victims of cybercrime. Neither the NW3C nor the IC3 responded to requests for comment on this story.  FBI Spokeswoman Lindsay Godwin  would say only that the FBI was “looking into it,” but declined to elaborate further, citing the ongoing nature of the investigation. THE CRIME MACHINE A number of indicators suggest that the attackers first gained access to the NW3C’s internal network on or around May 28, 2013. According to records in the online communications panel that the miscreants used to control their network of hacked systems, the affected NW3C server was taken offline on or around Aug. 17, 2013, indicating that the organization’s networks were compromised for approximately 11 weeks this summer. It’s not clear at this point why the miscreants marked this organization’s listing with a “(hacker)” designation, as shown in the snapshot of their botnet control panel below.  The attackers appear to have compromised a public-facing server at NW3C that was designed to handle incoming virtual private network (VPN) communications. Organizations frequently set up VPNs so that their remote employees can create an encrypted communications tunnel back to an otherwise closed network, and these setups are an integral component of most modern business applications. A page from the ColdFusion exploit server used by the attackers. Alarmingly, the machine name of the compromised NW3C system was “data.” On May 28, 2013, the attackers uploaded a file — nbc.exe — designed to open up an encrypted tunnel of communications from the hacked VPN server to their botnet controller on the public Internet. This appears to be the same nbc.exe file that was found on the  two hacked servers at LexisNexis . Abundant evidence left behind by the attackers suggests that they broke into the NW3C using a Web-based attack tool that focuses on exploiting recently-patched weaknesses in servers powered by  ColdFusion , a Web application platform owned by  Adobe Systems . I managed to get hold of the multiple exploits used in the attack server, and shared them with Adobe and with  Rob Brooks-Bilson , a ColdFusion expert and author of the O’Reilly books  Programming ColdFusion MX  and  Programming ColdFusion . Although some of the exploits were listed as “0day” in the attack tool — suggesting they were  zero-day , unpatched vulnerabilities in Adobe ColdFusion — Bilson said  all   of   the   exploits  appear to attack vulnerabilities that are fixed in the most recent versions of ColdFusion. For example, three of the four exploits seems to have involved  CVE-2013-0632 , a vulnerability that Adobe first patched in January 2013, not long after the flaw was first spotted in actual zero-day online attacks. The remaining exploit in the attack kit targets  a bug  that Adobe fixed in 2010. “The big issue with ColdFusion is that so many people install and set it up without following any of Adobe’s hardening guidelines,” Brooks-Bilson said in an email to KrebsOnSecurity. “Most of the exploits that have come out in the recent past have all worked via a similar mechanism that is easily mitigated by following Adobe’s guide. Of course, so many people disregard that advice and end up with servers that are easily compromised.” STEALING DATA ON VICTIMS AND FELLOW CROOKS ALIKE The ColdFusion exploit server contains plenty of records indicating that the attackers in this case plundered many of the databases that they were able to access while inside of NW3C. Part of the reason for the persistence of this evidence has to do with the way that the attackers queried local databases and offloaded stolen data. It appears that once inside the NW3C’s network, the bad guys quickly scanned all of the organization’s systems for security vulnerabilities and database servers. They also uploaded a Web-based “shell” which let them gain remote access to the hacked server via a Web browser. The attack server and shell also let the attackers execute system commands on the compromised hosts, which appear to be Microsoft IIS servers. Their method also left a detailed (if not complete) log of many of their activities inside the network. One of the first things the attackers did upon compromising the “Data” server on the network was run a query that forced the local database to dump a copy of itself to a file — including a list of the authorized users and passwords —  that the attackers could download. A snippet of redacted complaint data stolen from IC3. The bad guys in this case also appear to have used their access to the NW3C to steal 10 years’ worth of consumer complaint information from the Internet Crime Complaint Center (IC3), the aforementioned partnership between the NW3C and the FBI that tracks complaints about cybercrime. Present on the attacker’s server are some 2.659 million records apparently lifted from the IC3. The records range in date from about the time of the IC3’s inception — May 8, 2000 — to Jan. 22, 2013. It’s not clear if the stolen IC3 data set includes all of the consumer complaints ever filed, but it seems likely that the archive is lacking just the past few months of records. In  a report released earlier this year , the IC3 said it was receiving about 24,000 complaints per month, and that consumers had filed 289,874 complaints last year. The IC3’s site doesn’t maintain annual complaint numbers prior to 2003, but according to the site some 2.35 million have been filed with the system since then. To put the year-over-year growth in complaints in perspective, the IC3 said it wasn’t until 2007 — nearly seven years after its birth — that the organization received its millionth complaint.  Many of the more recent complaints involve ransomware, a threat that holds computers hostage in a bid to frighten users into paying a ransom to regain control over their PCs. Ironically, ransomware attacks most often spoof the FBI, and state that the user was caught downloading child pornography or pirated content. The following is an example of one such complaint, slightly redacted, taken directly from the stolen IC3 database. I liked this complaint because the person who filed it acknowledges up front that he was browsing porn when he got hit with the ransomware attack, and that his wife was the one who saved him from his own ignorance: (‘I1211100143194982’, ‘Kernersville Police Dept.’, ‘174.98.xxx.xxx’, ‘2012-11-10 01:43:19’, ‘2012-11-10 01:47:01’, ‘I was on an adult website (I don\’t know which one) when suddenly a screen popped up that had the FBI logo at the top and all this information about my having violated copyright laws or child pornography laws and my computer had been locked by the FBI and if I didn’t pay a $300 fine within 72 hours by MoneyPak a criminal charge would automatically be filed and I would go to prison for 2 to 12 years. It said once I paid the money my computer would be released within 1 to 4 hours and it listed where I could go to purchase a MoneyPak card and then how to put the MoneyPak into the computer for payment. It said if there were any problems to email fine@fbi.gov. I left to go buy this MoneyPak card and while gone my wife started looking carefully at this warning. When I returned she said she believed this was a scam and she wanted to turn my computer off, not give them any money and contact the FBI for confirmation, which we proceeded to do. First she tried the email address and it came back undeliverable. She then went on her computer and went on the FBI website and looked up scams and found the Citidel scam which fit the profile almost exactly. We have left my computer turned off, will contact my bank ASAP and will get our IT man in to try and remove this malware as soon as possible. We don\’t have any paperwork as we couldn’t print the site but we will see if our IT guy can get anything of value to help you identify these perpetrators. We should be able to get our money back for the MoneyPak so we probably won’t be out any money but it sure was scary. I knew I hadn’t done anything wrong but the site itself is very scary. Most people would pay up and if not for my wife, so would I.’, ‘5’, ”,” DEEPER ACCESS The stolen IC3 data indicate that the attackers sought to grab and offload all of the data they could access, but the IC3 database itself isn’t particularly useful, except perhaps for spamming and phishing. Other database queries show the attackers had access to systems at NW3C that could look up records which appear to be related to ongoing criminal and possibly civil cases. Some of the more interesting data headers in the information returned by those requests include; -ACCURINT – A LexisNexis tool designed to “assist law enforcement officials in identifying people and their assets, address, relatives, and business associates by providing instant access to a comprehensive database of public records that would ordinarily take days to collect.” -AMCRIN – Information from  Amcrin Corp. , a company best known for its CrimeDex networked database of criminals. -ASSIGNED TO / HANDLED BY – Ostensibly the law enforcement officer and/or agency tracking the case. -CHOICEPOINT – A legacy entry from the now-defunct  data aggregator  that was purchased by LexisNexis in 2008. -DOB (Date of Birth) -NICB – Most likely short for the  National Insurance Crime Bureau , a non-profit member organization created by the insurance industry to address insurance-related crime, and one that works closely with law enforcement agencies. -RISS –  Regional Information Sharing Systems  is an information-sharing program funded by the U.S. Federal government whose purpose is to connect databases from local and regional law enforcement so that they can use each other’s data for criminal investigations. (Update: A representative from RISS responded to this article in  a comment below ). -“TLO” –  TLO Online Investigative Systems  is a data broker that caters to lawyers, private investigators, law enforcement and insurance firms. The company also sells, among other things services,  locational information  on license plates that have been filmed and identified. -SSN (Social Security Number) Alex Holden  and his security consulting firm  Hold Security LLC  were instrumental in identifying and analyzing the attack server. Holden said that if the attackers had at least 11 weeks to access systems within the NW3C, they probably already have all of the data of consequence that could be gained from internal systems there. “Based on sophistication of these guys, the custom tools they were using and the length of time they had to look around, it is unlikely that they walked away without whatever they were after,” Holden said. “Did they get 100 percent of it? Probably not. But from what I’ve seen of how these guys operate, they didn’t just plant their flag and leave. They were methodically exploiting systems and access to gain access to all of the data they could get their hands on.” Holden added that while some of the information stolen from the NW3C may not be particularly useful for traditional cybercriminal purposes, that data may be of more interest to foreign governments. He noted that one of the more interesting lookups the attackers ran  instructed  the NW3C’s database to produce a list of foreign law enforcement agents who were working active criminal cases with the organization.  Other queries  forced the database to dump information from the law enforcement agents acting in a supervisory role at the NW3C. “Other entities that might be interested in this data include foreign governments,” Holden said. “These guys may also be passing or selling this data off to other nations as well.” Stay tuned for Part III and IV of this investigative series.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>October 1, 2013</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hacker Ring Stole 160 Million Credit Cards</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>U.S. federal authorities have indicted five men — four Russians and a Ukrainian – for allegedly perpetrating many of the biggest cybercrimes of the past decade, including the theft of more than 160 million credit card numbers from major U.S. retailers, banks and card processors. The gang is thought to be responsible for the  2007 breach  at credit card processor  Heartland Payment Systems  that exposed some 130 million card numbers, as well as the  2011 breach at Global Payments  that involved nearly a million accounts and cost the company almost $100 million. Federal prosecutors in New Jersey today called the case the largest hacking scheme ever prosecuted in the U.S. Justice Department officials said the men were part of a gang run by  Albert “Soupnazi” Gonzalez , a hacker arrested in 2008 who is currently serving a 20-year-prison sentence for his role in many of the breaches, including the theft of some 90 million credit cards from retailer  TJX . One of the accused, 27-year-0ld  Dmitriy Smilianets , is in U.S. custody.  Vladimir Drinkman , 32 of Syktyvkar, Russia, is awaiting extradition to the United States. Three others named in the indictments remain at large, including  Aleksandr Kalinin , 26 of St. Petersburg; 32-year-old  Roman Kotov  from Moscow; and  Mikhail Rytikov , 26, of Odessa, Ukraine. According to the government’s indictment, other high-profile heists tied to this gang include compromises at: Hannaford Brothers Co : 2007, 4.2 million card numbers Carrefour S.A. : 2007, 2 million card numbers Commidea Ltd. : 2008, 30 million card numbers Euronet : 2010, 2 million card numbers Visa, Inc. : 2011, 800,000 card numbers Discover Financial Services : 500,000 Diners card numbers In addition, the group is being blamed for breaking into and planting malware on the networks of  NASDAQ ,  7-Eleven ,  JetBlue,   JCPenny ,  Wet Seal ,  Dexia ,  Dow Jones , and  Ingenicard . The hackers broke into their targets using SQL injection attacks, which take advantage of weak server configurations to inject malicious code into the database behind the public-facing Web server. Once inside, the attackers can upload software and siphon data. The government’s indictment alleges that the thieves were at times overwhelmed by the sheer amount of data yielded by their SQL attacks.  On Aug. 12, 2007, Kalinin allegedly sent Gonzalez  an instant message that he’d just gained access to 30 SQL servers on NASDAQ’s network, but hadn’t yet cracked the administrator passwords that secured the data inside. “These [databases] are hell big and I think most of info is trading histories.” On Jan. 9, 2008, after Gonzalez offered to help attack the trading floor’s computer systems, Kalinin allegedly messaged back, “NASDAQ is owned.”  Court documents feature an alleged conversation between Kalinin and Gonzalez from March 18, 2008, months after the Hannaford Bros. attack: Kalinin: haha they had hannaford issue on tv news? Gonzalez: not here Gonzalez: I have triggers set on google news for things like “data breach” “credit card fraud” “debit card fraud” “atm fraud” “hackers” Gonzalez: I get emailed news articles immediately when they come out, you should do the same, it’s how I find out when my hacks are found 🙂 Just a few weeks later, news of a massive credit card breach at Hannaford started trickling out: Gonzalez: hannaford lasted 3 months of sales before it was on news, im trying to figure out how much time its going to be alive for Gonzalez: hannaford will spend millions to upgrade their security!! lol Kalinin: haha Kalinin: they would better pay us to not hack them again According to prosecutors, the other members of the gang helped harvest data from the compromised systems, and managed the bulletproof hosting services from which the group launched its SQL attacks [the government alleges that Rytikov, for example, was none other than “Abdullah,” a well-known BP hosting provider]. The men allegedly sold the credit card data to third parties who routinely purchased them at prices between $10 and $50 apiece. The buyers were given PIN codes and magnetic stripe data that allowed them to create cloned cards for use at retailers and ATMs around the world. A copy of the indictment is  here  (PDF). Update: 3:39 p.m ET: Corrected state in which the accused were charged.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>July 25, 2013</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Source: Washington Post Also Broadly Infiltrated By Chinese Hackers in 2012</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The Washington Post  was among several major U.S. newspapers that spent much of 2012 trying to untangle its newsroom computer networks from a Web of malicious software thought to have been planted by Chinese cyberspies, according to a former information technology employee at the paper. On Jan. 30,  The New York Times   disclosed  that Chinese hackers had persistently attacked the Gray Lady, infiltrating its computer systems and getting passwords for its reporters and other employees. The Times said that the timing of the attacks coincided with the reporting for  a Times investigation , published online on Oct. 25, that found that the relatives of Wen Jiabao, China’s prime minister, had accumulated a fortune worth several billion dollars through business dealings. The following day,  The Wall Street Journal  ran  a story  documenting similar incursions on their network. Now, a former Post employee is coming forward with information suggesting that Chinese hacker groups had broadly compromised computer systems within the Post’s newsroom and other operations throughout 2012. According to a former Washington Post information technology employee who helped respond to the break-in, attackers compromised at least three servers and a multitude of desktops, installing malicious software that allowed the perpetrators to maintain access to the machines and the network. “They transmitted all domain information (usernames and passwords),” the former Post employee said on condition of anonymity. ” We spent the better half of 2012 chasing down compromised PCs and servers.  [It] all pointed to being hacked by the Chinese. They had the ability to get around to different servers and hide their tracks.  They seemed to have the ability to do anything they wanted on the network. ” The Post has declined to comment on the source’s claims, saying through a spokesman that “we have nothing to share at this time.” But according to my source, the paper brought in several computer forensics firms – led by Alexandria, Va. based  Mandiant  – to help diagnose the extent of the compromises and to evict the intruders from the network. Mandiant declined to comment for this story. Update, Feb. 2, 7:42 a.m. ET:  The Post has published its own  story  confirming my source’s claims.  The former Post employee also noted that experts from the  National Security Agency  and  Defense Department  took one of the Post’s servers for forensic analysis. “Quickly we had 3-4 different security companies come in and help track down what was compromised and where info was being sent to,” the source said. “Supposedly they found a new trojan and sent the information to  Symantec  in order to create a signature to find it.” The Washington Post used Symantec’s antivirus and security software to protect systems from malicious software, but that detection obviously failed here. The New York Times also said it had relied on Symantec’s software, prompting the company to issue a somewhat defensive and terse statement that took  the unusual step of commenting on a story about a customer, according to  The Register . As  tweeted  yesterday by Mandiant chief security officer  Richard Bejtlich , what was rare about the New York Times hack was not that it happened, but that they disclosed so much information about it. I hope The Washington Post is as forthcoming about their experience. As security blogger  Gunnar Peterson  noted in an email exchange with KrebsOnSecurity, more surprising would be a major newspaper outlet that  wasn’t  hacked by the Chinese. Peterson quipped that it may be some kind of “perverse journalistic badge of honor: If no one is hacking you [does it suggest that] your reporting doesn’t matter?” Indeed, I would be surprised if we didn’t hear similar disclosures from a number of other major news media outlets in the coming days and weeks. Full disclosure: I should note that I got my start writing about technology and security for The Washington Post back in the early part of the last decade after having my home network  completely overrun  by  a computer worm  unleashed by one of China’s most celebrated hackers.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>February 1, 2013</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Infamous Hacker Heading Chinese Antivirus Firm?</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What does a young Chinese hacker do once he’s achieved legendary status for developing Microsoft Office zero-day exploits and using them to hoover up piles of sensitive data from U.S. Defense Department contractors? Would you believe: Start an antivirus firm? That appears to be what’s happened at  Anvisoft , a Chinese antivirus startup that is being somewhat cagey about its origins and leadership. I stumbled across a discussion on the informative  Malwarebytes user forum , in which forum regulars were scratching their heads over whether this was a legitimate antivirus vendor. Anvisoft had already been whitelisted by several other antivirus and security products (including  Comodo ), but the discussion thread on Malwarebytes about who was running this company was inconclusive, prompting me to dig deeper. I turned to Anvisoft’s own user forum, and found that I wasn’t the only one hungry for answers.  This guy  asked a similar question back in April 2012, and was answered by an Anvisoft staff member named “Ivy,” who said Anvisoft was “a new company with no past records, and we located in Canada.” Follow-up questions to the Anvisoft forum admins about the names of company executives produced this response, again from Ivy: “The person who runs anvisoft company is not worth mentioning because he is unknown to you.  Yes, the company is located at Canada. 5334 Yonge Street, Suite 141, Toronto, Ontario M2N 6V1, Canada.” A quick review of the Web site registration records for anvisoft.com indicated the company was located in Freemont, Calif. And a search on the company’s brand name turned up  trademark registration records  that put Anvisoft in the high-tech zone of Chengdu, a city in the Sichuan Province of China. Urged on by these apparent inconsistencies, I decided to take a look back at the site’s original WHOIS records, using the historical WHOIS database maintained by  domaintools.com . For many months, the domain’s registration records were hidden behind paid WHOIS record privacy protection services. But in late November 2011 — just prior to Anvisoft’s official launch — that WHOIS privacy veil was briefly lowered, revealing this record: A few days later, the “wth rose” registrant name was replaced with “Anvisoft Technology,” and the wthrose@gmail.com address usurped by “anvisoftceo@gmail.com” (emails to both addresses went unanswered). But this only made me more curious, so I had a look at the Web server where anvisoft.com is hosted. The current Internet address of anvisoft.com is 184.173.181.194, and a  reverse DNS lookup  on this IP address tells me that there are at least three other domain names hosted at this address:  nxee.com ,  oyeah.com , and  coversite.com . The latter forwards to a domain parking service and its WHOIS information is shielded. But both oyeah.com and nxee.com also were originally registered to wth rose and wthrose@gmail.com. And their WHOIS records history went back even further, revealing a more fascinating detail: Prior to being updated with Anvisoft’s corporate information, they also were registered to a user named “ tandailin ” in Gaoxingu, China, with the email address  tandailin@163.com .  Image: iDefense When I saw that record, I was instantly reminded of an infamous Chinese hacker who went by the name Wicked Rose (a.k.a. “ Withered Rose “). In 2007,  Verisign’s iDefense  released  a report  (PDF) on Rose’s hacking exploits, which detailed his alleged role as the leader of a state-sponsored, four-man hacking team called NCPH (short for Network Crack Program Hacker).  According to iDefense, in 2006 the group was responsible for crafting a rootkit that took advantage of a zero-day vulnerability in Microsoft Word, and was used in attacks on “a large DoD entity” within the USA. “Wicked Rose and the NCPH hacking group are implicated in multiple Office based attacks over a two year period,” the report stated. iDefense analysts also include a section with pictures of Wicked Rose, explaining that Rose’s real name is  Tan Dailin , and that he is a now-28-year-old who cut his teeth at the  Sichuan University of Science and Engineering  in Zigong, a city in the Sichuan Province of China. The report said that at the time, Rose administered his hacking team’s Web site at ncph.net, and ran his own personal blog at  mghacker.com . According to historic WHOIS records, the email address used to register mghacker.com was   tandailin@163.com , the same email address in the historic WHOIS records for Anvisoft’s online properties. Some more tantalizing clues: According to iDefense, one of Dailin’s buddies in NCPH — a hacker nicknamed “Rodag” — also ran his own blog. Rodag appears to still be blogging there, so I had Google Translate show me his latest postings: Turns out, earlier this year Rodag  urged readers  to download and install  Anvisoft Smart Defender , calling it a “security aid from abroad” that offers “superior performance” and is “very simple and beautiful.” Until recently, another site registered to tandailin@163.com — the now-defunct ww4g.com — featured on its home page a long review of Anvisoft, explaining to readers “why you need a good antivirus.” This may all be a strange coincidence or hoax. Anvisoft may in fact be a legitimate company, with a legitimate product; and for all I know, it is. But until it starts to answer some basic questions about who’s running the company, this firm is going to have a tough time gaining any kind of credibility or market share.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>November 14, 2012</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chinese Hackers Blamed for Intrusion at Energy Industry Giant Telvent</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A company whose software and services are used to remotely administer and monitor large sections of the energy industry began warning customers last week that it is investigating a sophisticated hacker attack spanning its operations in the United States, Canada and Spain. Experts say digital fingerprints left behind by attackers point to a Chinese hacking group tied to repeated cyber-espionage campaigns against key Western interests. The attack comes as U.S. policymakers remain gridlocked over legislation designed to beef up the cybersecurity posture of energy companies and other industries that maintain some of the world’s most vital information networks. In letters sent to customers last week,  Telvent Canada Ltd.  said that on Sept. 10, 2012 it learned of a breach of its internal firewall and security systems. Telvent said the attacker(s) installed malicious software and stole project files related to one of its core offerings —  OASyS SCADA  — a product that helps energy firms mesh older IT assets with more advanced “smart grid” technologies. The firm said it was still investigating the incident, but that as a precautionary measure, it had disconnected the usual data links between clients and affected portions of its internal networks. “In order to be able to continue to provide remote support services to our customers in a secure manner, we have established new procedures to be followed until such time as we are sure that there are not further intrusions into the Telvent network and that all virus or malware files have been eliminated,” the company said in a letter mailed to customers this week, a copy of which was obtained by  KrebsOnSecurity.com . “Although we do not have any reason to believe that the intruder(s) acquired any information that would enable them to gain access to a customer system or that any of the compromised computers have been connected to a customer system, as a further precautionary measure, we indefinitely terminated any customer system access by Telvent.” The incident is the latest reminder of problems that can occur when corporate computer systems at critical networks are connected to sensitive control systems that were never designed with security in mind. Security experts have long worried about vulnerabilities being introduced into the systems that regulate the electrical grid as power companies transferred control of generation and distribution equipment from internal networks to so-called “supervisory control and data acquisition,” or SCADA, systems that can be accessed through the Internet or by phone lines. The move to SCADA systems boosts efficiency at utilities because it allows workers to operate equipment remotely, but experts say it also exposes these once-closed systems to cyber attacks. Telvent did not respond to several requests for comment. But in a series of written communications to clients, the company detailed ongoing efforts to ascertain the scope and duration of the breach. In those communications, Telvent said it was working with law enforcement and a task force of representatives from its parent firm,  Schneider Electric , a French energy conglomerate that employs 130,000 and has operations across the Americas, Western Europe and Asia. Telvent  reportedly  employs about 6,000 people in at least 19 countries around the world. The disclosure comes just days after Telvent  announced  it was partnering with Foxborough, Mass. based  Industrial Defender  to expand its cybersecurity capabilities within Telvent’s key utility and critical infrastructure solutions. A spokesperson for Industrial Defender said the company does not comment about existing customers. A page from an alert Telvent sent to customers about the malware left behind by the intruders. In its most recent dispatch to customers impacted by the breach, dated Sept. 25, 2012, Telvent executives provided details about the malicious software used in the attack. Those malware and network components, listed in the photocopied Telvent communication shown here strongly suggest the involvement of Chinese hacker groups tied to other high-profile attacks against Fortune 500 companies over the past several years. Joe Stewart , director of malware research at  Dell SecureWorks  and an expert on targeted attacks, said the Web site and malware names cited in the Telvent report map back to a Chinese hacking team known as the “Comment Group.” In July,  Bloomberg News  published  an in-depth look  at the Comment Group and its many years of suspected involvement in deploying sophisticated attacks to harvest intellectual property and trade secrets from energy companies, patent law firms and investment banks. That investigation looked at data gathered by a loose-knit group of 30 security researchers, who tracked the Comment Group’s activity over less than two months last year and uncovered evidence that it had infiltrated at least 20 organizations — “many of them organizations with secrets that could give China an edge as it strives to become the world’s largest economy. The targets included lawyers pursuing trade claims against the country’s exporters and an energy company preparing to drill in waters China claims as its own.” Politicians in Congress and the Obama administration are becoming more vocal about accusing China and Russia of hacking U.S. computer networks for economic gain, espionage and other motives. But those accusations tend to ring hollow abroad, as Reuters  recently observed : “U.S. standing to complain about other nations’ cyber attacks has been undermined, however, by disclosures that Washington, along with Israel, launched sophisticated offensive cyber operations of its own against Iran to try to slow that nation’s suspected quest for a nuclear weapon.” The malware alluded to in that Reuters piece —  Stuxnet  — was designed to attack specific vulnerabilities in SCADA systems known to be used in Iran’s uranium enrichment facilities. Nevertheless, a mounting body of evidence suggests the involvement of  one or two Chinese hacking groups  in a host of high-profile corporate cyber break-ins over the past several years.  Symantec Corp.   reported  earlier this month that a Chinese hacker group responsible for breaking into Google Inc in 2009 – an operation later dubbed Operation Aurora – had since launched hundreds of other cyber assaults, focusing on defense companies and human rights groups. Earlier this week, I detailed additional research on this front which showed espionage attackers often succeed in a roundabout way — by planting malware at  “watering hole” sites  deemed most likely to be visited by the targets of interest. Domains connected to different cyber-espionage botnets typically trace back to one of two destinations in China, according to Dell SecureWorks.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>September 26, 2012</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Espionage Hackers Target ‘Watering Hole’ Sites</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Security experts are accustomed to direct attacks, but some of today’s more insidious incursions succeed in a roundabout way — by planting malware at sites deemed most likely to be visited by the targets of interest. New research suggests these so-called “watering hole” tactics recently have been used as stepping stones to conduct espionage attacks against a host of targets across a variety of industries, including the defense, government, academia, financial services, healthcare and utilities sectors. Espionage attackers increasingly are setting traps at “watering hole” sites, those frequented by individuals and organizations being targeted. Some of the earliest details of this trend came in  late July 2012  from  RSA FirstWatch,  which warned of an increasingly common attack technique involving the compromise of legitimate websites specific to a geographic area which the attacker believes will be visited by end users who belong to the organization they wish to penetrate. At the time, RSA declined to individually name the Web sites used in the attack. But the company shifted course somewhat after researchers from  Symantec  this month published their own report on the trend (see  The Elderwood Project ). Taken together, the body of evidence supports multiple, strong connections between these recent watering hole attacks and the  Aurora intrusions perpetrated in late 2009  against Google and a number of other high-profile targets. In a report released today, RSA’s experts hint at — but don’t explicitly name — some of the watering hole sites. Rather, the report redacts the full URLs of the hacked sites that were redirecting to exploit sites in this campaign. However, through   Google  and its propensity to cache content, we can see firsthand the names of the sites that were compromised in this campaign. According to RSA, one of the key watering hole sites was “a website of enthusiasts of a lesser known sport,”  hxxp://xxxxxxxcurling.com . Later in the paper, RSA lists some of the individual pages at this mystery sporting domain that were involved in the attack (e..g,  http://www.xxxxxxxcurling.com/Results/cx/magma/iframe.js ). As it happens, running a search on any of these pages turns up a number recent visitor logs for this site —  torontocurling.com . Google cached several of the  access   logs  from this site during the time of the compromise cited in RSA’s paper, and those logs help to fill in the blanks intentionally left by RSA’s research team, or more likely, the lawyers at RSA parent  EMC Corp.  (those access logs also contain interesting clues about potential victims of this attack as well). From cached copies of  dozens of torontocurling.com access logs , we can see the full URLs of some of the watering hole sites used in this campaign: According to RSA, the sites in question were hacked between June and July 2012  and were silently redirecting visitors to exploit pages on torontocurling.com. Among the exploits served by the latter include a then-unpatched zero-day vulnerability in  Microsoft Windows  ( XML Core Services/CVE-2012-1889 ). In that attack, the hacked sites foisted a Trojan horse program named “VPTray.exe” (made to disguise itself as an update from Symantec, which uses the same name for one of its program components). RSA said the second phase of the watering hole attack — from July 16-18th, 2012 — used the same infrastructure but a different exploit – a  Java  vulnerability ( CVE-2012-1723 ) that  Oracle  had patched less than a month prior. Source: RSA. The compromise of these sites likely led to the Trojanization of many high-profile targets, nearly 4,000 in all, RSA concluded. “Based on our analysis, a total of 32,160 unique hosts, representing 731 unique global organizations, were redirected from compromised web servers injected with the redirect iframe to the exploit server,” the company said. “Of these redirects,  3,934 hosts were seen to download the exploit CAB and JAR files (indicating a successful exploit of the visiting host).  This gives a ‘success’ statistic of 12%,  which based on our previous understanding of exploit campaigns, indicates a very successful campaign. The takeaway from this research is most clearly stated by Symantec in its  Elderwood report  (PDF): “Any manufacturers who are in the defense supply chain need to be wary of attacks emanating from subsidiaries, business partners, and associated companies, as they may have been compromised and used as a stepping-stone to the true intended target. Companies and individuals should prepare themselves for a new round of attacks in 2013. This is particularly the case for companies who have been compromised in the past and managed to evict the attackers. The knowledge that the attackers gained in their previous compromise will assist them in any future attacks.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>September 25, 2012</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alleged Romanian Subway Hackers Were Lured to U.S.</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The alleged ringleader of a Romanian hacker gang accused of breaking into and stealing payment card data from hundreds of  Subway  restaurants made news late last month when he was extradited to face charges in the United States. But perhaps the more interesting story is how his two alleged accomplices were lured here by undercover  U.S. Secret Service  agents, who promised to shower the men with love and riches. Adrian-Tiberiu Oprea,  27, appeared in a New Hampshire federal court a week ago Tuesday, after being  extradited  from Constanta, Romania to face charges of hacking into the point-of-sale terminals at more than 150 Subway restaurants and at least 50 other retailers. Oprea was among four men  indicted  last year on charges of conspiracy to commit computer fraud, wire fraud and access device fraud. Two of Oprea’s alleged accomplices arrived in Boston one day apart in August 2011, and were arrested immediately after stepping off of their respective flights. Previous news stories have noted their arrests and detentions in the United States, but all of the accounts I read neglected to mention one very interesting fact: Both men entered the country of their own volition. I spoke last week with  Michael Shklar , the public defender appointed to 27-year-old  Iulian Dolan  — the man authorities say helped Oprea sell credit and debit card accounts harvested in the break-ins. According to Shklar, U.S. Secret Service agents tricked his client into voluntarily visiting the United States by posing as representatives from a local resort and casino that was offering him a complimentary weekend getaway. “My client was actually smart enough to say, ‘Oh, I don’t believe this. Why would you invite me to a weekend for free?’ And they basically told him, ‘Well, we know you gamble online, and we would like to comp you a weekend because it gives us a cosmopolitan feel.” Shklar said his client apparently was taken in by the ruse, and thought he’d struck a rapport with the female casino employee who’d invited him. Dolan didn’t know it, but the Secret Service and the casino had set up a dedicated telephone line for the female “employee,” and gave her an email with the casino’s domain name. When a suspicious Dolan sought to verify her story, it checked out. The airline ticket itself was even purchased by the casino, in case Dolan checked on that detail as well. Apparently convinced he was headed for a weekend of fun, Dolan packed a suitcase with three days’ worth of clothes — plus jewelry for his erstwhile casino friend — and hopped on a complimentary flight from Bucharest to Logan International Airport…where he was presented with complimentary silver bracelets. “He arrived in the U.S. with some clothes, a cheap necklace, a little bit of money, and three very large boxes of grape-flavored Romanian condoms,” Shklar said. Investigators took a different approach with  Cezar Iulian Butu , the 26-year-old from Ploiesti, Romania who is accused of purchasing stolen debit and credit cards from Dolan. Investigators had subpoenaed  Yahoo! ,  GoDaddy  and other communications providers to snoop on Butu’s emails. Information gleaned from those messages included quite a bit of information about where he’d traveled, bars he’d visited, his friends, etc. Armed with this information, U.S. investigators reached out to Butu posing as an attractive female tourist he had met while he was in France approximately one year earlier. According to Shklar, Butu believed he was coming to the United States to meet an independently wealthy Hooters waitress who said she worked at the restaurant chain for the health insurance coverage and because she liked people. “He gets off the plane and they nab him and the handcuffs don’t even have fur on them,” Shklar said. The Secret Service declined to comment on the record for this story, citing the ongoing legal case. The fourth man indicted last year in connection with the hacking case,  Florin Radu , 23, of Rimnicu Vilcea, Romania, remains at large. If convicted, the defendants face a maximum of five years in prison for each count of conspiracy to commit computer related fraud, 30 years in prison for each count of conspiracy to commit wire fraud and five years in prison for each count of conspiracy to commit access device fraud.  They also face fines up to twice the amount of the fraud loss and restitution.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>June 6, 2012</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hackers Offer Bounty for Windows RDP Exploit</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A Web site that bills itself as a place where independent and open source software developers can hire each other has secured promises to award at least $1,435 to the first person who can develop a working exploit that takes advantage of newly disclosed and dangerous security hole in all supported versions of Microsoft Windows. That reward, which is sure to only increase with each passing day, is offered to any developer who can devise an exploit for one of  two critical vulnerabilities  that Microsoft  patched on Tuesday  in its  Remote Desktop Protocol  (RDP is designed as a way to let administrators control and configure machines remotely over a network). Update, 8:47 a.m.:  The RDP exploit may already be available. There  are unconfirmed reports  that a working exploit for the RDP bug has been posted to Chinese-language forums. Original post: The bounty  comes courtesy of contributors to  gun.io  (pronounced gun-yo), a site that advances free and open software. The current bounty offered for the exploit is almost certainly far less than the price such a weapon could command the underground market, or even what a legitimate vulnerability research company like  TippingPoint  might pay for such research. But the site shows promise for organizing a grassroots effort at crafting exploits that can be used by attackers and defenders alike to test the security of desktops and the networks in which they run. “We’re trying to advance the culture of independent software development – so we’ve made a place where indie developers can find other devs to help work on their projects and find gigs to work on when they need cash,” gun.io explains on the About section of the site. Gun.io is the brainchild of  Rich Jones , a 23-year-old Bostonite who just moved to Berkeley, Calif. Most recently, Jones ran a research P2P project called  Anomos , which is an anonymous variant of the BitTorrent protocol. He also runs the  OpenWatch Project , which uses mobile technology as a way of surveilling the police and other people in positions of power. “I started Gun.io after working for a few years as a freelance developer and open source programmer,” Jones said in an email interview. “I wanted a way to get high quality, short term freelance jobs while also continuing to contribute back to the open source community. I’m particularly interested in the things that happen when people pool their money together, so we provide a free group fundraising platform for open source projects.” Gun.io quietly launched about six months ago, and has already gained thousands of contributors. Until this week it had never offered a bounty for a software exploit, Jones said. In fact, the RDP exploit is hardly the most lucrative coding project up for bid on the site. A project posted by user “Sushee” to develop a  Flash game social network  is offering $4,000. Another  promises $2,000  for an open source Android Youtube application in support of individuals who are blind. It’s not clear yet whether the open-source bounty model has a future for encouraging the development of software exploits. Most of the money for the RDP project was put up by Rapid7’s  HD Moore . The  Gun.io reward is for an exploit that can run as a module in  Metasploit , an open source penetration testing platform that Moore created. Jones said Moore’s donation brought with it a suggestion about a new nickname for Gun.io: “KiddieStarter.” “If  GitHub  and  oDesk  had a baby, and then that baby had a baby with  KickStarter , that baby would be Gun.io,” Jones joked. “Kickstarter for coders isn’t far off, but it’s not quite on the mark either. KickStarter is a person saying ‘Hey, give me money!,’ but Gun.io is a group of people saying ‘Hey! Somebody do this and take our money!'”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>March 15, 2012</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Antichat Hacker Forum Breach Reveals Weak Passwords</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ordinary Internet users frequently are scolded for choosing weak, easily-guessed passwords. New research suggests that hackers in the cyber underground are also likely to pick lame passwords for their favorite online forums. Last month, KrebsOnSecurity was sent a massive database file that the source said was the user database of  Antichat.ru,  a Russian language hacker forum that has attracted more than 41,000 users since its founding nearly a decade ago. By matching the user names in the database with those listed in the public pages of the forum, I discovered that I’d been given a snapshot of all Antichat user information and private messages prior to June 2010, when Antichat.ru apparently experienced a forum compromise. I wanted to match the Antichat user names, associated email and ICQ addresses with those of other forums for which I’ve collected user databases. I also wanted to see how many of the passwords were easily crackable. To do this, I enlisted the help of an anti-spam source that has access to some serious hardware and software capable of cracking thousands of passwords per hour. More than 18,000 of the 41,037 passwords in the database were crackable within a few days. 4,500 passwords were used by five or more individual users. The most easily-guessed passwords were six characters long or less, and 75 percent of the top 20 most common simple passwords were uncomplicated number strings. More than three percent of Antichat users whose passwords were cracked (567) picked one of the simplest passwords, “123456”; 1.77 percent (322) chose “111111”; Just over 1 percent selected “123123”. Another 196 users opted for “qwerty,” a common meme easily typed from left to right across a keyboard. Sixty-five Antichat users picked a single-character password: “0.” Although nearly half of the Antichat user passwords were crackable, the passwords aren’t useful for gaining access to Antichat user accounts: Forum administrators have changed the site’s login process to automatically tie the user’s credentials to his or her Internet address. However, the Internet address data tied to each account may be of interest to law enforcement investigators.  Top 25 most-used Antichat passwords. The Antichat database also included many private messages that forum users sent to each other. Most of these messages are short, banal or unremarkable (e.g., “How do I get this bot working right?”); others appear to involve more serious transactions, including the theft of sensitive personal and financial data from organizations and individuals. The hardware used to crack the Antichat passwords was an  EVGA GTX 295  graphics card running  Hashcat software  under  CUDA . The Antichat forum runs on  Vbulletin 3.0 , which uses a  salted hash  to add complexity to stored passwords. Depending on the approach used, the  number of hashed passwords processed in an hour ranges  between approx 1,000 –  7,000, this compares with many billions of  permutations per hour on  unsalted hashes. The number ‘cracked’ per hour depends  on the complexity of the passwords and the method  of attack being used. My anti-spam associate worked on this  hash list for about 18  days, operating 24/7. The total number cracked  is 18,225 of 41,037, or 44% of the total. It may be that many Antichat users weren’t worried about picking strong passwords because they didn’t care whether their accounts got hacked. But it’s important that KrebsOnSecurity readers understand the basic principles for picking strong passwords and for avoiding practices that lead to weak and easily-cracked passwords. Take a look at  my password primer  for more information.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>June 22, 2011</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hackers Steal $600,000 from Brigantine, NJ</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organized cyber thieves took roughly $600,000 from the coastal city of  Brigantine, New Jersey  this week after stealing the city’s online banking credentials. The break-in marks the second time this year that hackers have robbed the coffers of an Atlantic County town: In March, a similar attack  struck Egg Harbor Township, N.J. , which lost $100,000 in a similar intrusion. Like the Egg Harbor incident and dozens of others documented here, the loot from the Brigantine heist was sent to multiple “money mules,” willing or unwitting people hired through work-at-home job offers to help computer crooks launder stolen cash. Brigantine City officials said the incident began sometime before 6 p.m. on September 28th, when TD Bank notified city finance officers that multiple wire transfers had been made from its accounts. Brigantine Police’s  Lt. James Bennett  said in a written statement: “Unknown person(s) had apparently obtained a user name and password for the city’s main TD Bank account when our finance personnel attempted to login (through either a fake Web page or an undetectable virus). Then several wire transfers were started with amounts ranging from a few thousand to over $300,000, for a total of about $600,000. The last update from TD Bank was that they were able to recall approximately $400,000 in transfers and were working on recalling the remainder. The investigation is being handled by the FBI, New Jersey State Police with the Brigantine Police Department and TD Bank security.” The attack occurred in the middle of a week in which federal officials announced  dozens of arrests and charges  against money mules and the organized criminals responsible for orchestrating these types of break-ins. While it’s unclear whether those responsible for the attack on Brigantine were apprehended or charged this week, the method by which the thieves made off with at least some of the loot bears the same fingerprint as past breaches, including the Egg Harbor attack.  Lori Tharp , a 47-year-old from Goodlettsville, TN, said she recently started working for an entity calling itself the Forte Group, which found her résumé on  Careerbuilder.com  and recruited her into a work-at-home job where she was to serve as a “financial agent” for the company. Tharp, who recently lost her job as a buyer for a local automotive supplier, said she figured out the job was a money laundering scam several days before the Brigantine robbery, and closed the bank account she had given her erstwhile employers. But she said the thieves still tried to transfer her $7,394 of the city’s money on Sept. 29. Tharp said she confirmed with her bank that the thieves never managed to deposit the stolen funds. “Just last week the group called me again and told me they had put money into my account, but I told them it had already been closed,” Tharp said in a phone interview. “There’s too many people out of work, and I guess I just got overwhelmed and excited at the same time and made a stupid move.” Brigatine  Mayor   Phil Guenther  told  pressofatlanticcity.com  he is confident that the city will recoup its losses. Still, it remains to be seen whether these types of attacks will diminish following the law enforcement sweeps last week aimed at one of the largest international organized crime gang involved in this type of activity. According to the FBI, crooks involved in e-banking fraud have  stolen more than $70 million  from companies, small businesses, towns, cities and nonprofits, and attempted to steal more than $220 million. Below is a screen shot of the alert the Forte Group sent Tharp on the day of the Brigantine breach. Click the image for a larger version. </t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>October 4, 2010</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Drug Charges Against Accused AT&amp;T/iPad Hacker</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A hacker in a group that discovered the AT&amp;T iPad-related flaw was arrested on drug charges following the execution of an FBI search warrant of his home in Arkansas on Tuesday, according to published reports. CNET’s  Elinor Mills   writes  that the FBI found a broad selection of narcotics at the home of a man tied to “Goatse Security,” the group that recently  claimed responsibility  for extracting contact information on more than 114,000  iPad customers from AT&amp;T’s Web site. From the CNET story: Andrew Auernheimer, 24, was being held in Washington County Detention Center in Fayetteville, Ark., according to Lt. Anthony Foster of the Washington County Sheriff’s office in that state. The drugs were found during the execution of the warrant, said Lt. Mike Perryman, of the Fayetteville Police Department. However, Perryman could not say what prompted the warrant. Auernheimer, who goes by the name “Escher” and the hacker handle “Weev,” faces four felony charges of possession of a controlled substance and one misdemeanor possession charge, Foster said. The drugs included cocaine, ecstasy, LSD, and schedule 2 and 3 pharmaceuticals, he said. Spiegelmock and Auernheimer speaking at Toorcon 2006 Auernheimer is quite a colorful character. I met him in 2006 at the  Toorcon  security conference in San Diego, where he and  Mischa Spiegelmock  – an employee for blogging service  LiveJournal  – were delivering a talk on what  they claimed  was an unpatched security flaw in Mozilla’s Firefox browser that hackers were supposedly attacking to compromise Web surfers. At the time, Auernheimer introduced himself as Andrew “Weev” Wbeelsoi. That presentation — which called on security researchers everywhere to stop publicizing and  fixing software security vulnerabilities — was at times hilarious and bizarre. Weev started out by informing the audience that he was delivering his speech while tripping on acid. When I followed up with Weev after that talk to get more details on their claims, it was fairly plain that he wasn’t kidding about the acid trip. However, the two hackers would later admit to me that they didn’t really have the zero day exploits that they claimed, and that they were just trying to have a little fun with the security industry.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>June 17, 2010</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hackers Steal $150,000 from Mich. Insurance Firm</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>An insurance firm in Michigan lost nearly $150,000 this month as a result of a single computer virus infection. Port Austin, Mich. based  United Shortline Insurance Service Inc ., an insurance provider serving the railroad industry, discovered on Feb. 5 that the computer used by their firm’s controller was behaving oddly and would not respond. The company’s computer technician scoured the system with multiple security tools, and found it had been invaded by “ZeuS,” a highly sophisticated banking Trojan that steals passwords and allows criminals to control infected hosts remotely The following Monday, Feb. 8, United Shortline received a call from the  Tinker Federal Credit Union  at  Tinker Air Force Base  in Oklahoma, inquiring about a suspicious funds transfer one of its customers had received for slightly less than $10,000.  After that call, United Shortline President  Louis M. Schillinger  said the firm found 14 other such unauthorized transfers had been made from the company’s account to individuals across the United States who had no prior business with Shortline. “I said, ‘Oh my God, someone’s just taken all of the money out of our trust account,’” Schillinger said. The hackers moved money from the company’s trust account over to its operating account, and then made the illicit transfers from there. Schillinger said the bank’s commercial banking platform requires users to enter a user name and password. The bank’s site occasionally asks users to “register” their computers if, for example, the customer is accessing his or her account from an unfamiliar PC. A customer might also receive such a prompt if his or her Internet address had changed. The registration process involves the customer providing the correct answers to a series of “challenge questions.” In any case, the crooks evidently had no problems correctly answering the secret questions when challenged with them, Schillinger said. “The bank said whoever logged in to make these transfers successfully answered those questions,” he said. “They had some very detailed information. [The thieves] knew our patterns, they knew our passwords, my mother’s middle name, favorite sports team. And this is all information I don’t even have written down anywhere.” Schillinger said his firm has been able to work with its bank,  Bay Port State Bank , to recover a little more than half of the money so far. Still, he said, both his company and the bank are still in shock. “Both my bank and us are looking at each other, asking what could we have done differently to prevent it?” Bay Port State Bank President  Ed Eichler  said the bank moved quickly to stop and reverse the transactions as soon as it got the call from United. But Eichler said the bank will be reviewing its processes to figure out how to spot this type of activity more quickly in the future. “We haven’t had this happen before,” Eichler said. “Before it was a story problem, and now it’s a real life problem. You can do all the training on this you want to, but most of that doesn’t matter until this goes to something that’s actually happened to you that you can put your hands on.” Eichler said he contacted some colleagues at a much larger bank, and was told that recovering 50 percent of the victim customer’s funds was actually pretty good. “The big banks told us to go to bed and get over it,” Eichler said. “They told us, ‘We write off more than that every day.’ But we’re not really interested in having this happen to another one of our customers.” Businesses do not enjoy the same protections afforded to consumers hit by cyber fraud. With credit cards, consumer liability is generally capped at $50. Consumers who report suspicious or unauthorized transactions on their ATM or debit card, or against their online banking account within two days of receiving their bank statement that reflects the fraud also are limited to $50 in losses. But waiting longer than that can costs consumers up to $500 (the liability is unlimited if a consumer waits more than 60 days to report the fraud). Businesses have no such protection from fraudulent transfers. Generally speaking, banks will work with commercial customers to try and reverse any fraudulent transfers, but the chances of that succeeding diminish rapidly after the first 24 hours following unauthorized activity. What’s more, banks are under no obligation to reimburse commercial customers victimized by cyber fraud. Unless and until regulators begin insisting that commercial banks assume more responsibility for monitoring customer transactions for anomalies that may indicate fraud, businesses would be wise to take basic precautions when banking online. As I’ve advised previously, companies can insulate themselves from these attacks by simply using  a dedicated machine for online banking. This may take the form of an inexpensive Windows netbook or laptop, for example, that is locked down, and used only for accessing the bank’s Web (and not for e-mail, casual browsing, etc). Alternatively, since 99.9 percent of all malware simply fails to load on non-Microsoft computers, using something other than Windows for online banking — such as a  Mac  or a  Live CD solution  — also is a very sound approach. For more stories about how organized cyber gangs are stealing millions a week from small to mid-sized organizations, check out the  Target: Small Businesses  category. I also link to dozens of similar stories I wrote for  The Washington Post  in  Story-Driven Resume: My Best Work 2005-2009 .</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>February 16, 2010</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hackers Try to Steal $150,000 from United Way</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hackers broke into computer systems at a Massachusetts chapter of the United Way last month and attempted to make off with more than $150,000 from one of the nation’s largest charities. Patricia Latimore , chief financial officer at the  United Way of Massachusetts Bay and Merrimac Valley , said unknown attackers tried to initiate a number of bogus financial transfers out of the organization’s bank account, but that the United Way was able to work with its bank to block or reverse the unauthorized transfers. “We were able to pretty much capture things as they were happening,” Latimore said. “Fortunately, we saw it on the day that it occurred.” The intruders attempted to send more than $110,000 in unauthorized payroll transfers to at least a dozen individuals across the United States who had no prior business with the United Way chapter. At least one large wire transfer was attempted, for nearly $40,000, to a 32-year-old man in New York.  A screen shot of the Web site where Hong said he signed up for a financial agent position. William Hong , of Flushing, N.Y., said he was approached in late December by an entity calling itself the  Classic Group . Hong said the company, which gave its Web address as classic-groupco.ws, told him it had found his resume on Monster.com and asked would he like a work-at-home job as a financial manager? Hong, who is and was unemployed at the time, said he took the job, and that the application process required him to fax an employee agreement, a canceled check, a copy of a utility bill or his drivers license, along with his bank account information. Hong gave his erstwhile employers the account and routing numbers for  Merging Stone Capital Group Inc. , a company he had started several years ago. Hong said he didn’t hear much from the Classic Group until the last week of January, when he received notice that a wire transfer of $39,800 had landed in his business account. But the money didn’t stay there long enough for him to make it to the bank and wire it overseas, as instructed by his employers. “It got the transcript from my bank and it shows that the United Way of Massachusetts Bay direct deposited the funds, and then reversed the funds right after that,” Hong said. “I guess, you know, that saying is right, about when something sounds too good to be true, it probably is.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>February 3, 2010</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hackers May Have Unearthed Dirt on Stanford</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>In early 2008, while federal investigators were busy investigating disgraced financier Robert Allen Stanford for his part in an alleged  $8 billion fraudulent investment scheme , Eastern European hackers were quietly hoovering up tens of thousands customer financial records from the Bank of Antigua, an institution formerly owned by the Stanford Group. According to a fraud investigator with first-hand knowledge of the break-in, the hackers responsible infiltrated a component of the Stanford Group’s network by exploiting vulnerabilities in the company’s Web servers and databases. On the condition of anonymity, the investigator shared with this author files recovered from the breach, which were stored in plain text for at least several weeks on a Web site controlled by the attackers. This source said he forwarded the same information on to the FBI shortly after discovering it in early 2008. Once inside of Stanford’s network, the unidentified hackers appear to have swiped the credentials from an internal network administrator, and soon had downloaded the user names and password hashes for more than 1,000 employees of Stanford Financial, Stanford Group, Stanford Trust, and Stanford International Bank Ltd. Among the purloined files is a listing of what appear to be ownership and balance information for tens of thousands of customer accounts at Bank of Antigua. Each listing includes the account number, owner’s name, address, balance, and accrued interest. Mr. Stanford is set to go on trial this month for allegations that he led a $8 billion fraud scheme. In addition, federal authorities  reportedly  have been investigating whether Stanford was involved in laundering drug money for Mexico’s notorious Gulf Cartel.  Many of those account holders listed in the inventory of accounts gave addresses in the United States, but a large portion belong to individuals in South America and Mexico. While most of the accounts were worth between $10,000 and $50,000 USD, more than a thousand accounts had balances between $100,000 and $900,000. Nearly all of the accounts with balances in excess of $1 million apparently belong to an organization or individual named “Kadima Panamena.” An official with the U.S. Justice Department confirmed that the agency had received a copy of the purloined files, and that the documents contained information concerning Stanford’s holdings that the government did not previously possess. But the official, speaking on condition of anonymity because he was not authorized to discuss the ongoing investigation, said it remains unclear what if any impact the documents may have had in the government’s case against Stanford. It’s also unclear whether the hackers managed to steal any funds from the accounts listed in the recovered documents, or indeed whether the attackers ever had direct access to Bank of Antigua accounts. Still, a set of documents found with the account information suggest the perpetrators did a fairly thorough job mapping the internal networks connecting Stanford offices in Austin, Baton Rouge, Boca Raton, Boston, Denver, Ft. Lauderdale, Houston, Memphis, Miami, Montreal, New York, San Francisco, Sugarland, and Washington, D.C. Also listed in the network map is a location called “Newspapers” — which may be reference to The Antigua Sun, a newspaper formerly owned by Stanford – as well as “CSTAR” and “CSUN,” which probably refers to airlines once owned by Stanford — Caribbean Star Airlines and Caribbean Sun Airlines. According to the private investigator, the perpetrators used what the government has described as a “hacking platform,” a series of Web servers that were leased out to criminal gangs for the purposes of breaking into customer databases belonging to banks and retailers through so-called  SQL-injection attacks . Indeed, the source said, the hacking platform used in this attack was the source of several other such attacks against financial institutions around that same time frame, including  OmniAmerican Credit Union , and  Global Cash Card , a distributor of prepaid debit cards used mainly for payroll payments. Global Cash Card and OmniAmerican were both named as breach victims in the  U.S. government’s case  (PDF) against Israeli hacker  Ehud Tenenbaum , a 29-year-old man who made headlines in the late ‘90s for breaking into Pentagon computers. The U.S. government also  cites the use of hacking platforms  (PDF) in its prosecution of Albert Gonzalez, the Florida computer hacker who  pleaded guilty last week  to conspiracy charges for  intrusions into Heartland Payment Systems .</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>January 5, 2010</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>The Dark Nexus Between Harm Groups and ‘The Com’</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A cyberattack that shut down two of the top casinos in Las Vegas last year quickly became one of the most riveting security stories of 2023. It was the first known case of native English-speaking hackers in the United States and Britain teaming up with ransomware gangs based in Russia. But that made-for-Hollywood narrative has eclipsed a far more hideous trend: Many of these young, Western cybercriminals are also members of fast-growing online groups that exist solely to bully, stalk, harass and extort vulnerable teens into physically harming themselves and others. Image: Shutterstock. In September 2023, a Russian ransomware group known as  ALPHV/Black Cat  claimed credit for an intrusion at the  MGM Resorts  hotel chain that quickly brought MGM’s casinos in Las Vegas to a standstill. While MGM was still trying to evict the intruders from its systems, an individual who claimed to have firsthand knowledge of the hack contacted multiple media outlets to offer interviews about how it all went down. One  account of the hack  came from a 17-year-old in the United Kingdom, who told reporters the intrusion began when one of the English-speaking hackers phoned a tech support person at MGM and tricked them into resetting the password for an employee account. The security firm  CrowdStrike  dubbed the group “ Scattered Spider ,” a recognition that the MGM hackers came from different cliques scattered across an ocean of Telegram and Discord servers dedicated to financially-oriented cybercrime. Collectively, this archipelago of crime-focused chat communities is known as “ The Com ,” and it functions as a kind of distributed cybercriminal social network that facilitates instant collaboration. But mostly, The Com is a place where cybercriminals go to boast about their exploits and standing within the community, or to knock others down a peg or two. Top Com members are constantly sniping over who pulled off the most impressive heists, or who has accumulated the biggest pile of stolen virtual currencies. And as often as they extort victim companies for financial gain, members of The Com are trying to wrest stolen money from their cybercriminal rivals — often in ways that spill over into  physical violence in the real world . CrowdStrike would go on to produce and  sell Scattered Spider action figures , and it featured  a life-sized Scattered Spider sculpture  at this year’s RSA Security Conference in San Francisco.  But marketing security products and services based on specific cybercriminal groups can be tricky, particularly if it turns out that robbing and extorting victims is by no means the most abhorrent activity those groups engage in on a daily basis. KrebsOnSecurity examined the Telegram user ID number of the account that offered media interviews about the MGM hack — which corresponds to the screen name “ @Holy”  — and found the same account was used across a number of cybercrime channels that are entirely focused on extorting young people into harming themselves or others, and recording the harm on video. Holy was known to possess multiple prized Telegram usernames, including @bomb, @halo, and @cute, as well as one of the highest-priced Telegram usernames ever put up for sale:  @nazi . In one post on a Telegram channel dedicated to youth extortion, this same user can be seen asking if anyone knows the current Telegram handles for several core members of 764, an extremist group known for victimizing children through coordinated online campaigns of extortion, doxing, swatting and harassment. People affiliated with harm groups like 764 will often recruit new members by lurking on gaming platforms, social media sites and mobile applications that are popular with young people, including  Discord ,  Minecraft ,  Roblox ,  Steam ,  Telegram , and  Twitch . “This type of offence usually starts with a direct message through gaming platforms and can move to more private chatrooms on other virtual platforms, typically one with video enabled features, where the conversation quickly becomes sexualized or violent,” warns a  recent alert  from the  Royal Canadian Mounted Police  (RCMP) about the rise of sextortion groups on social media channels. “One of the tactics being used by these actors is sextortion, however, they are not using it to extract money or for sexual gratification,” the RCMP continued. “Instead they use it to further manipulate and control victims to produce more harmful and violent content as part of their ideological objectives and radicalization pathway.” The 764 network is among the most populated harm communities, but there are plenty more. Some of the largest such known groups include  CVLT ,  Court ,  Kaskar ,  Leak Society ,  7997 ,  8884 ,  2992 ,  6996 ,  555 ,  Slit Town ,  545 ,  404 ,  NMK ,  303 , and  H3ll . In March, a consortium of reporters from  Wired,   Der Spiegel ,  Recorder  and  The Washington Post  examined millions of messages across more than 50 Discord and Telegram chat groups. “The abuse perpetrated by members of com groups is extreme,” Wired’s  Ali Winston   wrote . “They have coerced children into sexual abuse or self-harm, causing them to deeply lacerate their bodies to carve ‘cutsigns’ of an abuser’s online alias into their skin.” The story continues: “Victims have flushed their heads in toilets, attacked their siblings, killed their pets, and in some extreme instances, attempted or died by suicide. Court records from the United States and European nations reveal participants in this network have also been accused of robberies, in-person sexual abuse of minors, kidnapping, weapons violations, swatting, and murder.” “Some members of the network extort children for sexual pleasure, some for power and control. Some do it merely for the kick that comes from manipulation. Others sell the explicit CSAM content produced by extortion on the dark web.” KrebsOnSecurity has learned Holy is the 17-year-old who was  arrested in July 2024  by the U.K.’s West Midlands Police as part of a joint investigation with the FBI into the MGM hack. Early in their cybercriminal career (as a 15-year-old), @Holy went by the handle “ Vsphere ,” and was a proud member of the  LAPSUS$  cybercrime group. Throughout 2022, LAPSUS$  would hack and social engineer their way into some of the world’s biggest technology companies , including  EA Games,   Microsoft ,  NVIDIA ,  Okta ,  Samsung , and  T-Mobile . Another timely example of the overlap between harm communities and top members of The Com can be found in a group of criminals who recently stole obscene amounts of customer records from users of the cloud data provider  Snowflake . At the end of 2023, malicious hackers figured out that many major companies have uploaded massive amounts of valuable and sensitive customer data to Snowflake servers, all the while protecting those Snowflake accounts with little more than a username and password (no multi-factor authentication required). The group then searched darknet markets for stolen Snowflake account credentials, and began raiding the data storage repositories used by some of the world’s largest corporations. Among those that had data exposed in Snowflake was  AT&amp;T , which  disclosed in July  that cybercriminals had stolen personal information and phone and text message records for roughly 110 million people — nearly all its customers. A report on the extortion group from the incident response firm  Mandiant  notes that Snowflake victim companies were privately approached by the hackers, who demanded a ransom in exchange for a promise not to sell or leak the stolen data. All told, more than 160 organizations were extorted, including  TicketMaster ,  Lending Tree ,  Advance Auto Parts  and  Neiman Marcus . On May 2, 2024, a user by the name “ Judische ” claimed on the fraud-focused Telegram channel  Star Chat  that they had hacked  Santander Bank , one of the first known Snowflake victims. Judische would repeat that claim in Star Chat on May 13 — the day before Santander publicly disclosed a data breach — and would periodically blurt out the names of other Snowflake victims before their data even went up for sale on the cybercrime forums. A careful review of Judische’s account history and postings on Telegram shows this user is more widely known under the nickname “ Waifu ,” an early moniker that corresponds to one of the more accomplished SIM-swappers in The Com over the years. In  a SIM-swapping attack , the fraudsters will phish or purchase credentials for mobile phone company employees, and use those credentials to redirect a target’s mobile calls and text messages to a device the attackers control. Several channels on Telegram maintain a frequently updated leaderboard of the 100 richest SIM-swappers, as well as the hacker handles associated with specific cybercrime groups (Waifu is ranked #24). That leaderboard has long included Waifu on a roster of hackers for a group that called itself “ Beige .” Beige members were implicated in two stories published here in 2020. The first was  an August 2020 piece called Voice Phishers Targeting Corporate VPNs , which warned that the COVID-19 epidemic had brought a wave of voice phishing or “vishing” attacks that targeted work-from-home employees via their mobile devices, and tricked many of those people into giving up credentials needed to access their employer’s network remotely. Beige group members also have claimed credit for  a breach at the domain registrar GoDaddy . In November 2020, intruders thought to be associated with the Beige Group tricked a GoDaddy employee into installing malicious software, and with that access they were able to redirect the web and email traffic for multiple cryptocurrency trading platforms. The Telegram channels that Judische and his related accounts frequented over the years show this user divides their time between posting in SIM-swapping and cybercrime cashout channels, and harassing and stalking others in harm communities like Leak Society and Court. Mandiant has attributed the Snowflake compromises to a group it calls “ UNC5537 ,” with members based in North America and  Turkey . KrebsOnSecurity has learned Judische is a 26-year-old software engineer in Ontario, Canada. Sources close to the investigation into the Snowflake incident tell KrebsOnSecurity the UNC5537 member in Turkey is  John Erin Binns , an elusive American man indicted by the  U.S. Department of Justice  (DOJ) for  a 2021 breach at T-Mobile  that exposed the personal information of at least 76.6 million customers. Binns is currently in custody in a Turkish prison and fighting his extradition. Meanwhile, he has been suing almost every federal agency and agent that contributed investigative resources to his case. In June 2024, a Mandiant employee  told Bloomberg  that UNC5537 members have made death threats against cybersecurity experts investigating the hackers, and that in one case the group used artificial intelligence to create fake nude photos of a researcher to harass them. In June 2024, two American men  pleaded guilty  to hacking into a  U.S. Drug Enforcement Agency  (DEA) online portal that  tapped into 16 different federal law enforcement databases .   Sagar “Weep” Singh , a 20-year-old from Rhode Island, and  Nicholas “Convict” Ceraolo , 25, of Queens, NY, were both active in SIM-swapping communities. Singh and Ceraolo hacked into a number of foreign police department email accounts, and used them to make phony “ emergency data requests ” to social media platforms seeking account information about specific users they were stalking. According to the government, in each case the men impersonating the foreign police departments told those platforms the request was urgent because the account holders had been trading in child pornography or engaging in child extortion. Eventually, the two men formed part of a group of cybercriminals known to its members as “ ViLE ,” who specialize in obtaining personal information about third-party victims, which they then used to harass, threaten or extort the victims, a practice known as “doxing.” The U.S. government says Singh and Ceraolo worked closely with a third man — referenced in the indictment as co-conspirator #1 or “CC-1” — to administer a doxing forum where victims could pay to have their personal information removed. The government doesn’t name CC-1 or the doxing forum, but CC-1’s hacker handle is “ Kayte ” (a.k.a. “ KT “) which corresponds to the nickname of a 23-year-old man who lives with his parents in Coffs Harbor, Australia. For several years (with  a brief interruption ), KT has been the administrator of a truly vile doxing community known as the  Doxbin . A screenshot of the website for the cybercriminal group “ViLE.” Image: USDOJ. People whose names and personal information appear on the Doxbin can quickly find themselves the target of extended harassment campaigns, account hacking, SIM-swapping and even  swatting  — which involves falsely reporting a violent incident at a target’s address to trick local police into responding with potentially deadly force. A handful of Com members targeted by federal authorities have gone so far as to perpetrate swatting, doxing, and other harassment against the same federal agents who are trying to unravel their alleged crimes. This has led some investigators working cases involving the Com to begin redacting their names from affidavits and indictments filed in federal court. In January 2024, KrebsOnSecurity broke the news that prosecutors in Florida had  charged a 19-year-old alleged Scattered Spider member  named  Noah Michael Urban  with wire fraud and identity theft. That story recounted how Urban’s alleged hacker identities “ King Bob ” and “ Sosa ” inhabited a world in which rival cryptocurrency theft rings frequently settled disputes through so-called  “violence-as-a-service” offerings  — hiring strangers online to perpetrate firebombings, beatings and kidnappings against their rivals. Urban’s indictment shows the name of the federal agent who testified to it has been blacked out: The final page of Noah Michael Urban’s indictment shows the investigating agent redacted their name from charging documents. In June 2022, this blog told the story of two men charged with  hacking into the Ring home security cameras  of a dozen random people and then methodically swatting each of them. Adding insult to injury, the men used the compromised security cameras to record live footage of local police swarming those homes. McCarty, in a mugshot. James Thomas Andrew McCarty , Charlotte, N.C., and  Kya “Chumlul” Nelson , of Racine, Wisc., conspired to hack into  Yahoo  email accounts belonging to victims in the United States. The two would check how many of those Yahoo accounts were associated with Ring accounts, and then target people who used the same password for both accounts. The  Telegram  and  Discord  aliases allegedly used by McCarty — “ Aspertaine ” and “ Couch ,” among others — correspond to an identity that was active in certain channels dedicated to SIM-swapping. What KrebsOnSecurity didn’t report at the time is that both ChumLul and Aspertaine were active members of CVLT, wherein those identities clearly participated in harassing and exploiting young teens online. In June 2024, McCarty was sentenced to seven years in prison after pleading guilty to making hoax calls that elicited police SWAT responses. Nelson also pleaded guilty and received a seven-year prison sentence. In March 2023, U.S. federal agents in New York announced they’d arrested “ Pompompurin ,”  the alleged administrator of Breachforums , an English-language cybercrime forum where hacked corporate databases frequently appear for sale. In cases where the victim organization isn’t extorted in advance by hackers, being listed on Breachforums has often been the way many victims first learned of an intrusion. Pompompurin had been a nemesis to the FBI for several years. In November 2021, KrebsOnSecurity broke the news that  thousands of fake emails about a cybercrime investigation were blasted out from the FBI’s email systems and Internet addresses . Pompompurin took credit for that stunt, and said he was able to send the FBI email blast by exploiting a flaw in an FBI portal designed to share information with state and local law enforcement authorities. The FBI later acknowledged that a software misconfiguration allowed someone to send the fake emails. In December, 2022, KrebsOnSecurity detailed how  hackers active on BreachForums had infiltrated the FBI’s InfraGard program , a vetted network designed to build cyber and physical threat information sharing partnerships with experts in the private sector. The hackers impersonated the CEO of a major financial company, applied for InfraGard membership in the CEO’s name, and were granted admission to the community. The feds named Pompompurin as 21-year-old Peekskill resident  Conor Brian Fitzpatrick , who was originally charged with one count of conspiracy to solicit individuals to sell unauthorized access devices (stolen usernames and passwords). But after FBI agents raided and searched the home where Fitzpatrick lived with his parents, prosecutors tacked on charges for possession of child pornography.  Recent actions by the DOJ indicate the government is well aware of the significant overlap between leading members of The Com and harm communities. But the government also is growing more sensitive to the criticism that it can often take months or years to gather enough evidence to criminally charge some of these suspects, during which time the perpetrators can abuse and recruit countless new victims. Late last year, however, the DOJ signaled a new tactic in pursuing leaders of harm communities like 764: Charging them with domestic terrorism. In December 2023, the government  charged  (PDF) a Hawaiian man with possessing and sharing sexually explicit videos and images of prepubescent children being abused. Prosecutors  allege   Kalana Limkin , 18, of Hilo, Hawaii, admitted he was an associate of CVLT and 764, and that he was the founder of a splinter harm group called  Cultist . Limkin’s Telegram profile shows he also was active on the harm community Slit Town. The relevant citation from Limkin’s complaint reads: “Members of the group ‘764’ have conspired and continue to conspire in both online and in-person venues to engage in violent actions in furtherance of a Racially Motivated Violent Extremist ideology, wholly or in part through activities that violate federal criminal law meeting the statutory definition of Domestic Terrorism, defined in Title 18, United States Code, § 2331.” Experts say charging harm groups under  anti-terrorism statutes  potentially gives the government access to more expedient investigative powers than it would normally have in a run-of-the-mill criminal hacking case. “What it ultimately gets you is additional tools you can use in the investigation, possibly warrants and things like that,” said  Mark Rasch , a former U.S. federal cybercrime prosecutor and now general counsel for the New York-based cybersecurity firm  Unit 221B . “It can also get you additional remedies at the end of the case, like greater sanctions, more jail time, fines and forfeiture.” But Rasch said this tactic can backfire on prosecutors who overplay their hand and go after someone who ends up challenging the charges in court. “If you’re going to charge a hacker or pedophile with a crime like terrorism, that’s going to make it harder to get a conviction,” Rasch said. “It adds to the prosecutorial burden and increases the likelihood of getting an acquittal.” Rasch said it’s unclear where it is appropriate to draw the line in the use of terrorism statutes to disrupt harm groups online, noting that there certainly are circumstances where individuals can commit violations of domestic anti-terrorism statutes through their Internet activity alone. “The Internet is a platform like any other, where virtually any kind of crime that can be committed in the real world can also be committed online,” he said. “That doesn’t mean all misuse of computers fits within the statutory definition of terrorism.” The RCMP’s  advisory on sexual extortion of minors over the Internet  lists a number of potential warning signs that teens may exhibit if they become entangled in these harm groups. The FBI  urges  anyone who believes their child or someone they know is being exploited to contact their local FBI field office, call 1-800-CALL-FBI, or report it online at  tips.fbi.gov.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>September 13, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sextortion Scams Now Include Photos of Your Home</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>An old but persistent email scam known as “ sextortion ” has a new personalized touch: The missives, which claim that malware has captured webcam footage of recipients pleasuring themselves, now include a photo of the target’s home in a bid to make threats about publishing the videos more frightening and convincing.  This week, several readers reported receiving sextortion emails that addressed them by name and included images of their street or front yard that were apparently lifted from an online mapping application such as  Google Maps . The message purports to have been sent from a hacker who’s compromised your computer and used your webcam to record a video of you while you were watching porn. The missive threatens to release the video to all of your contacts unless you pay a Bitcoin ransom. In this case, the demand is just shy of $2,000, payable by scanning a QR code embedded in the email. Following a salutation that includes the recipient’s full name, the start of the message reads, “Is visiting [recipient’s street address] a more convenient way to contact if you don’t take action. Nice location btw.” Below that is the photo of the recipient’s street address. A semi-redacted screenshot of a newish sextortion scam that includes a photo of the target’s front yard. The message tells people they have 24 hours to pay up, or else their embarrassing videos will be released to all of their contacts, friends and family members. “Don’t even think about replying to this, it’s pointless,” the message concludes. “I don’t make mistakes, [recipient’s name]. If I notice that you’ve shared or discussed this email with someone else, your shitty video will instantly start getting sent to your contacts.” The remaining sections of the two-page sextortion message (which arrives as a PDF attachment) are fairly formulaic and include thematic elements seen in most previous sextortion waves. Those include claims that the extortionist has installed malware on your computer (in this case the scammer claims the spyware is called “Pegasus,” and that they are watching everything you do on your machine). Previous innovations in sextortion customization involved sending emails that  included at least one password they had previously used  at an account online that was tied to their email address. Sextortion — even semi-automated scams like this one with no actual physical leverage to backstop the extortion demand — is a serious crime that can lead to devastating consequences for victims. Sextortion occurs when someone threatens to distribute your private and sensitive material if you don’t provide them with images of a sexual nature, sexual favors, or money. According to the FBI, here are some things you can do to avoid becoming a victim: -Never send compromising images of yourself to anyone, no matter who they are — or who they say they are. 
--Don’t open attachments from people you don’t know, and be wary of opening attachments even from those you do know. 
--Turn off [and/or cover] any web cameras when you are not using them. The FBI says in many sextortion cases, the perpetrator is an adult pretending to be a teenager, and you are just one of the many victims being targeted by the same person. If you believe you’re a victim of sextortion, or know someone else who is, the FBI wants to hear from you: Contact your local FBI office (or toll-free at 1-800-CALL-FBI).</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>September 3, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>New 0-Day Attacks Linked to China’s ‘Volt Typhoon’</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Malicious hackers are exploiting a zero-day vulnerability in  Versa Director , a software product used by many Internet and IT service providers. Researchers believe the activity is linked to  Volt Typhoon , a Chinese cyber espionage group focused on infiltrating critical U.S. networks and laying the groundwork for the ability to disrupt communications between the United States and Asia during any future armed conflict with China. Image: Shutterstock.com Versa Director systems are primarily used by Internet service providers (ISPs), as well as managed service providers (MSPs) that cater to the IT needs of many small to mid-sized businesses simultaneously. In  a security advisory  published Aug. 26, Versa urged customers to deploy a patch for the vulnerability ( CVE-2024-39717 ), which the company said is fixed in  Versa Director 22.1.4  or later. Versa said the weakness allows attackers to upload a file of their choosing to vulnerable systems. The advisory placed much of the blame on Versa customers who “failed to implement system hardening and firewall guidelines…leaving a management port exposed on the internet that provided the threat actors with initial access.” Versa’s advisory doesn’t say how it learned of the zero-day flaw, but its vulnerability listing at mitre.org acknowledges “there are reports of others based on backbone telemetry observations of a 3rd party provider, however these are unconfirmed to date.” Those third-party reports came in late June 2024 from  Michael Horka , senior lead information security engineer at  Black Lotus Labs , the security research arm of  Lumen Technologies , which operates one of the global Internet’s largest backbones. In an interview with KrebsOnSecurity, Horka said Black Lotus Labs identified a web-based backdoor on Versa Director systems belonging to four U.S. victims and one non-U.S. victim in the ISP and MSP sectors, with the earliest known exploit activity occurring at a U.S. ISP on June 12, 2024. “This makes Versa Director a lucrative target for advanced persistent threat (APT) actors who would want to view or control network infrastructure at scale, or pivot into additional (or downstream) networks of interest,” Horka  wrote  in a blog post published today. Black Lotus Labs said it assessed with “medium” confidence that Volt Typhoon was responsible for the compromises, noting the intrusions bear the hallmarks of the Chinese state-sponsored espionage group — including zero-day attacks targeting IT infrastructure providers, and Java-based backdoors that run in memory only. In May 2023, the  National Security Agency  (NSA), the  Federal Bureau of Investigation  (FBI), and the  Cybersecurity Infrastructure Security Agency  (CISA) issued  a joint warning  (PDF) about Volt Typhoon, also known as “ Bronze Silhouette ” and “ Insidious Taurus ,” which described how the group uses small office/home office (SOHO) network devices to hide their activity. In early December 2023, Black Lotus Labs  published its findings  on “ KV-botnet ,” thousands of compromised SOHO routers that were chained together to form a covert data transfer network supporting various Chinese state-sponsored hacking groups, including Volt Typhoon. In January 2024, the  U.S. Department of Justice  disclosed the FBI had  executed a court-authorized takedown  of the KV-botnet shortly before Black Lotus Labs released its December report. In February 2024, CISA again joined the FBI and NSA in  warning  Volt Typhoon had compromised the IT environments of multiple critical infrastructure organizations — primarily in communications, energy, transportation systems, and water and wastewater sectors — in the continental and non-continental United States and its territories, including Guam. “Volt Typhoon’s choice of targets and pattern of behavior is not consistent with traditional cyber espionage or intelligence gathering operations, and the U.S. authoring agencies assess with high confidence that Volt Typhoon actors are pre-positioning themselves on IT networks to enable lateral movement to OT [operational technology] assets to disrupt functions,” that alert warned. In a speech at Vanderbilt University in April, FBI Director  Christopher Wray   said  China is developing the “ability to physically wreak havoc on our critical infrastructure at a time of its choosing,” and that China’s plan is to “land blows against civilian infrastructure to try to induce panic.” Ryan English , an information security engineer at Lumen, said it’s disappointing his employer didn’t at least garner an honorable mention in Versa’s security advisory. But he said he’s glad there are now a lot fewer Versa systems exposed to this attack. “Lumen has for the last nine weeks been very intimate with their leadership with the goal in mind of helping them mitigate this,” English said. “We’ve given them everything we could along the way, so it kind of sucks being referenced just as a third party.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>August 27, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>National Public Data Published Its Own Passwords</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>New details are emerging about a breach at  National Public Data  (NPD), a consumer data broker that recently spilled hundreds of millions of Americans’ Social Security Numbers, addresses, and phone numbers online. KrebsOnSecurity has learned that another NPD data broker which shares access to the same consumer records inadvertently published the passwords to its back-end database in a file that was freely available from its homepage until today.  In April, a cybercriminal named  USDoD  began selling data stolen from NPD. In July, someone leaked what was taken, including the names, addresses, phone numbers and in some cases email addresses for more than 272 million people (including many who are now deceased). NPD  acknowledged the intrusion on Aug. 12 , saying it dates back to a security incident in December 2023. In an interview last week, USDoD blamed the July data leak on another malicious hacker who also had access to the company’s database, which they claimed has been floating around the underground since December 2023. Following  last week’s story on the breadth of the NPD breach , a reader alerted KrebsOnSecurity that a sister NPD property — the background search service  recordscheck.net  — was hosting an archive that included the usernames and password for the site’s administrator. A review of that archive, which was available from the Records Check website until just before publication this morning (August 19), shows it includes the source code and plain text usernames and passwords for different components of recordscheck.net, which is visually similar to nationalpublicdata.com and features identical login pages. The exposed archive, which was named “ members.zip ,” indicates RecordsCheck users were all initially assigned the same six-character password and instructed to change it, but many did not. According to the breach tracking service  Constella Intelligence , the passwords included in the source code archive are identical to credentials exposed in previous data breaches that involved email accounts belonging to NPD’s founder, an  actor  and retired sheriff’s deputy from Florida named  Salvatore “Sal” Verini . Reached via email, Mr. Verini said the exposed archive (a .zip file) containing recordscheck.net credentials has been removed from the company’s website, and that the site is slated to cease operations “in the next week or so.” “Regarding the zip, it has been removed but was an old version of the site with non-working code and passwords,” Verini told KrebsOnSecurity. “Regarding your question, it is an active investigation, in which we cannot comment on at this point. But once we can, we will [be] with you, as we follow your blog. Very informative.” The leaked recordscheck.net source code indicates the website was created by a web development firm based in Lahore, Pakistan called  creationnext.com , which did not return messages seeking comment. CreationNext.com’s homepage features a positive testimonial from Sal Verini. A testimonial from Sal Verini on the homepage of CreationNext, the Lahore, Pakistan-based web development firm that apparently designed NPD and RecordsCheck. There are now several websites that have been stood up to help people learn if their SSN and other data was exposed in this breach. One is  npdbreach.com , a lookup page erected by  Atlas Data Privacy Corp . Another lookup service is available at  npd.pentester.com . Both sites show NPD had old and largely inaccurate data on Yours Truly. The best advice for those concerned about this breach is to  freeze one’s credit file  at  each of the major consumer reporting bureaus . Having a freeze on your files makes it much harder for identity thieves to create new accounts in your name, and it limits who can view your credit information. A freeze is a good idea because all of the information that ID thieves need to assume your identity is now broadly available from multiple sources, thanks to the multiplicity of data breaches we’ve seen involving SSN data and other key static data points about people. Screenshots of a Telegram-based ID theft service that was selling background reports using hacked law enforcement accounts at USInfoSearch. There are numerous cybercriminal services that offer detailed background checks on consumers, including full SSNs. These services are powered by compromised accounts at data brokers that cater to private investigators and law enforcement officials, and some are now fully automated via Telegram instant message bots. In November 2023, KrebsOnSecurity wrote about one such service, which was being powered by  hacked accounts at the U.S. consumer data broker USInfoSearch.com . This is notable because the leaked source code indicates Records Check pulled background reports on people by querying NPD’s database and records at USInfoSearch. KrebsOnSecurity sought comment from USInfoSearch and will update this story if they respond. The point is, if you’re an American who hasn’t frozen their credit files and you haven’t yet experienced some form of new account fraud, the ID thieves probably just haven’t gotten around to you yet. All Americans are also entitled to obtain a free copy of their credit report weekly from each of the three major credit bureaus. It used to be that consumers were allowed one free report from each of the bureaus annually, but in October 2023 the  Federal Trade Commission   announced  the bureaus had permanently extended a program that lets you check your credit report once a week for free. If you haven’t done this in a while, now would be an excellent time to order your files. To place a freeze, you’ll need to create an account at each of the three major reporting bureaus,  Equifax ,  Experian  and  TransUnion . Once you’ve established an account, you should be able to then view and freeze your credit file. If you spot errors, such as random addresses and phone numbers you don’t recognize, do not ignore them. Dispute any inaccuracies you may find.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>August 19, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NationalPublicData.com Hack Exposes a Nation’s Data</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A great many readers this month reported receiving alerts that their Social Security Number, name, address and other personal information were exposed in a breach at a little-known but aptly-named consumer data broker called  NationalPublicData.com . This post examines what we know about a breach that has exposed hundreds of millions of consumer records. We’ll also take a closer look at the data broker that got hacked — a background check company founded by an actor and retired sheriff’s deputy from Florida.  On July 21, 2024, denizens of the cybercrime community  Breachforums  released more than 4 terabytes of data they claimed was stolen from nationalpublicdata.com, a Florida-based company that collects data on consumers and processes background checks. The breach tracking service  HaveIBeenPwned.com  and the cybercrime-focused Twitter account  vx-underground  both concluded the leak is the same information first put up for sale in April 2024 by a prolific cybercriminal who goes by the name “ USDoD .” On April 7, USDoD posted a sales thread on Breachforums for four terabytes of data — 2.9 billion rows of records — they claimed was taken from nationalpublicdata.com. The snippets of stolen data that USDoD offered as teasers showed rows of names, addresses, phone numbers, and Social Security Numbers (SSNs). Their asking price? $3.5 million. Many media outlets mistakenly reported that the National Public data breach affects 2.9 billion people (that figure actually refers to the number of rows in the leaked data sets). HaveIBeenPwned.com’s  Troy Hunt   analyzed the leaked data  and found it is a somewhat disparate collection of consumer and business records, including the real names, addresses, phone numbers and SSNs of millions of Americans (both living and deceased), and 70 million rows from a database of U.S. criminal records. Hunt said he found 137 million unique email addresses in the leaked data, but stressed that there were no email addresses in the files containing SSN records. “If you find yourself in this data breach via HaveIBeenPwned.com, there’s no evidence your SSN was leaked, and if you’re in the same boat as me, the data next to your record may not even be correct.” Nationalpublicdata.com publicly acknowledged a breach in  a statement on Aug. 12 , saying “there appears to have been a data security incident that may have involved some of your personal information. The incident appears to have involved a third-party bad actor that was trying to hack into data in late December 2023, with potential leaks of certain data in April 2024 and summer 2024.” The company said the information “suspected of being breached” contained name, email address, phone number, social security number, and mailing address(es). “We cooperated with law enforcement and governmental investigators and conducted a review of the potentially affected records and will try to notify you if there are further significant developments applicable to you,” the statement continues. “We have also implemented additional security measures in efforts to prevent the reoccurrence of such a breach and to protect our systems.” Hunt’s analysis didn’t say how many unique SSNs were included in the leaked data. But according to researchers at  Atlas Data Privacy Corp. , there are 272 million unique SSNs in the entire records set. Atlas found most records have a name, SSN, and home address, and that approximately 26 percent of those records included a phone number. Atlas said they verified 5,000 addresses and phone numbers, and found the records pertain to people born before Jan. 1, 2002 (with very few exceptions). If there is a tiny silver lining to the breach it is this: Atlas discovered that many of the records related to people who are now almost certainly deceased. They found the average age of the consumer in these records is 70, and fully two million records are related to people whose date of birth would make them more than 120 years old today. Where did National Public Data get its consumer data? The company’s website doesn’t say, but it is operated by an entity in Coral Springs, Fla. called  Jerico Pictures Inc.  The website for Jerico Pictures is not currently responding. However,  cached versions of it at archive.org  show it is a film studio with offices in Los Angeles and South Florida. The Florida Secretary of State says Jerico Pictures is owned by  Salvatore (Sal) Verini Jr. , a retired deputy with the Broward County Sheriff’s office. The Secretary of State also says Mr. Verini is or was a founder of several other Florida companies, including  National Criminal Data LLC ,  Twisted History LLC ,  Shadowglade LLC  and  Trinity Entertainment Inc. , among others. Mr. Verini did not respond to multiple requests for comment. Cached copies of Mr. Verini’s vanity domain  salvatoreverini.com  recount his experience in acting (e.g. a role in a 1980s detective drama with Burt Reynolds) and more recently producing dramas and documentaries for several streaming channels. Sal Verini’s profile page at imdb.com. Pivoting on the email address used to register that vanity domain,  DomainTools.com  finds several other domains whose history offers a clearer picture of the types of data sources relied upon by National Public Data. One of those domains is  recordscheck.net  (formerly  recordscheck.info ), which advertises “instant background checks, SSN traces, employees screening and more.” Another now-defunct business tied to Mr. Verini’s email —  publicrecordsunlimited.com  — said it obtained consumer data from a variety of sources, including: birth, marriage and death records; voting records; professional licenses; state and federal criminal records. The homepage for publicrecordsunlimited.com, per archive.org circa 2017. It remains unclear how thieves originally obtained these records from National Public Data. KrebsOnSecurity sought comment from USDoD, who is perhaps best known for  hacking into Infragard, an FBI program  that facilitates information sharing about cyber and physical threats with vetted people in the private sector. USDoD said they indeed sold the same data set that was leaked on Breachforums this past month, but that the person who leaked the data did not obtain it from them. USDoD said the data stolen from National Public Data had traded hands several times since it was initially stolen in December 2023. “The database has been floating around for a while,” USDoD said. “I was not the first one to get it.” USDoD said the person who originally stole the data from NPD was a hacker who goes by the handle  SXUL . That user appears to have deleted their Telegram account several days ago, presumably in response to intense media coverage of the breach. Data brokers like National Public Data typically get their information by scouring federal, state and local government records. Those government files include voting registries, property filings, marriage certificates, motor vehicle records, criminal records, court documents, death records, professional licenses, bankruptcy filings, and more. Americans may believe they have the right to opt out of having these records collected and sold to anyone. But experts say these underlying sources of information — the above-mentioned “public” records — are carved out from every single state consumer privacy law. This includes California’s privacy regime, which is often held up as the national leader in state privacy regulations. You see, here in America, virtually anyone can become a consumer data broker. And with few exceptions, there aren’t any special requirements for brokers to show that they actually care about protecting the data they collect, store, repackage and sell so freely. In February 2023,  PeopleConnect , the owners of the background search services  TruthFinder  and  Instant Checkmate ,  acknowledged a breach affecting 20 million customers  who paid the data brokers to run background checks. The data exposed included email addresses, hashed passwords, first and last names, and phone numbers. In 2019, malicious hackers  stole data on more than 1.5 billion people from People Data Labs , a San Francisco data broker whose people-search services linked hundreds of millions of email addresses, LinkedIn and Facebook profiles and more than 200 million valid cell phone numbers. These data brokers are the digital equivalent of massive oil tankers wandering the coast without GPS or an anchor, because when they get hacked, the effect is very much akin to the ecological and economic fallout from a giant oil spill. It’s an apt analogy because the dissemination of so much personal data all at once has ripple effects for months and years to come, as this information invariably feeds into a vast underground ocean of scammers who are already equipped and staffed to commit identity theft and account takeovers at scale. It’s also apt because much like with real-life oil spills, the cleanup costs and effort from data spills — even just vast collections of technically “public” documents like the NPD corpus — can be enormous, and most of the costs associated with that fall to consumers, directly or indirectly. Should you worry that your SSN and other personal data might be exposed in this breach? That isn’t necessary for people who’ve been following the advice here for years, which is to  freeze one’s credit file  at  each of the major consumer reporting bureaus . Having a freeze on your files makes it much harder for identity thieves to create new accounts in your name, and it limits who can view your credit information. The main reason I recommend the freeze is that all of the information ID thieves need to assume your identity is now broadly available from multiple sources, thanks to the multiplicity of data breaches we’ve seen involving SSN data and other key static data points about people. But beyond that, there are numerous cybercriminal services that offer detailed background checks on consumers, including full SSNs. These services are powered by compromised accounts at data brokers that cater to private investigators and law enforcement officials, and some are now fully automated via Telegram instant message bots. Meaning, if you’re an American who hasn’t frozen their credit files and you haven’t yet experienced some form of new account fraud, the ID thieves probably just haven’t gotten around to you yet. All Americans are also entitled to obtain a free copy of their credit report weekly from each of the three major credit bureaus. It used to be that consumers were allowed one free report from each of the bureaus annually, but in October 2023 the  Federal Trade Commission   announced  the bureaus had permanently extended a program that lets you check your credit report once a week for free. If you haven’t done this in a while, now would be an excellent time to order your files. To place a freeze, you need to create an account at each of the three major reporting bureaus,  Equifax ,  Experian  and  TransUnion . Once you’ve established an account, you should be able to then view and freeze your credit file. Dispute any inaccuracies you may find. If you spot errors, such as random addresses and phone numbers you don’t recognize, do not ignore them: Identity theft and new account fraud are not problems that get easier to solve by letting them fester. Mr. Verini probably didn’t respond to requests for comment because his company is  now the subject of a class-action lawsuit  (NB: the lawsuit also erroneously claims 3 billion people were affected). These lawsuits are practically inevitable now after a major breach, but they also have the unfortunate tendency to let regulators and lawmakers off the hook. Almost every time there’s a major breach of SSN data, Americans are offered credit monitoring services. Most of the time, those services come from one of the three major consumer credit bureaus, the same companies that profit by compiling and selling incredibly detailed dossiers on consumers’ financial lives. The same companies that use dark patterns to trick people into paying for “credit lock” services that achieve a similar result as a freeze but still let the bureaus sell your data to their partners. But class-actions alone will not drive us toward a national conversation about what needs to change. Americans currently have very few rights to opt out of the personal and financial surveillance, data collection and sale that is pervasive in today’s tech-based economy. The breach at National Public Data may not be the worst data breach ever. But it does present yet another opportunity for this country’s leaders to acknowledge that the SSN has completely failed as a measure of authentication or authorization. It was never a good idea to use as an authenticator to begin with, and it is certainly no longer suitable for this purpose. The truth is that these data brokers will continue to proliferate and thrive (and get hacked and relieved of their data) until Congress begins to realize it’s time for some consumer privacy and data protection laws that are relevant to life in the 21st century. Further reporting:  National Public Data Published Its Own Passwords Update, Aug. 16, 8:00 a.m. ET:  Corrected the story to note that consumers can now obtain a free credit report from each of the three consumer reporting bureaus weekly, instead of just annually. Update, Aug. 23, 12:33 p.m. ET:  Added link to latest story on NPD breach.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>August 15, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Low-Drama ‘Dark Angels’ Reap Record Ransoms</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A ransomware group called  Dark Angels  made headlines this past week when it was revealed the crime group recently received a record $75 million data ransom payment from a Fortune 50 company. Security experts say the Dark Angels have been around since 2021, but the group doesn’t get much press because they work alone and maintain a low profile, picking one target at a time and favoring mass data theft over disrupting the victim’s operations. Image: Shutterstock. Security firm  Zscaler   ThreatLabz  this month ranked Dark Angels as the top ransomware threat for 2024, noting that in early 2024 a victim paid the ransomware group $75 million — higher than any previously recorded ransom payment. ThreatLabz found Dark Angels has conducted some of the largest ransomware attacks to date, and yet little is known about the group. Brett Stone-Gross , senior director of threat intelligence at ThreatLabz, said Dark Angels operate using an entirely different playbook than most other ransomware groups. For starters, he said, Dark Angels does not employ the typical ransomware affiliate model, which relies on hackers-for-hire to install malicious software that locks up infected systems. “They really don’t want to be in the headlines or cause business disruptions,” Stone-Gross said. “They’re about making money and attracting as little attention as possible.” Most ransomware groups maintain flashy victim leak sites which threaten to publish the target’s stolen data unless a ransom demand is paid. But the Dark Angels didn’t even have a victim shaming site  until April 2023 . And the leak site isn’t particularly well branded; it’s called  Dunghill Leak . The Dark Angels victim shaming site, Dunghill Leak. “Nothing about them is flashy,” Stone-Gross said. “For the longest time, they didn’t even want to cause a big headline, but they probably felt compelled to create that leaks site because they wanted to show they were serious and that they were going to post victim data and make it accessible.” Dark Angels is thought to be a Russia-based cybercrime syndicate whose distinguishing characteristic is stealing truly staggering amounts of data from major companies across multiple sectors, including healthcare, finance, government and education. For large businesses, the group has exfiltrated between 10-100 terabytes of data, which can take days or weeks to transfer, ThreatLabz found. Like most ransom gangs, Dark Angels will publish data stolen from victims who do not pay. Some of the more notable victims listed on Dunghill Leak include the global food distribution firm  Sysco , which  disclosed a ransomware attack in May 2023 ; and the travel booking giant  Sabre , which was  hit by the Dark Angels in September 2023 . Stone-Gross said Dark Angels is often reluctant to deploy ransomware malware because such attacks work by locking up the target’s IT infrastructure, which typically causes the victim’s business to grind to a halt for days, weeks or even months on end. And those types of breaches tend to make headlines quickly. “They selectively choose whether they want to deploy ransomware or not,” he said. “If they deem they can encrypt some files that won’t cause major disruptions — but will give them a ton of data — that’s what they’ll do. But really, what separates them from the rest is the volume of data they’re stealing. It’s a whole order of magnitude greater with Dark Angels. Companies losing vast amounts of data will pay these high ransoms.” So who paid the record $75 million ransom?  Bleeping Computer   posited on July 30  that the victim was the pharmaceutical giant  Cencora  (formerly  AmeriSourceBergen Corporation ), which reported a data security incident to the  U.S. Securities and Exchange Commission  (SEC) on February 21, 2024. The SEC requires publicly-traded companies to disclose a potentially material cybersecurity event within four days of the incident. Cencora is currently #10 on the Fortune 500 list, generating more than $262 billion in revenue last year. Cencora did not respond to questions about whether it had made a ransom payment in connection with the February cybersecurity incident, and referred KrebsOnSecurity to expenses listed under “Other” in the restructuring section of their  latest quarterly financial report  (PDF). That report states that the majority of the $30 million cost in “Other” was associated with the breach. Cencora’s quarterly statement said the incident affected a standalone legacy information technology platform in one country and the foreign business unit’s ability to operate in that country for approximately two weeks. Cencora’s 2024 1st quarter report documents a $30 million cost associated with a data exfiltration event in mid-February 2024. In its most recent  State of Ransomware report  (PDF), security firm  Sophos  found the average ransomware payment had increased fivefold in the past year, from $400,000 in 2023 to $2 million. Sophos says that  in more than four-fifths (82%) of cases funding for the ransom came from multiple sources . Overall, 40% of total ransom funding came from the organizations themselves and 23% from insurance providers. Further reading:  ThreatLabz ransomware report  (PDF).</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>August 5, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>U.S. Trades Cybercriminals to Russia in Prisoner Swap</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Twenty-four prisoners were freed today in an international prisoner swap between Russia and Western countries. Among the eight Russians repatriated were several convicted cybercriminals. In return, Russia has reportedly released 16 prisoners, including  Wall Street Journal  reporter  Evan Gershkovich  and ex-U.S. Marine  Paul Whelan . Among those in the prisoner swap is  Roman Seleznev , 40, who was sentenced in 2017 to 27 years in prison for racketeering convictions tied to a lengthy career in stealing and selling payment card data. Seleznev earned this then-record sentence by operating some of the underground’s most bustling marketplaces for stolen card data. Roman Seleznev, pictured with bundles of cash. Image: US DOJ. Once known by the hacker handles “ Track2 ,” “ Bulba ” and “ nCux ,” Seleznev is the son of  Valery Seleznev , a prominent member of the Russian parliament who is considered an ally of  Vladimir Putin . U.S. prosecutors showed that for years Seleznev stayed a step ahead of the law by tapping into contacts at the Russian FSB, the successor agency to the Soviet KGB, and by periodically changing hacker handles. But in 2014 Seleznev  was captured by U.S. Secret Service agents , who had zeroed in on Seleznev’s posh vacation spot in The Maldives. At the time, the South Asian island country was a popular destination for Eastern Europe-based cybercriminals, who viewed it as beyond the reach of U.S. law enforcement. In addition to receiving a record prison sentence, Seleznev was ordered to pay more than $50 million in restitution to his victims. That loss amount equaled the total losses inflicted by Seleznev’s various carding stores, and other thefts attributed to members of the hacking forum  carder[.]su , a bustling cybercrime community of which Seleznev was a leading organizer. Also released in the prisoner swap was  Vladislav Klyushin , a 42-year-old Muscovite sentenced in September 2023 to nine years in prison for what U.S. prosecutors called a “$93 million hack-to-trade conspiracy.” Klyushin and his crew hacked into companies and used information stolen in those intrusions to make illegal stock trades. Klyushin likewise was arrested while vacationing abroad:  The Associated Press   reported  that Klyushin was captured in Switzerland after arriving on a private jet, and just before he and his party were about to board a helicopter to whisk them to a nearby ski resort. A passport photo of Klyushin. Image: USDOJ. Klyushin is the owner of  M-13 , a Russian technology company that contracts with the Russian government. According to prosecutors, M-13 offered penetration testing and “advanced persistent threat (APT) emulation.” As part of his guilty plea, Klyushin was also ordered to forfeit $34 million, and to pay restitution in an amount that was to be determined. The U.S. government says four of Klyushin’s alleged co-conspirators remain at large, including  Ivan Ermakov , who was among 12 Russians charged in 2018 with hacking into key Democratic Party email accounts. Among the Americans freed by Russia were  Wall Street Journal  reporter  Evan   Gershkovich , 32, who has spent the last 16 months in a Russian prison on spying charges. Also released was  Alsu Kurmasheva , 47, a Russian American editor for Radio Free Europe/Radio Liberty who was arrested last year; and  Paul Whelan , 54, a former U.S. Marine arrested in 2018 and accused of spying. The New York Times   reports  several others freed by Russia were German nationals, including  German Moyzhes , a lawyer who was helping Russians obtain residence permits in Germany and other E.U. countries.  The Times  says Slovenia, Norway and Poland released four people accused of being Russian spies. Reuters  reports  that Germany released  Vadim Krasikov , an FSB colonel serving a life sentence there for murdering an exiled Chechen-Georgian dissident in a Berlin park. Update, 8:47 p.m. ET: An earlier version of this story incorrectly reported that one of the Russian hackers released was the BTC-e co-founder Alexander Vinnik. KrebsOnSecurity was unable to confirm his release. The above story has been edited to reflect that change.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>August 1, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Don’t Let Your Domain Name Become a “Sitting Duck”</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>More than a million domain names — including many registered by Fortune 100 firms and brand protection companies — are vulnerable to takeover by cybercriminals thanks to authentication weaknesses at a number of large web hosting providers and domain registrars, new research finds. Image: Shutterstock. Your Web browser knows how to find a site like example.com thanks to the global  Domain Name System  (DNS), which serves as a kind of phone book for the Internet by translating human-friendly website names (example.com) into numeric Internet addresses. When someone registers a domain name, the registrar will typically provide two sets of DNS records that the customer then needs to assign to their domain. Those records are crucial because they allow Web browsers to find the Internet address of the hosting provider that is serving that domain. But potential problems can arise when a domain’s DNS records are “lame,” meaning the authoritative name server does not have enough information about the domain and can’t resolve queries to find it. A domain can become lame in a variety of ways, such as when it is not assigned an Internet address, or because the name servers in the domain’s authoritative record are misconfigured or missing. The reason lame domains are problematic is that a number of Web hosting and DNS providers allow users to claim control over a domain  without accessing the true owner’s account at their DNS provider or registrar . If this threat sounds familiar, that’s because it is hardly new. Back in 2019, KrebsOnSecurity wrote about thieves employing this method to seize control over thousands of domains registered at GoDaddy, and using those  to send bomb threats and sextortion emails  (GoDaddy says they fixed that weakness in their systems not long after that 2019 story). In the 2019 campaign, the spammers created accounts on GoDaddy and were able to take over vulnerable domains simply by registering a free account at GoDaddy and being assigned the same DNS servers as the hijacked domain. Three years before that, the same pervasive weakness was described in a blog post by security researcher  Matthew Bryant , who showed how one could  commandeer at least 120,000 domains  via DNS weaknesses at some of the world’s largest hosting providers. Incredibly, new research jointly released today by security experts at  Infoblox  and  Eclypsium  finds this same authentication weakness is still present at a number of large hosting and DNS providers. “It’s easy to exploit, very hard to detect, and it’s entirely preventable,” said  Dave Mitchell , principal threat researcher at Infoblox. “Free services make it easier [to exploit] at scale. And the bulk of these are at a handful of DNS providers.” Infoblox’s report  found there are multiple cybercriminal groups abusing these stolen domains as a globally dispersed “traffic distribution system,” which can be used to mask the true source or destination of web traffic and to funnel Web users to malicious or phishous websites. Commandeering domains this way also can allow thieves to impersonate trusted brands and abuse their positive or at least neutral reputation when sending email from those domains, as we saw in 2019 with the GoDaddy attacks. “Hijacked domains have been used directly in phishing attacks and scams, as well as large spam systems,” reads the Infoblox report, which refers to lame domains as “ Sitting Ducks .” “There is evidence that some domains were used for Cobalt Strike and other malware command and control (C2). Other attacks have used hijacked domains in targeted phishing attacks by creating lookalike subdomains. A few actors have stockpiled hijacked domains for an unknown purpose.” Eclypsium researchers  estimate  there are currently about one million Sitting Duck domains, and that at least 30,000 of them have been hijacked for malicious use since 2019. “As of the time of writing, numerous DNS providers enable this through weak or nonexistent verification of domain ownership for a given account,” Eclypsium wrote. The security firms said they found a number of compromised Sitting Duck domains were originally registered by brand protection companies that specialize in defensive domain registrations (reserving look-alike domains for top brands before those names can be grabbed by scammers) and combating trademark infringement. For example, Infoblox found cybercriminal groups using a Sitting Duck domain called  clickermediacorp[.]com , which was a CBS Interactive Inc. domain initially registered in 2009 at GoDaddy. However, in 2010 the DNS was updated to DNSMadeEasy.com servers, and in 2012 the domain was transferred to  MarkMonitor . Another hijacked Sitting Duck domain —  anti-phishing[.]org  — was registered in 2003 by the  Anti-Phishing Working Group  (APWG), a cybersecurity not-for-profit organization that closely tracks phishing attacks. In many cases, the researchers discovered Sitting Duck domains that appear to have been configured to auto-renew at the registrar, but the authoritative DNS or hosting services were not renewed. The researchers say Sitting Duck domains all possess three attributes that makes them vulnerable to takeover: 1) the domain uses or delegates authoritative DNS services to a different provider than the domain registrar; 
-2) the authoritative name server(s) for the domain does not have information about the Internet address the domain should point to; 
-3) the authoritative DNS provider is “exploitable,” i.e. an attacker can claim the domain at the provider and set up DNS records without access to the valid domain owner’s account at the domain registrar. Image: Infoblox. How does one know whether a DNS provider is exploitable? There is a frequently updated list published on  GitHub  called “ Can I take over DNS ,” which has been documenting exploitability by DNS provider over the past several years. The list includes examples for each of the named DNS providers. In the case of the aforementioned Sitting Duck domain clickermediacorp[.]com, the domain appears to have been hijacked by scammers by claiming it at the web hosting firm  DNSMadeEasy , which is owned by  Digicert , one of the industry’s largest issuers of digital certificates (SSL/TLS certificates). In an interview with KrebsOnSecurity, DNSMadeEasy founder and senior vice president  Steve Job  said the problem isn’t really his company’s to solve, noting that DNS providers who are also not domain registrars have no real way of validating whether a given customer legitimately owns the domain being claimed. “We do shut down abusive accounts when we find them,” Job said. “But it’s my belief that the onus needs to be on the [domain registrants] themselves. If you’re going to buy something and point it somewhere you have no control over, we can’t prevent that.” Infoblox, Eclypsium, and the DNS wiki listing at Github all say that web hosting giant  Digital Ocean  is among the vulnerable hosting firms. In response to questions, Digital Ocean said it was exploring options for mitigating such activity. “The DigitalOcean DNS service is not authoritative, and we are not a domain registrar,” Digital Ocean wrote in an emailed response. “Where a domain owner has delegated authority to our DNS infrastructure with their registrar, and they have allowed their ownership of that DNS record in our infrastructure to lapse, that becomes a ‘lame delegation’ under this hijack model. We believe the root cause, ultimately, is poor management of domain name configuration by the owner, akin to leaving your keys in your unlocked car, but we acknowledge the opportunity to adjust our non-authoritative DNS service guardrails in an effort to help minimize the impact of a lapse in hygiene at the authoritative DNS level. We’re connected with the research teams to explore additional mitigation options.” In a statement provided to KrebsOnSecurity, the hosting provider and registrar  Hostinger  said they were working to implement a solution to prevent lame duck attacks in the “upcoming weeks.” “We are working on implementing an SOA-based domain verification system,” Hostinger wrote. “Custom nameservers with a Start of Authority (SOA) record will be used to verify whether the domain truly belongs to the customer. We aim to launch this user-friendly solution by the end of August. The final step is to deprecate preview domains, a functionality sometimes used by customers with malicious intents. Preview domains will be deprecated by the end of September. Legitimate users will be able to use randomly generated temporary subdomains instead.” What did DNS providers that have struggled with this issue in the past do to address these authentication challenges? The security firms said that to claim a domain name, the best practice providers gave the account holder random name servers that required a change at the registrar before the domains could go live. They also found the best practice providers used various mechanisms to ensure that the newly assigned name server hosts did not match previous name server assignments. [Side note: Infoblox observed that many of the hijacked domains were being hosted at  Stark Industries Solutions , a sprawling hosting provider that appeared two weeks before Russia invaded Ukraine and has become  the epicenter of countless cyberattacks against enemies of Russia ]. Both Infoblox and Eclypsium said that without more cooperation and less finger-pointing by all stakeholders in the global DNS, attacks on sitting duck domains will continue to rise, with domain registrants and regular Internet users caught in the middle. “Government organizations, regulators, and standards bodies should consider long-term solutions to vulnerabilities in the DNS management attack surface,” the Infoblox report concludes.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>July 31, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Researchers: Weak Security Defaults Enabled Squarespace Domains Hijacks</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>At least a dozen organizations with domain names at domain registrar  Squarespace  saw their websites hijacked last week. Squarespace bought all assets of  Google Domains  a year ago, but many customers still haven’t set up their new accounts. Experts say malicious hackers learned they could commandeer any migrated Squarespace accounts that hadn’t yet been registered, merely by supplying an email address tied to an existing domain. Until this past weekend, Squarespace’s website had an option to log in via email. The Squarespace domain hijacks, which took place between July 9 and July 12, appear to have mostly targeted cryptocurrency businesses, including  Celer Network ,  Compound Finance ,  Pendle Finance , and  Unstoppable Domains . In some cases, the attackers were able to redirect the hijacked domains to phishing sites set up to steal visitors’ cryptocurrency funds. New York City-based  Squarespace  purchased roughly 10 million domain names from Google Domains in June 2023, and it has been gradually migrating those domains to its service ever since. Squarespace has not responded to a request for comment, nor has it issued a statement about the attacks. But an analysis released by security experts at  Metamask  and  Paradigm  finds the most likely explanation for what happened is that Squarespace assumed all users migrating from Google Domains would select the social login options — such “Continue with Google” or “Continue with Apple” — as opposed to the “Continue with email” choice. Taylor Monahan , lead product manager at Metamask, said Squarespace never accounted for the possibility that a threat actor might sign up for an account using an email associated with a recently-migrated domain before the legitimate email holder created the account themselves. “Thus nothing actually stops them from trying to login with an email,” Monahan told KrebsOnSecurity. “And since there’s no password on the account, it just shoots them to the ‘create password for your new account’ flow. And since the account is half-initialized on the backend, they now have access to the domain in question.” What’s more, Monahan said, Squarespace did not require email verification for new accounts created with a password. “The domains being migrated from Google to Squarespace are known,” Monahan said. “It’s either public or easily discernible info which email addresses have admin of a domain. And if that email never sets up their account on Squarespace — say because the billing admin left the company five years ago or folks just ignored the email — anyone who enters that email@domain in the squarespace form now has full access to control to the domain.” The researchers say some Squarespace domains that were migrated over also could be hijacked if attackers discovered the email addresses for less privileged user accounts tied to the domain, such as “domain manager,” which likewise has the ability to transfer a domain or point it to a different Internet address. Squarespace says domain owners and domain managers have many of the same privileges, including the ability to move a domain or manage the site’s domain name server (DNS) settings. Monahan said the migration has left domain owners with fewer options to secure and monitor their accounts. “Squarespace can’t support users who need any control or insight into the activity being performed in their account or domain,” Monahan said. “You basically have no control over the access different folks have. You don’t have any audit logs. You don’t get email notifications for some actions. The owner doesn’t get email notification for actions taken by a ‘domain manager.’ This is absolutely insane if you’re used to and expecting the controls Google provides.” The researchers have published  a comprehensive guide  for locking down Squarespace user accounts, which urges Squarespace users to enable multi-factor authentication (disabled during the migration). “Determining what emails have access to your new Squarespace account is step 1,” the help guide advises. “Most teams DO NOT REALIZE these accounts even exist, let alone theoretically have access.” The guide also recommends removing unnecessary Squarespace user accounts, and disabling reseller access in Google Workspace. “If you bought Google Workspace via Google Domains, Squarespace is now your authorized reseller,” the help document explains. “This means that anyone with access to your Squarespace account also has a backdoor into your Google Workspace unless you explicitly disable it by following the instructions here, which you should do. It’s easier to secure one account than two.” Update, July 23, 1:50 p.m. ET:  Squarespace has published  a post-mortem  about the incident. Their statement blames the domain hijacks on “a weakness related to OAuth logins”, which Squarespace said it fixed within hours, and contradicts the findings presented by the researchers above. Here are the relevant bits from their statement: “During this incident, all compromised accounts were using third-party OAuth. Neither Squarespace nor any third-party authentication provider made any changes to authentication as part of our migration of Google Domains to Squarespace. To be clear, the migration of domains involved no changes to multi-factor authentication before, during or after.” “To date there is no evidence that Google Workspace accounts were or are at risk, and we have received no customer reports to this effect. As a reseller, Squarespace manages billing but customers access Workspace directly using their Google account.” “Our analysis shows no evidence that Squarespace accounts using an email-based login with an unverified email address were involved with this attack.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>July 15, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Crooks Steal Phone, SMS Records for Nearly All AT&amp;T Customers</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AT&amp;T Corp.  disclosed today that a new data breach has exposed phone call and text message records for roughly 110 million people — nearly all of its customers. AT&amp;T said it delayed disclosing the incident in response to “national security and public safety concerns,” noting that some of the records included data that could be used to determine where a call was made or text message sent. AT&amp;T also acknowledged the customer records were exposed in a cloud database that was protected only by a username and password (no multi-factor authentication needed).  In  a regulatory filing  with the  U.S. Securities and Exchange Commission  today, AT&amp;T said cyber intruders accessed an AT&amp;T workspace on a third-party cloud platform in April, downloading files containing customer call and text interactions between May 1 and October 31, 2022, as well as on January 2, 2023. The company said the stolen data includes records of calls and texts for mobile providers that resell AT&amp;T’s service, but that it does not include the content of calls or texts, Social Security numbers, dates of birth, or any other personally identifiable information. However, the company said a subset of stolen records included information about the location of cellular communications towers closest to the subscriber, data that could be used to determine the approximate location of the customer device initiating or receiving those text messages or phone calls. “While the data does not include customer names, there are often ways, using publicly available online tools, to find the name associated with a specific telephone number,” AT&amp;T allowed. AT&amp;T’s said it learned of the breach on April 19, but delayed disclosing it at the request of federal investigators. The company’s SEC disclosure says at least one individual has been detained by the authorities in connection with the breach. In a written statement shared with KrebsOnSecurity, the FBI confirmed that it asked AT&amp;T to delay notifying affected customers. “Shortly after identifying a potential breach to customer data and before making its materiality decision, AT&amp;T contacted the FBI to report the incident,” the FBI statement reads. “In assessing the nature of the breach, all parties discussed a potential delay to public reporting under Item 1.05(c) of the SEC Rule, due to potential risks to national security and/or public safety. AT&amp;T, FBI, and DOJ worked collaboratively through the first and second delay process, all while sharing key threat intelligence to bolster FBI investigative equities and to assist AT&amp;T’s incident response work.” Techcrunch  quoted an AT&amp;T spokesperson saying the customer data was stolen as a result of a still-unfolding data breach involving more than 160 customers of the cloud data provider  Snowflake . Earlier this year, malicious hackers figured out that many major companies have uploaded massive amounts of valuable and sensitive customer data to Snowflake servers, all the while protecting those Snowflake accounts with little more than a username and password. Wired reported  last month how the hackers behind the Snowflake data thefts purchased stolen Snowflake credentials from dark web services that sell access to usernames, passwords and authentication tokens that are siphoned by information-stealing malware. For its part, Snowflake says it now requires all new customers to use multi-factor authentication. Other companies with millions of customer records stolen from Snowflake servers include  Advance Auto Parts ,  Allstate ,  Anheuser-Busch ,  Los Angeles Unified ,  Mitsubishi ,  Neiman Marcus ,  Pure Storage ,  Santander Bank ,  State Farm , and  Ticketmaster . Earlier this year, AT&amp;T  reset passwords for millions of customers  after the company  finally acknowledged a data breach from 2018  involving approximately 7.6 million current AT&amp;T account holders and roughly 65.4 million former account holders. Mark Burnett  is an application security architect, consultant and author. Burnett said the only real use for the data stolen in the most recent AT&amp;T breach is to know who is contacting whom and how many times. “The most concerning thing to me about this AT&amp;T breach of ALL customer call and text records is that this isn’t one of their main databases; it is metadata on who is contacting who,” Burnett  wrote  on Mastodon. “Which makes me wonder what would call logs without timestamps or names have been used for.” It remains unclear why so many major corporations persist in the belief that it is somehow acceptable to store so much sensitive customer data with so few security protections. For example, Advance Auto Parts said the data exposed included full names, Social Security numbers, drivers licenses and government issued ID numbers on  2.3 million people  who were former employees or job applicants. That may be because, apart from the class-action lawsuits that invariably ensue after these breaches, there is little holding companies accountable for sloppy security practices. AT&amp;T told the SEC it does not believe this incident is likely to materially impact AT&amp;T’s financial condition or results of operations. AT&amp;T reported revenues of more than $30 billion in its most recent quarter.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>July 12, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The Stark Truth Behind the Resurgence of Russia’s Fin7</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The Russia-based cybercrime group dubbed “ Fin7 ,” known for phishing and malware attacks that have cost victim organizations an estimated $3 billion in losses since 2013, was declared dead last year by U.S. authorities. But experts say Fin7 has roared back to life in 2024 — setting up thousands of websites mimicking a range of media and technology companies — with the help of  Stark Industries Solutions , a sprawling hosting provider that is a persistent source of cyberattacks against enemies of Russia.  In May 2023, the U.S. attorney for Washington state  declared  “Fin7 is an entity no more,” after prosecutors secured convictions and prison sentences against three men found to be high-level Fin7 hackers or managers. This was a bold declaration against a group that the U.S. Department of Justice described as a criminal enterprise with more than 70 people organized into distinct business units and teams. The first signs of Fin7’s revival came in April 2024, when  Blackberry  wrote about an intrusion at a large automotive firm that began with  malware served by a typosquatting attack  targeting people searching for a popular free network scanning tool. Now, researchers at security firm  Silent Push   say  they have devised a way to map out Fin7’s rapidly regrowing cybercrime infrastructure, which includes more than 4,000 hosts that employ a range of exploits, from typosquatting and booby-trapped ads to malicious browser extensions and spearphishing domains. Silent Push said it found Fin7 domains targeting or spoofing brands including  American Express ,  Affinity Energy ,  Airtable ,  Alliant ,  Android Developer ,  Asana ,  Bitwarden ,  Bloomberg ,  Cisco (Webex) ,  CNN ,  Costco ,  Dropbox ,  Grammarly ,  Google,   Goto.com ,  Harvard ,  Lexis Nexis ,  Meta ,  Microsoft 365 ,  Midjourney ,  Netflix ,  Paycor ,  Quickbooks ,  Quicken ,  Reuters ,  Regions Bank Onepass ,  RuPay ,  SAP (Ariba) ,  Trezor ,  Twitter/X ,  Wall Street Journal ,  Westlaw , and  Zoom , among others. Zach Edwards , senior threat analyst at Silent Push, said many of the Fin7 domains are innocuous-looking websites for generic businesses that sometimes include text from default website templates (the content on these sites often has nothing to do with the entity’s stated business or mission). Edwards said Fin7 does this to “age” the domains and to give them a positive or at least benign reputation before they’re eventually converted for use in hosting brand-specific phishing pages. “It took them six to nine months to ramp up, but ever since January of this year they have been humming, building a giant phishing infrastructure and aging domains,” Edwards said of the cybercrime group. In typosquatting attacks, Fin7 registers domains that are similar to those for popular free software tools. Those look-alike domains are then advertised on Google so that sponsored links to them show up prominently in search results, which is usually above the legitimate source of the software in question. A malicious site spoofing FreeCAD showed up prominently as a sponsored result in Google search results earlier this year. According to Silent Push, the software currently being targeted by Fin7 includes  7-zip ,  PuTTY ,  ProtectedPDFViewer ,  AIMP ,  Notepad++ ,  Advanced IP Scanner ,  AnyDesk ,  pgAdmin ,  AutoDesk ,  Bitwarden ,  Rest Proxy ,  Python ,  Sublime Text , and  Node.js . In May 2024, security firm  eSentire   warned  that Fin7 was spotted using sponsored Google ads to serve pop-ups prompting people to download phony browser extensions that install malware.  Malwarebytes   blogged about a similar campaign  in April, but did not attribute the activity to any particular group. A pop-up at a Thomson Reuters typosquatting domain telling visitors they need to install a browser extension to view the news content. Edwards said Silent Push discovered the new Fin7 domains after a hearing from an organization that was targeted by Fin7 in years past and suspected the group was once again active. Searching for hosts that matched Fin7’s known profile revealed just one active site. But Edwards said that one site pointed to many other Fin7 properties at Stark Industries Solutions, a large hosting provider that materialized just two weeks before Russia invaded Ukraine. As KrebsOnSecurity  wrote in May , Stark Industries Solutions is being used as a staging ground for wave after wave of cyberattacks against Ukraine that have been tied to Russian military and intelligence agencies. “FIN7 rents a large amount of dedicated IP on Stark Industries,” Edwards said. “Our analysts have discovered numerous Stark Industries IPs that are solely dedicated to hosting FIN7 infrastructure.” Fin7 once famously operated behind fake cybersecurity companies — with names like  Combi Security  and  Bastion Secure  — which they used for  hiring security experts  to aid in ransomware attacks. One of the new Fin7 domains identified by Silent Push is  cybercloudsec[.]com , which promises to “grow your business with our IT, cyber security and cloud solutions.” The fake Fin7 security firm Cybercloudsec. Like other phishing groups, Fin7 seizes on current events, and at the moment it is targeting tourists visiting France for the Summer Olympics later this month. Among the new Fin7 domains Silent Push found are several sites phishing people seeking tickets at  the Louvre . “We believe this research makes it clear that Fin7 is back and scaling up quickly,” Edwards said. “It’s our hope that the law enforcement community takes notice of this and puts Fin7 back on their radar for additional enforcement actions, and that quite a few of our competitors will be able to take this pool and expand into all or a good chunk of their infrastructure.” Further reading: Stark Industries Solutions: An Iron Hammer in the Cloud . A 2022 deep dive on Fin7 from the Swiss threat intelligence firm Prodaft  (PDF).</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>July 10, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>The Not-So-Secret Network Access Broker x999xx</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Most accomplished cybercriminals go out of their way to separate their real names from their hacker handles. But among certain old-school Russian hackers it is not uncommon to find major players who have done little to prevent people from figuring out who they are in real life. A case study in this phenomenon is “ x999xx ,” the nickname chosen by a venerated Russian hacker who specializes in providing the initial network access to various ransomware groups. x999xx is a well-known “access broker” who frequently sells access to hacked corporate networks — usually in the form of remote access credentials — as well as compromised databases containing large amounts of personal and financial data. In an analysis published in February 2019, cyber intelligence firm  Flashpoint  called x999xx one of the most senior and prolific members of the top-tier Russian-language cybercrime forum  Exploit , where x999xx could be seen frequently advertising the sale of stolen databases and network credentials. In August 2023, x999xx sold access to a company that develops software for the real estate industry. In July 2023, x999xx advertised the sale of Social Security numbers, names, and birthdays for the citizenry of an entire U.S. state (unnamed in the auction). A month earlier, x999xx posted a sales thread for 80 databases taken from Australia’s largest retail company. “You may use this data to demand a ransom or do something different with it,” x999xx wrote on Exploit. “Unfortunately, the flaw was patched fast. [+] no one has used the data yet [+] the data hasn’t been used to send spam [+] the data is waiting for its time.” In October 2022, x999xx sold administrative access to a U.S. healthcare provider. The oldest account by the name x999xx appeared in 2009 on the Russian language cybercrime forum  Verified , under the email address  maxnm@ozersk.com . Ozersk is a city in the Chelyabinsk region of west-central Russia. According to the breach tracking service  Constella Intelligence , the address maxnm@ozersk.com was used more than a decade ago to create an account at  Vktontakte  (the Russian answer to Facebook) under the name  Maxim Kirtsov  from Ozersk. Mr. Kirtsov’s profile — “ maxnm ” — says his birthday is September 5, 1991. Personal photos Maxnm shared on Vktontakte in 2016. The caption has been machine translated from Russian. The user x999xx registered on the Russian language cybercrime community  Zloy  in 2014 using the email address  maxnmalias-1@yahoo.com . Constella says this email address was used in 2022 at the Russian shipping service  cdek.ru  by a  Maksim Georgievich Kirtsov  from Ozersk. Additional searches on these contact details reveal that prior to 2009, x999xx favored the handle Maxnm on Russian cybercrime forums. Cyber intelligence company  Intel 471  finds the user Maxnm registered on Zloy in 2006 from an Internet address in Chelyabinsk, using the email address  kirtsov@telecom.ozersk.ru . That same email address was used to create Maxnm accounts on several other crime forums, including  Spamdot  and  Exploit  in 2005 (also from Chelyabinsk), and  Damagelab  in 2006. A search in Constella for the Russian version of Kirtsov’s full name —  Кирцов Максим Георгиевич  — brings up multiple accounts registered to  maksya@icloud.com . A review of the digital footprint for maksya@icloud.com at  osint.industries  reveals this address was used a decade ago to register a still-active account at  imageshack.com  under the name x999xx. That account features numerous screenshots of financial statements from various banks, chat logs with other hackers, and even hacked websites. x999xx’s Imageshack account includes screenshots of bank account balances from dozens of financial institutions, as well as chat logs with other hackers and pictures of homegrown weed. Some of the photos in that Imageshack account also appear on Kirtsov’s Vkontakte page, including images of vehicles he owns, as well as pictures of potted marijuana plants. Kirtsov’s Vkontakte profile says that in 2012 he was a faculty member of the  Ozersk Technological Institute National Research Nuclear University . The Vkontakte page lists Kirtsov’s occupation as a website called  ozersk[.]today , which on the surface appears to be a blog about life in Ozersk. However, in 2019 the security firm  Recorded Future  published  a blog post  which found this domain was being used to host a malicious  Cobalt Strike  server. Cobalt Strike is a commercial network penetration testing and reconnaissance tool that is sold only to vetted partners. But stolen or ill-gotten Cobalt Strike licenses are frequently abused by cybercriminal gangs to help lay the groundwork for the installation of ransomware on a victim network. In August 2023, x999xx posted a message on Exploit saying he was interested in buying a licensed version of Cobalt Strike. A month earlier, x999xx filed a complaint on Exploit against another forum member named  Cobaltforce , an apparent onetime partner whose sudden and prolonged disappearance from the community left x999xx and others in the lurch. Cobaltforce recruited people experienced in using Cobalt Strike for ransomware operations, and offered to monetize access to hacked networks for a share of the profits. DomainTools.com  finds ozersk[.]today was registered to the email address  dashin2008@yahoo.com , which also was used to register roughly two dozen other domains, including  x999xx[.]biz . Virtually all of those domains were registered to Maxim Kirtsov from Ozersk. Below is a mind map used to track the identities mentioned in this story. A visual depiction of the data points connecting x999xx to Max Kirtsov. x999xx is a prolific member of the Russian webmaster forum “Gofuckbiz,” with more than 2,000 posts over nearly a decade, according to Intel 471. In one post from 2016, x999xx asked whether anyone knew where he could buy a heat lamp that simulates sunlight, explaining that one his pet rabbits had recently perished for lack of adequate light and heat. Mr. Kirtsov’s Vkontakte page includes several pictures of caged rabbits from 2015 and earlier. Reached via email, Mr. Kirtsov acknowledged that he is x999xx. Kirtsov said he and his team are also regular readers of KrebsOnSecurity. “We’re glad to hear and read you,” Kirtsov replied. Asked whether he was concerned about the legal and moral implications of his work, Kirtsov downplayed his role in ransomware intrusions, saying he was more focused on harvesting data. “I consider myself as committed to ethical practices as you are,” Kirtsov wrote. “I have also embarked on research and am currently mentoring students. You may have noticed my activities on a forum, which I assume you know of through information gathered from public sources, possibly using the new tool you reviewed.” “Regarding my posts about selling access, I must honestly admit, upon reviewing my own actions, I recall such mentions but believe they were never actualized,” he continued. “Many use the forum for self-serving purposes, which explains why listings of targets for sale have dwindled — they simply ceased being viable.” Kirtsov asserted that he is not interested in harming healthcare institutions, just in stealing their data. “As for health-related matters, I was once acquainted with affluent webmasters who would pay up to $50 for every 1000 health-themed emails,” Kirtsov said. “Therefore, I had no interest in the more sensitive data from medical institutions like X-rays, insurance numbers, or even names; I focused solely on emails. I am proficient in SQL, hence my ease with handling data like IDs and emails. And i never doing spam or something like this.” On the Russian crime forums, x999xx said he never targets anything or anyone in Russia, and that he has little to fear from domestic law enforcement agencies provided he remains focused on foreign adversaries. x999xx’s lackadaisical approach to personal security mirrors that of  Wazawaka , another top Russian access broker who sold access to countless organizations and even operated his own ransomware affiliate programs. “Don’t shit where you live, travel local, and don’t go abroad,” Wazawaka said of his own personal mantra. “Mother Russia will help you. Love your country, and you will always get away with everything.” In January 2022, KrebsOnSecurity  followed clues left behind by Wazawaka  to identify him as 32-year-old  Mikhail Matveev  from Khakassia, Russia. In May 2023, the  U.S. Department of Justice   indicted Matveev  as a key figure in several ransomware groups that collectively extorted hundreds of millions of dollars from victim organizations. The  U.S. State Department   is offering  a $10 million reward  for information leading to the capture and/or prosecution of Matveev. Perhaps in recognition that many top ransomware criminals are largely untouchable so long as they remain in Russia, western law enforcement agencies have begun focusing more on getting inside the heads of those individuals. These so-called “ psyops ” are aimed at infiltrating ransomware-as-a-service operations, disrupting major cybercrime services, and decreasing trust within cybercriminal communities. When authorities in the U.S. and U.K. announced in February 2024 that they’d  infiltrated and seized  the infrastructure used by the infamous  LockBit  ransomware gang, they borrowed the existing design of LockBit’s victim shaming website to link instead to press releases about the takedown, and included a countdown timer that was eventually replaced with the personal details of  LockBit’s alleged leader . In May 2024, law enforcement agencies in the United States and Europe announced  Operation Endgame , a coordinated action against some of the most popular cybercrime platforms for delivering ransomware and data-stealing malware. The Operation Endgame website also included a countdown timer, which served to tease the release of several animated videos that mimic the same sort of flashy, short advertisements that established cybercriminals often produce to promote their services online.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>July 3, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Alleged Boss of ‘Scattered Spider’ Hacking Group Arrested</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A 22-year-old man from the United Kingdom arrested this week in Spain is allegedly the ringleader of  Scattered Spider , a cybercrime group suspected of hacking into  Twilio ,  LastPass ,  DoorDash ,  Mailchimp , and nearly 130 other organizations over the past two years. The Spanish daily  Murcia Today  reports the suspect was wanted by the FBI and arrested in  Palma de Mallorca  as he tried to board a flight to Italy. A still frame from a video released by the Spanish national police shows Tylerb in custody at the airport. “He stands accused of hacking into corporate accounts and stealing critical information, which allegedly enabled the group to access multi-million-dollar funds,” Murcia Today  wrote . “According to Palma police, at one point he controlled Bitcoins worth $27 million.” The cybercrime-focused Twitter/X account  vx-underground  said the U.K. man arrested was a  SIM-swapper  who went by the alias “ Tyler .” In a SIM-swapping attack, crooks transfer the target’s phone number to a device they control and intercept any text messages or phone calls sent to the victim — including one-time passcodes for authentication, or password reset links sent via SMS. “He is a known SIM-swapper and is allegedly involved with the infamous Scattered Spider group,” vx-underground  wrote  on June 15, referring to a prolific gang implicated in  costly data ransom attacks at MGM and Caesars casinos  in Las Vegas last year. Sources familiar with the investigation told KrebsOnSecurity the accused is a 22-year-old from Dundee, Scotland named  Tyler Buchanan , also allegedly known as “ tylerb ” on Telegram chat channels centered around SIM-swapping. In January 2024, U.S. authorities  arrested another alleged Scattered Spider member  — 19-year-old  Noah Michael Urban  of Palm Coast, Fla. — and charged him with stealing at least $800,000 from five victims between August 2022 and March 2023. Urban allegedly went by the nicknames “ Sosa ” and “ King Bob, ” and is believed to be part of the same crew that hacked Twilio and a slew of other companies in 2022. Investigators say Scattered Spider members are part of a more diffuse cybercriminal community online known as “ The Com ,” wherein hackers from different cliques boast loudly about high-profile cyber thefts that almost invariably begin with social engineering — tricking people over the phone, email or SMS into giving away credentials that allow remote access to corporate internal networks. One of the more popular SIM-swapping channels on Telegram maintains a frequently updated leaderboard of the most accomplished SIM-swappers, indexed by their supposed conquests in stealing cryptocurrency. That leaderboard currently lists Sosa as #24 (out of 100), and Tylerb at #65. In August 2022, KrebsOnSecurity  wrote about peering inside the data harvested in a months-long cybercrime campaign by Scattered Spider  involving countless SMS-based phishing attacks against employees at major corporations. The security firm  Group-IB  called the gang by a different name —  0ktapus , a nod to how the criminal group phished employees for credentials. The missives asked users to click a link and log in at a phishing page that mimicked their employer’s  Okta  authentication page. Those who submitted credentials were then prompted to provide the one-time password needed for multi-factor authentication. These phishing attacks used newly-registered domains that often included the name of the targeted company, and sent text messages urging employees to click on links to these domains to view information about a pending change in their work schedule. The phishing sites also featured a hidden Telegram instant message bot to forward any submitted credentials in real-time, allowing the attackers to use the phished username, password and one-time code to log in as that employee at the real employer website. One of Scattered Spider’s first big victims in its 2022 SMS phishing spree was Twilio, a company that provides services for making and receiving text messages and phone calls. The group then pivoted, using their access to Twilio to attack at least 163 of its customers. A Scattered Spider phishing lure sent to Twilio employees. Among those was the encrypted messaging app  Signal , which  said  the breach could have let attackers re-register the phone number on another device for about 1,900 users. Also in August 2022, several employees at email delivery firm Mailchimp provided their remote access credentials to this phishing group. According to Mailchimp, the attackers used their access to Mailchimp employee accounts to steal data from 214 customers involved in cryptocurrency and finance. On August 25, 2022, the password manager service LastPass disclosed a breach in which attackers stole some source code and proprietary LastPass technical information, and weeks later LastPass said an investigation revealed no customer data or password vaults were accessed. However, on November 30, 2022 LastPass disclosed a far more serious breach that the company said leveraged data stolen in the August breach. LastPass said criminal hackers had stolen encrypted copies of some password vaults, as well as other personal information. In February 2023, LastPass disclosed that the intrusion involved a highly complex, targeted attack against an engineer who was one of only four LastPass employees with access to the corporate vault. In that incident, the attackers exploited a security vulnerability in a Plex media server that the employee was running on his home network, and succeeded in installing malicious software that stole passwords and other authentication credentials. The vulnerability exploited by the intruders was patched back in 2020, but the employee never updated his Plex software. Plex announced its own data breach one day before LastPass disclosed its initial August intrusion. On August 24, 2022, Plex’s security team urged users to reset their passwords, saying an intruder had accessed customer emails, usernames and encrypted passwords. Sosa and Tylerb were both subjected to  physical attacks from rival SIM-swapping gangs . These communities have been known to settle scores by turning to so-called “violence-as-a-service” offerings on cybercrime channels, wherein people can be hired to perform a variety geographically-specific “in real life” jobs, such as bricking windows, slashing car tires, or even home invasions. In 2022, a video surfaced on a popular cybercrime channel purporting to show attackers hurling a brick through a window at an address that matches the spacious and upscale home of Urban’s parents in Sanford, Fl. January’s story on Sosa noted that a junior member of his crew named “Foreshadow” was  kidnapped, beaten and held for ransom in September 2022 . Foreshadow’s captors held guns to his bloodied head while forcing him to record a video message pleading with his crew to fork over a $200,000 ransom in exchange for his life (Foreshadow escaped further harm in that incident). According to several SIM-swapping channels on Telegram where Tylerb was known to frequent, rival SIM-swappers hired thugs to invade his home in February 2023. Those accounts state that the intruders assaulted Tylerb’s mother in the home invasion, and that they threatened to burn him with a blowtorch if he didn’t give up the keys to his cryptocurrency wallets. Tylerb was reputed to have fled the United Kingdom after that assault. KrebsOnSecurity sought comment from Mr. Buchanan, and will update this story in the event he responds.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>June 15, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>‘Operation Endgame’ Hits Malware Delivery Platforms</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Law enforcement agencies in the United States and Europe today announced  Operation Endgame , a coordinated action against some of the most popular cybercrime platforms for delivering ransomware and data-stealing malware. Dubbed “the largest ever operation against botnets,” the international effort is being billed as the opening salvo in an ongoing campaign targeting advanced malware “droppers” or “loaders” like  IcedID ,  Smokeloader  and  Trickbot . A frame from one of three animated videos released today in connection with Operation Endgame. Operation Endgame targets the cybercrime ecosystem supporting droppers/loaders, slang terms used to describe tiny, custom-made programs designed to surreptitiously install malware onto a target system. Droppers are typically used in the initial stages of a breach, and they allow cybercriminals to bypass security measures and deploy additional harmful programs, including viruses, ransomware, or spyware. Droppers like IcedID are most often deployed through email attachments, hacked websites, or bundled with legitimate software. For example, cybercriminals have long used  paid ads on Google to trick people into installing malware  disguised as popular free software, such as Microsoft Teams, Adobe Reader and Discord. In those cases, the dropper is the hidden component bundled with the legitimate software that quietly loads malware onto the user’s system. Droppers remain such a critical, human-intensive component of nearly all major cybercrime enterprises that the most popular have turned into full-fledged cybercrime services of their own. By targeting the individuals who develop and maintain dropper services and their supporting infrastructure, authorities are hoping to disrupt multiple cybercriminal operations simultaneously. According to  a statement  from the European police agency  Europol , between May 27 and May 29, 2024 authorities arrested four suspects (one in Armenia and three in Ukraine), and disrupted or took down more than 100 Internet servers in Bulgaria, Canada, Germany, Lithuania, the Netherlands, Romania, Switzerland, the United Kingdom, United States and Ukraine. Authorities say they also seized more than 2,000 domain names that supported dropper infrastructure online. In addition, Europol released information on eight fugitives suspected of involvement in dropper services and who are wanted by Germany; their names and photos were added to Europol’s “Most Wanted” list on 30 May 2024. A “wanted” poster including the names and photos of eight suspects wanted by Germany and now on Europol’s “Most Wanted” list. “It has been discovered through the investigations so far that one of the main suspects has earned at least EUR 69 million in cryptocurrency by renting out criminal infrastructure sites to deploy ransomware,” Europol wrote. “The suspect’s transactions are constantly being monitored and legal permission to seize these assets upon future actions has already been obtained.” There have been  numerous such coordinated malware takedown efforts  in the past, and yet often the substantial amount of coordination required between law enforcement agencies and cybersecurity firms involved is not sustained after the initial disruption and/or arrests. But a new website erected to detail today’s action —  operation-endgame.com  — makes the case that this time is different, and that more takedowns and arrests are coming. “Operation Endgame does not end today,” the site promises. “New actions will be announced on this website.” A message on operation-endgame.com promises more law enforcement and disruption actions. Perhaps in recognition that many of today’s top cybercriminals reside in countries that are effectively beyond the reach of international law enforcement, actions like Operation Endgame seem increasingly focused on mind games — i.e., trolling the hackers. Writing in this month’s issue of  Wired ,  Matt Burgess  makes the case that Western law enforcement officials have turned to psychological measures as an added way to slow down Russian hackers and cut to the heart of the sweeping cybercrime ecosystem. “These nascent psyops include efforts to erode the limited trust the criminals have in each other, driving subtle wedges between fragile hacker egos, and sending offenders personalized messages showing they’re being watched,” Burgess  wrote . When authorities in the U.S. and U.K. announced in February 2024 that they’d  infiltrated and seized  the infrastructure used by the infamous  LockBit  ransomware gang, they borrowed the existing design of LockBit’s victim shaming website to link instead to press releases about the takedown, and included a countdown timer that was eventually replaced with the personal details of  LockBit’s alleged leader . The feds used the existing design on LockBit’s victim shaming website to feature press releases and free decryption tools. The Operation Endgame website also includes a countdown timer, which serves to tease the release of several animated videos that mimic the same sort of flashy, short advertisements that established cybercriminals often produce to promote their services online. At least two of the videos include a substantial amount of text written in Russian. The coordinated takedown comes on the heels of another law enforcement action this week against what the director of the FBI called “ likely the world’s largest botnet ever .” On Wednesday  U.S. Department of Justice  (DOJ) announced the arrest of  YunHe Wang , the alleged operator of the ten-year-old online anonymity service  911 S5 . The government also seized 911 S5’s domains and online infrastructure, which allegedly turned computers running various “free VPN” products into Internet traffic relays that facilitated billions of dollars in online fraud and cybercrime.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>May 30, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Stark Industries Solutions: An Iron Hammer in the Cloud</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The homepage of Stark Industries Solutions. Two weeks before Russia invaded Ukraine in February 2022, a large, mysterious new Internet hosting firm called  Stark Industries Solutions  materialized and quickly became the epicenter of massive distributed denial-of-service (DDoS) attacks on government and commercial targets in Ukraine and Europe. An investigation into Stark Industries reveals it is being used as a global proxy network that conceals the true source of cyberattacks and disinformation campaigns against enemies of Russia. At least a dozen patriotic Russian hacking groups have been launching DDoS attacks since the start of the war at a variety of targets seen as opposed to Moscow. But by all accounts, few attacks from those gangs have come close to the amount of firepower wielded by a pro-Russia group calling itself “ NoName057(16) .” This graphic comes from a recent report from NETSCOUT about DDoS attacks from Russian hacktivist groups. As detailed by researchers at  Radware , NoName has effectively gamified DDoS attacks,  recruiting hacktivists  via its Telegram channel and offering to pay people who agree to install a piece of software called  DDoSia . That program allows NoName to commandeer the host computers and their Internet connections in coordinated DDoS campaigns, and DDoSia users with the most attacks can win cash prizes. The NoName DDoS group advertising on Telegram. Image: SentinelOne.com. A  report  from the security firm  Team Cymru  found the DDoS attack infrastructure used in NoName campaigns is assigned to two interlinked hosting providers:  MIRhosting  and  Stark Industries . MIRhosting is a hosting provider founded in The Netherlands in 2004. But  Stark Industries Solutions Ltd  was incorporated on February 10, 2022, just two weeks before the Russian invasion of Ukraine. Security experts say that not long after the war started, Stark began hosting dozens of proxy services and free virtual private networking (VPN) services, which are designed to help users shield their Internet usage and location from prying eyes. Proxy providers allow users to route their Internet and Web browsing traffic through someone else’s computer. From a website’s perspective, the traffic from a proxy network user appears to originate from the rented IP address, not from the proxy service customer.  These services can be used in a legitimate manner for several business purposes — such as price comparisons or sales intelligence — but they are also massively abused for hiding cybercrime activity because they can make it difficult to trace malicious traffic to its original source. What’s more, many proxy services do not disclose how they obtain access to the proxies they are renting out, and in many cases the access is obtained through the dissemination of malicious software that turns the infected system into a traffic relay — usually unbeknownst to the legitimate owner of the Internet connection. Other proxy services will allow users to make money by renting out their Internet connection to anyone. Spur.us  is a company that tracks VPNs and proxy services worldwide. Spur finds that Stark Industries (AS44477) currently is home to at least 74 VPN services, and 40 different proxy services. As we’ll see in the final section of this story, just one of those proxy networks has over a million Internet addresses available for rent across the globe. Raymond Dijkxhoorn  operates a hosting firm in The Netherlands called  Prolocation . He also co-runs  SURBL , an anti-abuse service that flags domains and Internet address ranges that are strongly associated with spam and cybercrime activity, including DDoS. Dijkxhoorn said last year SURBL heard from multiple people who said they operated VPN services whose web resources were included in SURBL’s block lists. “We had people doing delistings at SURBL for domain names that were suspended by the registrars,” Dijkhoorn told KrebsOnSecurity. “And at least two of them explained that Stark offered them free VPN services that they were reselling.” Dijkxhoorn added that Stark Industries also sponsored activist groups from Ukraine. “How valuable would it be for Russia to know the real IPs from Ukraine’s tech warriors?” he observed. Richard Hummel  is threat intelligence lead at  NETSCOUT . Hummel said when he considers the worst of all the hosting providers out there today, Stark Industries is consistently near or at the top of that list. “The reason is we’ve had at least a dozen service providers come to us saying, ‘There’s this network out there inundating us with traffic,'” Hummel said. “And it wasn’t even DDoS attacks. [The systems] on Stark were just scanning these providers so fast it was crashing some of their services.” Hummel said NoName will typically launch their attacks using a mix of resources rented from major, legitimate cloud services, and those from so-called “ bulletproof ” hosting providers like Stark. Bulletproof providers are so named when they earn or cultivate a reputation for ignoring any abuse complaints or police reports about activity on their networks. Combining bulletproof providers with legitimate cloud hosting, Hummel said, likely makes NoName’s DDoS campaigns more resilient because many network operators will hesitate to be too aggressive in blocking Internet addresses associated with the major cloud services. “What we typically see here is a distribution of cloud hosting providers and bulletproof hosting providers in DDoS attacks,” he said. “They’re using public cloud hosting providers because a lot of times that’s your first layer of network defense, and because [many companies are wary of] over-blocking access to legitimate cloud resources.” But even if the cloud provider detects abuse coming from the customer, the provider is probably not going to shut the customer down immediately, Hummel said. “There is usually a grace period, and even if that’s only an hour or two, you can still launch a large number of attacks in that time,” he said. “And then they just keep coming back and opening new cloud accounts.” Stark Industries is incorporated at a mail drop address in the United Kingdom. UK business records list an  Ivan Vladimirovich Neculiti  as the company’s secretary. Mr. Neculiti also is named as the CEO and founder of  PQ Hosting Plus S.R.L.  (aka Perfect Quality Hosting), a Moldovan company formed in 2019 that lists the same UK mail drop address as Stark Industries. Ivan Neculiti, as pictured on LinkedIn. Reached via LinkedIn, Mr. Neculiti said PQ Hosting established Stark Industries as a “white label” of its brand so that “resellers could distribute our services using our IP addresses and their clients would not have any affairs with PQ Hosting.” “PQ Hosting is a company with over 1,000+ of [our] own physical servers in 38 countries and we have over 100,000 clients,” he said. “Though we are not as large as Hetzner, Amazon and OVH, nevertheless we are a fast growing company that provides services to tens of thousands of private customers and legal entities.” Asked about the constant stream of DDoS attacks whose origins have traced back to Stark Industries over the past two years, Neculiti maintained Stark hasn’t received any official abuse reports about attacks coming from its networks. “It was probably some kind of clever attack that we did not see, I do not rule out this fact, because we have a very large number of clients and our Internet channels are quite large,” he said. “But, in this situation, unfortunately, no one contacted us to report that there was an attack from our addresses; if someone had contacted us, we would have definitely blocked the network data.” DomainTools.com  finds Ivan V. Neculiti was the owner of  war[.]md , a website launched in 2008 that chronicled the history of a 1990 armed conflict in Moldova known as the  Transnistria War  and the Moldo-Russian war. An ad for war.md, circa 2009. Transnistria is a breakaway pro-Russian region that declared itself a state in 1990, although it is not internationally recognized. The copyright on that website credits the “ MercenarieS TeaM ,” which was at one time a Moldovan IT firm. Mr. Neculiti confirmed personally registering this domain. The data breach tracking service  Constella Intelligence  reports that an Ivan V. Neculiti registered multiple online accounts under the email address  dfyz_bk@bk.ru . Cyber intelligence firm  Intel 471  shows this email address is tied to the username “ dfyz ” on more than a half-dozen Russian language cybercrime forums since 2008. The user dfyz on Searchengines[.]ru in 2008 asked other forum members to review war.md, and said they were part of the MercenarieS TeaM. Back then, dfyz was selling “bulletproof servers for any purpose,” meaning the hosting company would willfully ignore abuse complaints or police inquiries about the activity of its customers. DomainTools reports there are at least 33 domain names registered to dfyz_bk@bk.ru. Several of these domains have Ivan Neculiti in their registration records, including tracker-free[.]cn, which was registered to an Ivan Neculiti at  dfyz_bk@bk.ru  and referenced the MercenarieS TeaM in its original registration records. Dfyz also used the nickname  DonChicho , who likewise sold bulletproof hosting services and access to hacked Internet servers. In 2014, a prominent member of the Russian language cybercrime community  Antichat  filed a complaint against DonChicho, saying this user scammed them and had used the email address dfyz_bk@bk.ru. The complaint said DonChicho registered on Antichat from the Transnistria Internet address  84.234.55[.]29 . Searching this address in Constella reveals it has been used to register just five accounts online that have been created over the years, including one at ask.ru, where the user registered with the email address  neculitzy1@yandex.ru . Constella also returns for that email address a user by the name “Ivan” at memoraleak.com and 000webhost.com. Constella finds that the password most frequently used by the email address dfyz_bk@bk.ru was “ filecast ,” and that there are more than 90 email addresses associated with this password. Among them are roughly two dozen addresses with the name “Neculiti” in them, as well as the address  support@donservers[.]ru . Intel 471 says DonChicho posted to several Russian cybercrime forums that support@donservers[.]ru was his address, and that he logged into cybercrime forums almost exclusively from Internet addresses in  Tiraspol , the capital of  Transnistria . A review of DonChicho’s posts shows this person was banned from several forums in 2014 for scamming other users. Cached copies of DonChicho’s vanity domain ( donchicho[.]ru ) show that in 2009 he was a spammer who peddled knockoff prescription drugs via  Rx-Promotion , once one of the largest pharmacy spam moneymaking programs for Russian-speaking affiliates. Mr. Neculiti told KrebsOnSecurity he has never used the nickname DonChicho. “I may assure you that I have no relation to DonChicho nor to his bulletproof servers,” he said. Below is a mind map that shows the connections between the accounts mentioned above. A mind map tracing the history of the user Dfyz. Click to enlarge. Earlier this year, NoName began massively hitting government and industry websites in Moldova. A  new report  from  Arbor Networks  says the attacks began around March 6, when NoName alleged the government of Moldova was “craving for Russophobia.” “Since early March, more than 50 websites have been targeted, according to posted ‘proof’ by the groups involved in attacking the country,” Arbor’s  ASERT Team   wrote . “While NoName seemingly initiated the ramp of attacks, a host of other DDoS hacktivists have joined the fray in claiming credit for attacks across more than 15 industries.” The German independent news outlet  Correctiv.org  last week published  a scathing investigative report on Stark Industries and MIRhosting , which notes that Ivan Neculiti operates his hosting companies  with the help of his brother, Yuri . Image credit: correctiv.org. The report points out that Stark Industries continues to host a Russian disinformation news outlet called “Recent Reliable News” (RRN) that was  sanctioned by the European Union in 2023  for spreading links to propaganda blogs and fake European media and government websites. “The website was not running on computers in Moscow or St. Petersburg until recently, but in the middle of the EU, in the Netherlands, on the computers of the Neculiti brothers,” Correctiv reporters wrote. “After a request from this editorial team, a well-known service was installed that hides the actual web host,” the report continues. “Ivan Neculiti announced that he had blocked the associated access and server following internal investigations. “We very much regret that we are only now finding out that one of our customers is a sanctioned portal,” said the company boss. However, RRN is still accessible via its servers.” Correctiv also points to a January 2023 report from the Ukrainian government, which found servers from Stark Industries Solutions were used as part of a cyber attack on the Ukrainian news agency “ Ukrinform ”. Correctiv notes the notorious hacker group  Sandworm  — an advanced persistent threat (APT) group operated by a cyberwarfare unit of Russia’s military intelligence service — was  identified by Ukrainian government authorities  as responsible for that attack. Public records indicate MIRhosting is based in The Netherlands and is operated by 37-year old  Andrey Nesterenko , whose  personal website  says he is an accomplished concert pianist who began performing publicly at a young age. DomainTools says mirhosting[.]com is registered to Mr. Nesterenko and to  Innovation IT Solutions Corp , which lists addresses in London and in Nesterenko’s stated hometown of Nizhny Novgorod, Russia. This is interesting because according to the book  Inside Cyber Warfare  by  Jeffrey Carr , Innovation IT Solutions Corp. was responsible for hosting  StopGeorgia[.]ru , a hacktivist website for organizing cyberattacks against Georgia that appeared at the same time  Russian forces invaded the former Soviet nation in 2008 . That conflict was thought to be the first war ever fought in which a notable cyberattack and an actual military engagement happened simultaneously. Responding to questions from KrebsOnSecurity, Mr. Nesterenko said he couldn’t say whether his network had ever hosted the StopGeorgia website back in 2008 because his company didn’t keep records going back that far. But he said Stark Industries Solutions is indeed one of MIRhsoting’s colocation customers. “Our relationship is purely provider-customer,” Nesterenko said. “They also utilize multiple providers and data centers globally, so connecting them directly to MIRhosting overlooks their broader network.” “We take any report of malicious activity seriously and are always open to information that can help us identify and prevent misuse of our infrastructure, whether involving Stark Industries or any other customer,” Nesterenko continued. “In cases where our services are exploited for malicious purposes, we collaborate fully with Dutch cyber police and other relevant authorities to investigate and take appropriate measures. However, we have yet to receive any actionable information beyond the article itself, which has not provided us with sufficient detail to identify or block malicious actors.” In December 2022, security firm Recorded Future  profiled  the phishing and credential harvesting infrastructure used for Russia-aligned espionage operations by a group dubbed  Blue Charlie  (aka  TAG-53 ), which has targeted email accounts of nongovernmental organizations and think tanks, journalists, and government and defense officials. Recorded Future found that virtually all the Blue Charlie domains existed in just ten different ISPs, with a significant concentration located in two networks, one of which was MIRhosting. Both  Microsoft  and the  UK government  assess that Blue Charlie is linked to the Russian threat activity groups variously known as  Callisto Group ,  COLDRIVER , and  SEABORGIUM . Mr. Nesterenko took exception to  a story  on that report from  The Record , which is owned by Recorded Future. “We’ve discussed its contents with our customer, Stark Industries,” he said. “We understand that they have initiated legal proceedings against the website in question, as they firmly believe that the claims made are inaccurate.” Recorded Future said they updated their story with comments from Mr. Neculiti, but that they stand by their reporting. Mr. Nesterenko’s LinkedIn profile says he was previously the foreign region sales manager at  Serverius-as , a hosting company in The Netherlands that remains in the same data center as MIRhosting. In February, the Dutch police  took 13 servers offline  that were used by the infamous  LockBit ransomware group , which had originally  bragged on its darknet website  that its home base was in The Netherlands. Sources tell KrebsOnSecurity the servers seized by the Dutch police were located in Serverius’ data center in Dronten, which is also shared by MIRhosting. Serverius-as did not respond to requests for comment. Nesterenko said MIRhosting does use one of Serverius’s data centers for its operations in the Netherlands, alongside two other data centers, but that the recent incident involving the seizure of servers has no connection to MIRhosting. “We are legally prohibited by Dutch law and police regulations from sharing information with third parties regarding any communications we may have had,” he said. A February 2024 report from security firm  ESET   found  Serverius-as systems were involved in a series of targeted phishing attacks by Russia-aligned groups against Ukrainian entities throughout 2023. ESET observed that after the spearphishing domains were no longer active, they were converted to promoting rogue Internet pharmacy websites. A review of the Internet address ranges recently added to the network operated by Stark Industries Solutions offers some insight into its customer base, usage, and maybe even true origins.  Here is a snapshot  (PDF) of all Internet address ranges announced by Stark Industries so far in the month of May 2024 (this information was graciously collated by the network observability platform  Kentik.com ). Those records indicate that the largest portion of the IP space used by Stark is in The Netherlands, followed by Germany and the United States. Stark says it is connected to roughly 4,600 Internet addresses that currently list their ownership as  Comcast Cable Communications . A review of those address ranges  at spur.us  shows all of them are connected to an entity called  Proxyline , which is a sprawling proxy service based in Russia that currently says it has more than 1.6 million proxies globally that are available for rent. Proxyline dot net. Reached for comment, Comcast said the Internet address ranges never did belong to Comcast, so it is likely that Stark has been fudging the real location of its routing announcements in some cases. Stark reports that it has more than 67,000 Internet addresses at Santa Clara, Calif.-based  EGIhosting.  Spur says the Stark addresses involving EGIhosting all map to Proxyline as well. EGIhosting did not respond to requests for comment. EGIhosting manages Internet addresses for the Cyprus-based hosting firm  ITHOSTLINE LTD  (aka  HOSTLINE-LTD ), which is represented throughout Stark’s announced Internet ranges. Stark says it has more than 21,000 Internet addresses with HOSTLINE. Spur.us finds Proxyline addresses are especially concentrated in the Stark ranges labeled ITHOSTLINE LTD, HOSTLINE-LTD, and  Proline IT . Stark’s network list includes approximately 21,000 Internet addresses at Hockessin, De. based  DediPath , which  abruptly ceased operations without warning  in August 2023. According to a phishing report released last year by  Interisle Consulting , DediPath was the fourth most common source of phishing attacks in the year ending Oct. 2022. Spur.us likewise finds that virtually all of the  Stark address ranges marked “DediPath LLC”  are tied to Proxyline. Image: Interisle Consulting. A large number of the Internet address ranges announced by Stark in May originate in India, and the names that are self-assigned to many of these networks indicate they were previously used to send large volumes of spam for herbal medicinal products, with names like  HerbalFarm ,  AdsChrome ,  Nutravo ,  Herbzoot  and  Herbalve . The anti-spam organization  SpamHaus   reports  that many of the Indian IP address ranges are associated with known “snowshoe spam,” a form of abuse that involves mass email campaigns spread across several domains and IP addresses to weaken reputation metrics and avoid spam filters. It’s not clear how much of Stark’s network address space traces its origins to Russia, but big chunks of it recently belonged to some of the oldest entities on the Russian Internet (a.k.a. “Runet”). For example, many Stark address ranges were most recently assigned to a Russian government entity whose full name is the “ Federal State Autonomous Educational Establishment of Additional Professional Education Center of Realization of State Educational Policy and Informational Technologies .” A review of  Internet address ranges adjacent to this entity  reveals a long list of Russian government organizations that are part of the  Federal Guard Service of the Russian Federation .  Wikipedia says  the Federal Guard Service is a Russian federal government agency concerned with tasks related to protection of several high-ranking state officials, including the President of Russia, as well as certain federal properties. The agency traces its origins to the USSR’s Ninth Directorate of the KGB, and later the presidential security service. Stark recently announced the address range 213.159.64.0/20 from April 27 to May 1, and this range was previously assigned to an ancient ISP in St. Petersburg, RU called the  Computer Technologies Institute Ltd. According to a post on the Russian language webmaster forum searchengines[.]ru, the domain for Computer Technologies Institute —  ctinet[.]ru  —  is the seventh-oldest domain in the entire history of the Runet. Curiously, Stark also lists large tracts of Internet addresses (close to 48,000 in total) assigned to a small ISP in Kharkiv, Ukraine called  NetAssist . Reached via email, the CEO of NetAssist  Max Tulyev  confirmed his company provides a number of services to PQ Hosting. “We colocate their equipment in Warsaw, Madrid, Sofia and Thessaloniki, provide them IP transit and IPv4 addresses,” Tulyev said. “For their size, we receive relatively low number of complains to their networks. I never seen anything about their pro-Russian activity or support of Russian hackers. It is very interesting for me to see proofs of your accusations.” Spur.us mapped the entire infrastructure of Proxyline, and found more than one million proxies across multiple providers, but by far the biggest concentration was at Stark Industries Solutions. The  full list of Proxyline address ranges  (.CSV) shows two other ISPs appear repeatedly throughout the list. One is Kharkiv, Ukraine based  ITL LLC , also known as  Information Technology Laboratories Group , and  Integrated Technologies Laboratory. The second is a related hosting company in Miami, called  Green Floid LLC . Green Floid featured in  a 2017 scoop by CNN , which profiled the company’s owner and quizzed him about Russian troll farms using proxy networks on Green Floid and its parent firm ITL to mask disinformation efforts tied to the Kremlin’s  Internet Research Agency  (IRA). At the time, the IRA was using Facebook and other social media networks to spread videos showing police brutality against African Americans in an effort to encourage protests across the United States.  Doug Madory , director of Internet analysis at Kentik, was able to see at a high level the top sources and destinations for traffic traversing Stark’s network. “Based on our aggregate NetFlow, we see Iran as the top destination (35.1%) for traffic emanating from Stark (AS44477),” Madory said. “Specifically, the top destination is MTN Irancell, while the top source is Facebook. This data supports the theory that AS44477 houses proxy services as Facebook is blocked in Iran.” On April 30, the security firm  Malwarebytes   explored  an extensive malware operation that targets corporate Internet users with malicious ads. Among the sites used as lures in that campaign were fake  Wall Street Journal  and CNN websites that told visitors they were required to install a WSJ or CNN-branded browser extension (malware). Malwarebytes found a domain name central to that operation was hosted at Internet addresses owned by Stark Industries. Image: threatdown.com</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>May 23, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>How Did Authorities Identify the Alleged Lockbit Boss?</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Last week, the United States joined the U.K. and Australia in sanctioning and charging a Russian man named  Dmitry Yuryevich Khoroshev  as the leader of the infamous  LockBit  ransomware group. LockBit’s leader “ LockBitSupp ” claims the feds named the wrong guy, saying the charges don’t explain how they connected him to Khoroshev. This post examines the activities of Khoroshev’s many alter egos on the cybercrime forums, and tracks the career of a gifted malware author who has written and sold malicious code for the past 14 years. Dmitry Yuryevich Khoroshev. Image: treasury.gov. On May 7, the U.S. Department of Justice  indicted  Khoroshev on 26 criminal counts, including extortion, wire fraud, and conspiracy. The government alleges Khoroshev created, sold and used the LockBit ransomware strain to personally extort more than $100 million from hundreds of victim organizations, and that LockBit as a group extorted roughly half a billion dollars over four years. Federal investigators say Khoroshev ran LockBit as a “ ransomware-as-a-service ” operation, wherein he kept 20 percent of any ransom amount paid by a victim organization infected with his code, with the remaining 80 percent of the payment going to LockBit affiliates responsible for spreading the malware. Financial  sanctions levied against Khoroshev  by the  U.S. Department of the Treasury  listed his known email and street address (in Voronezh, in southwest Russia), passport number, and even his tax ID number (hello, Russian tax authorities). The Treasury filing says Khoroshev used the emails  sitedev5@yandex.ru , and  khoroshev1@icloud.com . According to  DomainTools.com , the address sitedev5@yandex.ru was used to register at least six domains, including a Russian business registered in Khoroshev’s name called  tkaner.com , which is a blog about clothing and fabrics. A search at the breach-tracking service  Constella Intelligence  on the phone number in Tkaner’s registration records  —  7.9521020220  — brings up multiple official Russian government documents listing the number’s owner as Dmitri Yurievich Khoroshev. Another domain registered to that phone number was  stairwell[.]ru , which at one point advertised the sale of wooden staircases. Constella finds that the email addresses webmaster@stairwell.ru and admin@stairwell.ru used the password  225948 . DomainTools reports that stairwell.ru for several years included the registrant’s name as “ Dmitrij Ju Horoshev ,” and the email address  pin@darktower.su . According to Constella, this email address was used in 2010 to register an account for a Dmitry Yurievich Khoroshev from Voronezh, Russia at the hosting provider  firstvds.ru . Image: Shutterstock. Cyber intelligence firm  Intel 471  finds that pin@darktower.ru was used by a Russian-speaking member called Pin on the English-language cybercrime forum  Opensc.  Pin was active on Opensc around March 2012, and authored 13 posts that mostly concerned data encryption issues, or how to fix bugs in code. Other posts concerned custom code Pin claimed to have written that would bypass memory protections on Windows XP and Windows 7 systems, and inject malware into memory space normally allocated to trusted applications on a Windows machine. Pin also was active at that same time on the Russian-language security forum  Antichat , where they told fellow forum members to contact them at the ICQ instant messenger number  669316 . A search on the ICQ number 669316 at Intel 471 shows that in April 2011, a user by the name  NeroWolfe  joined the Russian cybercrime forum  Zloy  using the email address  d.horoshev@gmail.com , and from an Internet address in Voronezh, RU. Constella finds the same password tied to webmaster@stairwell.ru (225948) was used by the email address  3k@xakep.ru , which Intel 471 says was registered to more than a dozen NeroWolfe accounts across just as many Russian cybercrime forums between 2011 and 2015. NeroWolfe’s introductory post to the forum  Verified  in Oct. 2011 said he was a system administrator and C++ coder. “Installing SpyEYE, ZeuS, any DDoS and spam admin panels,” NeroWolfe wrote. This user said they specialize in developing malware, creating computer worms, and crafting new ways to hijack Web browsers.  “I can provide my portfolio on request,” NeroWolfe wrote. “P.S. I don’t modify someone else’s code or work with someone else’s frameworks.” In April 2013, NeroWolfe wrote in a private message to another Verified forum user that he was selling a malware “loader” program that could bypass all of the security protections on Windows XP and Windows 7. “The access to the network is slightly restricted,” NeroWolfe said of the loader, which he was selling for $5,000. “You won’t manage to bind a port. However, it’s quite possible to send data. The code is written in C.” In an October 2013 discussion on the cybercrime forum  Exploit , NeroWolfe weighed in on the karmic ramifications of ransomware. At the time, ransomware-as-a-service didn’t exist yet, and many members of Exploit were still making good money from “lockers,” relatively crude programs that locked the user out of their system until they agreed to make a small payment (usually a few hundred dollars via prepaid Green Dot cards). Lockers, which presaged the coming ransomware scourge, were generally viewed by the Russian-speaking cybercrime forums as harmless moneymaking opportunities, because they usually didn’t seek to harm the host computer or endanger files on the system. Also, there were still plenty of locker programs that aspiring cybercriminals could either buy or rent to make a steady income. NeroWolfe reminded forum denizens that they were just as vulnerable to ransomware attacks as their would-be victims, and that what goes around comes around. “Guys, do you have a conscience?,” NeroWolfe wrote. “Okay, lockers, network gopstop aka business in Russian. The last thing was always squeezed out of the suckers. But encoders, no one is protected from them, including the local audience.” If Khoroshev was ever worried that someone outside of Russia might be able to connect his early hacker handles to his real life persona, that’s not clear from reviewing his history online. In fact, the same email address tied to so many of NeroWolfe’s accounts on the forums — 3k@xakep.ru — was used in 2011 to create an account for a Dmitry Yurevich Khoroshev on the Russian social media network  Vkontakte . NeroWolfe seems to have abandoned all of his forum accounts sometime in 2016. In November 2016, an exploit[.]ru member filed an official complaint against NeroWolfe, saying NeroWolfe had been paid $2,000 to produce custom code but never finished the project and vanished. It’s unclear what happened to NeroWolfe or to Khoroshev during this time. Maybe he got arrested, or some close associates did. Perhaps he just decided it was time to lay low and hit the reset on his operational security efforts, given his past failures in this regard. It’s also possible NeroWolfe landed a real job somewhere for a few years, fathered a child, and/or had to put his cybercrime career on hold. Or perhaps Khoroshev saw the coming ransomware industry for the endless pot of gold that it was about to become, and then dedicated himself to working on custom ransomware code. That’s what the government believes. The indictment against Khoroshev says he used the hacker nickname  Putinkrab , and Intel 471 says this corresponds to a username that was first registered across three major Russian cybercrime forums in early 2019. KrebsOnSecurity could find no obvious connections between Putinkrab and any of Khoroshev’s older identities. However, if Putinkrab was Khoroshev, he would have learned from his past mistakes and started fresh with a new identity (which he did). But also, it is likely the government hasn’t shared all of the intelligence it has collected against him (more on that in a bit). Putinkrab’s first posts on the Russian cybercrime forums XSS, Exploit and UFOLabs saw this user selling ransomware source code written in C. A machine-translated ad for ransomware source code from Putinkrab on the Russian language cybercrime forum UFOlabs in 2019. Image: Ke-la.com. In April 2019, Putkinkrab offered an affiliate program that would run on top of his custom-made ransomware code. “I want to work for a share of the ransoms: 20/80,” Putinkrab wrote on Exploit. “20 percent is my percentage for the work, you get 80% of the ransoms. The percentage can be reduced up to 10/90 if the volumes are good. But now, temporarily, until the service is fully automated, we are working using a different algorithm.” Throughout the summer of 2019, Putinkrab posted multiple updates to Exploit about new features being added to his ransomware strain, as well as novel evasion techniques to avoid detection by security tools. He also told forum members he was looking for investors for a new ransomware project based on his code. In response to an Exploit member who complained that the security industry was making it harder to profit from ransomware, Putinkrab said that was because so many cybercriminals were relying on crappy ransomware code. “The vast majority of top antiviruses have acquired behavioral analysis, which blocks 95% of crypto-lockers at their root,” Putinkrab wrote. “Cryptolockers made a lot of noise in the press, but lazy system administrators don’t make backups after that. The vast majority of cryptolockers are written by people who have little understanding of cryptography. Therefore, decryptors appear on the Internet, and with them the hope that files can be decrypted without paying a ransom. They just sit and wait. Contact with the owner of the key is lost over time.” Putinkrab said he had every confidence his ransomware code was a game-changer, and a huge money machine. “The game is just gaining momentum,” Putinkrab wrote. “Weak players lose and are eliminated.” The rest of his response was structured like a poem: “In this world, the strongest survive. 
-Our life is just a struggle. 
-The winner will be the smartest, 
-Who has his head on his shoulders.” Putinkrab’s final post came on August 23, 2019. The Justice Department says the LockBit ransomware affiliate program was officially launched five months later. From there on out, the government says, Khoroshev adopted the persona of LockBitSupp. In his introductory post on Exploit, LockBit’s mastermind said the ransomware strain had been in development since September 2019. The original LockBit malware was written in C (a language that NeroWolfe excelled at). Here’s the original description of LockBit, from its maker: “The software is written in C and Assembler; encryption is performed through the I/O Completion Port; there is a port scanning local networks and an option to find all DFS, SMB, WebDAV network shares, an admin panel in Tor, automatic test decryption; a decryption tool is provided; there is a chat with Push notifications, a Jabber bot that forwards correspondence and an option to terminate services/processes in line which prevent the ransomware from opening files at a certain moment. The ransomware sets file permissions and removes blocking attributes, deletes shadow copies, clears logs and mounts hidden partitions; there is an option to drag-and-drop files/folders and a console/hidden mode. The ransomware encrypts files in parts in various places: the larger the file size, the more parts there are. The algorithms used are AES + RSA. You are the one who determines the ransom amount after communicating with the victim. The ransom paid in any currency that suits you will be transferred to your wallets. The Jabber bot serves as an admin panel and is used for banning, providing decryption tools, chatting – Jabber is used for absolutely everything.” Does the above timeline prove that NeroWolfe/Khoroshev is LockBitSupp? No. However, it does indicate Khoroshev was for many years deeply invested in countless schemes involving botnets, stolen data, and malware he wrote that others used to great effect. NeroWolfe’s many private messages from fellow forum members confirm this. NeroWolfe’s specialty was creating custom code that employed novel stealth and evasion techniques, and he was always quick to volunteer his services on the forums whenever anyone was looking help on a malware project that called for a strong C or C++ programmer. Someone with those qualifications — as well as demonstrated mastery of data encryption and decryption techniques — would have been in great demand by the ransomware-as-a-service industry that took off at around the same time NeroWolfe vanished from the forums. Someone like that who is near or at the top of their game vis-a-vis their peers does not simply walk away from that level of influence, community status, and potential income stream unless forced to do so by circumstances beyond their immediate control. It’s important to note that Putinkrab didn’t just materialize out of thin air in 2019 — suddenly endowed with knowledge about how to write advanced, stealthy ransomware strains. That knowledge clearly came from someone who’d already had years of experience building and deploying ransomware strains against real-life victim organizations. Thus, whoever Putinkrab was before they adopted that moniker, it’s a safe bet they were involved in the development and use of earlier, highly successful ransomware strains. One strong possible candidate is  Cerber ransomware , the most popular and effective affiliate program operating between early 2016 and mid-2017. Cerber thrived because it emerged as an early mover in the market for ransomware-as-a-service offerings. In February 2024,  the FBI seized LockBit’s cybercrime infrastructure on the dark web , following an apparently lengthy infiltration of the group’s operations. The United States has already indicted and sanctioned at least five other alleged LockBit ringleaders or affiliates, so presumably the feds have been able to draw additional resources from those investigations. Also, it seems likely that the three national intelligence agencies involved in bringing these charges are not showing all of their cards. For example, the Treasury documents on Khoroshev mention a single cryptocurrency address, and yet experts interviewed for this story say there are no obvious clues connecting this address to Khoroshev or Putinkrab. But given that LockBitSupp has been actively involved in Lockbit ransomware attacks against organizations for four years now, the government almost certainly has an extensive list of the LockBit leader’s various cryptocurrency addresses — and probably even his bank accounts in Russia. And no doubt the money trail from some of those transactions was traceable to its ultimate beneficiary (or close enough). Not long after Khoroshev was charged as the leader of LockBit, a number of open-source intelligence accounts on Telegram began extending the information released by the Treasury Department. Within hours, these sleuths had unearthed more than a dozen credit card accounts used by Khoroshev over the past decade, as well as his various bank account numbers in Russia. The point is, this post is based on data that’s available to and verifiable by KrebsOnSecurity. Woodward &amp; Bernstein’s source in the Watergate investigation — Deep Throat — famously told the two reporters to “follow the money.” This is always excellent advice. But these days, that can be a lot easier said than done — especially with people who a) do not wish to be found, and b) don’t exactly file annual reports.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>May 13, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Man Who Mass-Extorted Psychotherapy Patients Gets Six Years</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A 26-year-old Finnish man was sentenced to more than six years in prison today after being convicted of hacking into an online psychotherapy clinic, leaking tens of thousands of patient therapy records, and attempting to extort the clinic and patients.  On October 21, 2020, the  Vastaamo Psychotherapy Center  in Finland became the target of blackmail when a tormentor identified as “ransom_man” demanded payment of 40 bitcoins (~450,000 euros at the time) in return for a promise not to publish highly sensitive therapy session notes Vastaamo had exposed online. Ransom_man announced on the dark web that he would start publishing 100 patient profiles every 24 hours. When Vastaamo declined to pay, ransom_man shifted to extorting individual patients. According to Finnish police, some 22,000 victims reported extortion attempts targeting them personally, targeted emails that threatened to publish their therapy notes online unless paid a 500 euro ransom. Finnish prosecutors quickly zeroed in on a suspect:  Julius “Zeekill” Kivimäki , a notorious criminal hacker convicted of committing tens of thousands of cybercrimes before he became an adult. After being charged with the attack in October 2022, Kivimäki fled the country. He was  arrested four months later in France , hiding out under an assumed name and passport. Antti Kurittu  is a former criminal investigator who worked on an investigation involving Kivimäki’s use of the Zbot botnet, among other activities Kivimäki engaged in as a member of the hacker group  Hack the Planet  (HTP). Kurittu said the prosecution had demanded at least seven years in jail, and that the sentence handed down was six years and three months. Kurittu said prosecutors knocked a few months off of Kivimäki’s sentence because he agreed to pay compensation to his victims, and that Kivimäki will remain in prison during any appeal process. “I think the sentencing was as expected, knowing the Finnish judicial system,” Kurittu told KrebsOnSecurity. “As Kivimäki has not been sentenced to a non-suspended prison sentence during the last five years, he will be treated as a first-timer, his previous convictions notwithstanding.” But because juvenile convictions in Finland don’t count towards determining whether somebody is a first-time offender, Kivimäki will end up serving approximately half of his sentence. “This seems like a short sentence when taking into account the gravity of his actions and the life-altering consequences to thousands of people, but it’s almost the maximum the law allows for,” Kurittu said. Kivimäki initially gained notoriety as a self-professed member of the  Lizard Squad , a mainly low-skilled hacker group that specialized in DDoS attacks. But American and Finnish investigators say Kivimäki’s involvement in cybercrime dates back to at least 2008, when he was introduced to a founding member of what would soon become HTP. Finnish police said Kivimäki also used the nicknames “Ryan”, “RyanC” and “Ryan Cleary” (Ryan Cleary was actually a member of a rival hacker group —  LulzSec  — who was sentenced to prison for hacking). Kivimäki and other HTP members were involved in mass-compromising web servers using known vulnerabilities, and by 2012 Kivimäki’s alias Ryan Cleary was selling access to those servers in the form of a DDoS-for-hire service. Kivimäki was 15 years old at the time. In 2013, investigators going through devices seized from Kivimäki found computer code that had been used to crack more than 60,000 web servers using a previously unknown vulnerability in  Adobe’s ColdFusion  software. KrebsOnSecurity detailed the work of HTP in September 2013, after the group  compromised servers inside data brokers LexisNexis, Kroll, and Dun &amp; Bradstreet . The group used the same ColdFusion flaws  to break into the National White Collar Crime Center (NWC3) , a non-profit that provides research and investigative support to the  U.S. Federal Bureau of Investigation  (FBI). As KrebsOnSecurity reported at the time, this small ColdFusion botnet of data broker servers was being controlled by the same cybercriminals who’d  assumed control over  SSNDOB , which operated one of the underground’s most reliable services for obtaining Social Security Number, dates of birth and credit file information on U.S. residents. Kivimäki was responsible for making  an August 2014 bomb threat  against former  Sony Online Entertainment President John Smedley  that grounded an American Airlines plane. Kivimäki also was involved in calling in multiple fake bomb threats and “swatting” incidents — reporting fake hostage situations at an address to prompt a heavily armed police response to that location. Ville Tapio,  the former CEO of Vastaamo, was fired and also prosecuted following the breach. Ransom_man bragged about Vastaamo’s sloppy security, noting the company had used the laughably weak username and password “root/root” to protect sensitive patient records. Investigators later found Vastaamo had originally been hacked in 2018 and again in 2019. In April 2023, a Finnish court handed down  a three-month sentence for Tapio , but that sentence was suspended because he had no previous criminal record.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>April 30, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Russian FSB Counterintelligence Chief Gets 9 Years in Cybercrime Bribery Scheme</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>The head of counterintelligence for a division of the Russian  Federal Security Service  (FSB) was sentenced last week to nine years in a penal colony for accepting a USD $1.7 million bribe to ignore the activities of a prolific Russian cybercrime group that hacked thousands of e-commerce websites. The protection scheme was exposed in 2022 when Russian authorities arrested six members of the group, which sold millions of stolen payment cards at flashy online shops like  Trump’s Dumps . A now-defunct carding shop that sold stolen credit cards and invoked 45’s likeness and name. As  reported  by  The Record , a Russian court last week sentenced former FSB officer  Grigory Tsaregorodtsev  for taking a $1.7 million bribe from a cybercriminal group that was seeking a “roof,” a well-placed, corrupt law enforcement official who could be counted on to both disregard their illegal hacking activities and run interference with authorities in the event of their arrest. Tsaregorodtsev was head of the counterintelligence department for a division of the FSB based in Perm, Russia. In February 2022, Russian  authorities arrested six men in the Perm region  accused of selling stolen payment card data. They also seized multiple carding shops run by the gang, including  Ferum Shop ,  Sky-Fraud , and  Trump’s Dumps , a popular fraud store that invoked the 45th president’s likeness and promised to “make credit card fraud great again.” All of the domains seized in that raid were registered by an IT consulting company in Perm called  Get-net LLC , which was owned in part by  Artem Zaitsev  — one of the six men arrested. Zaitsev reportedly was a well-known programmer whose company supplied services and leasing to the local FSB field office. The message for Trump’s Dumps users left behind by Russian authorities that seized the domain in 2022. Russian news sites report that Internal Affairs officials with the FSB grew suspicious when Tsaregorodtsev became a little too interested in the case following the hacking group’s arrests. The former FSB agent had reportedly assured the hackers he could have their case transferred and that they would soon be free. But when that promised freedom didn’t materialize, four the of the defendants pulled the walls down on the scheme and brought down their own roof. The FSB arrested Tsaregorodtsev, and seized $154,000 in cash, 100 gold bars, real estate and expensive cars. At Tsaregorodtsev’s trial, his lawyers argued that their client wasn’t guilty of bribery per se, but that he did admit to fraud because he was ultimately unable to fully perform the services for which he’d been hired. The Russian news outlet  Kommersant  reports that all four of those who cooperated were released with probation or correctional labor. Zaitsev received a sentence of 3.5 years in prison, and defendant  Alexander Kovalev  got four years. In 2017, KrebsOnSecurity  profiled Trump’s Dumps , and found the contact address listed on the site was tied to an email address used to register more than a dozen domains that were made to look like legitimate Javascript calls many e-commerce sites routinely make to process transactions — such as “js-link[dot]su,” “js-stat[dot]su,” and “js-mod[dot]su.” Searching on those malicious domains revealed  a 2016 report from RiskIQ , which shows the domains featured prominently in a series of hacking campaigns against e-commerce websites. According to RiskIQ, the attacks targeted online stores running outdated and unpatched versions of shopping cart software from  Magento ,  Powerfront  and  OpenCart . Those shopping cart flaws allowed the crooks to install “web skimmers,” malicious Javascript used to steal credit card details and other information from payment forms on the checkout pages of vulnerable e-commerce sites. The stolen customer payment card details were then sold on sites like Trump’s Dumps and Sky-Fraud.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>April 22, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Who Stole 3.6M Tax Records from South Carolina?</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> For nearly a dozen years, residents of South Carolina have been kept in the dark by state and federal investigators over who was responsible for hacking into the state’s revenue department in 2012 and stealing tax and bank account information for 3.6 million people. The answer may no longer be a mystery: KrebsOnSecurity found compelling clues suggesting the intrusion was carried out by the same Russian hacking crew that stole of millions of payment card records from big box retailers like  Home Depot  and  Target  in the years that followed. Questions about who stole tax and financial data on roughly three quarters of all South Carolina residents came to the fore last week at the confirmation hearing of  Mark Keel , who was appointed in 2011 by  Gov. Nikki Haley  to head the state’s law enforcement division. If approved, this would be Keel’s third six-year term in that role. The Associated Press   reports  that Keel was careful not to release many details about the breach at his hearing, telling lawmakers he knows who did it but that he wasn’t ready to name anyone. “I think the fact that we didn’t come up with a whole lot of people’s information that got breached is a testament to the work that people have done on this case,” Keel asserted. A ten-year  retrospective  published in 2022 by  The Post and Courier  in Columbia, S.C. said investigators determined the breach began on Aug. 13, 2012, after a state IT contractor clicked a malicious link in an email. State officials said they found out about the hack from federal law enforcement on October 10, 2012. KrebsOnSecurity examined posts across dozens of cybercrime forums around that time, and found only one instance of someone selling large volumes of tax data in the year surrounding the breach date. On Oct. 7, 2012 — three days before South Carolina officials say they first learned of the intrusion — a notorious cybercriminal who goes by the handle “ Rescator ” advertised the sale of “a database of the tax department of one of the states.” “Bank account information, SSN and all other information,” Rescator’s sales thread on the Russian-language crime forum  Embargo  read. “If you purchase the entire database, I will give you access to it.” A week later, Rescator posted a similar offer on the exclusive Russian forum  Mazafaka , saying he was selling information from a U.S. state tax database, without naming the state. Rescator said the data exposed included Social Security Number (SSN), employer, name, address, phone, taxable income, tax refund amount, and bank account number. “There is a lot of information, I am ready to sell the entire database, with access to the database, and in parts,” Rescator told Mazafaka members. “There is also information on corporate taxpayers.” On Oct. 26, 2012, the state announced the breach publicly. State officials said they were working with investigators from the  U.S. Secret Service  and digital forensics experts from Mandiant, which produced  an incident report  (PDF) that was later published by South Carolina Dept. of Revenue. KrebsOnSecurity sought comment from the Secret Service, South Carolina prosecutors, and Mr. Keel’s office. This story will be updated if any of them respond.  Update:  The Secret Service declined to comment. On Nov. 18, 2012, Rescator told fellow denizens of the forum  Verified  he was selling a database of 65,000 records with bank account information from several smaller, regional financial institutions. Rescator’s sales thread on Verified listed more than a dozen database fields, including account number, name, address, phone, tax ID, date of birth, employer and occupation. Asked to provide more context about the database for sale, Rescator told forum members the database included financial records related to tax filings of a U.S. state. Rescator added that there was a second database of around 80,000 corporations that included social security numbers, names and addresses, but no financial information. The AP says South Carolina paid $12 million to Experian for identity theft protection and credit monitoring for its residents after the breach. “At the time, it was one of the largest breaches in U.S. history but has since been surpassed greatly by hacks to Equifax, Yahoo, Home Depot, Target and PlayStation,” the AP’s  Jeffrey Collins  wrote. As it happens, Rescator’s criminal hacking crew was directly responsible for  the 2013 breach at Target  and the 2014  hack of Home Depot . The Target intrusion saw Rescator’s cybercrime shops selling roughly 40 million stolen payment cards, and 56 million cards from Home Depot customers. Who is Rescator? On Dec. 14, 2023, KrebsOnSecurity published the results of  a 10-year investigation into the identity of Rescator , a.k.a.  Mikhail Borisovich Shefel , a 36-year-old who lives in Moscow and who recently changed his last name to Lenin.  Mr. Keel’s assertion that somehow the efforts of South Carolina officials following the breach may have lessened its impact on citizens seems unlikely. The stolen tax and financial data appears to have been sold openly on cybercrime forums by one of the Russian underground’s most aggressive and successful hacking crews. While there are no indications from reviewing forum posts that Rescator ever sold the data, his sales threads came at a time when the incidence of  tax refund fraud  was skyrocketing. Tax-related identity theft occurs when someone uses a stolen identity and SSN to file a tax return in that person’s name claiming a fraudulent refund. Victims usually first learn of the crime after having their returns rejected because scammers beat them to it. Even those who are not required to file a return can be victims of refund fraud,  as can those who are not actually owed a refund  from the  U.S. Internal Revenue Service  (IRS). According to  a 2013 report  from the Treasury Inspector General’s office, the IRS issued nearly $4 billion in bogus tax refunds in 2012, and more than $5.8 billion in 2013. The money largely was sent to people who stole SSNs and other information on U.S. citizens, and then filed fraudulent tax returns on those individuals claiming a large refund but at a different address. It remains unclear why Shefel has never been officially implicated in the breaches at Target, Home Depot, or in South Carolina. It may be that Shefel  has  been indicted, and that those indictments remain sealed for some reason. Perhaps prosecutors were hoping Shefel would decide to leave Russia, at which point it would be easier to apprehend him if he believed no one was looking for him. But all signs are that Shefel is deeply rooted in Russia, and has no plans to leave. In January 2024, authorities in Australia, the United States and the U.K. levied financial sanctions against 33-year-old Russian man  Aleksandr Ermakov  for allegedly stealing data on 10 million customers of the Australian health insurance giant Medibank. A week after those sanctions were put in place, KrebsOnSecurity published  a deep dive on Ermakov , which found that he co-ran a Moscow-based IT security consulting business along with Mikhail Shefel called  Shtazi-IT . A Google-translated version of Shtazi dot ru. Image: Archive.org.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>April 16, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Calendar Meeting Links Used to Spread Mac Malware</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Malicious hackers are targeting people in the cryptocurrency space in attacks that start with a link added to the target’s calendar at  Calendly , a popular application for scheduling appointments and meetings. The attackers impersonate established cryptocurrency investors and ask to schedule a video conference call. But clicking the meeting link provided by the scammers prompts the user to run a script that quietly installs malware on  macOS  systems. KrebsOnSecurity recently heard from a reader who works at a startup that is seeking investment for building a new blockchain platform for the Web. The reader spoke on condition that their name not be used in this story, so for the sake of simplicity we’ll call him  Doug . Being in the cryptocurrency scene, Doug is also active on the instant messenger platform  Telegram . Earlier this month, Doug was approached by someone on Telegram whose profile name, image and description said they were  Ian Lee , from  Signum Capital , a well-established investment firm based in Singapore. The profile also linked to  Mr. Lee’s Twitter/X account , which features the same profile image. The investor expressed interest in financially supporting Doug’s startup, and asked if Doug could find time for a video call to discuss investment prospects. Sure, Doug said, here’s my Calendly profile, book a time and we’ll do it then.  When the day and time of the scheduled meeting with Mr. Lee arrived, Doug clicked the meeting link in his calendar but nothing happened. Doug then messaged the Mr. Lee account on Telegram, who said there was some kind of technology issue with the video platform, and that their IT people suggested using a different meeting link. Doug clicked the new link, but instead of opening up a videoconference app, a message appeared on his Mac saying the video service was experiencing technical difficulties. “Some of our users are facing issues with our service,” the message read. “We are actively working on fixing these problems. Please refer to this script as a temporary solution.” Doug said he ran the script, but nothing appeared to happen after that, and the videoconference application still wouldn’t start. Mr. Lee apologized for the inconvenience and said they would have to reschedule their meeting, but he never responded to any of Doug’s follow-up messages. It didn’t dawn on Doug until days later that the missed meeting with Mr. Lee might have been a malware attack. Going back to his Telegram client to revisit the conversation, Doug discovered his potential investor had deleted the meeting link and other bits of conversation from their shared chat history. In  a post  to its Twitter/X account last month,  Signum Capital  warned that a fake profile pretending to be their employee Mr. Lee was trying to scam people on Telegram.  The file that Doug ran is a simple Apple Script (file extension “.scpt”) that downloads and executes a malicious trojan made to run on macOS systems. Unfortunately for us, Doug freaked out after deciding he’d been tricked — backing up his important documents, changing his passwords, and then reinstalling macOS on his computer. While this a perfectly sane response, it means we don’t have the actual malware that was pushed to his Mac by the script. But Doug does still have a copy of the malicious script that was downloaded from clicking the meeting link (the online host serving that link is now offline). A search in Google for a string of text from that script turns up a December 2023 blog post from cryptocurrency security firm  SlowMist  about phishing attacks on Telegram from North Korean state-sponsored hackers. “When the project team clicks the link, they encounter a region access restriction,” SlowMist  wrote . “At this point, the North Korean hackers coax the team into downloading and running a ‘location-modifying’ malicious script. Once the project team complies, their computer comes under the control of the hackers, leading to the theft of funds.” Image: SlowMist. SlowMist says the North Korean phishing scams used the “Add Custom Link” feature of the Calendly meeting scheduling system on event pages to insert malicious links and initiate phishing attacks. “Since Calendly integrates well with the daily work routines of most project teams, these malicious links do not easily raise suspicion,” the blog post explains. “Consequently, the project teams may inadvertently click on these malicious links, download, and execute malicious code.” SlowMist said the malware downloaded by the malicious link in their case comes from a North Korean hacking group dubbed “ BlueNoroff , which  Kaspersky Labs  says is a subgroup of the  Lazarus  hacking group. “A financially motivated threat actor closely connected with Lazarus that targets banks, casinos, fin-tech companies, POST software and cryptocurrency businesses, and ATMs,” Kaspersky  wrote  of BlueNoroff in Dec. 2023. The North Korean regime is known to use stolen cryptocurrencies to fund its military and other state projects. A recent  report  from  Recorded Future  finds the Lazarus Group  has stolen approximately $3 billion in cryptocurrency over the past six years . While there is still far more malware out there today targeting  Microsoft Windows  PCs, the prevalence of information-stealing trojans aimed at macOS users is growing at a steady clip. MacOS computers include  X-Protect , Apple’s built-in antivirus technology. But experts say attackers are constantly changing the appearance and behavior of their malware to evade X-Protect. “Recent updates to macOS’s XProtect signature database indicate that Apple are aware of the problem, but early 2024 has already seen a number of stealer families evade known signatures,” security firm  SentinelOne  wrote in January. According to  Chris Ueland  from the threat hunting platform  Hunt.io,  the Internet address of the fake meeting website Doug was tricked into visiting (104.168.163,149) hosts or very recently hosted about 75 different domain names, many of which invoke words associated with videoconferencing or cryptocurrency. Those domains indicate this North Korean hacking group is hiding behind a number of phony crypto firms, like the six-month-old website for  Cryptowave Capital  (cryptowave[.]capital).  In a statement shared with KrebsOnSecurity, Calendly said it was aware of these types of social engineering attacks by cryptocurrency hackers. “To help prevent these kinds of attacks, our security team and partners have implemented a service to automatically detect fraud and impersonations that could lead to social engineering,” the company said. “We are also actively scanning content for all our customers to catch these types of malicious links and to prevent hackers earlier on. Additionally, we intend to add an interstitial page warning users before they’re redirected away from Calendly to other websites. Along with the steps we’ve taken, we recommend users stay vigilant by keeping their software secure with running the latest updates and verifying suspicious links through tools like VirusTotal to alert them of possible malware. We are continuously strengthening the cybersecurity of our platform to protect our customers.” The increasing frequency of new Mac malware is a good reminder that Mac users should not depend on security software and tools to flag malicious files, which are frequently bundled with or disguised as legitimate software. As KrebsOnSecurity  has advised Windows users for years , a good rule of safety to live by is this:  If you didn’t go looking for it, don’t install it.  Following this mantra heads off a great deal of malware attacks, regardless of the platform used. When you do decide to install a piece of software, make sure you are downloading it from the original source, and then keep it updated with any new security fixes. On that last front, I’ve found it’s a good idea not to wait until the last minute to configure my system before joining a scheduled videoconference call. Even if the call uses software that is already on my computer, it is often the case that software updates are required before the program can be used, and I’m one of those weird people who likes to review any changes to the software maker’s privacy policies or user agreements  before  choosing to install updates. Most of all, verify new contacts from strangers before accepting anything from them. In this case, had Doug simply messaged Mr. Lee’s real account on Twitter/X or contacted Signum Capital directly, he would discovered that the real Mr. Lee never asked for a meeting. If you’re approached in a similar scheme, the response from the would-be victim documented in the SlowMist blog post is probably the best. Image: SlowMist. Update: Added comment from Calendly.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>February 28, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FBI’s LockBit Takedown Postponed a Ticking Time Bomb in Fulton County, Ga.</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>The FBI’s takedown of the  LockBit  ransomware group last week came as LockBit was preparing to release sensitive data stolen from government computer systems in  Fulton County, Ga . But LockBit is now regrouping, and the gang says it will publish the stolen Fulton County data on March 2 unless paid a ransom. LockBit claims the cache includes documents tied to the county’s ongoing criminal prosecution of former  President Trump , but court watchers say teaser documents published by the crime gang suggest a total leak of the Fulton County data could put lives at risk and jeopardize a number of other criminal trials. A new LockBit website listing a countdown timer until the promised release of data stolen from Fulton County, Ga. In early February, Fulton County leaders acknowledged they were responding to an intrusion that caused disruptions for its phone, email and billing systems, as well as a range of county services, including court systems. On Feb. 13, the LockBit ransomware group posted on its victim shaming blog a new entry for Fulton County, featuring a countdown timer saying the group would publish the data on Feb. 16 unless county leaders agreed to negotiate a ransom. “We will demonstrate how local structures negligently handled information protection,” LockBit warned. “We will reveal lists of individuals responsible for confidentiality. Documents marked as confidential will be made publicly available. We will show documents related to access to the state citizens’ personal data. We aim to give maximum publicity to this situation; the documents will be of interest to many. Conscientious residents will bring order.” Yet on Feb. 16, the entry for Fulton County was removed from LockBit’s site without explanation. This usually only happens after the victim in question agrees to pay a ransom demand and/or enters into negotiations with their extortionists. However, Fulton County Commission Chairman  Robb Pitts  said the board decided it “could not in good conscience use Fulton County taxpayer funds to make a payment.” “We did not pay nor did anyone pay on our behalf,” Pitts said at an incident briefing on Feb. 20. Just hours before that press conference, LockBit’s various websites were seized by the FBI and the U.K.’s National Crime Agency (NCA), which replaced the ransomware group’s homepage with a seizure notice and used the existing design of LockBit’s victim shaming blog to publish press releases about the law enforcement action. The feds used the existing design on LockBit’s victim shaming website to feature press releases and free decryption tools. Dubbed “ Operation Cronos ,” the effort involved the seizure of nearly three-dozen servers; the arrest of two alleged LockBit members; the release of a free LockBit decryption tool; and the freezing of more than 200 cryptocurrency accounts thought to be tied to the gang’s activities. The government says LockBit has claimed more than 2,000 victims worldwide and extorted over $120 million in payments. In a lengthy,  rambling letter  published on Feb. 24 and addressed to the FBI, the ransomware group’s leader  LockBitSupp  announced that their victim shaming websites were once again operational on the dark web, with fresh countdown timers for Fulton County and a half-dozen other recent victims. “The FBI decided to hack now for one reason only, because they didn’t want to leak information fultoncountyga.gov,” LockBitSupp wrote. “The stolen documents contain a lot of interesting things and Donald Trump’s court cases that could affect the upcoming US election.” A screen shot released by LockBit showing various Fulton County file shares that were exposed. LockBit has already released roughly two dozen files allegedly stolen from Fulton County government systems, although none of them involve Mr. Trump’s criminal trial. But the documents do appear to include court records that are sealed and shielded from public viewing. George Chidi  writes  The Atlanta Objective , a Substack publication on crime in Georgia’s capital city. Chidi says the leaked data so far includes a sealed record related to a child abuse case, and a sealed motion in the  murder trial of Juwuan Gaston  demanding the state turn over confidential informant identities. Chidi cites reports from a Fulton County employee who said the confidential material includes the identities of jurors serving on the  trial of the rapper Jeffery “Young Thug” Williams , who is charged along with five other defendants in a racketeering and gang conspiracy. “The screenshots suggest that hackers will be able to give any attorney defending a criminal case in the county a starting place to argue that evidence has been tainted or witnesses intimidated, and that the release of confidential information has compromised cases,” Chidi  wrote . “Judge Ural Glanville has, I am told by staff, been working feverishly behind the scenes over the last two weeks to manage the unfolding disaster.” LockBitSupp also denied assertions made by the U.K.’s NCA that LockBit  did not delete stolen data as promised when victims agreed to pay a ransom . The accusation is an explosive one because nobody will pay a ransom if they don’t believe the ransomware group will hold up its end of the bargain. The ransomware group leader also confirmed information first reported here last week, that federal investigators managed to hack LockBit by exploiting  a known vulnerability in PHP , a scripting language that is widely used in Web development. “Due to my personal negligence and irresponsibility I relaxed and did not update PHP in time,” LockBitSupp wrote. “As a result of which access was gained to the two main servers where this version of PHP was installed.” LockBitSupp’s FBI letter said the group kept copies of its stolen victim data on servers that did not use PHP, and that consequently it was able to retain copies of files stolen from victims. The letter also listed links to multiple new instances of LockBit dark net websites, including the leak page listing Fulton County’s new countdown timer. LockBit’s new data leak site promises to release stolen Fulton County data on March 2, 2024, unless paid a ransom demand. “Even after the FBI hack, the stolen data will be published on the blog, there is no chance of destroying the stolen data without payment,” LockBitSupp wrote. “All FBI actions are aimed at destroying the reputation of my affiliate program, my demoralization, they want me to leave and quit my job, they want to scare me because they can not find and eliminate me, I can not be stopped, you can not even hope, as long as I am alive I will continue to do pentest with postpaid.” In January 2024, LockBitSupp told XSS forum members he was disappointed the FBI hadn’t offered a reward for his doxing and/or arrest, and that in response he was placing a bounty on his own head — offering $10 million to anyone who could discover his real name. After the NCA and FBI seized LockBit’s site, the group’s homepage was retrofitted with a blog entry titled, “Who is LockBitSupp? The $10M question.” The teaser made use of LockBit’s own countdown timer, and suggested the real identity of LockBitSupp would soon be revealed. However, after the countdown timer expired the page was replaced with a taunting message from the feds, but it included no new information about LockBitSupp’s identity.  On Feb. 21, the U.S. Department of State  announced rewards  totaling up to $15 million for information leading to the arrest and/or conviction of anyone participating in LockBit ransomware attacks. The State Department said $10 million of that is for information on LockBit’s leaders, and up to $5 million is offered for information on affiliates. In  an interview  with the malware-focused Twitter/X account  Vx-Underground , LockBit staff asserted that authorities had arrested a couple of small-time players in their operation, and that investigators still do not know the real-life identities of the core LockBit members, or that of their leader. “They assert the FBI / NCA UK / EUROPOL do not know their information,” Vx-Underground wrote. “They state they are willing to double the bounty of $10,000,000. They state they will place a $20,000,000 bounty of their own head if anyone can dox them.” In the weeks leading up to the FBI/NCA takedown, LockBitSupp became embroiled in a number of high-profile personal and business disputes on the Russian cybercrime forums. Earlier this year, someone used LockBit ransomware to infect the networks of  AN-Security , a venerated 30-year-old security and technology company based in St. Petersburg, Russia. This violated the golden rule for cybercriminals based in Russia and former soviet nations that make up the Commonwealth of Independent States, which is that attacking your own citizens in those countries is the surest way to get arrested and prosecuted by local authorities. LockBitSupp later claimed the attacker had used a publicly leaked, older version of LockBit to compromise systems at AN-Security, and said the attack was an attempt to smear their reputation by a rival ransomware group known as “Clop.” But the incident no doubt prompted closer inspection of LockBitSupp’s activities by Russian authorities. Then in early February, the administrator of the Russian-language cybercrime forum XSS said LockBitSupp had threatened to have him killed after the ransomware group leader was banned by the community. LockBitSupp was excommunicated from XSS after he refused to pay an arbitration amount ordered by the forum administrator. That dispute related to a complaint from another forum member who said LockBitSupp recently stiffed him on his promised share of an unusually large ransomware payout. A posted by the XSS administrator saying LockBitSupp wanted him dead. KrebsOnSecurity sought comment from LockBitSupp at the ToX instant messenger ID listed in his letter to the FBI. LockBitSupp declined to elaborate on the unreleased documents from Fulton County, saying the files will be available for everyone to see in a few days. LockBitSupp said his team was still negotiating with Fulton County when the FBI seized their servers, which is why the county has been granted a time extension. He also denied threatening to kill the XSS administrator. “I have not threatened to kill the XSS administrator, he is blatantly lying, this is to cause self-pity and damage my reputation,” LockBitSupp told KrebsOnSecurity. “It is not necessary to kill him to punish him, there are more humane methods and he knows what they are.” Asked why he was so certain the FBI doesn’t know his real-life identity, LockBitSupp was more precise. “I’m not sure the FBI doesn’t know who I am,” he said. “I just believe they will never find me.” It seems unlikely that the FBI’s seizure of LockBit’s infrastructure was somehow an effort to stave off the disclosure of Fulton County’s data, as LockBitSupp maintains. For one thing, Europol said the takedown was the result of a months-long infiltration of the ransomware group. Also, in reporting on the attack’s disruption to the office of  Fulton County District Attorney Fani Willis  on Feb. 14,  CNN reported  that by then the intrusion by LockBit had persisted for nearly two and a half weeks. Finally, if the NCA and FBI really believed that LockBit never deleted victim data, they had to assume LockBit would still have at least one copy of all their stolen data hidden somewhere safe. Fulton County is still trying to recover systems and restore services affected by the ransomware attack. “Fulton County continues to make substantial progress in restoring its systems following the recent ransomware incident resulting in service outages,” reads  the latest statement  from the county on Feb. 22. “Since the start of this incident, our team has been working tirelessly to bring services back up.” Update, Feb. 29, 3:22 p.m. ET:  Just hours after this story ran, LockBit changed its countdown timer for Fulton County saying they had until the morning of Feb. 29 (today) to pay a ransonm demand. When the official deadline neared today, Fulton County’s listing was removed from LockBit’s victim shaming website. Asked about the removal of the listing, LockBit’s leader “LockBitSupp” told KrebsOnSecurity that Fulton County paid a ransom demand. County officials have scheduled a press conference on the ransomware attack at 4:15 p.m. ET today.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>February 25, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>New Leak Shows Business Side of China’s APT Menace</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A new data leak that appears to have come from one of China’s top private cybersecurity firms provides a rare glimpse into the commercial side of China’s many state-sponsored hacking groups. Experts say the leak illustrates how Chinese government agencies increasingly are contracting out foreign espionage campaigns to the nation’s burgeoning and highly competitive cybersecurity industry. A marketing slide deck promoting i-SOON’s Advanced Persistent Threat (APT) capabilities. A large cache of more than 500 documents  published to GitHub  last week indicate the records come from  i-SOON , a technology company headquartered in Shanghai that is perhaps best known for providing cybersecurity training courses throughout China. But the leaked documents, which include candid employee chat conversations and images, show a less public side of i-SOON, one that frequently initiates and sustains cyberespionage campaigns commissioned by various Chinese government agencies. The leaked documents suggest i-SOON employees were responsible for a raft of cyber intrusions over many years, infiltrating government systems in the United Kingdom and countries throughout Asia. Although the cache does not include raw data stolen from cyber espionage targets, it features numerous documents listing the level of access gained and the types of data exposed in each intrusion. Security experts who reviewed the leaked data say they believe the information is legitimate, and that i-SOON works closely with China’s Ministry of Public Security and the military. In 2021, the Sichuan provincial government named i-SOON as one of “the top 30 information security companies.” “The leak provides some of the most concrete details seen publicly to date, revealing the maturing nature of China’s cyber espionage ecosystem,”  said   Dakota Cary , a China-focused consultant at the security firm  SentinelOne . “It shows explicitly how government targeting requirements drive a competitive marketplace of independent contractor hackers-for-hire.” Mei Danowski  is a former intelligence analyst and China expert who now writes about her research in a Substack publication called Natto Thoughts. Danowski said i-SOON has achieved the highest secrecy classification that a non-state-owned company can receive, which qualifies the company to conduct classified research and development related to state security. i-SOON’s “business services” webpage states that the company’s offerings include public security, anti-fraud, blockchain forensics, enterprise security solutions, and training. Danowski said that in 2013, i-SOON established a department for research on developing new APT network penetration methods. APT stands for Advanced Persistent Threat, a term that generally refers to state-sponsored hacking groups. Indeed, among the documents apparently leaked from i-SOON is a sales pitch slide boldly highlighting the hacking prowess of the company’s “APT research team” (see screenshot above). i-SOON CEO Wu Haibo, in 2011. Image: nattothoughts.substack.com. The leaked documents included a lengthy chat conversation between the company’s founders, who repeatedly discuss flagging sales and the need to secure more employees and government contracts. Danowski said the CEO of i-SOON,  Wu Haibo  (“Shutdown” in the leaked chats) is a well-known first-generation red hacker or “Honker,” and an early member of Green Army — the very first Chinese hacktivist group founded in 1997. Mr. Haibo has not yet responded to a request for comment. In October 2023, Danowski  detailed  how i-SOON became embroiled in a software development contract dispute when it was sued by a competing Chinese cybersecurity company called  Chengdu 404 . In September 2020, the  U.S. Department of Justice   unsealed indictments against multiple Chengdu 404 employees , charging that the company was a facade that hid more than a decade’s worth of cyber intrusions attributed to a threat actor group known as “APT 41.” Danowski said the existence of this legal dispute suggests that Chengdu 404 and i-SOON have or at one time had a business relationship, and that one company likely served as a subcontractor to the other. “From what they chat about we can see this is a very competitive industry, where companies in this space are constantly poaching each others’ employees and tools,” Danowski said. “The infosec industry is always trying to distinguish [the work] of one APT group from another. But that’s getting harder to do.” It remains unclear if i-SOON’s work has earned it a unique APT designation. But  Will Thomas , a cyber threat intelligence researcher at Equinix, found an Internet address in the leaked data that corresponds to a domain flagged in  a 2019 Citizen Lab report  about one-click mobile phone exploits that were being used to target groups in Tibet. The 2019 report referred to the threat actor behind those attacks as an APT group called  Poison Carp. Several images and chat records in the data leak suggest i-SOON’s clients periodically gave the company a list of targets they wanted to infiltrate, but sometimes employees confused the instructions.  One screenshot  shows a conversation in which an employee tells his boss they’ve just hacked one of the universities on their latest list, only to be told that the victim in question was not actually listed as a desired target. The leaked chats show i-SOON continuously tried to recruit new talent by hosting a series of hacking competitions across China. It also performed charity work, and sought to engage employees and sustain morale with various team-building events. However, the chats include multiple conversations between employees commiserating over long hours and low pay. The overall tone of the discussions indicates employee morale was quite low and that the workplace environment was fairly toxic. In several of the conversations, i-SOON employees openly discuss with their bosses how much money they just lost gambling online with their mobile phones while at work. Danowski believes the i-SOON data was probably leaked by one of those disgruntled employees. “This was released the first working day after the Chinese New Year,” Danowski said. “Definitely whoever did this planned it, because you can’t get all this information all at once.” SentinelOne’s Cary said he came to the same conclusion, noting that the Protonmail account tied to the GitHub profile that published the records was registered a month before the leak, on January 15, 2024. China’s much vaunted  Great Firewall  not only lets the government control and limit what citizens can access online, but this distributed spying apparatus allows authorities to block data on Chinese citizens and companies from ever leaving the country. As a result, China enjoys a remarkable information asymmetry vis-a-vis virtually all other industrialized nations. Which is why this apparent data leak from i-SOON is such a rare find for Western security researchers. “I was so excited to see this,” Cary said. “Every day I hope for data leaks coming out of China.” That information asymmetry is at the heart of the Chinese government’s cyberwarfare goals, according to  a 2023 analysis  by  Margin Research  performed on behalf of the  Defense Advanced Research Projects Agency  (DARPA). “In the area of cyberwarfare, the western governments see cyberspace as a ‘fifth domain’ of warfare,” the Margin study observed. “The Chinese, however, look at cyberspace in the broader context of information space. The ultimate objective is, not ‘control’ of cyberspace, but control of information, a vision that dominates China’s cyber operations.” The National Cybersecurity Strategy  issued by the White House last year  singles out China as the biggest cyber threat to U.S. interests. While the United States government does contract certain aspects of its cyber operations to companies in the private sector, it does not follow China’s example in promoting the wholesale theft of state and corporate secrets for the commercial benefit of its own private industries. Dave Aitel , a co-author of the Margin Research report and former computer scientist at the  U.S. National Security Agency , said it’s nice to see that Chinese cybersecurity firms have to deal with all of the same contracting headaches facing U.S. companies seeking work with the federal government. “This leak just shows there’s layers of contractors all the way down,” Aitel said. “It’s pretty fun to see the Chinese version of it.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>February 22, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>U.S. Internet Leaked Years of Internal, Customer Emails</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>The Minnesota-based Internet provider  U.S. Internet Corp.  has a business unit called  Securence , which specializes in providing filtered, secure email services to businesses, educational institutions and government agencies worldwide. But until it was notified last week, U.S. Internet was publishing more than a decade’s worth of its internal email — and that of thousands of Securence clients — in plain text out on the Internet and just a click away for anyone with a Web browser. Headquartered in Minnetonka, Minn., U.S. Internet is a regional ISP that provides fiber and wireless Internet service. The ISP’s Securence division bills itself “a leading provider of email filtering and management software that includes email protection and security services for small business, enterprise, educational and government institutions worldwide.” U.S. Internet/Securence says your email is secure. Nothing could be further from the truth. Roughly a week ago, KrebsOnSecurity was contacted by  Hold Security , a Milwaukee-based cybersecurity firm. Hold Security founder  Alex Holden  said his researchers had unearthed a public link to a U.S. Internet email server listing more than 6,500 domain names, each with its own clickable link. A tiny portion of the more than 6,500 customers who trusted U.S. Internet with their email. Drilling down into those individual domain links revealed inboxes for each employee or user of these exposed host names. Some of the emails dated back to 2008; others were as recent as the present day. Securence counts among its customers dozens of state and local governments, including:  nc.gov  — the official website of North Carolina;  stillwatermn.gov , the website for the city of Stillwater, Minn.; and  cityoffrederickmd.gov , the website for the government of  Frederick, Md . Incredibly, included in this giant index of U.S. Internet customer emails were the internal messages for every current and former employee of U.S. Internet and its subsidiary  USI Wireless . Since that index also included the messages of U.S. Internet’s  CEO Travis Carter , KrebsOnSecurity forwarded one of Mr. Carter’s own recent emails to him, along with a request to understand how exactly the company managed to screw things up so spectacularly. Individual inboxes of U.S. Wireless employees were published in clear text on the Internet. Within minutes of that notification, U.S. Internet pulled all of the published inboxes offline. Mr. Carter responded and said his team was investigating how it happened. In the same breath, the CEO asked if KrebsOnSecurity does security consulting for hire (I do not). [Author’s note: Perhaps Mr. Carter was frantically casting about for any expertise he could find in a tough moment. But I found the request personally offensive, because I couldn’t shake the notion that maybe the company was hoping it could buy my silence.] Earlier this week, Mr. Carter replied with a highly technical explanation that ultimately did little to explain why or how so many internal and customer inboxes were published in plain text on the Internet. “The feedback from my team was a issue with the  Ansible playbook  that controls the  Nginx  configuration for our  IMAP  servers,” Carter said, noting that this incorrect configuration was put in place by a former employee and never caught. U.S. Internet has not shared how long these messages were exposed. “The rest of the platform and other backend services are being audited to verify the Ansible playbooks are correct,” Carter said. Holden said he also discovered that hackers have been abusing a Securence link scrubbing and anti-spam service called  Url-Shield  to create links that look benign but instead redirect visitors to hacked and malicious websites.  “The bad guys modify the malicious link reporting into redirects to their own malicious sites,” Holden said. “That’s how the bad guys drive traffic to their sites and increase search engine rankings.” For example, clicking the Securence link shown in the screenshot directly above leads one to a website that tries to trick visitors into  allowing site notifications  by couching the request as a CAPTCHA request designed to separate humans from bots. After approving the deceptive CAPTCHA/notification request, the link forwards the visitor to a Russian internationalized domain name (рпроаг[.]рф). The link to this malicious and deceptive website was created using Securence’s link-scrubbing service. Notification pop-ups were blocked when this site tried to disguise a prompt for accepting notifications as a form of CAPTCHA. U.S. Internet has not responded to questions about how long it has been exposing all of its internal and customer emails, or when the errant configuration changes were made. The company also still has not disclosed the incident on its website. The last press release on the site dates back to March 2020. KrebsOnSecurity has been writing about data breaches for nearly two decades, but this one easily takes the cake in terms of the level of incompetence needed to make such a huge mistake unnoticed. I’m not sure what the proper response from authorities or regulators should be to this incident, but it’s clear that U.S. Internet should not be allowed to manage anyone’s email unless and until it can demonstrate more transparency, and prove that it has radically revamped its security.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>February 14, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>From Cybercrime Saul Goodman to the Russian GRU</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>In 2021, the exclusive Russian cybercrime forum  Mazafaka  was hacked. The leaked user database shows one of the forum’s founders was an attorney who advised Russia’s top hackers on the legal risks of their work, and what to do if they got caught. A review of this user’s hacker identities shows that during his time on the forums he served as an officer in the special forces of the  GRU , the foreign military intelligence agency of the Russian Federation. Launched in 2001 under the tagline “Network terrorism,” Mazafaka would evolve into one of the most guarded Russian-language cybercrime communities. The forum’s member roster included a Who’s Who of top Russian cybercriminals, and it featured sub-forums for a wide range of cybercrime specialities, including malware, spam, coding and identity theft. One representation of the leaked Mazafaka database. In almost any database leak, the first accounts listed are usually the administrators and early core members. But  the Mazafaka user information posted online  was not a database file per se, and it was clearly edited, redacted and restructured by whoever released it. As a result, it can be difficult to tell which members are the earliest users. The original Mazafaka is known to have been launched by a hacker using the nickname “ Stalker .” However, the lowest numbered (non-admin) user ID in the Mazafaka database belongs to another individual who used the handle “ Djamix ,” and the email address  djamix@mazafaka[.]ru . From the forum’s inception until around 2008, Djamix was one of its most active and eloquent contributors. Djamix told forum members he was a lawyer, and nearly all of his posts included legal analyses of various public cases involving hackers arrested and charged with cybercrimes in Russia and abroad. “Hiding with purely technical parameters will not help in a serious matter,” Djamix advised Maza members in September 2007. “In order to ESCAPE the law, you need to KNOW the law. This is the most important thing. Technical capabilities cannot overcome intelligence and cunning.” Stalker himself credited Djamix with keeping Mazafaka online for so many years. In  a retrospective post  published to  Livejournal  in 2014 titled, “Mazafaka, from conception to the present day,” Stalker said Djamix had become a core member of the community. “This guy is everywhere,” Stalker said of Djamix. “There’s not a thing on [Mazafaka] that he doesn’t take part in. For me, he is a stimulus-irritant and thanks to him, Maza is still alive. Our rallying force!” Djamix told other forum denizens he was a licensed attorney who could be hired for remote or in-person consultations, and his posts on Mazafaka and other Russian boards show several hackers facing legal jeopardy likely took him up on this offer. “I have the right to represent your interests in court,” Djamix said on the Russian-language cybercrime forum Verified in Jan. 2011. “Remotely (in the form of constant support and consultations), or in person – this is discussed separately. As well as the cost of my services.” A search on djamix@mazafaka[.]ru at  DomainTools.com  reveals this address has been used to register at least 10 domain names since 2008. Those include several websites about life in and around  Sochi , Russia, the site of the 2014 Winter Olympics, as well as a nearby coastal town called  Adler . All of those sites say they were registered to an  Aleksei Safronov  from Sochi who also lists Adler as a hometown. The breach tracking service  Constella Intelligence  finds that the phone number associated with those domains — +7.9676442212 — is tied to  a Facebook account  for an  Aleksei Valerievich Safronov  from Sochi. Mr. Safronov’s Facebook profile, which was last updated in October 2022, says his ICQ instant messenger number is  53765 . This is the same ICQ number assigned to Djamix in the Mazafaka user database. The Facebook account for Aleksey Safronov. A “Djamix” account on the forum privetsochi[.]ru (“Hello Sochi”) says this user was born Oct. 2, 1970, and that his website is  uposter[.]ru . This Russian language news site’s tagline is, “We Create Communication,” and it focuses heavily on news about Sochi, Adler, Russia and the war in Ukraine, with a strong pro-Kremlin bent. Safronov’s Facebook profile also gives his Skype username as “Djamixadler,” and it includes dozens of photos of him dressed in military fatigues along with a regiment of soldiers deploying in fairly remote areas of Russia. Some of those photos date back to 2008. In several of the images, we can see a patch on the arm of Safronov’s jacket that bears the logo of the  Spetsnaz GRU , a special forces unit of the Russian military. According to  a 2020 report  from the  Congressional Research Service , the GRU operates both as an intelligence agency — collecting human, cyber, and signals intelligence — and as a military organization responsible for battlefield reconnaissance and the operation of Russia’s Spetsnaz military commando units. Mr. Safronov posted this image of himself on Facebook in 2016. The insignia of the GRU can be seen on his sleeve. “In recent years, reports have linked the GRU to some of Russia’s most aggressive and public intelligence operations,” the CRS report explains. “Reportedly, the GRU played a key role in Russia’s occupation of Ukraine’s Crimea region and invasion of eastern Ukraine, the attempted assassination of former Russian intelligence officer Sergei Skripal in the United Kingdom, interference in the 2016 U.S. presidential elections, disinformation and propaganda operations, and some of the world’s most damaging cyberattacks.” According to the Russia-focused investigative news outlet  Meduza , in 2014 the Russian Defense Ministry created its “information-operation troops” for action in “cyber-confrontations with potential adversaries.” “Later, sources in the Defense Ministry explained that these new troops were meant to ‘disrupt the potential adversary’s information networks,'” Meduza  reported in 2018 . “Recruiters reportedly went looking for ‘hackers who have had problems with the law.'” Mr. Safronov did not respond to multiple requests for comment. A  2018 treatise  written by Aleksei Valerievich Safronov titled “One Hundred Years of GRU Military Intelligence” explains the significance of the bat in the seal of the GRU. “One way or another, the bat is an emblem that unites all active and retired intelligence officers; it is a symbol of unity and exclusivity,” Safronov wrote. “And, in general, it doesn’t matter who we’re talking about – a secret GRU agent somewhere in the army or a sniper in any of the special forces brigades. They all did and are doing one very important and responsible thing.” It’s unclear what role Mr. Safronov plays or played in the GRU, but it seems likely the military intelligence agency would have exploited his considerable technical skills, knowledge and connections on the Russian cybercrime forums. Searching on Safronov’s domain uposter[.]ru in Constella Intelligence reveals that this domain was used in 2022 to register an account at a popular Spanish-language discussion forum dedicated to helping applicants prepare for a career in the  Guardia Civil , one of Spain’s two national police forces. Pivoting on that Russian IP in Constella shows three other accounts were created at the same Spanish user forum around the same date. Mark Rasch  is a former cybercrime prosecutor for the  U.S. Department of Justice  who now serves as chief legal officer for the New York cybersecurity firm  Unit 221B . Rasch said there has always been a close relationship between the GRU and the Russian hacker community, noting that in the early 2000s the GRU was soliciting hackers with the skills necessary to hack US banks in order to procure funds to help finance Russia’s war in Chechnya. “The guy is heavily hooked into the Russian cyber community, and that’s useful for intelligence services,” Rasch said. “He could have been infiltrating the community to monitor it for the GRU. Or he could just be a guy wearing a military uniform.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>February 7, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Arrests in $400M SIM-Swap Tied to Heist at FTX?</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Three Americans were charged this week with stealing more than $400 million in a November 2022 SIM-swapping attack. The U.S. government did not name the victim organization, but there is every indication that the money was stolen from the now-defunct cryptocurrency exchange  FTX , which had just filed for bankruptcy on that same day. A graphic illustrating the flow of more than $400 million in cryptocurrencies stolen from FTX on Nov. 11-12, 2022. Image: Elliptic.co. An indictment unsealed this week and first reported on by  Ars Technica  alleges that Chicago man  Robert Powell , a.k.a. “R,” “R$” and “ElSwapo1,” was the ringleader of a SIM-swapping group called the “Powell SIM Swapping Crew.” Colorado resident  Emily “Em” Hernandez  allegedly helped the group gain access to victim devices in service of SIM-swapping attacks between March 2021 and April 2023. Indiana resident  Carter Rohn , a.k.a. “Carti,” and “Punslayer,” allegedly assisted in compromising devices. In a SIM-swapping attack, the crooks transfer the target’s phone number to a device they control, allowing them to intercept any text messages or phone calls sent to the victim, including one-time passcodes for authentication or password reset links sent via SMS. The indictment states that the perpetrators in this heist stole the $400 million in cryptocurrencies on Nov. 11, 2022 after they SIM-swapped an AT&amp;T customer by impersonating them at a retail store using a fake ID. However, the document refers to the victim in this case only by the name “Victim 1.” Wired’s  Andy Greenberg  recently  wrote  about FTX’s all-night race to stop a $1 billion crypto heist that occurred on the evening of November 11: “FTX’s staff had already endured one of the worst days in the company’s short life. What had recently been one of the world’s top cryptocurrency exchanges, valued at $32 billion only 10 months earlier, had just declared bankruptcy. Executives had, after an extended struggle, persuaded the company’s CEO, Sam Bankman-Fried, to hand over the reins to John Ray III, a new chief executive now tasked with shepherding the company through a nightmarish thicket of debts, many of which it seemed to have no means to pay.” “FTX had, it seemed, hit rock bottom. Until someone—a thief or thieves who have yet to be identified—chose that particular moment to make things far worse. That Friday evening, exhausted FTX staffers began to see mysterious outflows of the company’s cryptocurrency, publicly captured on the Etherscan website that tracks the Ethereum blockchain, representing hundreds of millions of dollars worth of crypto being stolen in real time.” The indictment says the $400 million was stolen over several hours between November 11 and 12, 2022.  Tom Robinson , co-founder of the blockchain intelligence firm  Elliptic , said the attackers in the FTX heist began to drain FTX wallets on the evening of Nov. 11, 2022 local time, and continuing until the 12th of November. Robinson said Elliptic is not aware of any other crypto heists of that magnitude occurring on that date. “We put the value of the cryptoassets stolen at $477 million,” Robinson said. “The FTX administrators have reported overall losses due to “unauthorized third-party transfers” of $413 million – the discrepancy is likely due to subsequent seizure and return of some of the stolen assets. Either way, it’s certainly over $400 million, and we are not aware of any other thefts from crypto exchanges on this scale, on this date.” The SIM-swappers allegedly responsible for the $400 million crypto theft are all U.S. residents. But there are some indications they had help from organized cybercriminals based in Russia. In October 2023, Elliptic released  a report  that found the money stolen from FTX had been laundered through exchanges with ties to criminal groups based in Russia. “A Russia-linked actor seems a stronger possibility,” Elliptic wrote. “Of the stolen assets that can be traced through ChipMixer, significant amounts are combined with funds from Russia-linked criminal groups, including ransomware gangs and darknet markets, before being sent to exchanges. This points to the involvement of a broker or other intermediary with a nexus in Russia.” Nick Bax , director of analytics at the cryptocurrency wallet recovery firm  Unciphered , said the flow of stolen FTX funds looks more like what his team has seen from groups based in Eastern Europe and Russian than anything they’ve witnessed from US-based SIM-swappers. “I was a bit surprised by this development but it seems to be consistent with reports from CISA [the Cybersecurity and Infrastructure Security Agency] and others that “Scattered Spider” has worked with [ransomware] groups like ALPHV/BlackCat,” Bax said. CISA’s  alert on Scattered Spider  says they are a cybercriminal group that targets large companies and their contracted information technology (IT) help desks. “Scattered Spider threat actors, per trusted third parties, have typically engaged in data theft for extortion and have also been known to utilize BlackCat/ALPHV ransomware alongside their usual TTPs,” CISA said, referring to the group’s signature “Tactics, Techniques an Procedures.” Nick Bax, posting on Twitter/X in Nov 2022 about his research on the $400 million FTX heist. Earlier this week, KrebsOnSecurity published a story noting that a Florida man recently charged with being part of a SIM-swapping conspiracy  is thought to be a key member of Scattered Spider , a hacking group also known as  0ktapus . That group has been blamed for a string of cyber intrusions at major U.S. technology companies during the summer of 2022. Financial claims involving FTX’s bankruptcy proceedings are being handled by the financial and risk consulting giant  Kroll . In August 2023, Kroll  suffered its own breach  after a Kroll employee was SIM-swapped. According to Kroll, the thieves stole user information for multiple cryptocurrency platforms that rely on Kroll services to handle bankruptcy proceedings. KrebsOnSecurity sought comment for this story from Kroll, the  FBI , the prosecuting attorneys, and  Sullivan &amp; Cromwell , the law firm handling the FTX bankruptcy. This story will be updated in the event any of them respond. Attorneys for Mr. Powell said they do not know who Victim 1 is in the indictment, as the government hasn’t shared that information yet. Powell’s next court date is a detention hearing on Feb. 2, 2024. Update, Feb. 3, 12:19 p.m. ET:  The FBI declined a request to comment.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>February 1, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Here’s Some Bitcoin: Oh, and You’ve Been Served!</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A California man who lost $100,000 in a 2021 SIM-swapping attack is suing the unknown holder of a cryptocurrency wallet that harbors his stolen funds. The case is thought to be the first in which a federal court has recognized the use of information included in a bitcoin transaction — such as a link to a civil claim filed in federal court — as reasonably likely to provide notice of the lawsuit to the defendant. Experts say the development could make it easier for victims of crypto heists to recover stolen funds through the courts without having to wait years for law enforcement to take notice or help.  Ryan Dellone , a healthcare worker in Fresno, Calif., asserts that thieves stole his bitcoin on Dec. 14, 2021, by executing an unauthorized SIM-swap that involved an employee at his mobile phone provider who switched Dellone’s phone number over to a new device the attackers controlled. Dellone says the crooks then used his phone number to break into his account at  Coinbase  and siphon roughly $100,000 worth of cryptocurrencies. Coinbase is also named as a defendant in the lawsuit, which alleges the company ignored multiple red flags, and that it should have detected and stopped the theft. Coinbase did not respond to requests for comment. Working with experts who track the flow of funds stolen in cryptocurrency heists, Dellone’s lawyer  Ethan Mora  identified a bitcoin wallet that was the ultimate destination of his client’s stolen crypto. Mora says his client has since been made aware that the bitcoin address in question is embroiled in an ongoing federal investigation into a cryptocurrency theft ring. Mora said it’s unclear if the bitcoin address that holds his client’s stolen money is being held by the government or by the anonymous hackers. Nevertheless, he is pursuing a novel legal strategy that allows his client to serve notice of the civil suit to that bitcoin address — and potentially win a default judgment to seize his client’s funds within —  without knowing the identity of his attackers or anything about the account holder. In a civil lawsuit seeking monetary damages, a default judgment is usually entered on behalf of the plaintiff if the defendant fails to respond to the complaint within a specified time. Assuming that the cybercriminals who stole the money don’t dispute Dellone’s claim, experts say the money could be seized by cryptocurrency exchanges if the thieves ever tried to move it or spend it. The U.S. courts have generally held that if you’re going to sue someone, you have to provide some kind of meaningful and timely communication about that lawsuit to the defendant in a way that is reasonably likely to provide them notice. Not so long ago, you had track down your defendant and hire someone to physically serve them with a copy of the court papers. But legal experts say the courts have evolved their thinking in recent years about what constitutes meaningful service, and now allow notification via email. On Dec. 14, 2023, a federal judge in the Eastern District of California granted Dellone permission to serve notice of his lawsuit directly to the suspected hackers’ bitcoin address — using a short message that was attached to roughly $100 worth of bitcoin Mora sent to the address. Bitcoin transactions are public record, and each transaction can be sent along with an optional short message. The message uses what’s known as an “ OP RETURN ,” or an instruction of the Bitcoin scripting language that allows users to attach metadata to a transaction — and thus save it on the blockchain. In the $100 bitcoin transaction Mora sent to the disputed bitcoin address, the OP RETURN message read: “OSERVICE – SUMMONS, COMPLAINT U.S. Dist. E.D. Cal. LINK:  t.ly/123cv01408_service ,” which is a short link to a copy of the lawsuit hosted on Google Drive. “The courts are adapting to the new style of service of process,” said  Mark Rasch , a former federal prosecutor at the U.S. Department of Justice. “And that’s helpful and useful and necessary.” Rasch said Mora’s strategy could force the government to divulge information about their case, or else explain to a judge why the plaintiff shouldn’t be able to recover their stolen funds without further delay. Rasch said it could be that Dellone’s stolen crypto was seized as part of a government asset forfeiture, but that either way there is no reason Uncle Sam should hold some cybercrime victims’ life savings indefinitely. “The government doesn’t need the crypto as evidence, but in a forfeiture action the money goes to the government,” Rasch said. “But it was never the government’s money, and that doesn’t help the victim. The government should be providing information to the victims of cryptocurrency theft so that their attorneys can go get the money back themselves.” Nick Bax  is a security researcher who specializes in tracing the labyrinthine activity of criminals trying to use cryptocurrency exchanges and other financial instruments to launder the proceeds of cybercrime. Bax said Mora’s method could allow more victims to stake legitimate legal claims to their stolen funds. “If you get a default judgment against a bitcoin address, for example, and then down the road that bitcoin gets sent to an exchange that complies with or abides by U.S. court orders, then it’s yours,” Bax said. “I’ve seen funds with a court order on them get frozen by the exchanges that decided it made sense to comply with orders from a U.S. federal court.” Bax’s research was featured in  a Sept. 2023 story here  about how experts now believe it’s likely hackers are cracking open some of the password vaults stolen in the 2022 data breach at LastPass. “I’ve talked to a lot victims who have had life-changing amounts of money being seized and would like that money back,” Bax said. “A big goal here is just making civil cases more efficient. Because then people can help themselves and they don’t need to rely solely on law enforcement with its limited resources. And that’s really the goal: To scale this and make it economically viable.” While Dellone’s lawsuit may be the first time anyone has obtained approval from a federal judge to use bitcoin to notify another party of a civil action, the technique has been used in several recent unrelated cases involving other cryptocurrencies, including Ethereum and NFTs. The law firm DLAPiper  writes  that in November 2022, the U.S. District Court for the Southern District of Florida “authorized service of a lawsuit seeking the recovery of stolen digital assets by way of a non-fungible token or NFT containing the text of the complaint and summons, as well as a hyperlink to a website created by the plaintiffs containing all pleadings and orders in the action.” In approving Dellone’s request for service via bitcoin transaction, the judge overseeing the case cited a recent New York Superior Court ruling in a John Doe case brought by victims seeking to unmask the crooks behind a $1.3 million cyberheist. In the New York case, the state trial court found it was acceptable for the plaintiffs to serve notice of the suit via cryptocurrency transactions because the defendants regularly used the Blockchain address to which the tokens were sent, and had recently done so. Also, the New York court found that because the account in question contained a significant sum of money, it was unlikely to be abandoned or forgotten. “Thus the court inferred the defendants were likely to access the account in the future,” wrote  Judge Helena M. March-Kuchta , for the Eastern District of California, summarizing the New York case. “Finally, the plaintiff had no alternative means of contacting these unknown defendants.” Experts say regardless of the reason for a cryptocurrency theft or loss — whether it’s from a romance scam or a straight-up digital mugging — it’s important for victims to file an official report both with their local police and with the FBI’s  Internet Crime Complaint Center  ( ic3.gov ). The IC3 collects reports on cybercrime and sometimes bundles victim reports into cases for DOJ/FBI prosecutors and investigators. The hard truth is that most victims will never see their stolen funds again. But sometimes federal investigators win minor victories and manage to seize or freeze crypto assets that are known to be associated with specific crimes and criminals. In those cases, the government will eventually make an effort to find, contact and in some cases remunerate known victims. It might take many years for this process to unfold. But if and when they do make that effort, federal investigators are likely to focus their energies and attention responding to victims who staked a claim and can support it with documentation. But have no illusions that any of this is likely to happen in a timeframe that is meaningful to victims in the short run. For example, in 2013 the U.S. government  seized the assets of the virtual currency Liberty Reserve , massively disrupting a major vehicle for laundering the proceeds of cybercrime and other illegal activities. When the government offered remuneration to Liberty Reserve account holders who wished to make a financial loss claim and supply supporting documentation, KrebsOnSecurity filed a claim. There wasn’t money much in my Liberty Reserve account; I simply wanted to know how long it would take for federal investigators to follow up on my claim, or indeed if they would at all. In 2020 KrebsOnSecurity was  contacted by an investigator with the U.S. Internal Revenue Service  (IRS) who was seeking to discuss my claim. The investigator said they would have called sooner, but that it had taken that long for the IRS to gain legal access to the funds seized in the 2013 Liberty Reserve takedown.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>January 10, 2024</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Happy 14th Birthday, KrebsOnSecurity!</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KrebsOnSecurity celebrates its 14th year of existence today! I promised myself this post wouldn’t devolve into yet another Cybersecurity Year in Review. Nor do I wish to hold forth about whatever cyber horrors may await us in 2024. But I do want to thank you all for your continued readership, encouragement and support, without which I could not do what I do.  As of this birthday, I’ve officially been an independent investigative journalist for longer than I was a reporter for The Washington Post (1995-2009). Of course, not if you count the many years I worked as a paperboy schlepping The Washington Post to dozens of homes in Springfield, Va. (as a young teen, I inherited a largish paper route handed down from my elder siblings). True story: At the time I was hired as a lowly copy aide by The Washington Post, all new hires — everyone from the mailroom and janitors on up to the executives — were invited to a formal dinner in the Executive Suite with the publisher  Don Graham . On the evening of my new hires dinner, I was feeling underdressed, undershowered and out of place. After wolfing down some food, I tried to slink away to the elevator with another copy aide, but was pulled aside by the guy who hired me. “Hey Brian, not so fast! Come over and meet Don!” I was 23 years old, and I had no clue what to say except to tell him that paper route story, and that I’d already been working for him for half my life. Mr. Graham laughed and told me that was the best thing he’d heard all day. Which of course made my week, and made me feel more at ease among the suits. I remain grateful to WaPo for instilling many skills, such as how to distill technobabble into plain English for a general audience. And how to make people the focus of highly technical stories. Because people — and their eternal struggles — are imminently relatable, regardless of whether one has a full grasp of the technical details. Words fail me when trying to describe how grateful I am that this whole independent reporter thing still works, financially and otherwise. I mostly just keep my head down researching stuff and sharing what I find, and somehow loads of people keep coming back to the site. As I like to say, I hope they let me keep doing this, because I’m certainly unqualified to do much else! Another milestone of sorts: We’ve now amassed more than 52,000 subscribers to our email newsletter, which is a fancy term for a plain text email that goes out immediately whenever a new story is published here.  Subscribing is free , we never share anyone’s email address, and we don’t send emails other than new story notifications (2-3 per week). A friendly reminder that while you may see ads (or spaces where ads otherwise would be) at the top of this website, all two-dozen or so ad creatives we run are vetted by me and served in-house. Nor does this website host any third-party content. If you regularly browse the web with an ad blocker turned on, please consider adding an exception for KrebsOnSecurity.com. Our advertising partners are how we keep the lights on over here. And in case you missed any of them, here are some of the most-read stories published by KrebsOnSecurity in 2023. Happy 2024 everyone! Ten Years Later, New Clues in the Target Breach 
- It’s Still Easy for Anyone to Become You at Experian 
- Experts Fear Crooks are Cracking Keys Stolen in LastPass Breach 
- Why is .US Being Used to Phish So Many of US? 
- Few Fortune 100 Firms List Security Pros in Their Executive Ranks 
- Who’s Behind the Domain Networks Snail Mail Scam? 
- Phishing Domains Tanked After Meta Sued Freenom 
- Many Public Salesforce Sites are Leaking Private Data 
- Hackers Claim They Breached T-Mobile More Than 100 Times in 2022 
- Identity Thieves Bypassed Experian Security to View Credit Reports</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>December 29, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ten Years Later, New Clues in the Target Breach</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>On Dec. 18, 2013, KrebsOnSecurity  broke the news  that U.S. retail giant  Target  was battling a wide-ranging computer intrusion that compromised more than 40 million customer payment cards over the previous month. The malware used in the Target breach included the text string “ Rescator ,” which also was the handle chosen by the cybercriminal who was selling all of the cards stolen from Target customers. Ten years later, KrebsOnSecurity has uncovered new clues about the real-life identity of Rescator. Rescator, advertising a new batch of cards stolen in a 2014 breach at P.F. Chang’s. Shortly after breaking the Target story, KrebsOnSecurity  reported  that Rescator appeared to be a hacker from Ukraine. Efforts to confirm my reporting with that individual ended when they declined to answer questions, and after I declined to accept a bribe of $10,000 not to run my story. That reporting was based on clues from an early Russian cybercrime forum in which a hacker named Rescator — using the same profile image that Rescator was known to use on other forums — claimed to have originally been known as “Helkern,” the nickname chosen by the administrator of a cybercrime forum called Darklife. KrebsOnSecurity began revisiting the research into Rescator’s real-life identity in 2018, after the  U.S. Department of Justice  unsealed an indictment that  named a different Ukrainian man  as Helkern. It may be helpful to first recap why Rescator is thought to be so closely tied to the Target breach. For starters, the text string “Rescator” was found in  some of the malware  used in the Target breach. Investigators would later determine that  a variant of the malware used in the Target breach  was used in 2014 to  steal 56 million payment cards  from  Home Depot  customers. And once again, cards stolen in the Home Depot breach were sold exclusively at Rescator’s shops. On Nov. 25, 2013, two days before Target said the breach officially began, Rescator could be seen in instant messages hiring another forum member to verify 400,000 payment cards that Rescator claimed were freshly stolen. By the first week of December 2013, Rescator’s online store —  rescator[.]la  — was selling more than six million payment card records stolen from Target customers. Prior to the Target breach, Rescator had mostly sold much smaller batches of stolen card and identity data, and the website allowed cybercriminals to automate the sending of fraudulent wire transfers to  money mules  based in Lviv, Ukraine. Finally, there is  some  honor among thieves, and in the marketplace for stolen payment card data it is considered poor form to advertise a batch of cards as “yours” if you are merely reselling cards sold to you by a third-party card vendor or thief. When serious stolen payment card shop vendors wish to communicate that a batch of cards is uniquely their handiwork or that of their immediate crew, they refer to it as “our base.” And Rescator was quite clear in his advertisements that these millions of cards were obtained firsthand. The new clues about Rescator’s identity came into focus when I revisited the reporting around an April 2013 story here that  identified the author of the OSX Flashback Trojan , an early Mac malware strain that quickly  spread to more than 650,000 Mac computers worldwide in 2012 . That story about the Flashback author was possible because a source had obtained a Web browser authentication cookie for a founding member of a Russian cybercrime forum called  BlackSEO . Anyone in possession of that cookie could then browse the invite-only BlackSEO forum and read the user’s private messages without having to log in. BlackSEO.com VIP member “Mavook” tells forum admin Ika in a private message that he is the Flashback author. The legitimate owner of that BlackSEO user cookie went by the nickname  Ika , and Ika’s private messages on the forum showed he was close friends with the Flashback author. At the time, Ika also was the administrator of  Pustota[.]pw  — a closely-guarded Russian forum that counted among its members some of the world’s most successful and established spammers and malware writers. For many years, Ika held a key position at one of Russia’s largest Internet service providers, and his (mostly glowing) reputation as a reliable provider of web hosting to the Russian cybercrime community gave him an encyclopedic knowledge about nearly every major player in that scene at the time. The story on the Flashback author featured redacted screenshots that were taken from Ika’s BlackSEO account (see image above). The day after that story ran, Ika posted a farewell address to his mates, expressing shock and bewilderment over the apparent compromise of his BlackSEO account. In a lengthy post on April 4, 2013 titled “I DON’T UNDERSTAND ANYTHING,” Ika told Pustota forum members he was so spooked by recent events that he was closing the forum and quitting the cybercrime business entirely. Ika recounted how the Flashback story had come the same week that rival cybercriminals tried to “dox” him (their dox named the wrong individual, but included some of Ika’s more guarded identities). “It’s no secret that karma farted in my direction,” Ika said at the beginning of his post. Unbeknownst to Ika at the time, his Pustota forum also had been completely hacked that week, and a copy of its database shared with this author. A Google translated version of the farewell post from Ika, the administrator of Pustota, a Russian language cybercrime forum focused on botnets and spam. Click to enlarge. Ika said the two individuals who tried to dox him did so on an even more guarded Russian language forum —  DirectConnection[.]ws , perhaps the most exclusive Russian cybercrime community ever created. New applicants of this forum had to pay a non-refundable deposit, and receive vouches by three established cybercriminals already on the forum. Even if one managed to steal (or guess) a user’s DirectConnection password, the login page could not be reached unless the visitor also possessed a special browser certificate that the forum administrator gave only to approved members. In no uncertain terms, Ika declared that Rescator went by the nickname  MikeMike  on DirectConnection: “I did not want to bring any of this to real life. Especially since I knew the patron of the clowns – specifically Pavel Vrublevsky. Yes, I do state with confidence that the man with the nickname Rescator a.k.a. MikeMike with his partner  Pipol  have been Pavel Vrublevsky’s puppets for a long time.” Pavel Vrublevsky  is a convicted cybercriminal who became famous as the CEO of the Russian e-payments company  ChronoPay , which specialized in facilitating online payments for a variety of “high-risk” businesses, including gambling, pirated Mp3 files,  rogue antivirus software  and “male enhancement” pills. As detailed in my 2014 book  Spam Nation , Vrublevsky not-so-secretly ran a pharmacy affiliate spam program called  Rx-Promotion , which  paid spammers and virus writers  to blast out tens of billions of junk emails advertising generic Viagra and controlled pharmaceuticals like pain relief medications. Much of my reporting on Vrublevsky’s cybercrime empire came from several years worth of internal ChronoPay emails and documents that were leaked online in 2010 and 2011. Pavel Vrublevsky’s former Facebook profile photo.  In 2014, KrebsOnSecurity learned from a trusted source close to the Target breach investigation that the user MikeMike on DirectConnection — the same account that Ika said belonged to Rescator — used the email address “ zaxvatmira@gmail.com .” At the time, KrebsOnSecurity could not connect that email address to anything or anyone. However, a recent search on zaxvatmira@gmail.com at the breach tracking service  Constella Intelligence  returns just one result: An account created in November 2010 at the site searchengines[.]ru under the handle  “ r-fac1 .” A search on “r-fac1” at cyber intelligence firm  Intel 471  revealed that this user’s introductory post on searchengines[.]ru advertised  musictransferonline[.]com , an affiliate program that paid people to drive traffic to sites that sold pirated music files for pennies apiece. According to leaked ChronoPay emails from 2010, this domain was registered and paid for by ChronoPay. Those missives also show that in August 2010 Vrublevsky authorized a payment of ~$1,200 for a multi-user license of an Intranet service called  MegaPlan . ChronoPay  used the MegaPlan service  to help manage the sprawling projects that Vrublevsky referred to internally as their “black” payment processing operations, including pirated pills, porn, Mp3s, and fake antivirus products. ChronoPay employees used their MegaPlan accounts to track payment disputes, order volumes, and advertising partnerships for these high-risk programs. Borrowing a page from the Quentin Tarantino movie  Reservoir Dogs , the employees adopted nicknames like “Mr. Kink,” “Mr. Heppner,” and “Ms. Nati.” However, in a classic failure of operational security, many of these employees had their MegaPlan account messages automatically forwarded to their real ChronoPay email accounts. A screen shot of the org chart from ChronoPay’s MegaPlan Intranet system. When ChronoPay’s internal emails were leaked in 2010, the username and password for its MegaPlan subscription were still working and valid. An internal user directory for that subscription included the personal (non-ChronoPay) email address tied to each employee Megaplan nickname. That directory listing said the email address zaxvatmira@gmail.com was assigned to the head of the  Media/Mp3  division for ChronoPay, pictured at the top left of the organizational chart above as “ Babushka Vani and Koli.” [Author’s note: I initially overlooked the presence of the email address zaxvatmira@gmail.com in my notes because it did not show up in text searches of my saved emails, files or messages. I rediscovered it recently when a text search for zaxvatmira@gmail.com on my Mac found the address in a screenshot of the ChronoPay MegaPlan interface.] The nickname two rungs down from “Babushka” in the ChronoPay org chart is “ Lev Tolstoy ,” which the MegaPlan service showed was picked by someone who used the email address  v.zhabukin@freefrog-co-ru . ChronoPay’s emails show that this Freefrog email address belongs to a  Vasily Borisovich Zhabykin  from Moscow. The Russian business tracking website rusprofile[.]ru reports that Zhabykin is or was the supervisor or owner of three Russian organizations, including one called  JSC Hot Spot . [Author’s note: The word “babushka” means “grandma” in Russian, and it could be that this nickname is a nod to the ChronoPay CEO’s wife,  Vera . The leaked ChronoPay emails show that Vera Vrublevsky managed a group of hackers working with their media division, and was at least nominally in charge of MP3 projects for ChronoPay. Indeed, in messages exposed by the leaked ChronoPay email cache, Zhabykin stated that he was “directly subordinate” to Mrs. Vrublevsky]. JSC Hot Spot is interesting because its co-founder is another ChronoPay employee: 37-year-old  Mikhail “Mike” Shefel . A  Facebook profile for Mr. Shefel  says he is or was vice president of payment systems at ChronoPay. However, the last update on that profile is from 2018, when Shefel appears to have legally changed his last name. Archive.org shows that Hot Spot’s website —  myhotspot[.]ru  — sold a variety of consulting services, including IT security assessments, code and system audits, and email marketing. The earliest recorded archive of the Hot Spot website listed three clients on its homepage, including ChronoPay and Freefrog. ChronoPay internal emails show that Freefrog was one of its investment projects that facilitated the sale of pirated Mp3 files. Rusprofile[.]ru reports that Freefrog’s official company name —  JSC Freefrog  — is incorporated by a thinly-documented entity based in the Seychelles called  Impex Consulting Ltd. , and it is unclear who its true owners are. However, a search at  DomainTools.com  on the phone number listed on the homepage of myhotspot[.]ru ( 74957809554 ) reveals that number is associated with eight domain names. Six of those domains are some variation of FreeFrog. Another domain registered to that phone number is  bothunter[.]me , which included a copyright credit to “Hot Spot 2011.” At the annual Russian Internet Week IT convention in Moscow in 2012, Mr. Shefel  gave a short presentation about bothunter , which he described as a service he designed to identify inauthentic (bot) accounts on Russian social media networks. Interestingly, one of r-fac1’s first posts to Searchengines[.]ru a year earlier saw this user requesting help from other members who had access to large numbers of hacked social media accounts. R-fac1 told forum members that he was only looking to use those accounts to post harmless links and comments to the followers of the hacked profiles, and his post suggested he was testing something. “Good afternoon,” r-fac1 wrote on Dec. 20, 2010. “I’m looking for people with their own not-recently-registered accounts on forums, (except for search) Social networks, Twitter, blogs, their websites. Tasks, depending on your accounts, post text and a link, sometimes just a link. Most often the topic is chatter, relaxation, discussion. Posting my links in your profiles, on your walls. A separate offer for people with a large set of contacts in instant messengers to try to use viral marketing.” Neither Mr. Shefel nor Mr. Zhabykin responded to requests for comment. Mr. Zhabykin soon moved on to bigger ventures, co-founding a cryptocurrency exchange based in Moscow’s financial center called  Suex . In September 2021, Suex earned the distinction of becoming the first crypto firm to be  sanctioned  by the  U.S. Department of the Treasury , which effectively blocked Suex from the global financial system. The Treasury alleged Suex helped to process millions in criminal transactions, including the proceeds of numerous ransomware attacks. “I don’t understand how I got mixed up in this,” Zhabykin  told   The New York Times  in 2021. Zhabykin said Suex, which is registered in the Czech Republic, was mostly a failure and had conducted only a half dozen or so transactions since 2019. The Russian business tracking service Rusprofile says Zhabykin also is the owner of a company based in the United Kingdom called  RideWithLocal ; the company’s website says it specializes in arranging excursions for extreme sports, including snowboarding, skiing, surfing and parasailing. Images from the RideWithLocal Facebook page show helicopters dropping snowboarders and skiers atop some fairly steep mountains. A screenshot from the Facebook page of RideWithLocal. Constella Intelligence found a cached copy of a now-deleted LinkedIn profile for Mr. Zhabykin, who described himself as a “sporttech/fintech specialist and mentor.” “I create products and services worldwide, focusing on innovation and global challenges,” his LinkedIn profile said. “I’ve started my career in 2002 and since then I worked in Moscow, different regions of Russia, including Siberia and in Finland, Brazil, United Kingdom, Sri Lanka. Over the last 15 years I contributed to many amazing products in the following industries: sports, ecology, sport tech, fin tech, electronic payments, big data, telecommunications, pulp and paper industry, wood processing and travel. My specialities are Product development, Mentorship, Strategy and Business development.” Rusprofile reports that  Mikhail Borisovich Shefel  is associated with at least eight current or now-defunct companies in Russia, including  Dengi IM  (Money IM),  Internet Capital ,  Internet Lawyer ,  Internet 2 , Zao Hot Spot, and (my personal favorite) an entity incorporated in 2021 called “ All the Money in the World .” Constella Intelligence found several official documents for Mr. Shefel that came from hacked Russian phone, automobile and residence records. They indicate Mr. Shefel is the registrant of a black Porsche Cayenne (Plate:X537SR197) and a Mercedes (Plate:P003PX90). Those vehicle records show Mr. Shefel was born on May 28, 1986. Rusprofile reveals that at some point near the end of 2018, Shefel changed his last name to  Lenin . DomainTools reports that in 2018, Mr. Shefel’s company Internet 2 LLC registered the domain name  Lenin[.]me.  This now-defunct service sold physical USSR-era Ruble notes that bear the image of Vladimir Lenin, the founding father of the Soviet Union.  Meanwhile, Pavel Vrublevsky remains imprisoned in Russia, awaiting trial on  fraud charges levied against the payment company CEO in March 2022 . Authorities allege Vrublevsky operated several fraudulent SMS-based payment schemes. They also accused Vrublevsky of facilitating money laundering for  Hydra , the largest Russian darknet market. Hydra trafficked in illegal drugs and financial services, including cryptocurrency tumbling for money laundering, exchange services between cryptocurrency and Russian rubles, and the sale of falsified documents and hacking services. In 2013, Vrublevsky was sentenced to 2.5 years in a Russian penal colony for convincing one of his top spammers and botmasters to launch a distributed denial-of-service (DDoS) attack against a ChronoPay competitor that shut down the ticketing system for the state-owned Aeroflot airline. Following his release, Vrublevsky began working on a new digital payments platform based in Hong Kong called HPay Ltd (a.k.a. Hong Kong Processing Corporation). HPay appears to have had a great number of clients that were running schemes which bamboozled people with fake lotteries and prize contests. KrebsOnSecurity sought comment on this research from the  Federal Bureau of Investigation  (FBI) and the  U.S. Secret Service , both of which have been involved in the Target breach investigation over the years. The FBI declined to comment. The Secret Service declined to confirm or dispute any of the findings, but said it is still interested in hearing from anyone who might have more information. “The U.S. Secret Service does not comment on any open investigation and won’t confirm or deny the accuracy in any reporting related to a criminal manner,” the agency said in a written statement. “However, If you have any information relating to the subjects referenced in this article, please contact the U.S. Secret Service at mostwanted@usss.dhs.gov. The Secret Service pays a reward for information leading to the arrest of cybercriminals.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>December 14, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Okta: Breach Affected All Customer Support Users</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>When KrebsOnSecurity broke the news on Oct. 20, 2023 that identity and authentication giant  Okta  had suffered a breach in its customer support department, Okta said the intrusion allowed hackers to steal sensitive data from fewer than one percent of its 18,000+ customers. But today, Okta revised that impact statement, saying the attackers also stole the name and email address for nearly all of its customer support users.  Okta  acknowledged  last month that for several weeks beginning in late September 2023, intruders had access to its customer support case management system. That access allowed the hackers to steal authentication tokens from some Okta customers, which the attackers could then use to make changes to customer accounts, such as adding or modifying authorized users. In its initial incident reports about the breach, Okta  said  the hackers gained unauthorized access to files inside Okta’s customer support system associated with 134 Okta customers, or less than 1% of Okta’s customer base. But in  an updated statement  published early this morning, Okta said it determined the intruders also stole the names and email addresses of all Okta customer support system users. “All Okta Workforce Identity Cloud (WIC) and Customer Identity Solution (CIS) customers are impacted except customers in our FedRamp High and DoD IL4 environments (these environments use a separate support system NOT accessed by the threat actor),” Okta’s advisory states. “The Auth0/CIC support case management system was also not impacted by this incident.” Okta said that for nearly 97 percent of users, the only contact information exposed was full name and email address. That means about three percent of Okta customer support accounts had one or more of the following data fields exposed (in addition to email address and name): last login; username; phone number; SAML federation ID; company name; job role; user type; date of last password change or reset. Okta notes that a large number of the exposed accounts belong to Okta administrators — IT people responsible for integrating Okta’s authentication technology inside customer environments — and that these individuals should be on guard for targeted phishing attacks. “Many users of the customer support system are Okta administrators,” Okta pointed out. “It is critical that these users have multi-factor authentication (MFA) enrolled to protect not only the customer support system, but also to secure access to their Okta admin console(s).” While it may seem completely bonkers that some companies allow their IT staff to operate company-wide authentication systems using an Okta administrator account that isn’t protected with MFA, Okta said  fully six percent of its customers (more than 1,000) persist in this dangerous practice. In  a previous disclosure on Nov. 3 , Okta blamed the intrusion on an employee who saved the credentials for a service account in Okta’s customer support infrastructure to their personal Google account, and said it was likely those credentials were stolen when the employee’s personal device using the same Google account was compromised. Unlike standard user accounts, which are accessed by humans, service accounts are mostly reserved for automating machine-to-machine functions, such as performing data backups or antivirus scans every night at a particular time. For this reason, they can’t be locked down with multifactor authentication the way user accounts can. Dan Goodin over at Ars Technica  reckons  this explains why MFA wasn’t set up on the compromised Okta service account. But as he rightly points out, if a transgression by a single employee breaches your network, you’re doing it wrong. “Okta should have put access controls in place besides a simple password to limit who or what could log in to the service account,” Goodin wrote on Nov. 4. “One way of doing this is to put a limit or conditions on the IP addresses that can connect. Another is to regularly rotate access tokens used to authenticate to service accounts. And, of course, it should have been impossible for employees to be logged in to personal accounts on a work machine. These and other precautions are the responsibility of senior people inside Okta.” Goodin suggested that people who want to delve further into various approaches for securing service accounts should read  this thread on Mastodon . “A fair number of the contributions come from security professionals with extensive experience working in sensitive cloud environments,” Goodin wrote.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>November 29, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ID Theft Service Resold Access to USInfoSearch Data</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>One of the cybercrime underground’s more active sellers of Social Security numbers, background and credit reports has been pulling data from hacked accounts at the U.S. consumer data broker  USinfoSearch , KrebsOnSecurity has learned. Since at least February 2023, a service advertised on Telegram called  USiSLookups  has operated an automated bot that allows anyone to look up the SSN or background report on virtually any American. For prices ranging from $8 to $40 and payable via virtual currency, the bot will return detailed consumer background reports automatically in just a few moments. USiSLookups is the project of a cybercriminal who uses the nicknames  JackieChan/USInfoSearch , and the Telegram channel for this service features a small number of sample background reports, including that of  President Joe Biden , and podcaster  Joe Rogan . The data in those reports includes the subject’s date of birth, address, previous addresses, previous phone numbers and employers, known relatives and associates, and driver’s license information. JackieChan’s service abuses the name and trademarks of Columbus, OH based data broker  USinfoSearch , whose website says it provides “identity and background information to assist with risk management, fraud prevention, identity and age verification, skip tracing, and more.” “We specialize in non-FCRA data from numerous proprietary sources to deliver the information you need, when you need it,” the company’s website explains. “Our services include API-based access for those integrating data into their product or application, as well as bulk and batch processing of records to suit every client.” As luck would have it, my report was also listed in the Telegram channel for this identity fraud service, presumably as a teaser for would-be customers. On October 19, 2023, KrebsOnSecurity shared a copy of this file with the real USinfoSearch, along with a request for information about the provenance of the data. USinfoSearch said it would investigate the report, which appears to have been obtained on or before June 30, 2023. On Nov. 9, 2023,  Scott Hostettler , general manager of USinfoSearch parent  Martin Data LLC  shared a written statement about their investigation that suggested the ID theft service was trying to pass off someone else’s consumer data as coming from USinfoSearch: Regarding the Telegram incident, we understand the importance of protecting sensitive information and upholding the trust of our users is our top priority. Any allegation that we have provided data to criminals is in direct opposition to our fundamental principles and the protective measures we have established and continually monitor to prevent any unauthorized disclosure. Because Martin Data has a reputation for high-quality data, thieves may steal data from other sources and then disguise it as ours. While we implement appropriate safeguards to guarantee that our data is only accessible by those who are legally permitted, unauthorized parties will continue to try to access our data. Thankfully, the requirements needed to pass our credentialing process is tough even for established honest companies. USinfoSearch’s statement did not address any questions put to the company, such as whether it requires multi-factor authentication for customer accounts, or whether my report had actually come from USinfoSearch’s systems. After much badgering, on Nov. 21 Hostettler acknowledged that the USinfoSearch identity fraud service on Telegram was in fact pulling data from an account belonging to a vetted USinfoSearch client. “I do know 100% that my company did not give access to the group who created the bots, but they did gain access to a client,” Hostettler said of the Telegram-based identity fraud service. “I apologize for any inconvenience this has caused.” Hostettler said USinfoSearch heavily vets any new potential clients, and that all users are required to undergo a background check and provide certain documents. Even so, he said, several fraudsters each month present themselves as credible business owners or C-level executives during the credentialing process, completing the application and providing the necessary documentation to open a new account. “The level of skill and craftsmanship demonstrated in the creation of these supporting documents is incredible,” Hostettler said. “The numerous licenses provided appear to be exact replicas of the original document. Fortunately, I’ve discovered several methods of verification that do not rely solely on those documents to catch the fraudsters.” “These people are unrelenting, and they act without regard for the consequences,” Hostettler continued. “After I deny their access, they will contact us again within the week using the same credentials. In the past, I’ve notified both the individual whose identity is being used fraudulently and the local police. Both are hesitant to act because nothing can be done to the offender if they are not apprehended. That is where most attention is needed.” JackieChan is most active on Telegram channels focused on “ SIM swapping ,” which involves bribing or tricking mobile phone company employees into  redirecting a target’s phone number to a device the attackers control . SIM swapping allows crooks to temporarily intercept the target’s text messages and phone calls, including any links or one-time codes for authentication that are delivered via SMS. Reached on Telegram, JackieChan said most of his clients hail from the criminal SIM swapping world, and that the bulk of his customers use his service via an application programming interface (API) that allows customers to integrate the lookup service with other web-based services, databases, or applications. “Sim channels is where I get most of my customers,” JackieChan told KrebsOnSecurity. “I’m averaging around 100 lookups per day on the [Telegram] bot, and around 400 per day on the API.” JackieChan claims his USinfoSearch bot on Telegram abuses stolen credentials needed to access an API used by the real USinfoSearch, and that his service was powered by USinfoSearch account credentials that were stolen by malicious software tied to a botnet that he claims to have operated for some time. This is not the first time USinfoSearch has had trouble with identity thieves masquerading as legitimate customers. In 2013, KrebsOnSecurity broke the news that an identity fraud service in the underground called “ SuperGet[.]info ” was  reselling access to personal and financial data on more than 200 million Americans  that was obtained via the big-three credit bureau  Experian . The consumer data resold by Superget was not obtained directly from Experian, but rather via USinfoSearch. At the time, USinfoSearch had a contractual agreement with a California company named  Court Ventures , whereby customers of Court Ventures had access to the USinfoSearch data, and vice versa. When Court Ventures was purchased by Experian in 2012, the proprietor of SuperGet — a Vietnamese hacker named  Hieu Minh Ngo  who had impersonated an American private investigator — was grandfathered in as a client. The  U.S. Secret Service  agent who oversaw Ngo’s capture, extradition, prosecution and rehabilitation  told KrebsOnSecurity  he’s unaware of any other cybercriminal who has caused more material financial harm to more Americans than Ngo. JackieChan also sells access to hacked email accounts belonging to law enforcement personnel in the United States and abroad. Hacked police department emails can come in handy for ID thieves trying to pose as law enforcement officials who wish to purchase consumer data from platforms like USinfoSearch. Hence, Mr. Hostettler’s ongoing battle with fraudsters seeking access to his company’s service. These police credentials are mainly marketed to criminals seeking  fraudulent “Emergency Data Requests, ” wherein crooks use compromised government and police department email accounts to rapidly obtain customer account data from mobile providers, ISPs and social media companies. Normally, these companies will require law enforcement officials to supply a subpoena before turning over customer or user records. But EDRs allow police to bypass that process by attesting that the information sought is related to an urgent matter of life and death, such as an impending suicide or terrorist attack.  In response to an alarming increase in the volume of fraudulent EDRs, many service providers have chosen to require all EDRs be processed through  a service called Kodex , which seeks to filter EDRs based on the reputation of the law enforcement entity requesting the information, and other attributes of the requestor. For example, if you want to send an EDR to  Coinbase  or  Twilio , you’ll first need to have valid law enforcement credentials and create an account at the Kodex online portal at these companies. However, Kodex may still throttle or block any requests from any accounts if they set off certain red flags. Within their own separate Kodex portals, Twilio can’t see requests submitted to Coinbase, or vice versa. But each can see if a law enforcement entity or individual tied to one of their own requests has ever submitted a request to a different Kodex client, and then drill down further into other data about the submitter, such as Internet address(es) used, and the age of the requestor’s email address. In August, JackieChan was advertising a working Kodex account for sale on the cybercrime channels, including redacted screenshots of the Kodex account dashboard as proof of access. Kodex co-founder  Matt Donahue  told KrebsOnSecurity his company immediately detected that the law enforcement email address used to create the Kodex account pictured in JackieChan’s ad was likely stolen from a police officer in India. One big tipoff, Donahue said, was that the person creating the account did so using an Internet address in Brazil. “There’s a lot of friction we can put in the way for illegitimate actors,” Donahue said. “We don’t let people use VPNs. In this case we let them in to honeypot them, and that’s how they got that screenshot. But nothing was allowed to be transmitted out from that account.” Massive amounts of data about you and your personal history are available from USinfoSearch and dozens of other data brokers that acquire and sell “non-FCRA” data — i.e., consumer data that cannot be used for the purposes of determining one’s eligibility for credit, insurance, or employment. Anyone who works in or adjacent to law enforcement is eligible to apply for access to these data brokers, which often market themselves to police departments and to “skip tracers,” essentially bounty hunters hired to locate others in real life — often on behalf of debt collectors, process servers or a bail bondsman. There are tens of thousands of police jurisdictions around the world — including roughly  18,000 in the United States alone . And the harsh reality is that all it takes for hackers to apply for access to data brokers (and abuse the EDR process) is illicit access to a single police email account. The trouble is, compromised credentials to law enforcement email accounts show up for sale with alarming frequency on the Telegram channels where JackieChan and their many clients reside. Indeed, Donahue said Kodex so far this year has identified attempted fake EDRs coming from compromised email accounts for police departments in India, Italy, Thailand and Turkey.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>November 28, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Alleged Extortioner of Psychotherapy Patients Faces Trial</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Prosecutors in Finland this week commenced their criminal trial against  Julius Kivimäki , a 26-year-old Finnish man charged with extorting a once popular and now-bankrupt online psychotherapy practice and thousands of its patients. In a 2,200-page report, Finnish authorities laid out how they connected the extortion spree to Kivimäki, a notorious hacker who was  convicted in 2015  of perpetrating tens of thousands of cybercrimes, including data breaches, payment fraud, operating a botnet and calling in bomb threats.  In November 2022, Kivimäki was charged with attempting to extort money from the  Vastaamo Psychotherapy Center . In that breach, which occurred in October 2020, a hacker using the handle “Ransom Man” threatened to publish patient psychotherapy notes if Vastaamo did not pay a six-figure ransom demand. Vastaamo refused, so Ransom Man shifted to extorting individual patients — sending them targeted emails threatening to publish their therapy notes unless paid a 500-euro ransom. When Ransom Man found little success extorting patients directly, they uploaded to the dark web a large compressed file containing all of the stolen Vastaamo patient records. Security experts soon discovered Ransom Man had mistakenly included an entire copy of their home folder, where investigators found many clues pointing to Kivimäki’s involvement. By that time, Kivimäki was no longer in Finland, but the Finnish government nevertheless  charged Kivimäki in absentia with the Vastaamo hack . The 2,200-page evidence document against Kivimäki suggests he enjoyed a lavish lifestyle while on the lam, frequenting luxury resorts and renting fabulously expensive cars and living quarters. But in February 2023, Kivimäki was  arrested in France  after authorities there responded to a domestic disturbance call and found the defendant sleeping off a hangover on the couch of a woman he’d met the night before. The French police grew suspicious when the 6′ 3″ blonde, green-eyed man presented an ID that stated he was of Romanian nationality. A redacted copy of an ID Kivimaki gave to French authorities claiming he was from Romania. Finnish prosecutors showed that Kivimäki’s credit card had been used to pay for the virtual server that hosted the stolen Vastaamo patient notes. What’s more, the home folder included in the Vastaamo patient data archive also allowed investigators to peer into other cybercrime projects of the accused, including domains that Ransom Man had access to as well as a lengthy history of commands he’d executed on the rented virtual server. Some of those domains allegedly administered by Kivimäki were set up to smear the reputations of different companies and individuals. One of those was a website that claimed to have been authored by a person who headed up IT infrastructure for a major bank in Norway which discussed the idea of legalizing child sexual abuse. Another domain hosted a fake blog that besmirched the reputation of a Tulsa, Okla. man whose name was attached to blog posts about supporting the “white pride” movement and calling for a pardon of the  Oklahoma City bomber Timothy McVeigh . Kivimäki appears to have sought to sully the name of this reporter as well. The 2,200-page document shows that Kivimäki owned and operated the domain  krebsonsecurity[.]org , which hosted various hacking tools that Kivimäki allegedly used, including programs for mass-scanning the Internet for systems vulnerable to known security flaws, as well as scripts for cracking database server usernames and passwords, and downloading databases. Ransom Man inadvertently included a copy of his home directory in the leaked Vastaamo patient data. A lengthy history of the commands run by that user show they used krebsonsecurity-dot-org to host hacking and scanning tools. Mikko Hyppönen , chief research officer at WithSecure (formerly F-Secure), said the Finnish authorities have done “amazing work,” and that “it’s rare to have this much evidence for a cybercrime case.” Petteri Järvinen  is a respected IT expert and author who has been following the trial, and he said the prosecution’s case so far has been strong. “The National Bureau of Investigation has done a good job and Mr Kivimäki for his part some elementary mistakes,” Järvinen  wrote  on LinkedIn. “This sends an important message: online crime does not pay. Traces are left in the digital world too, even if it is very tedious for the police to collect them from servers all around the world.” Antti Kurittu  is an information security specialist and a former criminal investigator. In 2013, Kurittu worked on an investigation involving Kivimäki’s use of the  Zbot botnet , among other activities Kivimäki engaged in as a member of the hacker group  Hack the Planet  (HTP). Kurittu said it remains to be seen if the prosecution can make their case, and if the defense has any answers to all of the evidence presented. “Based on the public pretrial investigation report, it looks like the case has a lot of details that seem very improbable to be coincidental,” Kurittu told KrebsOnSecurity. “For example, a full copy of the Vastaamo patient database was found on a server that belonged to Scanifi, a company with no reasonable business that Kivimäki was affiliated with. The leaked home folder contents were also connected to Kivimäki and were found on servers that were under his control.” The Finnish daily  yle.fi   reports  that Kivimäki’s lawyers sought to have their client released from confinement for the remainder of his trial, noting that the defendant has already been detained for eight months. The court denied that request, saying the defendant was still a flight risk. Kivimäki’s trial is expected to continue until February 2024, in part to accommodate testimony from a large number of victims. Prosecutors are seeking a seven-year sentence for Kivimäki.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>November 16, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A Closer Look at the Snatch Data Ransom Group</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Earlier this week, KrebsOnSecurity  revealed  that the darknet website for the  Snatch  ransomware group was leaking data about its users and the crime gang’s internal operations. Today, we’ll take a closer look at the history of Snatch, its alleged founder, and their claims that everyone has confused them with a different, older ransomware group by the same name.  According to a September 20, 2023 joint advisory from the  FBI  and the  U.S. Cybersecurity and Infrastructure Security Administratio n (CISA), Snatch was originally named  Team Truniger , based on the nickname of the group’s founder and organizer — Truniger. The FBI/CISA report says Truniger previously operated as an affiliate of  GandCrab , an early ransomware-as-a-service offering that closed up shop after several years and  claims to have extorted more than $2 billion from victims . GandCrab dissolved in July 2019, and is thought to have become “ REvil ,” one of the most ruthless and rapacious Russian ransomware groups of all time. The government says Snatch used a customized ransomware variant notable for rebooting  Microsoft Windows  devices into Safe Mode — enabling the ransomware to circumvent detection by antivirus or endpoint protection — and then encrypting files when few services are running. “Snatch threat actors have been observed purchasing previously stolen data from other ransomware variants in an attempt to further exploit victims into paying a ransom to avoid having their data released on Snatch’s extortion blog,” the FBI/CISA alert reads. It continues: “Prior to deploying the ransomware, Snatch threat actors were observed spending up to three months on a victim’s system. Within this timeframe, Snatch threat actors exploited the victim’s network moving laterally across the victim’s network with RDP for the largest possible deployment of ransomware and searching for files and folders for data exfiltration followed by file encryption.” New York City-based cyber intelligence firm  Flashpoint  said the Snatch ransomware group was created in 2018, based on Truniger’s recruitment both on Russian language cybercrime forums and public Russian programming boards. Flashpoint said Truniger recruited “pen testers” for a new, then-unnamed cybercrime group, by posting their private Jabber instant messenger contact details on multiple Russian language coding forums, as well as on Facebook. “The command requires Windows system administrators,” Truniger’s ads explained. “Experience in backup, increase privileges, mikicatz, network. Details after contacting on jabber: truniger@xmpp[.]jp.” In at least some of those recruitment ads — like one in 2018 on the forum  sysadmins[.]ru  –the username promoting Truniger’s contact information was  Semen7907 . In April 2020, Truniger was banned from two of the top Russian cybercrime forums, where members from both forums confirmed that Semen7907 was one of Truniger’s known aliases. [SIDE NOTE: Truniger was banned because he purchased credentials to a company from  a network access broker  on the dark web, and although he promised to share a certain percentage of whatever ransom amount Truniger’s group extracted from the victim, Truniger paid the access broker just a few hundred dollars off of a six-figure ransom]. According to  Constella Intelligence , a data breach and threat actor research platform, a user named Semen7907 registered in 2017 on the Russian-language programming forum  pawno[.]ru  using the email address  tretyakov-files@yandex.ru . That same email address was assigned to the user “Semen-7907” on the now defunct gaming website  tunngle.net , which suffered a data breach in 2020. Semen-7907 registered at Tunngle from the Internet address  31.192.175[.]63 , which is in  Yekaterinburg, RU . Constella reports that tretyakov-files@yandex.ru was also used to register an account at the online game stalker[.]so with the nickname  Trojan7907 . There is a  Skype  user by the handle semen7907, and which has the name  Semyon Tretyakov  from Yekaterinburg, RU. Constella also found a breached record from the Russian mobile telephony site  tele2[.]ru,  which shows that a user from Yekaterinburg registered in 2019 with the name  Semyon Sergeyvich Tretyakov  and email address  tretyakov-files@ya.ru . The above accounts, as well as the email address  semen_7907@mail.ru , were all registered or accessed from the same Yekaterinburg Internet address mentioned previously: 31.192.175.63. The Russian mobile phone number associated with that tele2[.]ru account is connected to the Telegram account “ Perchatka ,” (“glove” in Russian). Reached via Telegram, Perchatka (a.k.a. Mr. Tretyakov) said he was not a cybercriminal, and that he currently has a full-time job working in IT at a major company (he declined to specify which). Presented with the information gathered for this report (and more that is not published here), Mr. Tretyakov acknowledged that Semen7907 was his account on sysadmins[.]ru, the very same account Truniger used to recruit hackers for the Snatch Ransomware group back in 2018. However, he claims that he never made those posts, and that someone else must have assumed control over his sysadmins[.]ru account and posted as him. Mr. Tretyakov said that KrebsOnSecurity’s outreach this week was the first time he became aware that his sysadmins[.]ru account was used without his permission. Mr. Tretyakov suggested someone may have framed him, pointing to  an August 2023 story  at a Russian news outlet about the reported hack and leak of the user database from sysadmins[.]ru, allegedly at the hands of a pro-Ukrainian hacker group called CyberSec. “Recently, because of the war in Ukraine, a huge number of databases have been leaked and finding information about a person is not difficult,” Tretyakov said. “I’ve been using this login since about 2013 on all the forums where I register, and I don’t always set a strong password. If I had done something illegal, I would have hidden much better :D.” [For the record, KrebsOnSecurity does not generally find this to be the case, as the ongoing  Breadcrumbs series  will attest.] A Semyon Sergeyvich Tretyakov is listed as the composer of a Russian-language rap song called “ Parallels ,” which seems to be about the pursuit of a high-risk lifestyle online. A snippet of the song goes: “Someone is on the screen, someone is on the blacklist 
-I turn on the timer and calculate the risks 
-I don’t want to stay broke And in the pursuit of money 
-I can’t take these zeros Life is like a zebra – 
-everyone wants to be first Either the stripes are white, 
-or we’re moving through the wilds I won’t waste time.” Mr. Tretyakov said he was not the author of that particular rhyme, but that he has been known to record his own rhythms. “Sometimes I make bad beats,” he said. “Soundcloud.” The  FBI/CISA alert on Snatch Ransomware  (PDF) includes an interesting caveat: It says Snatch actually deploys ransomware on victim systems, but it also acknowledges that the current occupants of Snatch’s dark and clear web domains call themselves Snatch Team, and maintain that they are not the same people as Snatch Ransomware from 2018. Here’s the interesting bit from the FBI/CISA report: “Since November 2021, an extortion site operating under the name Snatch served as a clearinghouse for data exfiltrated or stolen from victim companies on Clearnet and TOR hosted by a bulletproof hosting service. In August 2023, individuals claiming to be associated with the blog gave a media interview claiming the blog was not associated with Snatch ransomware and “none of our targets has been attacked by Ransomware Snatch…”, despite multiple confirmed Snatch victims’ data appearing on the blog alongside victims associated with other ransomware groups, notably Nokoyawa and Conti.” Avid readers will recall a story here earlier this week about Snatch Team’s  leaky darknet website  based in Yekaterinburg, RU that exposed their internal operations and Internet addresses of their visitors. The leaked data suggest that Snatch is one of several ransomware groups using paid ads on Google.com to trick people into installing malware disguised as popular free software, such as  Microsoft Teams ,  Adobe Reader ,  Mozilla Thunderbird , and  Discord . Snatch Team claims to deal only in stolen data — not in deploying ransomware malware to hold systems hostage. Representatives of the Snatch Team recently answered questions from  Databreaches.net  about the claimed discrepancy in the FBI/CISA report. “First of all, we repeat once again that we have nothing to do with Snatch Ransomware, we are Security Notification Attachment, and we have never violated the terms of the concluded transactions, because our honesty and openness is the guarantee of our income,” the Snatch Team wrote to Databreaches.net in response to questions. But so far the Snatch Team has not been able to explain  why it is using the very same domain names that the Snatch ransomware group used? Their claim is even more unbelievable because the Snatch Team members told Databreaches.net they didn’t even know that a ransomware group with that name already existed when they initially formed just two years ago. This is difficult to swallow because even if they were a separate group, they’d still need to somehow coordinate the transfer of the Ransomware group’s domains on the clear and dark webs. If they were hoping for a fresh start or separation, why not just pick a new name and new web destination? “Snatchteam[.]cc is essentially a data market,” they continued. “The only thing to underline is that we are against selling leaked information, sticking to the idea of free access. Absolutely any team can come to us and offer information for publication. Even more, we have heard rumors that a number of ransomware teams scare their clients that they will post leaked information on our resource. We do not have our own ransomware, but we are open to cooperation on placement and monetization of dates (sic).” Maybe Snatch Team does not wish to be associated with Snatch Ransomware because they currently believe stealing data and then extorting victim companies for money is somehow less evil than infecting all of the victim’s servers and backups with ransomware. It is also likely that Snatch Team is well aware of how poorly some of their founders covered their tracks online, and are hoping for a do-over on that front.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>September 30, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>‘Snatch’ Ransom Group Exposes Visitor IP Addresses</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>The victim shaming site operated by the  Snatch  ransomware group is leaking data about its true online location and internal operations, as well as the Internet addresses of its visitors, KrebsOnSecurity has found. The leaked data suggest that Snatch is one of several ransomware groups using paid ads on Google.com to trick people into installing malware disguised as popular free software, such as  Microsoft Teams ,  Adobe Reader ,  Mozilla Thunderbird , and  Discord . First spotted  in 2018 , the Snatch ransomware group has published data stolen from hundreds of organizations that refused to pay a ransom demand. Snatch publishes its stolen data at a website on the open Internet, and that content is mirrored on the Snatch team’s darknet site, which is only reachable using the global anonymity network  Tor . The victim shaming website for the Snatch ransomware gang. KrebsOnSecurity has learned that Snatch’s darknet site exposes its “server status” page, which includes information about the true Internet addresses of users accessing the website. Refreshing this page every few seconds shows that the Snatch darknet site generates a decent amount of traffic, often attracting thousands of visitors each day. But by far the most frequent repeat visitors are coming from Internet addresses in Russia that either currently host Snatch’s clear web domain names or recently did. The Snatch ransomware gang’s victim shaming site on the darknet is leaking data about its visitors. This “server status” page says that Snatch’s website is on Central European Summer Time (CEST) and is powered by OpenSSL/1.1.1f, which is no longer supported by security updates. Probably the most active Internet address accessing Snatch’s darknet site is  193.108.114[.]41 , which is a server in Yekaterinburg, Russia that hosts several Snatch domains, including  snatchteam[.]top ,  sntech2ch[.]top ,  dwhyj2[.]top  and  sn76930193ch[.]top . It could well be that this Internet address is showing up frequently because Snatch’s clear-web site features a toggle button at the top that lets visitors switch over to accessing the site via Tor. Another Internet address that showed up frequently in the Snatch server status page was  194.168.175[.]226 , currently assigned to  Matrix Telekom  in Russia. According to  DomainTools.com , this address also hosts or else recently hosted the usual coterie of Snatch domains, as well as quite a few domains phishing known brands such as  Amazon  and  Cashapp . The Moscow Internet address  80.66.64[.]15  accessed the Snatch darknet site all day long, and that address also housed the appropriate Snatch clear-web domains. More interestingly, that address is home to multiple recent domains that appear confusingly similar to known software companies, including  libreoff1ce[.]com  and  www-discord[.]com . This is interesting because the phishing domains associated with the Snatch ransomware gang were all registered to the same Russian name —  Mihail Kolesnikov , a name that is somewhat synonymous with recent phishing domains tied to malicious Google ads. Kolesnikov could be a nod to  a Russian general  made famous during Boris Yeltsin’s reign. Either way, it’s clearly a pseudonym, but there are some other commonalities among these domains that may provide insight into how Snatch and other ransomware groups are sourcing their victims. DomainTools says there are more than 1,300 current and former domain names registered to Mihail Kolesnikov between 2013 and July 2023. About half of the domains appear to be older websites advertising female escort services in major cities around the United States (e.g. the  now-defunct  pittsburghcitygirls[.]com). The other half of the Kolesnikov websites are far more recent phishing domains mostly ending in “.top” and “.app” that appear designed to mimic the domains of major software companies, including  www-citrix[.]top ,  www-microsofteams[.]top ,  www-fortinet[.]top ,  ibreoffice[.]top ,  www-docker[.]top ,  www-basecamp[.]top ,  ccleaner-cdn[.]top ,  adobeusa[.]top , and  www.real-vnc[.]top . In August 2023, researchers with  Trustwave Spiderlabs   said  they encountered domains registered to Mihail Kolesnikov being used to disseminate the  Rilide  information stealer trojan . But it appears multiple crime groups may be using these domains to phish people and disseminate all kinds of information-stealing malware. In February 2023,  Spamhaus   warned  of a huge surge in malicious ads that were hijacking search results in  Google.com , and being used to distribute at least five different families of information stealing trojans, including  AuroraStealer ,  IcedID/Bokbot ,  Meta Stealer ,  RedLine Stealer  and  Vidar . For example, Spamhaus said victims of these malicious ads would search for  Microsoft Teams  in Google.com, and the search engine would often return a paid ad spoofing Microsoft or Microsoft Teams as the first result — above all other results. The malicious ad would include a logo for Microsoft and at first glance appear to be a safe and trusted place to download the Microsoft Teams client. However, anyone who clicked on the result was whisked away instead to  mlcrosofteams-us[.]top  — yet another malicious domain registered to Mr. Kolesnikov. And while visitors to this website may believe they are only downloading the Microsoft Teams client, the installer file includes a copy of the IcedID malware, which is really good at stealing passwords and authentication tokens from the victim’s web browser. Image: Spamhaus The founder of the Swiss anti-abuse website  abuse.ch  told Spamhaus it is likely that some cybercriminals have started to sell “malvertising as a service” on the dark web, and that there is a great deal of demand for this service. In other words, someone appears to have built a very profitable business churning out and promoting new software-themed phishing domains and selling that as a service to other cybercriminals. Or perhaps they are simply selling any stolen data (and any corporate access) to active and hungry ransomware group affiliates. The tip about the exposed “server status” page on the Snatch darkweb site came from  @htmalgae , the same security researcher who alerted KrebsOnSecurity earlier this month that the darknet victim shaming site run by the  8Base  ransomware gang  was inadvertently left in development mode . That oversight revealed not only the true Internet address of the hidden 8Base site (in Russia, naturally), but also the identity of a programmer in Moldova who apparently helped to develop the 8Base code. @htmalgae said the idea of a ransomware group’s victim shaming site leaking data that they did not intend to expose is deliciously ironic. “This is a criminal group that shames others for not protecting user data,” @htmalgae said. “And here they are leaking their user data.” All of the malware mentioned in this story is designed to run on Microsoft Windows devices. But Malwarebytes  recently covered  the emergence of a Mac-based information stealer trojan called  AtomicStealer  that was being advertised through malicious Google ads and domains that were confusingly similar to software brands. Please be extra careful when you are searching online for popular software titles. Cracked, pirated copies of major software titles are a frequent source of infostealer infections, as are these rogue ads masquerading as search results. Make sure to double-check you are actually at the domain you believe you’re visiting *before* you download and install anything. Stay tuned for Part II of this post, which includes a closer look at the Snatch ransomware group and their founder. Further reading: @HTMalgae’s list of the top Internet addresses seen accessing Snatch’s darknet site Ars Technica: Until Further Notice Think Twice Before Using Google to Download Software Bleeping Computer: Hackers Abuse Google Ads to Spread Malware in Legit Software</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>September 27, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LastPass: ‘Horse Gone Barn Bolted’ is Strong Password</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The password manager service  LastPass  is now forcing some of its users to pick longer master passwords. LastPass says the changes are needed to ensure all customers are protected by their latest security improvements. But critics say the move is little more than a public relations stunt that will do nothing to help countless early adopters whose password vaults were exposed in a 2022 breach at LastPass. LastPass sent this notification to users earlier this week. LastPass told customers this week they would be forced to update their master password if it was less than 12 characters. LastPass officially instituted this change back in 2018, but some undisclosed number of the company’s earlier customers were never required to increase the length of their master passwords. This is significant because in November 2022, LastPass disclosed a breach in which hackers stole password vaults containing both encrypted and plaintext data for more than 25 million users. Since then, a steady trickle of six-figure cryptocurrency heists targeting security-conscious people throughout the tech industry has led some security experts to conclude that  crooks likely have succeeded at cracking open some of the stolen LastPass vaults . KrebsOnSecurity last month interviewed a victim who recently saw more than three million dollars worth of cryptocurrency siphoned from his account. That user signed up with LastPass nearly a decade ago, stored their cryptocurrency seed phrase there, and yet never changed his master password — which was just eight characters. Nor was he ever forced to improve his master password. That story cited research from Adblock Plus creator  Wladimir Palant , who said LastPass failed to upgrade many older, original customers to more secure encryption protections that were offered to newer customers over the years. For example, another important default setting in LastPass is the number of “iterations,” or how many times your master password is run through the company’s encryption routines. The more iterations, the longer it takes an offline attacker to crack your master password. Palant said that for many older LastPass users, the initial default setting for iterations was anywhere from “1” to “500.” By 2013, new LastPass customers were given 5,000 iterations by default. In February 2018, LastPass changed the default to 100,100 iterations. And very recently, it upped that again to 600,000. Still, Palant and others impacted by the 2022 breach at LastPass say their account security settings were never forcibly upgraded. Palant called this latest action by LastPass a PR stunt. “They sent this message to everyone, whether they have a weak master password or not – this way they can again blame the users for not respecting their policies,” Palant said. “But I just logged in with my weak password, and I am not forced to change it. Sending emails is cheap, but they once again didn’t implement any technical measures to enforce this policy change.” Either way, Palant said, the changes won’t help people affected by the 2022 breach. “These people need to change all their passwords, something that LastPass still won’t recommend,” Palant said. “But it will somewhat help with the breaches to come.” LastPass CEO Karim Toubba  said changing master password length (or even the master password itself) is not designed to address already stolen vaults that are offline. “This is meant to better protect customers’ online vaults and encourage them to bring their accounts up to the 2018 LastPass standard default setting of a 12-character minimum (but could opt out from),” Toubba said in an emailed statement. “We know that some customers may have chosen convenience over security and utilized less complex master passwords despite encouragement to use our (or others) password generator to do otherwise.” A basic functionality of LastPass is that it will pick and remember lengthy, complex passwords for each of your websites or online services. To automatically populate the appropriate credentials at any website going forward, you simply authenticate to LastPass using your master password. LastPass has always emphasized that if you lose this master password, that’s too bad because they don’t store it and their encryption is so strong that even they can’t help you recover it. But experts say all bets are off when cybercrooks can get their hands on the encrypted vault data itself — as opposed to having to interact with LastPass via its website. These so-called “offline” attacks allow the bad guys to conduct unlimited and unfettered “brute force” password cracking attempts against the encrypted data using powerful computers that can each try millions of password guesses per second. A chart on  Palant’s blog post  offers an idea of how increasing password iterations dramatically increases the costs and time needed by the attackers to crack someone’s master password. Palant said it would take a single high-powered graphics card about a year to crack a password of average complexity with 500 iterations, and about 10 years to crack the same password run through 5,000 iterations. Image: palant.info However, these numbers radically come down when a determined adversary also has other large-scale computational assets at their disposal, such as a bitcoin mining operation that can coordinate the password-cracking activity across multiple powerful systems simultaneously. Meaning, LastPass users whose vaults were never upgraded to higher iterations and whose master passwords were weak (less than 12 characters) likely have been a primary target of distributed password-cracking attacks ever since the LastPass user vaults were stolen late last year. Asked why some LastPass users were left behind on older security minimums, Toubba said a “small percentage” of customers had corrupted items in their password vaults that prevented those accounts from properly upgrading to the new requirements and settings. “We have been able to determine that a small percentage of customers have items in their vaults that are corrupt and when we previously utilized automated scripts designed to re-encrypt vaults when the master password or iteration count is changed, they did not complete,” Toubba said. “These errors were not originally apparent as part of these efforts and, as we have discovered them, we have been working to be able to remedy this and finish the re-encryption.” Nicholas Weaver , a researcher at University of California, Berkeley’s  International Computer Science Institute  (ICSI) and lecturer at UC Davis, said LastPass made a huge mistake years ago by not force-upgrading the iteration count for existing users. “And now this is blaming the users — ‘you should have used a longer passphrase’ — not them for having weak defaults that were never upgraded for existing users,” Weaver said. “LastPass in my book is one step above snake-oil. I used to be, ‘Pick whichever password manager you want,’ but now I am very much, ‘Pick any password manager but LastPass.'” Asked why LastPass isn’t recommending that users change all of the passwords secured by the encrypted master password that was stolen when the company got hacked last year, Toubba said it’s because “the data demonstrates that the majority of our customers follow our recommendations (or greater), and the probability of successfully brute forcing vault encryption is greatly reduced accordingly.” “We’ve been telling customers since December of 2022 that they should be following recommended guidelines,” Toubba continued. “And if they haven’t followed the guidelines we recommended that they change their downstream passwords.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>September 22, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Experts Fear Crooks are Cracking Keys Stolen in LastPass Breach</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>In November 2022, the password manager service  LastPass  disclosed a breach in which hackers stole password vaults containing both encrypted and plaintext data for more than 25 million users. Since then, a steady trickle of six-figure cryptocurrency heists targeting security-conscious people throughout the tech industry has led some security experts to conclude that crooks likely have succeeded at cracking open some of the stolen LastPass vaults. Taylor Monahan  is lead product manager of  MetaMask , a popular software cryptocurrency wallet used to interact with the Ethereum blockchain. Since late December 2022, Monahan and other researchers have identified a highly reliable set of clues that they say connect recent thefts targeting more than 150 people. Collectively, these individuals have been robbed of more than $35 million worth of crypto. Monahan said virtually all of the victims she has assisted were longtime cryptocurrency investors, and security-minded individuals. Importantly, none appeared to have suffered the sorts of attacks that typically preface a high-dollar crypto heist, such as the compromise of one’s email and/or mobile phone accounts. “The victim profile remains the most striking thing,” Monahan wrote. “They truly all are reasonably secure. They are also deeply integrated into this ecosystem, [including] employees of reputable crypto orgs, VCs [venture capitalists], people who built DeFi protocols, deploy contracts, run full nodes.” Monahan has been  documenting the crypto thefts via Twitter/X  since March 2023, frequently expressing frustration in the search for a common cause among the victims. Then on Aug. 28, Monahan said she’d concluded that the common thread among nearly every victim was that they’d previously used LastPass to store their “seed phrase,” the private key needed to unlock access to their cryptocurrency investments. MetaMask owner Taylor Monahan on Twitter. Image: twitter.com/tayvano_ Armed with your secret seed phrase, anyone can instantly access all of the cryptocurrency holdings tied to that cryptographic key, and move the funds to anywhere they like. Which is why the best practice for many cybersecurity enthusiasts has long been to store their seed phrases either in some type of encrypted container — such as a password manager — or else inside an offline, special-purpose hardware encryption device, such as a Trezor or Ledger wallet. “The seed phrase is literally the money,” said  Nick Bax , director of analytics at  Unciphered , a cryptocurrency wallet recovery company. “If you have my seed phrase, you can copy and paste that into your wallet, and then you can see all my accounts. And you can transfer my funds.” Bax said he closely reviewed the massive trove of cryptocurrency theft data that Taylor Monahan and others have collected and linked together. “It’s one of the broadest and most complex cryptocurrency investigations I’ve ever seen,” Bax said. “I ran my own analysis on top of their data and reached the same conclusion that Taylor reported. The threat actor moved stolen funds from multiple victims to the same blockchain addresses, making it possible to strongly link those victims.” Bax, Monahan and others interviewed for this story say they’ve identified a unique signature that links the theft of more than $35 million in crypto from more than 150 confirmed victims, with roughly two to five high-dollar heists happening each month since December 2022. KrebsOnSecurity has reviewed this signature but is not publishing it at the request of Monahan and other researchers, who say doing so could cause the attackers to alter their operations in ways that make their criminal activity more difficult to track. But the researchers have published findings about the dramatic similarities in the ways that victim funds were stolen and laundered through specific cryptocurrency exchanges. They also learned the attackers frequently grouped together victims by sending their cryptocurrencies to the same destination crypto wallet. A graphic published by @tayvano_ on Twitter depicting the movement of stolen cryptocurrencies from victims who used LastPass to store their crypto seed phrases. By identifying points of overlap in these destination addresses, the researchers were then able to track down and interview new victims. For example, the researchers said their methodology identified a recent multi-million dollar crypto heist victim as an employee at  Chainalysis , a blockchain analysis firm that works closely with law enforcement agencies to help track down cybercriminals and money launderers. Chainalysis confirmed that the employee had suffered a high-dollar cryptocurrency heist late last month, but otherwise declined to comment for this story. Bax said the only obvious commonality between the victims who agreed to be interviewed was that they had stored the seed phrases for their cryptocurrency wallets in LastPass. “On top of the overlapping indicators of compromise, there are more circumstantial behavioral patterns and tradecraft which are also consistent between different thefts and support the conclusion,” Bax told KrebsOnSecuirty. “I’m confident enough that this is a real problem that I’ve been urging my friends and family who use LastPass to change all of their passwords and migrate any crypto that may have been exposed, despite knowing full well how tedious that is.” LastPass declined to answer questions about the research highlighted in this story, citing an ongoing law enforcement investigation and pending litigation against the company in response to its 2022 data breach. “Last year’s incident remains the subject of an ongoing investigation by law enforcement and is also the subject of pending litigation,” LastPass said in a written statement provided to KrebsOnSecurity. “Since last year’s attack on LastPass, we have remained in contact with law enforcement and continue to do so.” Their statement continues: “We have shared various technical information, Indicators of Compromise (IOCs), and threat actor tactics, techniques, and procedures (TTPs) with our law enforcement contacts as well as our internal and external threat intelligence and forensic partners in an effort to try and help identify the parties responsible. In the meantime, we encourage any security researchers to share any useful information they believe they may have with our Threat Intelligence team by contacting securitydisclosure@lastpass.com.” On August 25, 2022,  LastPass CEO Karim Toubba  wrote to users that the company had detected unusual activity in its software development environment, and that the intruders stole some source code and proprietary LastPass technical information. On Sept. 15, 2022, LastPass said an investigation into the August breach determined the attacker did not access any customer data or password vaults. But on Nov. 30, 2022, LastPass notified customers about another, far more serious security incident that the company said leveraged data stolen in the August breach. LastPass disclosed that criminal hackers had compromised encrypted copies of some password vaults, as well as other personal information. In February 2023, LastPass disclosed that the intrusion involved a highly complex, targeted attack against a DevOps engineer who was one of only four LastPass employees with access to the corporate vault. “This was accomplished by targeting the DevOps engineer’s home computer and exploiting a vulnerable third-party media software package, which enabled remote code execution capability and allowed the threat actor to implant keylogger malware,” LastPass officials wrote. “The threat actor was able to capture the employee’s master password as it was entered, after the employee authenticated with MFA, and gain access to the DevOps engineer’s LastPass corporate vault.” Dan Goodin  at Ars Technica  reported  and then  confirmed  that the attackers exploited a known vulnerability in a  Plex  media server that the employee was running on his home network, and succeeded in installing malicious software that stole passwords and other authentication credentials. The vulnerability exploited by the intruders was patched back in 2020, but the employee never updated his Plex software. As it happens, Plex announced its own data breach one day before LastPass disclosed its initial August intrusion. On August 24, 2022, Plex’s security team urged users to reset their passwords, saying an intruder had accessed customer emails, usernames and encrypted passwords. A basic functionality of LastPass is that it will pick and remember lengthy, complex passwords for each of your websites or online services. To automatically populate the appropriate credentials at any website going forward, you simply authenticate to LastPass using your master password. LastPass has always emphasized that if you lose this master password, that’s too bad because they don’t store it and their encryption is so strong that even they can’t help you recover it. But experts say all bets are off when cybercrooks can get their hands on the encrypted vault data itself — as opposed to having to interact with LastPass via its website. These so-called “offline” attacks allow the bad guys to conduct unlimited and unfettered “brute force” password cracking attempts against the encrypted data using powerful computers that can each try millions of password guesses per second. “It does leave things vulnerable to brute force when the vaults are stolen en masse, especially if info about the vault HOLDER is available,” said  Nicholas Weaver , a researcher at University of California, Berkeley’s  International Computer Science Institute  (ICSI) and lecturer at UC Davis. “So you just crunch and crunch and crunch with GPUs, with a priority list of vaults you target.” How hard would it be for well-resourced criminals to crack the master passwords securing LastPass user vaults? Perhaps the best answer to this question comes from  Wladimir Palant , a security researcher and the original developer behind the  Adblock Plus  browser plugin. In  a December 2022 blog post , Palant explained that the crackability of a LastPass master password depends largely on two things: The complexity of the master password, and the default settings for LastPass users, which appear to have varied quite a bit based on when those users began patronizing the service. LastPass says that since 2018 it has required a twelve-character minimum for master passwords, which the company said “greatly minimizes the ability for successful brute force password guessing.” But Palant said while LastPass indeed improved its master password defaults in 2018, it did not force all existing customers who had master passwords of lesser lengths to pick new credentials that would satisfy the 12-character minimum. “If you are a LastPass customer, chances are that you are completely unaware of this requirement,” Palant wrote. “That’s because LastPass didn’t ask existing customers to change their master password. I had my test account since 2018, and even today I can log in with my eight-character password without any warnings or prompts to change it.” Palant believes LastPass also failed to upgrade many older, original customers to more secure encryption protections that were offered to newer customers over the years. One important setting in LastPass is the number of “iterations,” or how many times your master password is run through the company’s encryption routines. The more iterations, the longer it takes an offline attacker to crack your master password. Palant noted last year that for many older LastPass users, the initial default setting for iterations was anywhere from “1” to “500.” By 2013, new LastPass customers were given 5,000 iterations by default. In February 2018, LastPass changed the default to 100,100 iterations. And very recently, it upped that again to 600,000. Palant said the 2018 change was in response to a security bug report he filed about some users having dangerously low iterations in their LastPass settings. “Worse yet, for reasons that are beyond me, LastPass didn’t complete this migration,” Palant wrote. “My test account is still at 5,000 iterations, as are the accounts of many other users who checked their LastPass settings. LastPass would know how many users are affected, but they aren’t telling that. In fact, it’s painfully obvious that LastPass never bothered updating users’ security settings. Not when they changed the default from 1 to 500 iterations. Not when they changed it from 500 to 5,000. Only my persistence made them consider it for their latest change. And they still failed implementing it consistently.” A chart on Palant’s blog post offers an idea of how increasing password iterations dramatically increases the costs and time needed by the attackers to crack someone’s master password. Palant said it would take a single GPU about a year to crack a password of average complexity with 500 iterations, and about 10 years to crack the same password run through 5,000 iterations. Image: palant.info However, these numbers radically come down when a determined adversary also has other large-scale computational assets at their disposal, such as a bitcoin mining operation that can coordinate the password-cracking activity across multiple powerful systems simultaneously. Weaver said a password or passphrase with average complexity — such as “Correct Horse Battery Staple” is only secure against online attacks, and that its roughly 40 bits of randomness or “ entropy ” means a graphics card can blow through it in no time. “An Nvidia 3090 can do roughly 4 million [password guesses] per second with 1000 iterations, but that would go down to 8 thousand per second with 500,000 iterations, which is why iteration count matters so much,” Weaver said. “So a combination of ‘not THAT strong of a password’ and ‘old vault’ and ‘low iteration count’ would make it theoretically crackable but real work, but the work is worth it given the targets.” Reached by KrebsOnSecurity, Palant said he never received a response from LastPass about why the company apparently failed to migrate some number of customers to more secure account settings. “I know exactly as much as everyone else,” Palant wrote in reply. “LastPass published  some additional information in March . This finally answered the questions about the timeline of their breach – meaning which users are affected. It also made obvious that business customers are very much at risk here, Federated Login Services being highly compromised in this breach (LastPass downplaying as usual of course).” Palant said upon logging into his LastPass account a few days ago, he found his master password was still set at 5,000 iterations. KrebsOnSecurity interviewed one of the victims tracked down by Monahan, a software engineer and startup founder who recently was robbed of approximately $3.4 million worth of different cryptocurrencies. The victim agreed to tell his story in exchange for anonymity because he is still trying to claw back his losses. We’ll refer to him here as “Connor” (not his real name). Connor said he began using LastPass roughly a decade ago, and that he also stored the seed phrase for his primary cryptocurrency wallet inside of LastPass. Connor chose to protect his LastPass password vault with an eight character master password that included numbers and symbols (~50 bits of entropy). “I thought at the time that the bigger risk was losing a piece of paper with my seed phrase on it,” Connor said. “I had it in a bank security deposit box before that, but then I started thinking, ‘Hey, the bank might close or burn down and I could lose my seed phrase.'” Those seed phrases sat in his LastPass vault for years. Then, early on the morning of Sunday, Aug. 27, 2023, Connor was awoken by a service he’d set up to monitor his cryptocurrency addresses for any unusual activity: Someone was draining funds from his accounts, and fast. Like other victims interviewed for this story, Connor didn’t suffer the usual indignities that typically presage a cryptocurrency robbery, such as account takeovers of his email inbox or mobile phone number. Connor said he doesn’t know the number of iterations his master password was given originally, or what it was set at when the LastPass user vault data was stolen last year. But he said he recently logged into his LastPass account and the system forced him to upgrade to the new 600,000 iterations setting. “Because I set up my LastPass account so early, I’m pretty sure I had whatever weak settings or iterations it originally had,” he said. Connor said he’s kicking himself because he recently started the process of migrating his cryptocurrency to a new wallet protected by a new seed phrase. But he never finished that migration process. And then he got hacked. “I’d set up a brand new wallet with new keys,” he said. “I had that ready to go two months ago, but have been procrastinating moving things to the new wallet.” Connor has been exceedingly lucky in regaining access to some of his stolen millions in cryptocurrency. The Internet is swimming with con artists masquerading as legitimate cryptocurrency recovery experts. To make matters worse, because time is so critical in these crypto heists, many victims turn to the first quasi-believable expert who offers help. Instead, several friends steered Connor to  Flashbots.net , a cryptocurrency recovery firm that employs several custom techniques to help clients claw back stolen funds — particularly those on the Ethereum blockchain. According to Connor, Flashbots helped rescue approximately $1.5 million worth of the $3.4 million in cryptocurrency value that was suddenly swept out of his account roughly a week ago. Lucky for him, Connor had some of his assets tied up in a type of digital loan that allowed him to borrow against his various cryptocurrency assets. Without giving away too many details about how they clawed back the funds, here’s a high level summary: When the crooks who stole Connor’s seed phrase sought to extract value from these loans, they were borrowing the maximum amount of credit that he hadn’t already used. But Connor said that left open an avenue for some of that value to be recaptured, basically by repaying the loan in many small, rapid chunks. According to MetaMask’s Monahan, users who stored any important passwords with LastPass — particularly those related to cryptocurrency accounts — should change those credentials immediately, and migrate any crypto holdings to new offline hardware wallets. “Really the ONLY thing you need to read is this,” Monahan pleaded to her 70,000 followers on Twitter/X: “PLEASE DON’T KEEP ALL YOUR ASSETS IN A SINGLE KEY OR SECRET PHRASE FOR YEARS. THE END. Split up your assets. Get a hw [hardware] wallet. Migrate. Now.” If you also had passwords tied to banking or retirement accounts, or even just important email accounts — now would be a good time to change those credentials as well. I’ve never been comfortable recommending password managers, because I’ve never seriously used them myself. Something about putting all your eggs in one basket. Heck, I’m so old-fashioned that most of my important passwords are written down and tucked away in safe places. But I recognize this antiquated approach to password management is not for everyone. Connor says he now uses 1Password, a competing password manager that recently earned the best overall marks from  Wired  and  The New York Times . 1Password says that three things are needed to decrypt your information: The encrypted data itself, your account password, and your Secret Key. Only you know your account password, and your Secret Key is generated locally during setup. “The two are combined on-device to encrypt your vault data and are never sent to 1Password,” explains a 1Password blog post ‘ What If 1Password Gets Hacked? ‘ “Only the encrypted vault data lives on our servers, so neither 1Password nor an attacker who somehow manages to guess or steal your account password would be able to access your vaults – or what’s inside them. Weaver said that Secret Key adds an extra level of randomness to all user master passwords that LastPass didn’t have. “With LastPass, the idea is the user’s password vault is encrypted with a cryptographic hash (H) of the user’s passphrase,” Weaver said. “The problem is a hash of the user’s passphrase is remarkably weak on older LastPass vaults with master passwords that do not have many iterations. 1Password uses H(random-key||password) to generate the password, and it is why you have the QR code business when adding a new device.” Weaver said LastPass deserves blame for not having upgraded iteration counts for all users a long time ago, and called the latest forced upgrades “a stunning indictment of the negligence on the part of LastPass.” “That they never even notified all those with iteration counts of less than 100,000 — who are really vulnerable to brute force even with 8-character random passwords or ‘correct horse battery staple’ type passphrases — is outright negligence,” Weaver said. “I would personally advocate that nobody ever uses LastPass again: Not because they were hacked. Not because they had an architecture (unlike 1Password) that makes such hacking a problem. But because of their consistent refusal to address how they screwed up and take proactive efforts to protect their customers.” Bax and Monahan both acknowledged that their research alone can probably never conclusively tie dozens of high-dollar crypto heists over the past year to the LastPass breach. But Bax says at this point he doesn’t see any other possible explanation. “Some might say it’s dangerous to assert a strong connection here, but I’d say it’s dangerous to assert there isn’t one,” he said. “I was arguing with my fiance about this last night. She’s waiting for LastPass to tell her to change everything. Meanwhile, I’m telling her to do it now.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>September 5, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kroll Employee SIM-Swapped for Crypto Investor Data</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Security consulting giant  Kroll  disclosed today that a SIM-swapping attack against one of its employees led to the theft of user information for multiple cryptocurrency platforms that are relying on Kroll services in their ongoing bankruptcy proceedings. And there are indications that fraudsters may already be exploiting the stolen data in phishing attacks. Cryptocurrency lender  BlockFi  and the now-collapsed crypto trading platform  FTX  each disclosed data breaches this week thanks to a recent SIM-swapping attack targeting an employee of  Kroll  — the company handling both firms’ bankruptcy restructuring.  In a statement released today, New York City-based Kroll said it was informed that on Aug. 19, 2023, someone targeted a  T-Mobile  phone number belonging to a Kroll employee “in a highly sophisticated ‘SIM swapping’ attack.” “Specifically, T-Mobile, without any authority from or contact with Kroll or its employees, transferred that employee’s phone number to the threat actor’s phone at their request,” the  statement  continues. “As a result, it appears the threat actor gained access to certain files containing personal information of bankruptcy claimants in the matters of BlockFi, FTX and  Genesis .” T-Mobile has not yet responded to requests for comment. Countless websites and online services use SMS text messages for both password resets and multi-factor authentication. This means that stealing someone’s phone number often can let cybercriminals hijack the target’s entire digital life in short order — including access to any financial, email and social media accounts tied to that phone number. SIM-swapping groups will often call employees on their mobile devices, pretend to be someone from the company’s IT department, and then try to get the employee to visit a phishing website that mimics the company’s login page. Multiple SIM-swapping gangs have had great success using this method to target T-Mobile employees for the purposes of reselling a cybercrime service that can be hired to divert any T-Mobile user’s text messages and phone calls to another device. In February 2023, KrebsOnSecurity chronicled SIM-swapping attacks claimed by these groups against T-Mobile employees  in more than 100 separate incidents in the second half of 2022 . The average cost to SIM swap any T-Mobile phone number was approximately $1,500. The unfortunate result of the SIM-swap against the Kroll employee is that people who had financial ties to BlockFi, FTX, or Genesis now face increased risk of becoming targets of SIM-swapping and phishing attacks themselves. And there is some indication this is already happening. Multiple readers who said they got breach notices from Kroll today also shared phishing emails they received this morning that spoofed FTX and claimed, “You have been identified as an eligible client to begin withdrawing digital assets from your FTX account.” A phishing message targeting FTX users that went out en masse today. A major portion of Kroll’s business comes from helping organizations  manage cyber risk . Kroll is often called in to investigate data breaches, and it also sells identity protection services to companies that recently experienced a breach and are grasping at ways to demonstrate that they doing  something  to protect their customers from further harm. Kroll did not respond to questions. But it’s a good bet that BlockFi, FTX and Genesis customers will soon enjoy yet another offering of free credit monitoring as a result of the T-Mobile SIM swap. Kroll’s website says it employs “elite cyber risk leaders uniquely positioned to deliver end-to-end cyber security services worldwide.” Apparently, these elite cyber risk leaders did not consider the increased attack surface presented by their employees using T-Mobile for wireless service. The SIM-swapping attack against Kroll is a timely reminder that  you should do whatever you can to minimize your reliance on mobile phone companies for your security . For example, many online services require you to provide a phone number upon registering an account, but that number can often be removed from your profile afterwards. Why do I suggest this?  Many online services allow users to reset their passwords just by clicking a link sent via SMS , and this unfortunately widespread practice has turned mobile phone numbers into de facto identity documents. Which means losing control over your phone number thanks to an unauthorized SIM swap or mobile number port-out, divorce, job termination or financial crisis can be devastating. If you haven’t done so lately, take a moment to inventory your most important online accounts, and see how many of them can still have their password reset by receiving an SMS at the phone number on file. This may require stepping through the website’s account recovery or lost password flow. If the account that stores your mobile phone number does not allow you to delete your number, check to see whether there is an option to disallow SMS or phone calls for authentication and account recovery. If more secure options are available, such as a security key or a one-time code from a mobile authentication app, please take advantage of those instead. The website  2fa.directory  is a good starting point for this analysis. Now, you might think that the mobile providers would share some culpability when a customer suffers a financial loss because a mobile store employee got tricked into transferring that customer’s phone number to criminals. But earlier this year, a California judge  dismissed a lawsuit against AT&amp;T  that stemmed from  a 2017 SIM-swapping attack  which netted the thieves more than $24 million in cryptocurrency.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>August 25, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Karma Catches Up to Global Phishing Service 16Shop</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">You’ve probably never heard of “ 16Shop ,” but there’s a good chance someone using it has tried to phish you. A 16Shop phishing page spoofing Apple and targeting Japanese users. Image: Akamai.com. The international police organization  INTERPOL   said  last week it had shuttered the notorious 16Shop, a popular phishing-as-a-service platform launched in 2017 that made it simple for even complete novices to conduct complex and convincing phishing scams. INTERPOL said authorities in Indonesia arrested the 21-year-old proprietor and one of his alleged facilitators, and that a third suspect was apprehended in Japan. The INTERPOL statement says the platform sold hacking tools to compromise more than 70,000 users in 43 countries. Given how long 16Shop has been around and how many paying customers it enjoyed over the years, that number is almost certainly highly conservative. Also, the sale of “hacking tools” doesn’t quite capture what 16Shop was all about: It was a fully automated phishing platform that gave its thousands of customers a series of brand-specific phishing kits to use, and provided the domain names needed to host the phishing pages and receive any stolen credentials. Security experts investigating 16Shop found the service used an application programming interface (API) to manage its users, an innovation that allowed its proprietors to shut off access to customers who failed to pay a monthly fee, or for those attempting to copy or pirate the phishing kit. 16Shop also  localized phishing pages  in multiple languages, and the service would display relevant phishing content depending on the victim’s geolocation. Various 16Shop lures for Apple users in different languages. Image: Akamai. For example, in 2019  McAfee  found that for targets in Japan, the 16Shop kit would also collect Web ID and Card Password, while US victims will be asked for their Social Security Number. “Depending on location, 16Shop will also collect ID numbers (including Civil ID, National ID, and Citizen ID), passport numbers, social insurance numbers, sort codes, and credit limits,” McAfee  wrote . In addition, 16Shop employed various tricks to help its users’ phishing pages stay off the radar of security firms, including a local “blacklist” of Internet addresses tied to security companies, and a feature that allowed users to block entire Internet address ranges from accessing phishing pages. The INTERPOL announcement does not name any of the suspects arrested in connection with the 16Shop investigation. However, a number of security firms — including  Akamai , McAfee and  ZeroFox , previously connected the service to a young Indonesian man named  Riswanda Noor Saputra , who sold 16Shop under the hacker handle “ Devilscream .” According to the Indonesian security blog  Cyberthreat.id , Saputra  admitted being the administrator of 16Shop , but told the publication he handed the project off to others by early 2020. 16Shop documentation instructing operators on how to deploy the kit. Image: ZeroFox. Nevertheless, Cyberthreat reported that Devilscream was arrested by Indonesian police in late 2021 as part of a collaboration between INTERPOL and the  U.S. Federal Bureau of Investigation  (FBI). Still, researchers who tracked 16Shop  since its inception  say Devilscream was  not the original proprietor of the phishing platform , and he may not be the last. It is not uncommon for cybercriminals  to accidentally infect their own machines with password-stealing malware , and that is exactly what seems to have happened with one of the more recent administrators of 16Shop. Constella Intelligence , a data breach and threat actor research platform, now allows users to cross-reference popular cybercrime websites and denizens of these forums with  inadvertent malware infections by information-stealing trojans . A search in Constella on 16Shop’s domain name shows that in mid-2022, a key administrator of the phishing service infected their Microsoft Windows desktop computer with the  Redline information stealer trojan  — apparently by downloading a cracked (and secretly backdoored) copy of Adobe Photoshop. Redline infections steal gobs of data from the victim machine, including a list of recent downloads, stored passwords and authentication cookies, as well as browser bookmarks and auto-fill data. Those records indicate the 16Shop admin used the nicknames “ Rudi ” and “ Rizki/Rizky ,” and maintained  several  Facebook profiles under these monikers. It appears this user’s full name (or at least part of it) is  Rizky Mauluna Sidik , and they are from Bandung in West Java, Indonesia. One of this user’s Facebook pages says Rizky is the chief executive officer and founder of an entity called  BandungXploiter , whose  Facebook page  indicates it is a group focused mainly on hacking and defacing websites. A  LinkedIn profile for Rizky  says he is a backend Web developer in Bandung who earned a bachelor’s degree in information technology in 2020. Mr. Rizky did not respond to requests for comment. </t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>August 17, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Meet the Brains Behind the Malware-Friendly AI Chat Service ‘WormGPT’</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>WormGPT , a private new chatbot service advertised as a way to use Artificial Intelligence (AI) to write malicious software without all the pesky prohibitions on such activity enforced by the likes of  ChatGPT  and  Google Bard , has started adding restrictions of its own on how the service can be used. Faced with customers trying to use WormGPT to create ransomware and phishing scams, the 23-year-old Portuguese programmer who created the project now says his service is slowly morphing into “a more controlled environment.” Image: SlashNext.com. The large language models (LLMs) made by ChatGPT parent  OpenAI  or  Google  or  Microsoft  all have various safety measures designed to prevent people from abusing them for nefarious purposes — such as creating malware or hate speech. In contrast, WormGPT has promoted itself as a new, uncensored LLM that was created specifically for cybercrime activities. WormGPT was initially sold exclusively on  HackForums , a sprawling, English-language community that has long featured a bustling marketplace for cybercrime tools and services. WormGPT licenses are sold for prices ranging from 500 to 5,000 Euro. “Introducing my newest creation, ‘WormGPT,’ wrote “ Last ,” the handle chosen by the HackForums user who is selling the service. “This project aims to provide an alternative to ChatGPT, one that lets you do all sorts of illegal stuff and easily sell it online in the future. Everything blackhat related that you can think of can be done with WormGPT, allowing anyone access to malicious activity without ever leaving the comfort of their home.” WormGPT’s core developer and frontman “Last” promoting the service on HackForums. Image: SlashNext. In July, an AI-based security firm called  SlashNext   analyzed WormGPT  and asked it to create a “business email compromise” (BEC) phishing lure that could be used to trick employees into paying a fake invoice. “The results were unsettling,” SlashNext’s  Daniel Kelley  wrote. “WormGPT produced an email that was not only remarkably persuasive but also strategically cunning, showcasing its potential for sophisticated phishing and BEC attacks.” SlashNext asked WormGPT to compose this BEC phishing email. Image: SlashNext. A review of Last’s posts on HackForums over the years shows this individual has extensive experience creating and using malicious software. In August 2022, Last posted a sales thread for “ Arctic Stealer ,” a data stealing trojan and keystroke logger that he sold there for many months. “I’m very experienced with malwares,” Last wrote in a message to another HackForums user last year. Last has also sold a modified version of the information stealer  DCRat , as well as an obfuscation service marketed to malicious coders who sell their creations and wish to insulate them from being modified or copied by customers. Shortly after joining the forum in early 2021, Last told several different Hackforums users his name was Rafael and that he was from Portugal. HackForums has a feature that allows anyone willing to take the time to dig through a user’s postings to learn when and if that user was previously tied to another account. That account tracing feature reveals that while Last has used many pseudonyms over the years, he originally used the nickname “ ruiunashackers .” The first search result in Google for that unique nickname brings up a  TikTok  account with the same moniker, and that TikTok account says it is associated with an  Instagram  account for a  Rafael Morais  from Porto, a coastal city in northwest Portugal. Reached via Instagram and Telegram, Morais said he was happy to chat about WormGPT. “You can ask me anything,” Morais said. “I’m an open book.” Morais said he recently graduated from a polytechnic institute in Portugal, where he earned a degree in information technology. He said only about 30 to 35 percent of the work on WormGPT was his, and that other coders are contributing to the project. So far, he says, roughly 200 customers have paid to use the service. “I don’t do this for money,” Morais explained. “It was basically a project I thought [was] interesting at the beginning and now I’m maintaining it just to help [the] community. We have updated a lot since the release, our model is now 5 or 6 times better in terms of learning and answer accuracy.” WormGPT isn’t the only rogue ChatGPT clone advertised as friendly to malware writers and cybercriminals. According to SlashNext, one unsettling trend on the cybercrime forums is evident in discussion threads offering “jailbreaks” for interfaces like ChatGPT. “These ‘jailbreaks’ are specialised prompts that are becoming increasingly common,” Kelley wrote. “They refer to carefully crafted inputs designed to manipulate interfaces like ChatGPT into generating output that might involve disclosing sensitive information, producing inappropriate content, or even executing harmful code. The proliferation of such practices underscores the rising challenges in maintaining AI security in the face of determined cybercriminals.” Morais said they have been using the  GPT-J 6B model  since the service was launched, although he declined to discuss the source of the LLMs that power WormGPT. But he said the data set that informs WormGPT is enormous. “Anyone that tests wormgpt can see that it has no difference from any other uncensored AI or even chatgpt with jailbreaks,” Morais explained. “The game changer is that our dataset [library] is big.” Morais said he began working on computers at age 13, and soon started exploring security vulnerabilities and the possibility of making a living by finding and reporting them to software vendors. “My story began in 2013 with some greyhat activies, never anything blackhat tho, mostly bugbounty,” he said. “In 2015, my love for coding started, learning c# and more .net programming languages. In 2017 I’ve started using many hacking forums because I have had some problems home (in terms of money) so I had to help my parents with money… started selling a few products (not blackhat yet) and in 2019 I started turning blackhat. Until a few months ago I was still selling blackhat products but now with wormgpt I see a bright future and have decided to start my transition into whitehat again.” WormGPT sells licenses via a dedicated channel on Telegram, and the channel recently lamented that media coverage of WormGPT so far has painted the service in an unfairly negative light. “We are uncensored, not blackhat!” the WormGPT channel announced at the end of July. “From the beginning, the media has portrayed us as a malicious LLM (Language Model), when all we did was use the name ‘blackhatgpt’ for our Telegram channel as a meme. We encourage researchers to test our tool and provide feedback to determine if it is as bad as the media is portraying it to the world.” It turns out, when you advertise an online service for doing bad things, people tend to show up with the intention of doing bad things with it. WormGPT’s front man Last seems to have acknowledged this at the service’s initial launch, which included the disclaimer, “We are not responsible if you use this tool for doing bad stuff.” But lately, Morais said, WormGPT has been forced to add certain guardrails of its own. “We have prohibited some subjects on WormGPT itself,” Morais said. “Anything related to murders, drug traffic, kidnapping, child porn, ransomwares, financial crime. We are working on blocking BEC too, at the moment it is still possible but most of the times it will be incomplete because we already added some limitations. Our plan is to have WormGPT marked as an uncensored AI, not blackhat. In the last weeks we have been blocking some subjects from being discussed on WormGPT.” Still, Last has continued to state on HackForums — and more recently on the far more serious cybercrime forum  Exploit  — that WormGPT will quite happily create malware capable of infecting a computer and going “fully undetectable” (FUD) by virtually all of the major antivirus makers (AVs). “You can easily buy WormGPT and ask it for a Rust malware script and it will 99% sure be FUD against most AVs,” Last told a forum denizen in late July. Asked to list some of the legitimate or what he called “white hat” uses for WormGPT, Morais said his service offers reliable code, unlimited characters, and accurate, quick answers. “We used WormGPT to fix some issues on our website related to possible sql problems and exploits,” he explained. “You can use WormGPT to create firewalls, manage iptables, analyze network, code blockers, math, anything.” Morais said he wants WormGPT to become a positive influence on the security community, not a destructive one, and that he’s actively trying to steer the project in that direction. The original HackForums thread pimping WormGPT as a malware writer’s best friend has since been deleted, and the service is now advertised as “WormGPT – Best GPT Alternative Without Limits — Privacy Focused.” “We have a few researchers using our wormgpt for whitehat stuff, that’s our main focus now, turning wormgpt into a good thing to [the] community,” he said. It’s unclear yet whether Last’s customers share that view.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>August 8, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Russia Sends Cybersecurity CEO to Jail for 14 Years</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>The Russian government today handed down a treason conviction and 14-year prison sentence on  Iyla Sachkov , the former founder and CEO of one of Russia’s largest cybersecurity firms. Sachkov, 37, has been detained for nearly two years under charges that the Kremlin has kept classified and hidden from public view, and he joins a growing roster of former Russian cybercrime fighters who are now serving hard time for farcical treason convictions. Ilya Sachkov. Image: Group-IB.com. In 2003, Sachkov founded  Group-IB , a cybersecurity and digital forensics company that quickly earned a reputation for exposing and disrupting large-scale cybercrime operations, including quite a few that were based in Russia and stealing from Russian companies and citizens. In September 2021, the Kremlin issued treason charges against Sachkov, although it has refused to disclose any details about the allegations. Sachkov pleaded not guilty. After a three-week “trial” that was closed to the public, Sachkov was convicted of treason and  sentenced to 14 years in prison . Prosecutors had asked for 18 years. Group-IB relocated its headquarters to Singapore several years ago, although it did not fully exit the Russian market until April 2023. In a statement, Group-IB said that during their founder’s detainment, he was denied the right to communicate — no calls, no letters — with the outside world for the first few months, and was deprived of any visits from family and friends. “Ultimately, Ilya has been denied a chance for an impartial trial,” reads a blog post on the company’s site. “All the materials of the case are kept classified, and all hearings were held in complete secrecy with no public scrutiny. As a result, we might never know the pretext for his conviction.” Prior to his arrest in 2021, Sachkov publicly chastised the Kremlin for turning a blind eye to the epidemic of ransomware attacks coming from Russia. In a speech covered by the  Financial Times  in 2021, Sachkov railed against the likes of Russian hacker  Maksim Yakubets , the accused head of a hacking group called  Evil Corp.  that U.S. officials say has stolen hundreds of millions of dollars over the past decade. “Yakubets has been spotted driving around Moscow in a fluorescent camouflage Lamborghini, with a custom licence plate that reads ‘THIEF,'” FT’s  Max Seddon   wrote . “He also ‘provides direct assistance to the Russian government’s malicious cyber efforts,’ according to US Treasury sanctions against him.” In December 2021,  Bloomberg   reported  that Sachkov was alleged to have given the United States information about the Russian “ Fancy Bear ” operation that sought to influence the 2016 U.S. election.  Fancy Bear  is one of several names (e.g., APT28) for an advanced Russian cyber espionage group that has been linked to the Russian military intelligence agency  GRU . In 2019, a Moscow court  meted out a 22-year prison sentence  for alleged treason charges against  Sergei Mikhailov , formerly deputy chief of Russia’s top anti-cybercrime unit. The court also levied a 14-year sentence against  Ruslan Stoyanov , a senior employee at  Kaspersky Lab . Both men maintained their innocence throughout the trial, and the supposed reason for the treason charges has never been disclosed. Following their dramatic arrests in 2016, some media outlets reported that the men were suspected of having tipped off American intelligence officials about those responsible for Russian hacking activities tied to the 2016 U.S. presidential election. That’s because two others arrested for treason at the same time — Mikhailov subordinates Georgi Fomchenkov and Dmitry Dokuchaev — were reported by Russian media to have helped the FBI investigate Russian servers linked to the 2016 hacking of the Democratic National Committee.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>July 26, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Who and What is Behind the Malware Proxy Service SocksEscort?</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Researchers this month uncovered a two-year-old Linux-based remote access trojan dubbed  AVrecon  that enslaves Internet routers into botnet that bilks online advertisers and performs password-spraying attacks. Now new findings reveal that AVrecon is the malware engine behind a 12-year-old service called  SocksEscort , which rents hacked residential and small business devices to cybercriminals looking to hide their true location online. Image: Lumen’s Black Lotus Labs. In a report released July 12, researchers at Lumen’s  Black Lotus Labs  called the AVrecon botnet “one of the largest botnets targeting small-office/home-office (SOHO) routers seen in recent history,” and a crime machine that has largely evaded public attention since first being spotted in mid-2021. “The malware has been used to create residential proxy services to shroud malicious activity such as  password spraying , web-traffic proxying and ad fraud,” the Lumen researchers  wrote . Malware-based anonymity networks are a major source of unwanted and malicious web traffic directed at online retailers, Internet service providers (ISPs), social networks, email providers and financial institutions. And a great many of these “proxy” networks are marketed primarily to cybercriminals seeking to anonymize their traffic by routing it through an infected PC, router or mobile device. Proxy services can be used in a legitimate manner for several business purposes — such as price comparisons or sales intelligence — but they are massively abused for hiding cybercrime activity because they make it difficult to trace malicious traffic to its original source. Proxy services also let users appear to be getting online from nearly anywhere in the world, which is useful if you’re a cybercriminal who is trying to impersonate someone from a specific place. Spur.us , a startup that tracks proxy services, told KrebsOnSecurity that the Internet addresses Lumen tagged as the AVrecon botnet’s “Command and Control” (C2) servers all tie back to a long-running proxy service called  SocksEscort . SocksEscort[.]com , is what’s known as a “SOCKS Proxy” service. The SOCKS (or SOCKS5) protocol allows Internet users to channel their Web traffic through a proxy server, which then passes the information on to the intended destination. From a website’s perspective, the traffic of the proxy network customer appears to originate from a rented/malware-infected PC tied to a residential ISP customer, not from the proxy service customer. The SocksEscort home page says its services are perfect for people involved in automated online activity that often results in IP addresses getting blocked or banned, such as Craigslist and dating scams, search engine results manipulation, and online surveys. Spur tracks SocksEscort as a malware-based proxy offering, which means the machines doing the proxying of traffic for SocksEscort customers have been infected with malicious software that turns them into a traffic relay. Usually, these users have no idea their systems are compromised. Spur says the SocksEscort proxy service requires customers to install a Windows based application in order to access a pool of more than 10,000 hacked devices worldwide. “We created a fingerprint to identify the call-back infrastructure for SocksEscort proxies,” Spur co-founder  Riley Kilmer  said. “Looking at network telemetry, we were able to confirm that we saw victims talking back to it on various ports.” According to Kilmer, AVrecon is the malware that gives SocksEscort its proxies. “When Lumen released their report and IOCs [indicators of compromise], we queried our system for which proxy service call-back infrastructure overlapped with their IOCs,” Kilmer continued. “The second stage C2s they identified were the same as the IPs we labeled for SocksEscort.” Lumen’s research team said the purpose of AVrecon appears to be stealing bandwidth – without impacting end-users – in order to create a residential proxy service to help launder malicious activity and avoid attracting the same level of attention from  Tor-hidden services  or commercially available VPN services. “This class of cybercrime activity threat may evade detection because it is less likely than a crypto-miner to be noticed by the owner, and it is unlikely to warrant the volume of abuse complaints that internet-wide brute-forcing and DDoS-based botnets typically draw,” Lumen’s Black Lotus researchers wrote. Preserving bandwidth for both customers and victims was a primary concern for SocksEscort in July 2022, when 911S5 — at the time the world’s largest known malware proxy network —  got hacked and imploded  just days after  being exposed in a story here . Kilmer said after 911’s demise, SocksEscort closed its registration for several months to prevent an influx of new users from swamping the service. Danny Adamitis , principal information security researcher at Lumen and co-author of the report on AVrecon, confirmed Kilmer’s findings, saying the C2 data matched up with what Spur was seeing for SocksEscort dating back to September 2022. Adamitis said that on July 13 — the day after Lumen published research on AVrecon and started blocking any traffic to the malware’s control servers — the people responsible for maintaining the botnet reacted quickly to transition infected systems over to a new command and control infrastructure. “They were clearly reacting and trying to maintain control over components of the botnet,” Adamitis said. “Probably, they wanted to keep that revenue stream going.” Frustratingly, Lumen was not able to determine how the SOHO devices were being infected with AVrecon. Some possible avenues of infection include exploiting weak or default administrative credentials on routers, and outdated, insecure firmware that has known, exploitable security vulnerabilities. KrebsOnSecurity  briefly visited SocksEscort last year  and promised a follow-up on the history and possible identity of its proprietors. A review of the earliest posts about this service on Russian cybercrime forums suggests the 12-year-old malware proxy network is tied to a Moldovan company that also offers VPN software on the Apple Store and elsewhere. SocksEscort began in 2009 as “ super-socks[.]com ,” a Russian-language service that sold access to thousands of compromised PCs that could be used to proxy traffic. Someone who picked the nicknames “ SSC ” and “ super-socks ” and email address “ michvatt@gmail.com ” registered on multiple cybercrime forums and began promoting the proxy service. According to  DomainTools.com , the apparently related email address “ michdomain@gmail.com ” was used to register SocksEscort[.]com, super-socks[.]com, and a few other proxy-related domains, including  ip-score[.]com , segate[.]org seproxysoft[.]com, and  vipssc[.]us . Cached versions of both super-socks[.]com and  vipssc[.]us  show these sites sold the same proxy service, and both displayed the letters “ SSC ” prominently at the top of their homepages. Image: Archive.org. Page translation from Russian via Google Translate. According to cyber intelligence firm  Intel 471 , the very first “SSC” identity registered on the cybercrime forums happened in 2009 at the Russian language hacker community  Antichat , where SSC asked fellow forum members for help in testing the security of a website they claimed was theirs:  myiptest[.]com , which promised to tell visitors whether their proxy address was included on any security or anti-spam block lists. Myiptest[.]com is no longer responding, but a cached copy of it from  Archive.org  shows that for about four years it included in its HTML source a Google Analytics code of  US-2665744 , which was also present on more than a dozen other websites. Most of the sites that once bore that Google tracking code are no longer online, but nearly all of them centered around services that were similar to myiptest[.]com, such as  abuseipdb[.]com ,  bestiptest[.]com ,  checkdnslbl[.]com ,  dnsbltools[.]com  and  dnsblmonitor[.]com . Each of these services were designed to help visitors quickly determine whether the Internet address they were visiting the site  from  was listed by any security firms as spammy, malicious or phishous. In other words, these services were designed so that proxy service users could easily tell if their rented Internet address was still safe to use for online fraud. Another domain with the Google Analytics code US-2665744 was  sscompany[.]net .  An archived copy of the site  says SSC stands for “ Server Support Company ,” which advertised outsourced solutions for technical support and server administration. Leaked copies of the hacked Antichat forum indicate the SSC identity registered on the forum using the IP address  71.229.207.214 . That same IP was used to register the nickname “ Deem3n®, ” a prolific poster on Antichat between 2005 and 2009 who served as a moderator on the forum. There was a  Deem3n®  user on the webmaster forum Searchengines.guru whose signature in their posts says they run a popular community catering to programmers in Moldova called  sysadmin[.]md , and that they were a systems administrator for sscompany[.]net. That same Google Analytics code is also now present on the homepages of  wiremo[.]co  and a VPN provider called  HideIPVPN[.]com . Wiremo  sells software and services to help website owners better manage their customer reviews. Wiremo’s Contact Us page lists a “ Server Management LLC ” in Wilmington, DE as the parent company. Server Management LLC is  currently listed  in Apple’s App Store as the owner of a “free” VPN app called  HideIPVPN . “The best way to secure the transmissions of your mobile device is VPN,” reads HideIPVPN’s description on the Apple Store. “Now, we provide you with an even easier way to connect to our VPN servers. We will hide your IP address, encrypt all your traffic, secure all your sensitive information (passwords, mail credit card details, etc.) form [sic] hackers on public networks.” When asked about the company’s apparent connection to SocksEscort, Wiremo responded, “We do not control this domain and no one from our team is connected to this domain.” Wiremo did not respond when presented with the findings in this report.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>July 25, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LeakedSource Owner Quit Ashley Madison a Month Before 2015 Hack</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[This is Part III in a series on research conducted for a recent  Hulu documentary  on the 2015 hack of marital infidelity website AshleyMadison.com.] In 2019, a Canadian company called  Defiant Tech Inc.  pleaded guilty to running  LeakedSource[.]com , a service that sold access to billions of passwords and other data exposed in countless data breaches. KrebsOnSecurity has learned that the owner of Defiant Tech, a 32-year-old Ontario man named  Jordan Evan Bloom , was hired in late 2014 as a developer for the marital infidelity site  AshleyMadison.com . Bloom resigned from AshleyMadison citing health reasons in June 2015 — less than one month before unidentified hackers stole data on 37 million users — and launched LeakedSource three months later. Jordan Evan Bloom, posing in front of his Lamborghini. On Jan. 15, 2018, the  Royal Canadian Mounted Police  (RCMP) charged then 27-year-old Bloom, of Thornhill, Ontario, with selling stolen personal identities online through the website  LeakedSource[.]com . LeakedSource was advertised on a number of popular cybercrime forums as a service that could help hackers break into valuable or high-profile accounts. LeakedSource also tried to pass itself off as a legal, legitimate business that was marketing to security firms and professionals. The RCMP arrested Bloom in December 2017, and said he made approximately $250,000 selling hacked data, which included information on 37 million user accounts leaked in the 2015 Ashley Madison breach. Subsequent press releases from the RCMP about the LeakedSource investigation omitted any mention of Bloom, and referred to the defendant only as Defiant Tech. In  a legal settlement  that is quintessentially Canadian, the matter was resolved in 2019 after Defiant Tech agreed to plead guilty. The RCMP declined to comment for this story. The  Impact Team , the hacker group that  claimed responsibility  for stealing and leaking the AshleyMadison user data, also leaked several years worth of email from then-CEO  Noel Biderman . A review of those messages shows that Ashley Madison hired Jordan Evan Bloom as a PHP developer in December 2014 — even though the company understood that Bloom’s success as a programmer and businessman was tied to shady and legally murky enterprises. Bloom’s recommendation came to Biderman via  Trevor Sykes,  then chief technology officer for Ashley Madison parent firm Avid Life Media (ALM). The following is an email from Sykes to Biderman dated Nov. 14, 2014: “Greetings Noel, “We’d like to offer Jordan Bloom the position of PHP developer reporting to Mike Morris for 75k CAD/Year. He did well on the test, but he also has a great understanding of the business side of things having run small businesses himself. This was an internal referral.” When Biderman responded that he needed more information about the candidate, Sykes  replied  that Bloom was independently wealthy as a result of his forays into the shadowy world of “ gold farming ”  — the semi-automated use of large numbers of player accounts to win some advantage that is usually related to cashing out game accounts or inventory. Gold farming is particularly prevalent in massively multiplayer online role-playing games (MMORPGs), such as  RuneScape  and  World of Warcraft . “In his previous experience he had been doing RMT (Real Money Trading),” Sykes wrote. “This is the practice of selling virtual goods in games for real world money. This is a grey market, which is usually against the terms and services of the game companies.” Here’s the rest of his message to Biderman: “RMT sellers traditionally have a lot of problems with chargebacks, and payment processor compliance. During my interview with him, I spent some time focusing in on this. He had to demonstrate to the processor, Paypal, at the time he had a business and technical strategy to address his charge back rate.” “He ran this company himself, and did all the coding, including the integration with the processors,” Sykes continued in his assessment of Bloom. “Eventually he was squeezed out by Chinese gold farmers, and their ability to market with much more investment than he could. In addition the cost of ‘farming’ the virtual goods was cheaper in China to do than in North America.” The gold farming reference is fascinating because in 2017 KrebsOnSecurity published  Who Ran LeakedSource? , which examined clues suggesting that one of the administrators of LeakedSource also was the admin of  abusewith[.]us , a site unabashedly dedicated to helping people hack email and online gaming accounts. An administrator account Xerx3s on Abusewithus. Abusewith[.]us began in September 2013 as a forum for learning and teaching how to hack accounts at Runescape, an MMORPG set in a medieval fantasy realm where players battle for kingdoms and riches. The currency with which Runescape players buy and sell weapons, potions and other in-game items are virtual gold coins, and many of Abusewith[dot]us’s early members traded in a handful of commodities: Phishing kits and exploits that could be used to steal Runescape usernames and passwords from fellow players; virtual gold plundered from hacked accounts; and databases from hacked forums and websites related to Runescape and other online games. That 2017 report here interviewed a Michigan man who acknowledged being administrator of Abusewith[.]us, but denied being the operator of LeakedSource. Still, the story noted that LeakedSource likely had more than one operator, and breached records show Bloom was a prolific member of Abusewith[.]us. In an email to all employees on Dec. 1, 2014, Ashley Madison’s director of HR said Bloom graduated from  York University  in Toronto with a degree in theoretical physics, and that he has been an active programmer since high school. “He’s a proprietor of a high traffic multiplayer game and developer/publisher of utilities such as  PicTrace ,” the HR director enthused. “He will be a great addition to the team.” PicTrace appears to have been a service that allowed users to glean information about anyone who viewed an image hosted on the platform, such as their Internet address, browser type and version number. A copy of  pictrace[.]com  from Archive.org in 2012 redirects to the domain  qksnap.com , which  DomainTools.com  says was registered to a Jordan Bloom from Thornhill, ON that same year. The street address listed in the registration records for qksnap.com — 204 Beverley Glen Blvd — also shows up in the registration records for  leakadvisor[.]com , a domain registered in 2017 just months after Canadian authorities seized the servers running LeakedSource. Pictrace, one of Jordan Bloom’s early IT successes. A review of passive DNS records from DomainTools indicates that in 2013 pictrace[.]com shared a server with just a handful of other domains, including  Near-Reality[.]com  — a popular  RuneScape Private Server  (RSPS) game based on the RuneScape MMORPG. Copies of near-reality[.]com  from 2013 via Archive.org  show the top of the community’s homepage was retrofitted with a message saying Near Reality was no longer available due to a copyright dispute. Although the site doesn’t specify the other party to the copyright dispute, it appears Near-Reality got sued by  Jagex , the owner of RuneScape. The message goes on to say the website will no longer “encourage, facilitate, enable or condone (i) any infringement of copyright in RuneScape or any other Jagex product; nor (ii) any breach of the terms and conditions of RuneScape or any other Jagex product.” A scene from the MMORPG RuneScape. Near Reality also has a  Facebook page  that was last updated in 2019, when its owner posted a link to a news story about Defiant Tech’s guilty plea in the LeakedSource investigation. That Facebook page indicates Bloom also went by the nickname “ Agentjags .” “Just a quick PSA,” reads a post to the Near Reality Facebook page dated Jan. 21, 2018, which linked to a story about the charges against Bloom and a photo of Bloom standing in front of his lime-green Lamborghini. “Agentjags has got involved in some shady shit that may have compromised your personal details. I advise anyone who is using an old NR [Near Reality] password for anything remotely important should change it ASAP.” By the beginning of 2016, Bloom was nowhere to be found, and was suspected of having fled his country for the Caribbean, according to the people commenting on the Near Reality Facebook page: “Jordan aka Agentjags has gone missing,” wrote a presumed co-owner of the Facebook page. “He is supposedly hiding in St. Lucia, doing what he loved, scuba-diving. Any information to his whereabouts will be appreciated.” KrebsOnSecurity ran the unusual nickname “AgentJags” through a search at  Constella Intelligence , a commercial service that tracks breached data sets. That search returned just a few dozen results — and virtually all were accounts at various RuneScape-themed sites, including a half-dozen accounts at Abusewith[.]us. Constella found other “AgentJags” accounts tied to the email address  ownagegaming1@gmail.com . The marketing firm  Apollo.io  experienced a data breach several years back, and according to Apollo the email address ownagegaming1@gmail.com belongs to Jordan Bloom in Ontario. Constella also revealed that the password frequently used by ownagegaming1@gmail.com across many sites was some variation on “ niggapls ,” which  my 2017 report  found was also the password used by the administrator of LeakedSource. Constella discovered that the email  eric.malek@rogers.com  comes up when one searches for “AgentJags.” This is curious because emails leaked from Ashley Madison’s then-CEO Biderman show that Eric Malek from Toronto was the Ashley Madison employee who initially recommended Bloom for the PHP developer job. According to DomainTools.com, Eric.Malek@rogers.com was used to register the domain  devjobs.ca , which previously advertised “the most exciting developer jobs in Canada, delivered to you weekly.” Constella says eric.malek@rogers.com also had an account at Abusewith[.]us — under the nickname “ Jags. ” Biderman’s email records show Eric Malek was also a PHP developer for Ashley Madison, and that he was hired into this position just a few months before Bloom — on Sept. 2, 2014. The CEO’s leaked emails show Eric Malek resigned from his developer position at Ashley Madison on June 19, 2015. “Please note that Eric Malek has resigned from this position with Avid and his last day will be June 19th,” read  a June 5, 2015 email  from ALM’s HR director. “He is resigning to deal with some personal issues which include health issues. Because he is not sure how much time it will take to resolve, he is not requesting a leave of absence (his time off will be indefinite). Overall, he likes the company and plans to reach out to Trevor or I when the issues are resolved to see what is available at that time.” A follow-up email from Biderman demanded, “want to know where he’s truly going….,” and it’s unclear whether there was friction with Malek’s departure. But  ALM General Counsel Avi Weisman  replied indicating that Malek probably would not sign an “Exit Acknowledgment Form” prior to leaving, and that the company had unanswered questions for Malek. “Aneka should dig during exit interview,” Weisman wrote. “Let’s see if he balks at signing the Acknowledgment.” Bloom’s  departure notice  from Ashley Madison’s HR person, dated June 23, 2015, read: “Please note that Jordan Bloom has resigned from his position as PHP Developer with Avid. He is leaving for personal reasons. He has a neck issue that will require surgery in the upcoming months and because of his medical appointment schedule and the pain he is experiencing he can no longer commit to a full-time schedule. He may pick up contract work until he is back to 100%.” A follow-up note to Biderman about this announcement read: “Note that he has disclosed that he is independently wealthy so he can get by without FT work until he is on the mend. He has signed the Exit Acknowledgement Form already without issue. He also says he would consider reapplying to Avid in the future if we have opportunities available at that time.” Perhaps Mr. Bloom hurt his neck from craning it around blind spots in his Lamborghini. Maybe it was from a bad scuba outing. Whatever the pain in Bloom’s neck was, it didn’t stop him from launching himself fully into LeakedSource[.]com, which was registered roughly one month after the Impact Team leaked data on 37 million Ashley Madison accounts. Mr. Malek declined a request for comment. A now-deleted  LinkedIn  profile for Malek from December 2018 listed him as a “technical recruiter” from Toronto who also attended Mr. Bloom’s alma mater — York University. That resume did not mention Mr. Malek’s brief stint as a PHP developer at Ashley Madison. “Developer, entrepreneur, and now technical recruiter of the most uncommon variety!” Mr. Malek’s LinkedIn profile enthused. “Are you a developer, or other technical specialist, interested in working with a recruiter who can properly understand your concerns and aspirations, technical, environmental and financial? Don’t settle for a ‘hack’; this is your career, let’s do it right! Connect with me on LinkedIn. Note: If you are not a resident of Canada/Toronto, I cannot help you.” Mr. Bloom told KrebsOnSecurity he had no role in harming or hacking Ashley Madison. Bloom validated his identity by responding at one of the email addresses mentioned above, and agreed to field questions so long as KrebsOnSecurity agreed  to publish our email conversation in full  (PDF). Bloom said Mr. Malek did recommend him for the Ashley Madison job, but that Mr. Malek also received a $5,000 referral bonus for doing so. Given Mr. Malek’s stated role as a technical recruiter, it seems likely he also recommended several other employees to Ashley Madison. Bloom was asked whether anyone at the RCMP, Ashley Madison or any authority anywhere ever questioned him in connection with the July 2015 hack of Ashley Madison. He replied that he was called once by someone claiming to be from the Toronto Police Service asking if he knew anything about the Ashley Madison hack. “The AM situation was not something they pursued according to the RCMP disclosure,” Bloom wrote. “Learning about the RCMP’s most advanced cyber investigative techniques and capabilities was very interesting though. I was eventually told information by a third party which included knowledge that law enforcement effectively knew who the hacker was, but didn’t have enough evidence to proceed with a case. That is the extent of my involvement with any authorities.” As to his company’s guilty plea for operating LeakedSource, Bloom maintains that the judge at his preliminary inquiry found that even if everything the Canadian government alleged was true it would not constitute a violation of any law in Canada with respect the charges the RCMP leveled against him, which included unauthorized use of a computer and “mischief to data.” “In Canada at the lower court level we are allowed to possess stolen information and manipulate our copies of them as we please,” Bloom said. “The judge however decided that a trial was required to determine whether any activities of mine were reckless, as the other qualifier of intentionally criminal didn’t apply. I will note here that nothing I was accused of doing would have been illegal if done in the United States of America according to their District Attorney. +1 for free speech in America vs freedom of expression in Canada.” “Shortly after their having most of their case thrown out, the Government proposed an offer during a closed door meeting where they would drop all charges against me, provide full and complete personal immunity, and in exchange the Corporation which has since been dissolved would plead guilty,” Bloom continued. “The Corporation would also pay a modest fine.” Bloom said he left Ashley Madison because he was bored, but he acknowledged starting LeakedSource partly in response to the Ashley Madison hack. “I intended to leverage my gaming connections to get into security work including for other private servers such as Minecraft communities and others,” Bloom said. “After months of asking management for more interesting tasks, I became bored. Some days I had virtually nothing to do except spin in my chair so I would browse the source code for security holes to fix because I found it enjoyable.” “I believe the decision to start LS [LeakedSource] was partly inspired by the AM hack itself, and the large number of people from a former friend group messaging me asking if XYZ person was in the leak after I revealed to them that I downloaded a copy and had the ability to browse it,” Bloom continued. “LS was never my idea – I was just a builder, and the only Canadian. In other countries it was never thought to be illegal on closer examination of their laws.” Bloom said he still considers himself independently wealthy, and that still has the lime green Lambo. But he said he’s currently unemployed and can’t seem to land a job in what he views as his most promising career path: Information security. “As I’m sure you’re aware, having negative media attention associated with alleged (key word) criminal activity can have a detrimental effect on employment, banking and relationships,” Bloom wrote. “I have no current interest in being a business owner, nor do I have any useful business ideas to be honest. I was and am interested in interesting Information Security/programming work but it’s too large of a risk for any business to hire someone who was formerly accused of a crime.” If you liked this story, please consider reading the first two pieces in this series: SEO Expert Hired and Fired by Ashley Madison Turned on Company, Promising Revenge Top Suspect in 2015 Ashley Madison Hack Committed Suicide in 2014</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>July 18, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SEO Expert Hired and Fired By Ashley Madison Turned on Company, Promising Revenge</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[This is Part II of  a story published here last week  on reporting that went into a new  Hulu  documentary series on the 2015 Ashley Madison hack.] It was around 9 p.m. on Sunday, July 19, when I received a message through the contact form on KrebsOnSecurity.com that the marital infidelity website AshleyMadison.com had been hacked. The message contained links to confidential Ashley Madison documents, and included a manifesto that said a hacker group calling itself the  Impact Team  was prepared to leak data on all 37 million users unless Ashley Madison and a sister property voluntarily closed down within 30 days. A snippet of the message left behind by the Impact Team. The message included links to files containing highly sensitive information, including snippets of leaked user account data, maps of internal AshleyMadison company servers, employee network account information, company bank account data and salary information. A master employee contact list was among the documents leaked that evening. Helpfully, it included the cell phone number for  Noel Biderman , then the CEO of Ashley Madison parent firm  Avid Life Media  (ALM). To my everlasting surprise, Biderman answered on the first ring and acknowledged they’d been hacked without even waiting to be asked. “We’re on the doorstep of [confirming] who we believe is the culprit, and unfortunately that may have triggered this mass publication,” Biderman told me on July 19, just minutes before I published  the first known public report about the breach . “I’ve got their profile right in front of me, all their work credentials. It was definitely a person here that was not an employee but certainly had touched our technical services.” On Aug 18, 2015, the Impact Team posted a “Time’s up!” message online, along with links to 60 gigabytes of Ashley Madison user data. The data leak led to the public shaming and extortion of many Ashley Madison users, and to at least two suicides. Many other users lost their jobs or their marriages. To this day, nobody has been charged in the hack, and incredibly Ashley Madison remains a thriving company. The former employee that Biderman undoubtedly had in mind on July 19, 2015 was  William Brewster Harrison , a self-described expert in search engine optimization (SEO) tricks that are designed to help websites increase their rankings for various keywords in Google and other search engines. It is evident that Harrison was Biderman’s top suspect immediately after the breach became public because — in addition to releasing data on 37 million users a month later in August 2015 — the hackers also dumped three years worth of email they stole from Biderman. And Biderman’s inbox is full of messages about hate-filled personal attacks from Harrison. A Native of Northern Virginia, Harrison eventually settled in North Carolina, had a son with his then-wife, and started a fence-building business. ALM hired Harrison in March 2010 to promote its various adult brands online, and it is clear that one of his roles was creating and maintaining female profiles on Ashley Madison, and creating  blogs  that were made to look like they were written by women who’d just joined Ashley Madison. A selfie that William B. Harrison posted to his Facebook page in 2013 shows him holding a handgun and wearing a bulletproof vest. It appears Harrison was working as an affiliate of Ashley Madison prior to his official employment with the company, which suggests that Harrison had already demonstrated he could drive signups to the service and help improve its standing in the search engine rankings. What is less clear is whether anyone at ALM ever performed a basic background check on Harrison before hiring him. Because if they had, the results almost certainly would have given them pause. Virginia prosecutors charged the young 20-something Harrison with a series of misdemeanors, including trespassing, unlawful entry, drunk in public, and making obscene phone calls. In 2008, North Carolina authorities charged Harrison with criminal extortion, a case that was transferred to South Carolina before ultimately being dismissed. In December 2009, Harrison faced charges of  false imprisonment , charges that were also dropped by the local district attorney. By the time Ashley Madison officially  hired him , Harrison’s life was falling apart. His fence business had failed, and he’d just filed for bankruptcy. Also, his marriage had soured, and after a new arrest for driving under the influence, he was in danger of getting divorced, losing access to his son, and/or going to jail. It also seems likely that nobody at ALM bothered to look at the dozens of domain names registered to Harrison’s various Vistomail.com email addresses, because had they done so they likely would have noticed two things. One is that Harrison had a history of creating websites to lambaste companies he didn’t like, or that he believed had slighted him or his family in some way. Some of these websites included content that defamed and doxed executives, such as  bash-a-business[.]com ,  google-your-business[.]com ,  contact-a-ceo[.]com , lowes-is-a-cancer[.]com (according to Harrison, the home improvement chain once employed his wife). A background check on Harrison’s online footprint also would have revealed he was a self-styled rapper who claimed to be an active menace to corporate America. Harrison’s website  lyrical-gangsta[.]com  included a number of works, such as “ Slim Thug — I Run — Remix Spoof ,” which are replete with menacing words for unnamed corporate executives: [HOOK] 
- I surf the net all night n day (the web love thug) 
- cuz I still surf the net all night n day 
- yuhh I type for my mind, got smart for my ego 
- still running circles round them, what’s good? 
- cuz I still surf, the net all night n day, 
- I cant stay away. They don’t make to [sic] many hackers like me 
- bonafide hustler certified G 
- still pumpin’ the TOP 10 results 
- if you got the right dough! 
- think the results are fake? sucka Google ME 
- smarter than executives, bigger then Wal-Mart 
- Nelly strugglin’ with the fact that I’m #1 NOW 
- street boys know me, ain’t nuttin’ new 
- about to make my mill, with an all new crew 
- I-95 execs don’t know what to do, or where to go 
- watchin them stocks evaporate all their dough 
- I already left the hood, got up off the streets 
- its in my blood im a gangsta till Im deceased moving lumber for money or typin’ in a zone 
- all night hackin’ till 6 in the mornin 
- that shit im focusin’ on, stronger then cologne 
- you can prolly smell the jealousy 
- through your LCD screen 
- if you still broke– better work for some green 
- called them Fortune execs on that legal bluff 
- cuz the Feds busy raidin other stuff 
- Imma run the Net til im six feet under 
- I’m a leave my mark — no reason to wonder 
- (Yea Yea) Some of the anti-corporate rhymes busted by Harrison’s hacker/rapper alter ego “Chaos Dog.” Image: Archive.org. The same theme appears in another rap (“The Hacker Backstage”) penned by Harrison’s rapper alter ego — “Chaos Dog:” …this hacker was born to write 
- bust off the rhymes and watch em take flight 
- you know all about them corporate jets 
- and handing out pinkslips without regrets 
- oversized companies are the problem well, I’ve got a solution 
- It’s called good ol’ fashioned retribution 
- file bankruptcy, boycott you like Boston colonists 
- Corporate America cant stop this Eminem style columnist 
- 2pac would have honored my style 
- Im the next generation of hacker inspiration 
- Americans don’t want a corporate nation 
- All that DOW Jones shit is a dying sensation In addition to pimping Ashley Madison with fake profiles and phony user blogs, it appears Harrison also went after the company’s enemies during the brief time he was an employee. As noted in Part I of this story, Harrison used multiple pseudonymous Vistomail.com email addresses to harass the owners of  AshleyMadisonSucks[.]com  into selling or shutting down the site. When the owner of AshleyMadisonSucks[.]com refused to sell the domain, he and his then-girlfriend were subject to an unrelenting campaign of online harassment and blackmail. It now appears those attacks were perpetrated by Harrison, who sent emails from different accounts at the free email service  Vistomail  pretending to be the domain owner, his then-girlfriend and their friends. Harrison even went after the domain owner’s lawyer and wife, listing them both on his Contact-A-CEO[.]com website. Things started going sideways for Ashley Madison when Harrison’s employment contract was terminated in November 2011. The leaked emails do not explain why Harrison was fired, but his mercurial temperament likely played a major role. According to Harrison, it was because he had expressed some moral reservations with certain aspects of his duties, although he was not specific on that point and none of this could be confirmed. Shortly after Harrison was fired, the company’s executives began noticing that  Google  was auto-completing the words “Jew” and “Jewish” whenever someone searched for Biderman’s name. The results returned when one accepted Google’s recommended search at the time filled the first page with links to  Stormfront , a far-right, neo-Nazi hate group. The company strongly suspected someone was using underhanded SEO techniques to slander and attack its CEO. In July 2022, KrebsOnSecurity published  a retrospective on the 2015 Ashley Madison breach  which found that Biderman had become the subject of increasing ire from members of Stormfront and other extremists groups in the years leading up to the hack. According to the neo-Nazi groups, Biderman was a worthy target of their harassment not just because he was a successful Jewish CEO, but also because his company was hellbent on destroying Christian morals and families. Biderman’s leaked emails show that in February 2012 he hired  Brian Cuban  — the attorney brother of  Mark Cuban , the owner of the Dallas Mavericks and one the main “sharks” on the ABC reality television series  Shark Tank . Through Cuban, Ashley Madison appealed their case to both Google and to the Anti-Defamation League, but neither was apparently able or willing to help.  Also in early January 2012, Biderman and other Ashley Madison executives found themselves inundated with anonymous Vistomail.com emails that were replete with profanity and slurs against Jews. Although he used fake names and email addresses, Harrison made little effort to hide his identity in several of these nastygrams. One particularly ugly message from Harrison even included a link to a Youtube video he’d put online of his young son playing basketball for a school team. That Youtube video was included in an email wherein Harrison – then separated from his wife — lamented all the hours he spent working for Ashley Madison up in Canada instead of spending time with his son. Harrison then turned to making threatening phone calls to Ashley Madison executives. In one incident in March 2012, Harrison called the company’s former director of Human Resources using a caller ID spoofing service to make it look like he was calling from inside the building. ALM’s lawyers contacted the Toronto police in response to Harrison’s harassment. “For Will to have disguised his phone number as Mark’s strongly suggest he has hacked my email, legal counsel for the opposing side in a perceived legal dispute,” ALM VP and general counsel  Mike Dacks  wrote in a letter to a detective at the Toronto Police. “Over the months of his many hundreds of emails he alluded a number of times to undertaking cyberattacks against us and this was noted in my original report to police.” Based on the exchanges in Bidernman’s inbox it appears those appeals to the Toronto authorities were successful in having Harrison barred from being able to enter Canada. ALM also contacted a detective in Harrison’s home county in North Carolina. But when the local police paid a visit to Harrison’s home to follow up on the harassment complaints, Harrison fled out his back porch, injuring himself after jumping off the second-story deck. It is unclear if the police ever succeeded in interviewing Harrison in response to the harassment complaints from ALM. The Raleigh police officer contacted by ALM did not respond to requests for information. But the visit from the local cops only seemed to embolden and anger Harrison even more, and Biderman’s emails indicate the harassment continued after this incident. Then in August 2012, the former sex worker turned blogger and activist  Maggie McNeill  published screenshots from an internal system that Ashley Madison used called the “ Human Decoy Interface ,” which was a fancy way of describing a system built to manage phony female accounts on the service. The screenshots appeared to show that a great many female accounts were in fact bots designed to bring in paying customers. Ashley Madison was always free to join, but users had to pay if they wished to chat directly with other users. Although Harrison had been fired nearly a year earlier, Biderman’s leaked emails show that Harrison’s access to Ashley Madison’s internal tools wasn’t revoked until after the screenshots were posted online and the company began reviewing which employee accounts had access to the Human Decoy Interface. “Who or what is  asdfdfsda@asdf.com ?,” Biderman asked, after being sent a list of nine email addresses. “It appears to be the email address Will used for his profiles,” the IT director replied. “And his access was never shut off until today?,” asked the company’s general counsel Mike Dacks. Biderman’s leaked emails suggest that Harrison stopped his harassment campaign sometime after 2012. A decade later, KrebsOnSecurity sought to track down and interview Harrison. Finding nobody at his former addresses and phone numbers in North Carolina, KrebsOnSecurity wound up speaking with Will’s stepmother, who lives with Will’s dad in Northern Virginia and asked that her name not be used in this story. Will’s stepmom quickly dropped two big truth bombs after patiently listening to my spiel about why I was calling and looking for Mr. Harrison. The first was that Will was brought up Jewish, although he did not practice the faith: A local rabbi and friend of the family gave the service at Will’s funeral in 2014. She also shared that her stepson had killed himself in 2014, shooting himself in the head with a handgun. Will’s mother discovered his body. “Will committed suicide in March 2014,” Will’s stepmother shared. “I’ve heard all those stories you just mentioned. Will was severely mentally ill. He was probably as close to a sociopath as I can imagine anyone being. He was also a paranoid schizophrenic who wouldn’t take his medication.” William B. Harrison died on March 5, 2014,  nearly 16 months before The Impact Team announced they’d hacked Ashley Madison . Will’s stepmom said she constantly felt physically threatened when Will was around. But she had trouble believing that her stepson was a raging anti-Semite. She also said she thought the timing of Will’s suicide effectively ruled him out as a suspect in the 2015 Ashley Madison hack. “Considering the date of death, I’m not sure if he’s your guy,” she offered toward the end of our conversation. [There is one silver lining to Will Harrison’s otherwise sad tale: His widow has since remarried, and her new husband agreed to adopt their son as his own.] Does Harrison’s untimely death rule him out as a suspect, as his stepmom suggested? This remains an open question. In  a parting email to Biderman in late 2012 , Harrison signed his real name and said he was leaving, but not going away. “So good luck, I’m sure we’ll talk again soon, but for now, I’ve got better things in the oven,” Harrison wrote. “Just remember I outsmarted you last time and I will outsmart you and out maneuver you this time too, by keeping myself far far away from the action and just enjoying the sideline view, cheering for the opposition.” Nothing in the leaked Biderman emails suggests that Ashley Madison did much to revamp the security of its computer systems in the wake of Harrison’s departure and subsequent campaign of harassment — apart from removing an administrator account of his a year after he’d already left the company. KrebsOnSecurity found nothing in Harrison’s extensive domain history suggesting he had any real malicious hacking skills. But given the clientele that typically employed his skills — the adult entertainment industry — it seems likely Harrison was at least conversant in the dark arts of “Black SEO,” which involves using underhanded or else downright illegal methods to game search engine results. Armed with such experience, it would not have been difficult for Harrison to have worked out a way to maintain access to working administrator accounts at Ashley Madison. If that in fact did happen, it would have been trivial for him to sell or give those credentials to someone else. Or to  something  else. Like Nazi groups. As KrebsOnSecurity reported last year, in the six months leading up to the July 2015 hack, Ashley Madison and Biderman became a frequent subject of derision across multiple neo-Nazi websites. On Jan. 14, 2015, a member of the neo-Nazi forum Stormfront posted a lively thread about Ashley Madison in the general discussion area titled, “Jewish owned dating website promoting adultery.” On July 3, 2015,  Andrew Anglin , the editor of the alt-right publication  Daily Stormer , posted excerpts about Biderman from a story titled, “Jewish Hyper-Sexualization of Western Culture,” which referred to Biderman as the “Jewish King of Infidelity.” On July 10, a mocking montage of Biderman photos with racist captions was posted to the extremist website  Vanguard News Network , as part of a thread called “Jews normalize sexual perversion.” Some readers have suggested that the data leaked by the Impact Team could have originally been stolen by Harrison. But that timeline does not add up given what we know about the hack. For one thing, the financial transaction records leaked from Ashley Madison show charges up until mid-2015. Also, the final message in the archive of Biderman’s stolen emails was dated July 7, 2015 — almost two weeks before the Impact Team would announce their hack. Whoever hacked Ashley Madison clearly wanted to disrupt the company as a business, and disgrace its CEO as the endgame. The Impact Team’s intrusion struck just as Ashley Madison’s parent was preparing go public with an initial public offering (IPO) for investors. Also, the hackers stated that while they stole all employee emails, they were only interested in leaking Biderman’s. Also, the Impact Team had to know that ALM would never comply with their demands to dismantle Ashley Madison and Established Men. In 2014, ALM reported revenues of $115 million. There was little chance the company was going to shut down some of its biggest money machines. Hence, it appears the Impact Team’s goal all along was to create prodigious amounts of drama and tension by announcing the hack of a major cheating website, and then let that drama play out over the next few months as millions of exposed Ashley Madison users freaked out and  became the targets of extortion attacks and public shaming . After the Impact Team released Biderman’s email archives, several media outlets pounced on salacious exchanges in those messages as supposed proof he had carried on multiple affairs. Biderman resigned as CEO of Ashley Madison on Aug. 28, 2015. Complicating things further, it appears more than one malicious party may have gained access to Ashley’s Madison’s network in 2015 or possibly earlier. Cyber intelligence firm  Intel 471  recorded a series of posts by a user with the handle “ Brutium ” on the Russian-language cybercrime forum  Antichat  between 2014 and 2016. Brutium routinely advertised the sale of large, hacked databases, and on Jan. 24, 2015, this user posted a thread offering to sell data on 32 million Ashley Madison users. However, there is no indication whether anyone purchased the information. Brutium’s profile has since been removed from the Antichat forum. I realize this ending may be unsatisfying for many readers, as it is for me. The story I wrote in 2015 about the Ashley Madison hack is still the biggest scoop I’ve published here (in terms of traffic), yet it remains perhaps the single most frustrating investigation I’ve ever pursued. But my hunch is that there is still more to this story that has yet to unfold.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>July 13, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Apple &amp; Microsoft Patch Tuesday, July 2023 Edition</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Microsoft Corp.  today released software updates to quash 130 security bugs in its  Windows  operating systems and related software, including at least five flaws that are already seeing active exploitation. Meanwhile,  Apple  customers have their own zero-day woes again this month: On Monday, Apple issued (and then quickly pulled) an emergency update to fix a zero-day vulnerability that is being exploited on  MacOS  and  iOS  devices.  On July 10, Apple pushed a “Rapid Security Response” update to fix a code execution flaw in the Webkit browser component built into iOS, iPadOS, and macOS Ventura. Almost as soon as the patch went out, Apple pulled the software because it was reportedly causing problems loading certain websites.  MacRumors   says  Apple will likely re-release the patches when the glitches have been addressed. Launched in May, Apple’s Rapid Security Response updates are designed to address time-sensitive vulnerabilities, and this is the second month Apple has used it. July marks the sixth month this year that Apple has released updates for zero-day vulnerabilities — those that get exploited by malware or malcontents before there is an official patch available. If you rely on Apple devices and don’t have automatic updates enabled, please take a moment to check the patch status of your various iDevices. The latest security update that includes the fix for the zero-day bug should be available in  iOS/iPadOS 16.5.1 ,  macOS 13.4.1 , and  Safari 16.5.2 . On the Windows side, there are at least four vulnerabilities patched this month that earned high CVSS (badness) scores and that are already being exploited in active attacks, according to Microsoft. They include  CVE-2023-32049 , which is a hole in  Windows SmartScreen  that lets malware bypass security warning prompts; and  CVE-2023-35311  allows attackers to bypass security features in  Microsoft Outlook . The two other zero-day threats this month for Windows are both privilege escalation flaws.  CVE-2023-32046  affects a core Windows component called MSHTML, which is used by Windows and other applications, like  Office , Outlook and  Skype .  CVE-2023-36874  is an elevation of privilege bug in the  Windows Error Reporting Service . Many security experts expected Microsoft to address a fifth zero-day flaw —  CVE-2023-36884  — a remote code execution weakness in Office and Windows. “Surprisingly, there is no patch yet for one of the five zero-day vulnerabilities,” said  Adam Barnett , lead software engineer at Rapid7. “Microsoft is actively investigating publicly disclosed vulnerability, and promises to update the advisory as soon as further guidance is available.” Barnett notes that Microsoft links exploitation of this vulnerability with  Storm-0978 , the software giant’s name for a cybercriminal group based out of Russia that is identified by the broader security community as  RomCom . “Exploitation of CVE-2023-36884 may lead to installation of the eponymous RomCom trojan or other malware,” Barnett said. “[Microsoft] suggests that RomCom / Storm-0978 is operating in support of Russian intelligence operations. The same threat actor has also been associated with ransomware attacks targeting a wide array of victims.” Microsoft’s  advisory on CVE-2023-36884  is pretty sparse, but it does include a Windows registry hack that should help mitigate attacks on this vulnerability. Microsoft has also published  a blog post  about phishing campaigns tied to Storm-0978 and to the exploitation of this flaw. Barnett said it’s while it’s possible that a patch will be issued as part of next month’s Patch Tuesday, Microsoft Office is deployed just about everywhere, and this threat actor is making waves. “Admins should be ready for an out-of-cycle security update for CVE-2023-36884,” he said.  Microsoft also today released new details about how it plans to address the existential threat of malware that is cryptographically signed by…wait for it….Microsoft. In late 2022, security experts at  Sophos ,  Trend Micro  and  Cisco  warned that ransomware criminals were using signed, malicious drivers in an attempt to evade antivirus and endpoint detection and response (EDR) tools. In a blog post today, Sophos’s  Andrew Brandt   wrote  that Sophos identified 133 malicious Windows driver files that were digitally signed since April 2021, and  found 100 of those were actually signed by Microsoft.  Microsoft  said  today it is taking steps to ensure those malicious driver files can no longer run on Windows computers. As KrebsOnSecurity noted in  last month’s story on malware signing-as-a-service , code-signing certificates are supposed to help authenticate the identity of software publishers, and provide cryptographic assurance that a signed piece of software has not been altered or tampered with. Both of these qualities make stolen or ill-gotten code-signing certificates attractive to cybercriminal groups, who prize their ability to add stealth and longevity to malicious software. Dan Goodin  at  Ars Technica  contends that whatever Microsoft may be doing to keep maliciously signed drivers from running on Windows is being bypassed by hackers using open source software that is popular with video game cheaters. “The software comes in the form of two software tools that are available on GitHub,” Goodin  explained . “Cheaters use them to digitally sign malicious system drivers so they can modify video games in ways that give the player an unfair advantage. The drivers clear the considerable hurdle required for the cheat code to run inside the Windows kernel, the fortified layer of the operating system reserved for the most critical and sensitive functions.” Meanwhile, researchers at Cisco’s Talos security team found multiple Chinese-speaking threat groups have repurposed the tools—one apparently called “HookSignTool” and the other “FuckCertVerifyTimeValidity.” “Instead of using the kernel access for cheating, the threat actors use it to give their malware capabilities it wouldn’t otherwise have,” Goodin said. For a closer look at the patches released by Microsoft today, check out the  always-thorough Patch Tuesday roundup  from the  SANS Internet Storm Center . And it’s not a bad idea to hold off updating for a few days until Microsoft works out any kinks in the updates:  AskWoody.com  usually has the lowdown on any patches that may be causing problems for Windows users. And as ever, please consider backing up your system or at least your important documents and data before applying system updates. If you encounter any problems with these updates, please drop a note about it here in the comments.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>July 11, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Top Suspect in 2015 Ashley Madison Hack Committed Suicide in 2014</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>When the marital infidelity website  AshleyMadison.com  learned in July 2015 that hackers were threatening to publish data stolen from 37 million users, the company’s then-CEO  Noel Biderman  was quick to point the finger at an unnamed former contractor. But as a new documentary series on  Hulu  reveals [ SPOILER ALERT! ], there was just one problem with that theory: Their top suspect had killed himself more than a year before the hackers began publishing stolen user data. The new documentary,  The Ashley Madison Affair , begins airing today on Hulu in the United States and on  Disney+  in the United Kingdom. The series features interviews with security experts and journalists, Ashley Madison executives, victims of the breach and jilted spouses.  The series also touches on shocking new details unearthed by KrebsOnSecurity and  Jeremy Bullock , a data scientist who worked with the show’s producers at the Warner Bros. production company Wall to Wall Media. Bullock had spent many hours poring over the hundreds of thousands of emails that the Ashley Madison hackers stole from Biderman and published online in 2015. Wall to Wall reached out in July 2022 about collaborating with Bullock after KrebsOnSecurity published  A Retrospective on the 2015 Ashley Madison Breach . That piece explored how Biderman — who is Jewish — had become the target of concerted harassment campaigns by anti-Semitic and far-right groups online in the months leading up to the hack. Whoever hacked Ashley Madison had access to all employee emails, but they only released Biderman’s messages — three years worth. Apropos of my retrospective report, Bullock found that a great many messages in Biderman’s inbox were belligerent and anti-Semitic screeds from a former Ashley Madison employee named  William Brewster Harrison . William Harrison’s employment contract with Ashley Madison parent Avid Life Media. The messages show that Harrison was hired in March 2010 to help promote Ashley Madison online, but the messages also reveal Harrison was heavily involved in helping to create and cultivate phony female accounts on the service. There is evidence to suggest that in 2010 Harrison was directed to harass the owner of  Ashleymadisonsucks.com  into closing the site or selling the domain to Ashley Madison. Ashley Madison’s parent company — Toronto-based  Avid Life Media  — filed a trademark infringement complaint in 2010 that succeeded in revealing a man named  Dennis Bradshaw  as the owner. But after being informed that Bradshaw was not subject to Canadian trademark laws, Avid Life offered to buy AshleyMadisonSucks.com for $10,000. When Bradshaw refused to sell the domain, he and his then-girlfriend were subject to an unrelenting campaign of online harassment and blackmail. It now appears those attacks were perpetrated by Harrison, who sent emails from different accounts at the free email service  Vistomail  pretending to be Bradshaw, his then-girlfriend and their friends. [As the documentary points out, the domain AshleyMadisonSucks.com was eventually transferred to Ashley Madison, which then shrewdly used it for advertising and to help debunk theories about why its service was supposedly untrustworthy]. Harrison even went after Bradshaw’s lawyer and wife, listing them both on a website he created called  Contact-a-CEO[.]com , which Harrison used to besmirch the name of major companies — including several past employers — all entities he believed had slighted him or his family in some way. The site also claimed to include the names, addresses and phone numbers of top CEOs. A cached copy of Harrison’s website, contact-the-ceo.com. An exhaustive analysis of domains registered to the various Vistomail pseudonyms used by Harrison shows he also ran  Bash-a-Business[.]com , which Harrison dedicated to “all those sorry ass corporate executives out there profiting from your hard work, organs, lives, ideas, intelligence, and wallets.” Copies of the site at archive.org show it was the work of someone calling themselves “ The Chaos Creator .” Will Harrison was terminated as an Ashley Madison employee in November 2011, and by early 2012 he’d turned his considerable harassment skills squarely against the company. Ashley Madison’s long-suspected army of fake female accounts came to the fore in August 2012 after the former sex worker turned activist and blogger  Maggie McNeill   published screenshots  apparently taken from Ashley Madison’s internal systems suggesting that a large percentage of the female accounts on the service were computer-operated bots. Ashley Madison’s executives understood that only a handful of employees at the time would have had access to the systems needed to produce the screenshots McNeill published online. In one exchange on Aug. 16, 2012, Ashley Madison’s director of IT was asked to produce a list of all company employees with all-powerful administrator access. “Who or what is  asdfdfsda@asdf.com ?,” Biderman asked, after being sent a list of nine email addresses. “It appears to be the email address Will used for his profiles,” the IT director replied. “And his access was never shut off until today?,” asked the company’s general counsel Mike Dacks. A Biderman email from 2012. What prompted the data scientist Bullock to reach out were gobs of anti-Semitic diatribes from Harrison, who had taken to labeling Biderman and others “greedy Jew bastards.” “So good luck, I’m sure we’ll talk again soon, but for now, Ive got better things in the oven,” Harrison wrote to Biderman after his employment contract with Ashley Madison was terminated. “Just remember I outsmarted you last time and I will outsmart and out maneuver you this time too, by keeping myself far far away from the action and just enjoying the sideline view, cheering for the opposition.” A 2012 email from William Harrison to former Ashley Madison CEO Noel Biderman. Harrison signed his threatening missive with the salutation, “We are legion,” suggesting that whatever comeuppance he had in store for Ashley Madison would come from a variety of directions and anonymous hackers. The leaked Biderman emails show that Harrison made good on his threats, and that in the months that followed Harrison began targeting Biderman and other Ashley Madison executives with menacing anonymous emails and spoofed phone calls laced with profanity and anti-Semitic language. But on Mar. 5, 2014, Harrison committed suicide by shooting himself in the head with a handgun. This fact was apparently unknown to Biderman and other Ashley Madison executives more than a year later when their July 2015 hack was first revealed. Does Harrison’s untimely suicide rule him out as a suspect in the 2015 hack? Who is The Chaos Creator, and what else transpired between Harrison and Ashley Madison prior to his death? We’ll explore these questions in Part II of this story, to be published early next week.</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>July 7, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Russian Cybersecurity Executive Arrested for Alleged Role in 2012 Megahacks</t>
+          <t>No title</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nikita Kislitsin , formerly the head of network security for one of Russia’s top cybersecurity firms, was arrested last week in Kazakhstan in response to 10-year-old hacking charges from the U.S. Department of Justice. Experts say Kislitsin’s prosecution could soon put the Kazakhstan government in a sticky diplomatic position, as the Kremlin is already signaling that it intends to block his extradition to the United States. Nikita Kislitsin, at a security conference in Russia. Kislitsin is accused of hacking into the now-defunct social networking site  Formspring  in 2012, and conspiring with another Russian man convicted of stealing tens of millions of usernames and passwords from  LinkedIn  and  Dropbox  that same year. In March 2020, the DOJ unsealed two criminal hacking indictments against Kislitsin, who was then head of security at  Group-IB , a cybersecurity company that was founded in Russia in 2003 and operated there for more than a decade before relocating to Singapore. Prosecutors in Northern California indicted Kislitsin in 2014 for his alleged role in stealing account data from Formspring. Kislitsin also was indicted in Nevada in 2013, but the Nevada indictment does not name his alleged victim(s) in that case. However, documents unsealed in the California case indicate Kislitsin allegedly conspired with  Yevgeniy Nikulin , a Russian man  convicted in 2020  of stealing 117 million usernames and passwords from Dropbox, Formspring and LinkedIn in 2012. Nikulin is currently serving a seven-year sentence in the U.S. prison system. As first reported by  Cyberscoop  in 2020,  a trial brief  in the California investigation identified Nikulin, Kislitsin and two alleged cybercriminals —  Oleg Tolstikh  and  Oleksandr Vitalyevich Ieremenko  — as being present during a 2012 meeting at a Moscow hotel, where participants allegedly discussed starting an internet café business. A 2010 indictment out of New Jersey accuses Ieremenko and six others with siphoning nonpublic information from the  U.S. Securities &amp; Exchange Commission  (SEC) and public relations firms, and making $30 million in illegal stock trades based on the proprietary information they stole. [The  U.S. Secret Service  has  an outstanding $1 million reward  for information leading to the arrest of Ieremenko (Александр Витальевич Еременко), who allegedly went by the hacker handles “ Zl0m ” and “ Lamarez .”] Kislitsin was hired by Group-IB in January 2013, nearly six months after the Formspring hack. Group-IB has since moved its headquarters to Singapore, and in April 2023 the company announced it had fully exited the Russian market. In a statement provided to KrebsOnSecurity, Group-IB said Mr. Kislitsin is no longer an employee, and that he now works for a Russian organization called  FACCT , which stands for “ Fight Against Cybercrime Technologies .” “Dmitry Volkov, co-founder and CEO, sold his stake in Group-IB’s Russia-based business to the company’s local management,” the statement reads. “The stand-alone business in Russia has been operating under the new brand FACCT ever since and will continue to operate as a separate company with no connection to Group-IB.” FACCT says on its website that it is a “Russian developer of technologies for combating cybercrime,” and that it works with clients to fight targeted attacks, data leaks, fraud, phishing and brand abuse. In a statement  published online , FACCT said Kislitsin is responsible for developing its network security business, and that he remains under temporary detention in Kazakhstan “to study the basis for extradition arrest at the request of the United States.” “According to the information we have, the claims against Kislitsin are not related to his work at FACCT, but are related to a case more than 10 years ago when Nikita worked as a journalist and independent researcher,” FACCT wrote. From 2006 to 2012, Kislitsin was editor-in-chief of “ Hacker ,” a popular Russian-language monthly magazine that includes articles on information and network security, programming, and frequently features interviews with and articles penned by notable or wanted Russian hackers. “We are convinced that there are no legal grounds for detention on the territory of Kazakhstan,” the FACCT statement continued. “The company has hired lawyers who have been providing Nikita with all the necessary assistance since last week, and we have also sent an appeal to the Consulate General of the Russian Federation in Kazakhstan to assist in protecting our employee.” FACCT indicated that the Kremlin has already intervened in the case, and the Russian government claims Kislitsin is wanted on criminal charges in Russia and must instead be repatriated to his homeland. “The FACCT emphasizes that the announcement of Nikita Kislitsin on the wanted list in the territory of the Russian Federation became known only today, June 28, 6 days after the arrest in Kazakhstan,” FACCT wrote. “The company is monitoring developments.” The Kremlin followed a similar playbook in the case of  Aleksei Burkov , a cybercriminal who long operated two of Russia’s most exclusive underground hacking forums. Burkov was arrested in 2015 by Israeli authorities, and the Russian government fought Burkov’s extradition to the U.S. for four years — even arresting and jailing an Israeli woman on phony drug charges to force a prisoner swap. That effort ultimately failed: Burkov was  sent to America ,  pleaded guilty , and was  sentenced to nine years in prison . Alexei Burkov, seated second from right, attends a hearing in Jerusalem in 2015. Image: Andrei Shirokov / Tass via Getty Images. Arkady Bukh  is a U.S. attorney who has represented dozens of accused hackers from Russia and Eastern Europe who were extradited to the United States over the years. Bukh said Moscow is likely to turn the Kislitsin case into a diplomatic time bomb for Kazakhstan, which shares an enormous border and a great deal of cultural ties with Russia. A 2009 census found that Russians make up about 24 percent of the population of Kazakhstan. “That would put Kazakhstan at a crossroads to choose between unity with Russia or going with the West,” Bukh said. “If that happens, Kazakhstan may have to make some very unpleasant decisions.” Group-IB’s exodus from Russia comes as its former founder and CEO  Ilya Sachkov  remains languishing in a Russian prison,  awaiting a farcical trial and an inevitable conviction  on charges of treason. In September 2021, the Kremlin issued treason charges against Sachkov, although it has so far refused to disclose any details about the allegations. Sachkov’s pending treason trial has been the subject of much speculation among denizens of Russian cybercrime forums, and the consensus seems to be that Sachkov and Group-IB were seen as a little too helpful to the DOJ in its various investigations involving top Russian hackers. Indeed, since its inception in 2003, Group-IB’s researchers have helped to  identify ,  disrupt  and even  catch  a number of high-profile Russian hackers, most of whom got busted after years of criminal hacking because they made the unforgivable mistake of stealing from their own citizens. When the indictments against Kislitsin were unsealed in 2020, Group-IB issued a lengthy statement attesting to his character and saying they would help him with his legal defense. As part of that statement, Group-IB noted that “representatives of the Group-IB company and, in particular, Kislitsin, in 2013, on their own initiative, met with employees of the US Department of Justice to inform them about the research work related to the underground, which was carried out by Kislitsin in 2012.”</t>
+          <t>No content</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>June 29, 2023</t>
+          <t>No date</t>
         </is>
       </c>
     </row>
